--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356392860413</t>
+    <t xml:space="preserve">1.20356404781342</t>
   </si>
   <si>
     <t xml:space="preserve">US.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20143187046051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17478096485138</t>
+    <t xml:space="preserve">1.2014319896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17478084564209</t>
   </si>
   <si>
     <t xml:space="preserve">1.15346002578735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13746917247772</t>
+    <t xml:space="preserve">1.13746929168701</t>
   </si>
   <si>
     <t xml:space="preserve">1.14066755771637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15452599525452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16092216968536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1129504442215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08949732780457</t>
+    <t xml:space="preserve">1.15452587604523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16092228889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11295032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08949720859528</t>
   </si>
   <si>
     <t xml:space="preserve">1.07030832767487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04578948020935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08523309230804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09482753276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07137453556061</t>
+    <t xml:space="preserve">1.04578959941864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08523297309875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09482741355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07137477397919</t>
   </si>
   <si>
     <t xml:space="preserve">1.06817638874054</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">1.01274216175079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03832709789276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01700639724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984492003917694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954642772674561</t>
+    <t xml:space="preserve">1.03832733631134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01700627803802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984491884708405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954642713069916</t>
   </si>
   <si>
     <t xml:space="preserve">0.957840800285339</t>
@@ -113,31 +113,31 @@
     <t xml:space="preserve">0.921062409877777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86882609128952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840575933456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888547956943512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82671731710434</t>
+    <t xml:space="preserve">0.868826150894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840575993061066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888547897338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826717436313629</t>
   </si>
   <si>
     <t xml:space="preserve">0.917864143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972232282161713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960505843162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99035519361496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98289293050766</t>
+    <t xml:space="preserve">0.972232341766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505902767181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990355134010315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982892870903015</t>
   </si>
   <si>
     <t xml:space="preserve">0.970100343227386</t>
@@ -146,22 +146,22 @@
     <t xml:space="preserve">0.99994957447052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97916179895401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971166491508484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988756060600281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01114308834076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01007699966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03726100921631</t>
+    <t xml:space="preserve">0.979161620140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971166372299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988756239414215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01114296913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01007688045502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0372611284256</t>
   </si>
   <si>
     <t xml:space="preserve">1.0617800951004</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">1.04685544967651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03566193580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0031476020813</t>
+    <t xml:space="preserve">1.03566205501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00314772129059</t>
   </si>
   <si>
     <t xml:space="preserve">1.01913833618164</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">1.07777082920074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08203494548798</t>
+    <t xml:space="preserve">1.08203506469727</t>
   </si>
   <si>
     <t xml:space="preserve">1.07244062423706</t>
@@ -200,19 +200,19 @@
     <t xml:space="preserve">1.07990288734436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08843123912811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07670485973358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06604444980621</t>
+    <t xml:space="preserve">1.08843111991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07670474052429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06604433059692</t>
   </si>
   <si>
     <t xml:space="preserve">1.0862991809845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04365730285645</t>
+    <t xml:space="preserve">1.04365742206573</t>
   </si>
   <si>
     <t xml:space="preserve">1.049520611763</t>
@@ -224,61 +224,61 @@
     <t xml:space="preserve">1.07457268238068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05804884433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02926576137543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07883667945862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09269547462463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09376156330109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09695959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04845452308655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04259133338928</t>
+    <t xml:space="preserve">1.05804908275604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02926564216614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0788369178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09269535541534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0937614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09695971012115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04845464229584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04259145259857</t>
   </si>
   <si>
     <t xml:space="preserve">1.03299689292908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01594018936157</t>
+    <t xml:space="preserve">1.01594030857086</t>
   </si>
   <si>
     <t xml:space="preserve">1.00154864788055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976496577262878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970633149147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980760753154755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986090838909149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984930813312531</t>
+    <t xml:space="preserve">0.976496636867523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970633447170258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980760812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986090958118439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984930872917175</t>
   </si>
   <si>
     <t xml:space="preserve">1.00581276416779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03829562664032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03365552425385</t>
+    <t xml:space="preserve">1.03829598426819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03365528583527</t>
   </si>
   <si>
     <t xml:space="preserve">1.04409635066986</t>
@@ -290,52 +290,52 @@
     <t xml:space="preserve">1.02437460422516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03133523464203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993631720542908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993051588535309</t>
+    <t xml:space="preserve">1.03133511543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993631839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993051767349243</t>
   </si>
   <si>
     <t xml:space="preserve">0.999432384967804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998272120952606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98203057050705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933306038379669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901983201503754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871240377426147</t>
+    <t xml:space="preserve">0.998271942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982030510902405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933306217193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901983141899109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871240317821503</t>
   </si>
   <si>
     <t xml:space="preserve">0.861379444599152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834116995334625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871820449829102</t>
+    <t xml:space="preserve">0.83411705493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871820509433746</t>
   </si>
   <si>
     <t xml:space="preserve">0.909523963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91474437713623</t>
+    <t xml:space="preserve">0.914744436740875</t>
   </si>
   <si>
     <t xml:space="preserve">0.912424266338348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951287746429443</t>
+    <t xml:space="preserve">0.951287686824799</t>
   </si>
   <si>
     <t xml:space="preserve">0.851518630981445</t>
@@ -344,88 +344,88 @@
     <t xml:space="preserve">0.80279403924942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825996220111847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792933225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.781332075595856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813234984874725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791193008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756389796733856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733187735080719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730867385864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802214086055756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819615662097931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850938618183136</t>
+    <t xml:space="preserve">0.825996279716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792933166027069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7813321352005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813235104084015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.791193068027496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756389856338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733187615871429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730867505073547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802214026451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819615602493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850938439369202</t>
   </si>
   <si>
     <t xml:space="preserve">0.824256062507629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850358366966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866599977016449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847458183765411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849198281764984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854418873786926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842237770557404</t>
+    <t xml:space="preserve">0.850358426570892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866599917411804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847458124160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849198460578918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854418933391571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842237651348114</t>
   </si>
   <si>
     <t xml:space="preserve">0.852678716182709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857319176197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876460909843445</t>
+    <t xml:space="preserve">0.857319056987762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87646096944809</t>
   </si>
   <si>
     <t xml:space="preserve">0.870080351829529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.856739103794098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494946479797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826576352119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824836015701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846878230571747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879361152648926</t>
+    <t xml:space="preserve">0.856739044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826576232910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824836254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846878170967102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879361271858215</t>
   </si>
   <si>
     <t xml:space="preserve">0.888062059879303</t>
@@ -440,79 +440,79 @@
     <t xml:space="preserve">0.887481868267059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854998826980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828896582126617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84803831577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835277140140533</t>
+    <t xml:space="preserve">0.85499894618988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828896462917328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848038256168365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837597370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835277080535889</t>
   </si>
   <si>
     <t xml:space="preserve">0.82077568769455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.852098762989044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340075016022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865439772605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882841408252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8973428606987</t>
+    <t xml:space="preserve">0.85209858417511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865439832210541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882841527462006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897342920303345</t>
   </si>
   <si>
     <t xml:space="preserve">0.910683989524841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910104036331177</t>
+    <t xml:space="preserve">0.910103917121887</t>
   </si>
   <si>
     <t xml:space="preserve">0.881101310253143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834697008132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842817723751068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827736496925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839917361736298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219538211823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874720692634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881681501865387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907783806324005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939686596393585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949547708034515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960568606853485</t>
+    <t xml:space="preserve">0.834697067737579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842817783355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827736377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839917480945587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219419002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874720752239227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881681382656097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907783687114716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939686715602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949547529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960568785667419</t>
   </si>
   <si>
     <t xml:space="preserve">0.980870544910431</t>
@@ -521,34 +521,34 @@
     <t xml:space="preserve">0.997111856937408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00929319858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00871300697327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00175249576569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972169756889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969849586486816</t>
+    <t xml:space="preserve">1.00929307937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00871312618256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0017523765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972169697284698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969849526882172</t>
   </si>
   <si>
     <t xml:space="preserve">0.947227358818054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976230084896088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979130387306213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97391003370285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997691988945007</t>
+    <t xml:space="preserve">0.976230025291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979130268096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973909854888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997692167758942</t>
   </si>
   <si>
     <t xml:space="preserve">1.0371356010437</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">1.0580176115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06613850593567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05685758590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02089428901672</t>
+    <t xml:space="preserve">1.06613838672638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05685770511627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02089405059814</t>
   </si>
   <si>
     <t xml:space="preserve">1.03945589065552</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">1.00117230415344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02611470222473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05337727069855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04583656787872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05743753910065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09920156002045</t>
+    <t xml:space="preserve">1.02611482143402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05337715148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04583644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05743765830994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09920132160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.1485059261322</t>
@@ -599,58 +599,58 @@
     <t xml:space="preserve">1.16590762138367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16126728057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1705482006073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18214905261993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17170822620392</t>
+    <t xml:space="preserve">1.16126716136932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17054808139801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18214917182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17170810699463</t>
   </si>
   <si>
     <t xml:space="preserve">1.18330919742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18678939342499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17750859260559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18794965744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17402827739716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.190269947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19491040706635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20071065425873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22507297992706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23783433437347</t>
+    <t xml:space="preserve">1.18678963184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17750871181488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1879495382309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17402839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19026982784271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19491028785706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20071089267731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22507309913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23783421516418</t>
   </si>
   <si>
     <t xml:space="preserve">1.23551404476166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22855341434479</t>
+    <t xml:space="preserve">1.22855353355408</t>
   </si>
   <si>
     <t xml:space="preserve">1.21231174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20419108867645</t>
+    <t xml:space="preserve">1.20419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">1.21695244312286</t>
@@ -659,16 +659,16 @@
     <t xml:space="preserve">1.18098902702332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20651137828827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1693879365921</t>
+    <t xml:space="preserve">1.20651125907898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16938781738281</t>
   </si>
   <si>
     <t xml:space="preserve">1.15952694416046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15372633934021</t>
+    <t xml:space="preserve">1.1537264585495</t>
   </si>
   <si>
     <t xml:space="preserve">1.16822779178619</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">1.19259011745453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2088315486908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18910980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13400459289551</t>
+    <t xml:space="preserve">1.20883166790009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1891096830368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1340047121048</t>
   </si>
   <si>
     <t xml:space="preserve">1.11718308925629</t>
@@ -698,19 +698,19 @@
     <t xml:space="preserve">1.13226449489594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15198636054993</t>
+    <t xml:space="preserve">1.15198624134064</t>
   </si>
   <si>
     <t xml:space="preserve">1.10732221603394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10442197322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09804129600525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10210168361664</t>
+    <t xml:space="preserve">1.10442209243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09804141521454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10210156440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.09050059318542</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">1.15604674816132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15894687175751</t>
+    <t xml:space="preserve">1.1589469909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.16010713577271</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">1.16706776618958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15662670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13980519771576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19375026226044</t>
+    <t xml:space="preserve">1.15662658214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13980507850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19375002384186</t>
   </si>
   <si>
     <t xml:space="preserve">1.17866885662079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19142985343933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19955062866211</t>
+    <t xml:space="preserve">1.19142997264862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1995507478714</t>
   </si>
   <si>
     <t xml:space="preserve">1.20187091827393</t>
@@ -758,28 +758,28 @@
     <t xml:space="preserve">1.21811234951019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19723033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20303094387054</t>
+    <t xml:space="preserve">1.19723045825958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20303106307983</t>
   </si>
   <si>
     <t xml:space="preserve">1.19607043266296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17286825180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14560580253601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23087358474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22391283512115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667407035828</t>
+    <t xml:space="preserve">1.17286813259125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14560568332672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23087346553802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22391295433044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667418956757</t>
   </si>
   <si>
     <t xml:space="preserve">1.25871622562408</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">1.27147722244263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26451683044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27959823608398</t>
+    <t xml:space="preserve">1.26451671123505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27959811687469</t>
   </si>
   <si>
     <t xml:space="preserve">1.29467952251434</t>
@@ -803,64 +803,64 @@
     <t xml:space="preserve">1.25639581680298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799714565277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24711501598358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25175559520721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2720742225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28192567825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29547154903412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28438866138458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27700006961823</t>
+    <t xml:space="preserve">1.26799702644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24711513519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25175547599792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27207434177399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28192579746246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29547166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28438854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27699995040894</t>
   </si>
   <si>
     <t xml:space="preserve">1.23636257648468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23759400844574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24128842353821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24375116825104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21912240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20803952217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19572520256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22527956962585</t>
+    <t xml:space="preserve">1.23759412765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24128830432892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24375128746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21912252902985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2080397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19572532176971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22527968883514</t>
   </si>
   <si>
     <t xml:space="preserve">1.21727538108826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22712683677673</t>
+    <t xml:space="preserve">1.22712695598602</t>
   </si>
   <si>
     <t xml:space="preserve">1.21481251716614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19141495227814</t>
+    <t xml:space="preserve">1.19141519069672</t>
   </si>
   <si>
     <t xml:space="preserve">1.19449377059937</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">1.2178909778595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20249795913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22404813766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19634079933167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20372951030731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22035384178162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22096979618073</t>
+    <t xml:space="preserve">1.20249819755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22404825687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19634091854095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2037296295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22035396099091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22096967697144</t>
   </si>
   <si>
     <t xml:space="preserve">1.176638007164</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">1.1994194984436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20434510707855</t>
+    <t xml:space="preserve">1.20434534549713</t>
   </si>
   <si>
     <t xml:space="preserve">1.23143684864044</t>
@@ -917,28 +917,28 @@
     <t xml:space="preserve">1.20680820941925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18525791168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20003521442413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19203078746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20496106147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21665954589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2265111207962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23882555961609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24251985549927</t>
+    <t xml:space="preserve">1.18525803089142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20003533363342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19203090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20496094226837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21665966510773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22651100158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2388254404068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24251961708069</t>
   </si>
   <si>
     <t xml:space="preserve">1.23513126373291</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">1.18833649158478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19818806648254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20065104961395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18772077560425</t>
+    <t xml:space="preserve">1.19818818569183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20065093040466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18772089481354</t>
   </si>
   <si>
     <t xml:space="preserve">1.1907993555069</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">1.1889523267746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18587362766266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17355930805206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17602217197418</t>
+    <t xml:space="preserve">1.18587374687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17355942726135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17602205276489</t>
   </si>
   <si>
     <t xml:space="preserve">1.17417502403259</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">1.19387805461884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17910087108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555500030518</t>
+    <t xml:space="preserve">1.17910075187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16555488109589</t>
   </si>
   <si>
     <t xml:space="preserve">1.16001355648041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16186058521271</t>
+    <t xml:space="preserve">1.161860704422</t>
   </si>
   <si>
     <t xml:space="preserve">1.15324068069458</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">1.20865535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18341076374054</t>
+    <t xml:space="preserve">1.18341088294983</t>
   </si>
   <si>
     <t xml:space="preserve">1.1784850358963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19757235050201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2222011089325</t>
+    <t xml:space="preserve">1.19757223129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22220098972321</t>
   </si>
   <si>
     <t xml:space="preserve">1.20742380619049</t>
@@ -1016,16 +1016,16 @@
     <t xml:space="preserve">1.20619237422943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21542811393738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21050238609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19880378246307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21419656276703</t>
+    <t xml:space="preserve">1.21542799472809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21050250530243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19880366325378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21419680118561</t>
   </si>
   <si>
     <t xml:space="preserve">1.23020541667938</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">1.15693485736847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16124498844147</t>
+    <t xml:space="preserve">1.16124486923218</t>
   </si>
   <si>
     <t xml:space="preserve">1.13600051403046</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">1.16740214824677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16986489295959</t>
+    <t xml:space="preserve">1.16986501216888</t>
   </si>
   <si>
     <t xml:space="preserve">1.16309213638306</t>
@@ -1061,22 +1061,22 @@
     <t xml:space="preserve">1.16493916511536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16801774501801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17171216011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16863346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18156373500824</t>
+    <t xml:space="preserve">1.16801786422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17171204090118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16863369941711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18156361579895</t>
   </si>
   <si>
     <t xml:space="preserve">1.21296536922455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21111822128296</t>
+    <t xml:space="preserve">1.21111810207367</t>
   </si>
   <si>
     <t xml:space="preserve">1.20927095413208</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">1.2160439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25237119197845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26222264766693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24867713451385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729703903198</t>
+    <t xml:space="preserve">1.25237143039703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26222276687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24867689609528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729691982269</t>
   </si>
   <si>
     <t xml:space="preserve">1.26468563079834</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">1.2659170627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28561997413635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30162870883942</t>
+    <t xml:space="preserve">1.28562021255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30162882804871</t>
   </si>
   <si>
     <t xml:space="preserve">1.30532288551331</t>
@@ -1115,49 +1115,49 @@
     <t xml:space="preserve">1.29177737236023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28131008148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26653289794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24990832805634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25606548786163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22189331054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23328399658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2308212518692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20465314388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944115638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24621403217316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23820960521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21265745162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22066164016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21973824501038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2181990146637</t>
+    <t xml:space="preserve">1.28131020069122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26653277873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24990844726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25606560707092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22189319133759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23328411579132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23082113265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20465326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944127559662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24621427059174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23820972442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21265757083893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22066187858582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2197380065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21819889545441</t>
   </si>
   <si>
     <t xml:space="preserve">1.21512031555176</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">1.18987596035004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18433439731598</t>
+    <t xml:space="preserve">1.18433427810669</t>
   </si>
   <si>
     <t xml:space="preserve">1.19788014888763</t>
@@ -1175,67 +1175,67 @@
     <t xml:space="preserve">1.21081030368805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21019470691681</t>
+    <t xml:space="preserve">1.21019458770752</t>
   </si>
   <si>
     <t xml:space="preserve">1.20095872879028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110727310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18310284614563</t>
+    <t xml:space="preserve">1.1911073923111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18310296535492</t>
   </si>
   <si>
     <t xml:space="preserve">1.18464231491089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19018363952637</t>
+    <t xml:space="preserve">1.19018375873566</t>
   </si>
   <si>
     <t xml:space="preserve">1.20219016075134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20650029182434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26406979560852</t>
+    <t xml:space="preserve">1.20650017261505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26406991481781</t>
   </si>
   <si>
     <t xml:space="preserve">1.27145862579346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2806943655014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29424011707306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30409157276154</t>
+    <t xml:space="preserve">1.28069412708282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29424023628235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30409169197083</t>
   </si>
   <si>
     <t xml:space="preserve">1.31332731246948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33795630931854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34780764579773</t>
+    <t xml:space="preserve">1.33795607089996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34780752658844</t>
   </si>
   <si>
     <t xml:space="preserve">1.34657621383667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3428817987442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3595062494278</t>
+    <t xml:space="preserve">1.34288203716278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35950613021851</t>
   </si>
   <si>
     <t xml:space="preserve">1.37305200099945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38536643981934</t>
+    <t xml:space="preserve">1.38536632061005</t>
   </si>
   <si>
     <t xml:space="preserve">1.35827493667603</t>
@@ -1247,25 +1247,25 @@
     <t xml:space="preserve">1.38167202472687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3551961183548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35458064079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34041905403137</t>
+    <t xml:space="preserve">1.35519623756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35458052158356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34041893482208</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349751472473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31763756275177</t>
+    <t xml:space="preserve">1.31763744354248</t>
   </si>
   <si>
     <t xml:space="preserve">1.297318816185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30840170383453</t>
+    <t xml:space="preserve">1.30840158462524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29622423648834</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">1.2780374288559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2628265619278</t>
+    <t xml:space="preserve">1.26282632350922</t>
   </si>
   <si>
     <t xml:space="preserve">1.25356781482697</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">1.2370343208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24166369438171</t>
+    <t xml:space="preserve">1.241663813591</t>
   </si>
   <si>
     <t xml:space="preserve">1.21851670742035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25786650180817</t>
+    <t xml:space="preserve">1.25786638259888</t>
   </si>
   <si>
     <t xml:space="preserve">1.23934900760651</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">1.23868775367737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2522451877594</t>
+    <t xml:space="preserve">1.25224506855011</t>
   </si>
   <si>
     <t xml:space="preserve">1.25654375553131</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">1.23604238033295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21686363220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23835706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27043211460114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2542290687561</t>
+    <t xml:space="preserve">1.21686351299286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23835694789886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27043199539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25422930717468</t>
   </si>
   <si>
     <t xml:space="preserve">1.25158393383026</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">1.2995308637619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29093360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32862961292267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32730710506439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31011235713959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29192543029785</t>
+    <t xml:space="preserve">1.2909334897995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32862973213196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3273069858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31011211872101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29192554950714</t>
   </si>
   <si>
     <t xml:space="preserve">1.27737593650818</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">1.28432011604309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29258680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26844787597656</t>
+    <t xml:space="preserve">1.29258692264557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26844799518585</t>
   </si>
   <si>
     <t xml:space="preserve">1.26613318920135</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">1.27506124973297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26051187515259</t>
+    <t xml:space="preserve">1.26051199436188</t>
   </si>
   <si>
     <t xml:space="preserve">1.26877856254578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307724952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28861892223358</t>
+    <t xml:space="preserve">1.27307736873627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.288618683815</t>
   </si>
   <si>
     <t xml:space="preserve">1.24959981441498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24001049995422</t>
+    <t xml:space="preserve">1.24001038074493</t>
   </si>
   <si>
     <t xml:space="preserve">1.24298632144928</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">1.2459625005722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24331712722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24100232124329</t>
+    <t xml:space="preserve">1.24331700801849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24100244045258</t>
   </si>
   <si>
     <t xml:space="preserve">1.22678363323212</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">1.26447987556458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28068280220032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25522100925446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25489056110382</t>
+    <t xml:space="preserve">1.28068268299103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25522124767303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25489068031311</t>
   </si>
   <si>
     <t xml:space="preserve">1.27406930923462</t>
@@ -1451,13 +1451,13 @@
     <t xml:space="preserve">1.30052292346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29655480384827</t>
+    <t xml:space="preserve">1.29655492305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.30482161045074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29986166954041</t>
+    <t xml:space="preserve">1.29986155033112</t>
   </si>
   <si>
     <t xml:space="preserve">1.28365874290466</t>
@@ -1466,16 +1466,16 @@
     <t xml:space="preserve">1.28994143009186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32036316394806</t>
+    <t xml:space="preserve">1.32036304473877</t>
   </si>
   <si>
     <t xml:space="preserve">1.31540298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31738698482513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33854985237122</t>
+    <t xml:space="preserve">1.31738710403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33854997158051</t>
   </si>
   <si>
     <t xml:space="preserve">1.33259785175323</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">1.33061385154724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32400047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35574460029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558484077454</t>
+    <t xml:space="preserve">1.32400035858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35574471950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558472156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698734760284</t>
@@ -1517,31 +1517,31 @@
     <t xml:space="preserve">1.31705629825592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33127510547638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3511153459549</t>
+    <t xml:space="preserve">1.33127522468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35111522674561</t>
   </si>
   <si>
     <t xml:space="preserve">1.29688549041748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30019211769104</t>
+    <t xml:space="preserve">1.30019223690033</t>
   </si>
   <si>
     <t xml:space="preserve">1.31639492511749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26315724849701</t>
+    <t xml:space="preserve">1.26315712928772</t>
   </si>
   <si>
     <t xml:space="preserve">1.26745593547821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26249599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27142405509949</t>
+    <t xml:space="preserve">1.26249587535858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2714239358902</t>
   </si>
   <si>
     <t xml:space="preserve">1.24860787391663</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">1.24662375450134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24926912784576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2823361158371</t>
+    <t xml:space="preserve">1.24926900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233599662781</t>
   </si>
   <si>
     <t xml:space="preserve">1.26977062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27704536914825</t>
+    <t xml:space="preserve">1.27704524993896</t>
   </si>
   <si>
     <t xml:space="preserve">1.28398942947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30118429660797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3081282377243</t>
+    <t xml:space="preserve">1.30118417739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30812835693359</t>
   </si>
   <si>
     <t xml:space="preserve">1.30912029743195</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">1.32796835899353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34119534492493</t>
+    <t xml:space="preserve">1.34119522571564</t>
   </si>
   <si>
     <t xml:space="preserve">1.36566483974457</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">1.33722722530365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34979259967804</t>
+    <t xml:space="preserve">1.34979248046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.33193647861481</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.32267773151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36103546619415</t>
+    <t xml:space="preserve">1.36103534698486</t>
   </si>
   <si>
     <t xml:space="preserve">1.37360072135925</t>
@@ -1628,10 +1628,10 @@
     <t xml:space="preserve">1.36434209346771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35309910774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36301946640015</t>
+    <t xml:space="preserve">1.35309934616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36301958560944</t>
   </si>
   <si>
     <t xml:space="preserve">1.30548286437988</t>
@@ -1640,22 +1640,22 @@
     <t xml:space="preserve">1.32333898544312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28961098194122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29060280323029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30151498317719</t>
+    <t xml:space="preserve">1.28961074352264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.290602684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3015148639679</t>
   </si>
   <si>
     <t xml:space="preserve">1.30515229701996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30746698379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28200542926788</t>
+    <t xml:space="preserve">1.30746686458588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28200531005859</t>
   </si>
   <si>
     <t xml:space="preserve">1.28498136997223</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">1.30713629722595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30845904350281</t>
+    <t xml:space="preserve">1.30845892429352</t>
   </si>
   <si>
     <t xml:space="preserve">1.34185659885406</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">1.37492346763611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36963284015656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38881158828735</t>
+    <t xml:space="preserve">1.36963295936584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38881146907806</t>
   </si>
   <si>
     <t xml:space="preserve">1.40402233600616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41261982917786</t>
+    <t xml:space="preserve">1.41261970996857</t>
   </si>
   <si>
     <t xml:space="preserve">1.42716920375824</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">1.39807033538818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4265079498291</t>
+    <t xml:space="preserve">1.42650783061981</t>
   </si>
   <si>
     <t xml:space="preserve">1.44502544403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44833219051361</t>
+    <t xml:space="preserve">1.4483323097229</t>
   </si>
   <si>
     <t xml:space="preserve">1.45362269878387</t>
@@ -1715,28 +1715,28 @@
     <t xml:space="preserve">1.47081756591797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48735105991364</t>
+    <t xml:space="preserve">1.48735117912292</t>
   </si>
   <si>
     <t xml:space="preserve">1.47214043140411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47147905826569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46817243099213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4417188167572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43642807006836</t>
+    <t xml:space="preserve">1.4714789390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46817231178284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44171893596649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43642783164978</t>
   </si>
   <si>
     <t xml:space="preserve">1.43576669692993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43907332420349</t>
+    <t xml:space="preserve">1.43907356262207</t>
   </si>
   <si>
     <t xml:space="preserve">1.40732908248901</t>
@@ -1748,34 +1748,34 @@
     <t xml:space="preserve">1.38219809532166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41129732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40865194797516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4351053237915</t>
+    <t xml:space="preserve">1.411297082901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40865182876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43510556221008</t>
   </si>
   <si>
     <t xml:space="preserve">1.43444395065308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43047606945038</t>
+    <t xml:space="preserve">1.4304758310318</t>
   </si>
   <si>
     <t xml:space="preserve">1.43775069713593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44105732440948</t>
+    <t xml:space="preserve">1.44105744361877</t>
   </si>
   <si>
     <t xml:space="preserve">1.43179857730865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4523001909256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45957481861115</t>
+    <t xml:space="preserve">1.45230031013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45957493782043</t>
   </si>
   <si>
     <t xml:space="preserve">1.46023619174957</t>
@@ -1784,10 +1784,10 @@
     <t xml:space="preserve">1.47280168533325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47610831260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883368492126</t>
+    <t xml:space="preserve">1.4761084318161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883356571198</t>
   </si>
   <si>
     <t xml:space="preserve">1.45825219154358</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">1.50322318077087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50586843490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562891483307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56208217144012</t>
+    <t xml:space="preserve">1.5058685541153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562879562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56208252906799</t>
   </si>
   <si>
     <t xml:space="preserve">1.56075954437256</t>
@@ -1817,316 +1817,316 @@
     <t xml:space="preserve">1.57530915737152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57332527637482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56406652927399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57729303836823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5898585319519</t>
+    <t xml:space="preserve">1.57332515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5640664100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57729315757751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58985888957977</t>
   </si>
   <si>
     <t xml:space="preserve">1.58655178546906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60374653339386</t>
+    <t xml:space="preserve">1.60374677181244</t>
   </si>
   <si>
     <t xml:space="preserve">1.60837602615356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59713339805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6116828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61102151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5944881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59382665157318</t>
+    <t xml:space="preserve">1.59713327884674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61168277263641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61102163791656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59448802471161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59382688999176</t>
   </si>
   <si>
     <t xml:space="preserve">1.59250402450562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59779477119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60308527946472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60110151767731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61300539970398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61631238460541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60771453380585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60176277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61432814598083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60573053359985</t>
+    <t xml:space="preserve">1.59779465198517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60308539867401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60110127925873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61300551891327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61631214618683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60771465301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60176265239716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61432802677155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60573065280914</t>
   </si>
   <si>
     <t xml:space="preserve">1.61565089225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61498963832855</t>
+    <t xml:space="preserve">1.61498939990997</t>
   </si>
   <si>
     <t xml:space="preserve">1.61829614639282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62160277366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59316539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56671190261841</t>
+    <t xml:space="preserve">1.62160289287567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59316527843475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56671178340912</t>
   </si>
   <si>
     <t xml:space="preserve">1.54554891586304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60506951808929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63350701332092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64474987983704</t>
+    <t xml:space="preserve">1.60506939888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63350689411163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64474964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6268937587738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62970471382141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916327476501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143290996552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294214725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60721611976624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59456658363342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57629477977753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53904855251312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53342628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52077662944794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54748153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53061521053314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53412902355194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53764283657074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54537320137024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54607605934143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53272366523743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55732035636902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52920985221863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52358758449554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56153678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56575334072113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57207834720612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59526932239532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58964729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58753895759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57137548923492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61494660377502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283850669861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63884043693542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64797639846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64446246623993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6311103105545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63743495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6599235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66273438930511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66203165054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67327606678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6810063123703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67819511890411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6500848531723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6992781162262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68873655796051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6922504901886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64727377891541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6550041437149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6943587064743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66062605381012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62127149105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60089147090912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60510802268982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61354112625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57488918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59667479991913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55661737918854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55169808864594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58472788333893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59386384487152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62478530406952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60018861293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59948587417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63251578807831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62619090080261</t>
   </si>
   <si>
     <t xml:space="preserve">1.62689363956451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62970471382141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916315555573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143290996552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294226646423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60721611976624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59456658363342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57629477977753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52991259098053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53904843330383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53342616558075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52077662944794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54748153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53061532974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53412914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53764295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54537332057953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54607617855072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53272342681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55732023715973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52920973300934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52358770370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56153678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56575322151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57207834720612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59526944160461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58964717388153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58753907680511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57137560844421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61494672298431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283838748932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63884043693542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64797639846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64446246623993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6311103105545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63743495941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65992331504822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66273427009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66203165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67327606678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68100619316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67819511890411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6500848531723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6992781162262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68873679637909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6922504901886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64727377891541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6550041437149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69435882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66062605381012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62127161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60089159011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60510802268982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61354112625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57488930225372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59667491912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55661737918854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55169808864594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58472800254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59386384487152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62478530406952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60018849372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59948587417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63251554965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62619066238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689387798309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321840763092</t>
+    <t xml:space="preserve">1.63321852684021</t>
   </si>
   <si>
     <t xml:space="preserve">1.6430572271347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65851783752441</t>
+    <t xml:space="preserve">1.65851771831512</t>
   </si>
   <si>
     <t xml:space="preserve">1.67960095405579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70208919048309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69857549667358</t>
+    <t xml:space="preserve">1.7020890712738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69857513904572</t>
   </si>
   <si>
     <t xml:space="preserve">1.69716966152191</t>
@@ -2138,19 +2138,19 @@
     <t xml:space="preserve">1.69084489345551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71333348751068</t>
+    <t xml:space="preserve">1.7133332490921</t>
   </si>
   <si>
     <t xml:space="preserve">1.69014227390289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6915477514267</t>
+    <t xml:space="preserve">1.69154787063599</t>
   </si>
   <si>
     <t xml:space="preserve">1.68381726741791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69646692276001</t>
+    <t xml:space="preserve">1.6964670419693</t>
   </si>
   <si>
     <t xml:space="preserve">1.70560300350189</t>
@@ -2159,25 +2159,25 @@
     <t xml:space="preserve">1.7147388458252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70138657093048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6676539182663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66624820232391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65570676326752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66976201534271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68662846088409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71755003929138</t>
+    <t xml:space="preserve">1.7013863325119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66765367984772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6662483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65570688247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.669762134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6866283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7175498008728</t>
   </si>
   <si>
     <t xml:space="preserve">1.7049001455307</t>
@@ -2189,43 +2189,43 @@
     <t xml:space="preserve">1.73792994022369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76885151863098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77095973491669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76744604110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77939307689667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76814877986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7744734287262</t>
+    <t xml:space="preserve">1.76885163784027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77095997333527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76744616031647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77939319610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7681485414505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77447366714478</t>
   </si>
   <si>
     <t xml:space="preserve">1.78220391273499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77236557006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75760734081268</t>
+    <t xml:space="preserve">1.77236533164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7576071023941</t>
   </si>
   <si>
     <t xml:space="preserve">1.78431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78782606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79204261302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80258417129517</t>
+    <t xml:space="preserve">1.78782594203949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80258405208588</t>
   </si>
   <si>
     <t xml:space="preserve">1.83280289173126</t>
@@ -2234,73 +2234,73 @@
     <t xml:space="preserve">1.82858622074127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83842480182648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87075185775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85599398612976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84756088256836</t>
+    <t xml:space="preserve">1.83842504024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87075209617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85599386692047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84756076335907</t>
   </si>
   <si>
     <t xml:space="preserve">1.86091339588165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82788348197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82155859470367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84123599529266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83772206306458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85388576984406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86021041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86442708969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85739946365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81593656539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79133999347687</t>
+    <t xml:space="preserve">1.82788360118866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82155871391296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84123587608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83772194385529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85388553142548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86021065711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86442732810974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85739922523499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81593668460846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79134011268616</t>
   </si>
   <si>
     <t xml:space="preserve">1.81804478168488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81101715564728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79696202278137</t>
+    <t xml:space="preserve">1.81101727485657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79696190357208</t>
   </si>
   <si>
     <t xml:space="preserve">1.79907011985779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79415106773376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80680072307587</t>
+    <t xml:space="preserve">1.79415082931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80680060386658</t>
   </si>
   <si>
     <t xml:space="preserve">1.82436966896057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87918496131897</t>
+    <t xml:space="preserve">1.87918519973755</t>
   </si>
   <si>
     <t xml:space="preserve">1.87356293201447</t>
@@ -2312,55 +2312,55 @@
     <t xml:space="preserve">1.94102823734283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87637424468994</t>
+    <t xml:space="preserve">1.87637400627136</t>
   </si>
   <si>
     <t xml:space="preserve">1.83912777900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82015311717987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81312549114227</t>
+    <t xml:space="preserve">1.82015299797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81312525272369</t>
   </si>
   <si>
     <t xml:space="preserve">1.79274547100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80539512634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81523370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047571659088</t>
+    <t xml:space="preserve">1.80539524555206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81523358821869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047583580017</t>
   </si>
   <si>
     <t xml:space="preserve">1.78642046451569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77587914466858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75057983398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74917423725128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75339078903198</t>
+    <t xml:space="preserve">1.77587902545929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75057971477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74917435646057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75339066982269</t>
   </si>
   <si>
     <t xml:space="preserve">1.75690460205078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75831019878387</t>
+    <t xml:space="preserve">1.7583099603653</t>
   </si>
   <si>
     <t xml:space="preserve">1.73230791091919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74144375324249</t>
+    <t xml:space="preserve">1.74144387245178</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895551681519</t>
@@ -2369,451 +2369,451 @@
     <t xml:space="preserve">1.7372270822525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72598326206207</t>
+    <t xml:space="preserve">1.72598302364349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70068371295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68592548370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7126305103302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.731605052948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7182525396347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74847137928009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82507240772247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85950779914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69365620613098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63462400436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57980859279633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55591464042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52499330043793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50953245162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45050036907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41325402259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30010938644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28043210506439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27164745330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19469523429871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25970065593719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2663768529892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3254086971283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37530481815338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43855345249176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44277000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41676783561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48423302173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48844969272614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5755922794342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53975117206573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51164066791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57418644428253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54888689517975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55310368537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61635220050812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229706764221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61213564872742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54045367240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51234352588654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51937103271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53483188152313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57699739933014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54326510429382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51796567440033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59761190414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47028803825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498286724091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45664608478546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47862458229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51272928714752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53091835975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54759180545807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56881237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51879227161407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55365478992462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60973811149597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64460062980652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66733694076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72342002391815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71129381656647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65975821018219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005327224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60670626163483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61125361919403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58548581600189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6385372877121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61883234977722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62337970733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62186408042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59154868125916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62792706489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57487547397614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60064339637756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59306454658508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6142852306366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61276948451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59912753105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156877994537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65672659873962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63399004936218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63550591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62489557266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65217936038971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64914786815643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65521085262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63247442245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64611601829529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580097675323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70977807044983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69765210151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946314811707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83407068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8568069934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83558630943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8280074596405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80678689479828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80981826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164941310883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8401335477829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377562046051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83710205554962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83861780166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82194471359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81891286373138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859758377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76434540748596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79769229888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82042860984802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8234601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82649195194244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81739723682404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80527114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75979828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7628298997879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7173570394516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73099875450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69007313251495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69310474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68704187870026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68552589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67491579055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371508598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71584105491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6840101480484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278958320618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58396983146667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5445601940155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820214748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52940261363983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53394997119904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49226653575897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48620355129242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51121342182159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55062329769135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57032823562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58851730823517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5612336397171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63702166080475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62944293022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6430846452713</t>
   </si>
   <si>
     <t xml:space="preserve">1.70068347454071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6859256029129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7126305103302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.731605052948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7182525396347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74214673042297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74847114086151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82507240772247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84685814380646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85950779914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6936559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63462400436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57980859279633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55591464042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52499306201935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50953233242035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45050036907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41325390338898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30010938644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2804319858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27164745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19469523429871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25970053672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2663768529892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32540881633759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37530493736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43855345249176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44276988506317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41676783561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48423290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48844969272614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57559216022491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53975117206573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51164090633392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57418632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54888713359833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55310368537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61635220050812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229694843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61213576793671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54045379161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51234340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51937115192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53483188152313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57699739933014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54326498508453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51796555519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59761190414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47028803825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46498286724091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45664608478546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47862458229065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51272916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53091835975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54759180545807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56881237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51879227161407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55365478992462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60973799228668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64460051059723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66733694076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72342002391815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71129381656647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6597580909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005327224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60670626163483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61125361919403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58548581600189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63853740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61883234977722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62337982654572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62186419963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59154880046844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62792706489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57487547397614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60064339637756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59306454658508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6142852306366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61276948451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59912753105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156877994537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65672659873962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63399016857147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63550591468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62489557266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65217936038971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64914774894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65521085262299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63247442245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64611625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580097675323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70977807044983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69765198230743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946302890778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83407044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8568069934845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83558630943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8280074596405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80678689479828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80981826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164941310883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8401335477829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377538204193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83710205554962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83861780166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82194447517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81891310214996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859758377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76434564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79769229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82042860984802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8234601020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82649171352386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81739711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80527114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75979828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7628298997879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71735692024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73099887371063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69007313251495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69310462474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68704199790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68552589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67491567134857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371508598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71584117412567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6840101480484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278958320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58396983146667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5445601940155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54607594013214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52940261363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53394985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49226641654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48620343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51121342182159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55062329769135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57032823562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58851730823517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5612336397171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63702166080475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62944281101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6430846452713</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.72190415859222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7370617389679</t>
+    <t xml:space="preserve">1.73706197738647</t>
   </si>
   <si>
     <t xml:space="preserve">1.73403024673462</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">1.6885575056076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72796726226807</t>
+    <t xml:space="preserve">1.72796738147736</t>
   </si>
   <si>
     <t xml:space="preserve">1.6961362361908</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">1.65066349506378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67794704437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6643054485321</t>
+    <t xml:space="preserve">1.67794716358185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66430556774139</t>
   </si>
   <si>
     <t xml:space="preserve">1.66127359867096</t>
@@ -2861,16 +2861,16 @@
     <t xml:space="preserve">1.67339980602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67036843299866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70219922065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60822224617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79011332988739</t>
+    <t xml:space="preserve">1.67036819458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70219933986664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60822212696075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79011356830597</t>
   </si>
   <si>
     <t xml:space="preserve">1.79617643356323</t>
@@ -2882,28 +2882,28 @@
     <t xml:space="preserve">1.90227973461151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87196469306946</t>
+    <t xml:space="preserve">1.87196445465088</t>
   </si>
   <si>
     <t xml:space="preserve">1.81436574459076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85225975513458</t>
+    <t xml:space="preserve">1.852259516716</t>
   </si>
   <si>
     <t xml:space="preserve">1.86135423183441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88105905056</t>
+    <t xml:space="preserve">1.88105928897858</t>
   </si>
   <si>
     <t xml:space="preserve">1.87954354286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89166951179504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89015352725983</t>
+    <t xml:space="preserve">1.89166939258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89015376567841</t>
   </si>
   <si>
     <t xml:space="preserve">1.90531122684479</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">1.88409054279327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90682709217072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93411076068878</t>
+    <t xml:space="preserve">1.90682685375214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93411087989807</t>
   </si>
   <si>
     <t xml:space="preserve">1.91895341873169</t>
@@ -2930,10 +2930,10 @@
     <t xml:space="preserve">1.91440582275391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91137456893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91592168807983</t>
+    <t xml:space="preserve">1.91137444972992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91592144966125</t>
   </si>
   <si>
     <t xml:space="preserve">1.93714213371277</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">1.9432053565979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93562650680542</t>
+    <t xml:space="preserve">1.93562626838684</t>
   </si>
   <si>
     <t xml:space="preserve">1.94623672962189</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">1.9795835018158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97503650188446</t>
+    <t xml:space="preserve">1.97503626346588</t>
   </si>
   <si>
     <t xml:space="preserve">1.98564648628235</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">1.98716235160828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.984130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95987868309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99170982837677</t>
+    <t xml:space="preserve">1.98413109779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95987844467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99170958995819</t>
   </si>
   <si>
     <t xml:space="preserve">1.99625718593597</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">2.03869819641113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03566694259644</t>
+    <t xml:space="preserve">2.03566670417786</t>
   </si>
   <si>
     <t xml:space="preserve">2.04627704620361</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">2.04324555397034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03718233108521</t>
+    <t xml:space="preserve">2.03718256950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.0659818649292</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">2.02850747108459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99266231060028</t>
+    <t xml:space="preserve">1.99266254901886</t>
   </si>
   <si>
     <t xml:space="preserve">1.98777437210083</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">1.99917960166931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00406742095947</t>
+    <t xml:space="preserve">2.00406765937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.03991270065308</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">2.0464301109314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03828358650208</t>
+    <t xml:space="preserve">2.0382833480835</t>
   </si>
   <si>
     <t xml:space="preserve">2.06109380722046</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">2.03665399551392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03176593780518</t>
+    <t xml:space="preserve">2.03176617622375</t>
   </si>
   <si>
     <t xml:space="preserve">2.02036094665527</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">2.02687811851501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01221442222595</t>
+    <t xml:space="preserve">2.01221418380737</t>
   </si>
   <si>
     <t xml:space="preserve">1.99755024909973</t>
@@ -3092,13 +3092,13 @@
     <t xml:space="preserve">1.94867050647736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92423057556152</t>
+    <t xml:space="preserve">1.9242308139801</t>
   </si>
   <si>
     <t xml:space="preserve">1.94052398204803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93726527690887</t>
+    <t xml:space="preserve">1.93726551532745</t>
   </si>
   <si>
     <t xml:space="preserve">1.92748928070068</t>
@@ -3113,13 +3113,13 @@
     <t xml:space="preserve">1.96170520782471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.963334441185</t>
+    <t xml:space="preserve">1.96333467960358</t>
   </si>
   <si>
     <t xml:space="preserve">1.94541192054749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8867564201355</t>
+    <t xml:space="preserve">1.88675618171692</t>
   </si>
   <si>
     <t xml:space="preserve">1.91282558441162</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">1.90630805492401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86068725585938</t>
+    <t xml:space="preserve">1.8606870174408</t>
   </si>
   <si>
     <t xml:space="preserve">1.88349771499634</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">1.92097210884094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93400681018829</t>
+    <t xml:space="preserve">1.93400657176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.90956687927246</t>
@@ -3152,13 +3152,13 @@
     <t xml:space="preserve">1.92260134220123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92911899089813</t>
+    <t xml:space="preserve">1.92911875247955</t>
   </si>
   <si>
     <t xml:space="preserve">2.01384329795837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02199006080627</t>
+    <t xml:space="preserve">2.02199029922485</t>
   </si>
   <si>
     <t xml:space="preserve">2.02361941337585</t>
@@ -3170,25 +3170,25 @@
     <t xml:space="preserve">1.98940360546112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99103307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00243830680847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98451566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98614513874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97148108482361</t>
+    <t xml:space="preserve">1.99103283882141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00243806838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98451590538025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98614490032196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9714812040329</t>
   </si>
   <si>
     <t xml:space="preserve">1.96985185146332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93563580513</t>
+    <t xml:space="preserve">1.93563604354858</t>
   </si>
   <si>
     <t xml:space="preserve">1.96007573604584</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">1.97799837589264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95844650268555</t>
+    <t xml:space="preserve">1.95844674110413</t>
   </si>
   <si>
     <t xml:space="preserve">1.9812570810318</t>
@@ -3221,28 +3221,28 @@
     <t xml:space="preserve">2.03502464294434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04968881607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04317116737366</t>
+    <t xml:space="preserve">2.04968857765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04317140579224</t>
   </si>
   <si>
     <t xml:space="preserve">2.04154205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05294728279114</t>
+    <t xml:space="preserve">2.05294752120972</t>
   </si>
   <si>
     <t xml:space="preserve">2.06272339820862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05946469306946</t>
+    <t xml:space="preserve">2.05946445465088</t>
   </si>
   <si>
     <t xml:space="preserve">2.05783534049988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07412838935852</t>
+    <t xml:space="preserve">2.0741286277771</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924057006836</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">2.01710224151611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96496391296387</t>
+    <t xml:space="preserve">1.96496367454529</t>
   </si>
   <si>
     <t xml:space="preserve">1.95192921161652</t>
@@ -3266,19 +3266,19 @@
     <t xml:space="preserve">1.99592101573944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01058459281921</t>
+    <t xml:space="preserve">2.01058483123779</t>
   </si>
   <si>
     <t xml:space="preserve">1.97636914253235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06435251235962</t>
+    <t xml:space="preserve">2.0643527507782</t>
   </si>
   <si>
     <t xml:space="preserve">2.05131793022156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08064579963684</t>
+    <t xml:space="preserve">2.08064556121826</t>
   </si>
   <si>
     <t xml:space="preserve">2.07086968421936</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">2.07575798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12137889862061</t>
+    <t xml:space="preserve">2.12137913703918</t>
   </si>
   <si>
     <t xml:space="preserve">2.12626671791077</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">2.11974954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1018271446228</t>
+    <t xml:space="preserve">2.10182690620422</t>
   </si>
   <si>
     <t xml:space="preserve">2.09693884849548</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">2.0480592250824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95518815517426</t>
+    <t xml:space="preserve">1.95518791675568</t>
   </si>
   <si>
     <t xml:space="preserve">1.97962784767151</t>
@@ -3350,16 +3350,16 @@
     <t xml:space="preserve">1.97473967075348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00569677352905</t>
+    <t xml:space="preserve">2.00569701194763</t>
   </si>
   <si>
     <t xml:space="preserve">2.10997366905212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14744782447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13278412818909</t>
+    <t xml:space="preserve">2.14744806289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13278436660767</t>
   </si>
   <si>
     <t xml:space="preserve">2.14256024360657</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">2.18166375160217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18818140029907</t>
+    <t xml:space="preserve">2.18818116188049</t>
   </si>
   <si>
     <t xml:space="preserve">2.19795703887939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16211223602295</t>
+    <t xml:space="preserve">2.16211199760437</t>
   </si>
   <si>
     <t xml:space="preserve">2.18003487586975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17840504646301</t>
+    <t xml:space="preserve">2.17840528488159</t>
   </si>
   <si>
     <t xml:space="preserve">2.19958639144897</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">2.20284509658813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20447421073914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19632792472839</t>
+    <t xml:space="preserve">2.20447444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19632768630981</t>
   </si>
   <si>
     <t xml:space="preserve">2.19143986701965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16862916946411</t>
+    <t xml:space="preserve">2.16862940788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.17677593231201</t>
@@ -3425,13 +3425,13 @@
     <t xml:space="preserve">2.21099162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14093089103699</t>
+    <t xml:space="preserve">2.14093065261841</t>
   </si>
   <si>
     <t xml:space="preserve">2.17351722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17514657974243</t>
+    <t xml:space="preserve">2.17514634132385</t>
   </si>
   <si>
     <t xml:space="preserve">2.24531245231628</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">2.28039526939392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29618287086487</t>
+    <t xml:space="preserve">2.29618310928345</t>
   </si>
   <si>
     <t xml:space="preserve">2.2593457698822</t>
@@ -3470,10 +3470,10 @@
     <t xml:space="preserve">2.19619631767273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18742537498474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10848879814148</t>
+    <t xml:space="preserve">2.18742561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10848903656006</t>
   </si>
   <si>
     <t xml:space="preserve">2.06989741325378</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">2.06814336776733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11375117301941</t>
+    <t xml:space="preserve">2.11375141143799</t>
   </si>
   <si>
     <t xml:space="preserve">2.08042240142822</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">2.04709362983704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00323987007141</t>
+    <t xml:space="preserve">2.00323963165283</t>
   </si>
   <si>
     <t xml:space="preserve">2.02253556251526</t>
@@ -3527,34 +3527,34 @@
     <t xml:space="preserve">1.98920655250549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96464836597443</t>
+    <t xml:space="preserve">1.96464848518372</t>
   </si>
   <si>
     <t xml:space="preserve">1.94886100292206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9383362531662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87694108486176</t>
+    <t xml:space="preserve">1.93833637237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87694096565247</t>
   </si>
   <si>
     <t xml:space="preserve">1.90676152706146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9085156917572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89097416400909</t>
+    <t xml:space="preserve">1.90851581096649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8909740447998</t>
   </si>
   <si>
     <t xml:space="preserve">1.86466181278229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88746583461761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8822033405304</t>
+    <t xml:space="preserve">1.8874659538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88220322132111</t>
   </si>
   <si>
     <t xml:space="preserve">1.90149903297424</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">1.93658196926117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94359874725342</t>
+    <t xml:space="preserve">1.94359886646271</t>
   </si>
   <si>
     <t xml:space="preserve">1.92781114578247</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">1.95412349700928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98569822311401</t>
+    <t xml:space="preserve">1.98569810390472</t>
   </si>
   <si>
     <t xml:space="preserve">1.96815669536591</t>
@@ -3584,28 +3584,28 @@
     <t xml:space="preserve">1.98394405841827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98745238780975</t>
+    <t xml:space="preserve">1.98745250701904</t>
   </si>
   <si>
     <t xml:space="preserve">1.96114027500153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9418443441391</t>
+    <t xml:space="preserve">1.94184446334839</t>
   </si>
   <si>
     <t xml:space="preserve">1.91202402114868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93307387828827</t>
+    <t xml:space="preserve">1.93307363986969</t>
   </si>
   <si>
     <t xml:space="preserve">1.91553235054016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90325319766998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9172865152359</t>
+    <t xml:space="preserve">1.90325331687927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91728639602661</t>
   </si>
   <si>
     <t xml:space="preserve">1.94535267353058</t>
@@ -3626,13 +3626,13 @@
     <t xml:space="preserve">1.95587766170502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87869513034821</t>
+    <t xml:space="preserve">1.87869501113892</t>
   </si>
   <si>
     <t xml:space="preserve">1.85413706302643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84536623954773</t>
+    <t xml:space="preserve">1.84536635875702</t>
   </si>
   <si>
     <t xml:space="preserve">1.86817026138306</t>
@@ -3647,13 +3647,13 @@
     <t xml:space="preserve">1.85589110851288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87167859077454</t>
+    <t xml:space="preserve">1.87167847156525</t>
   </si>
   <si>
     <t xml:space="preserve">1.8401038646698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86290776729584</t>
+    <t xml:space="preserve">1.86290788650513</t>
   </si>
   <si>
     <t xml:space="preserve">1.91026985645294</t>
@@ -3692,10 +3692,10 @@
     <t xml:space="preserve">2.12427616119385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11901378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12252187728882</t>
+    <t xml:space="preserve">2.11901354789734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1225221157074</t>
   </si>
   <si>
     <t xml:space="preserve">2.14883422851562</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">2.13480114936829</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10498070716858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11550545692444</t>
+    <t xml:space="preserve">2.10498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11550521850586</t>
   </si>
   <si>
     <t xml:space="preserve">2.09796380996704</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">2.01201057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03481435775757</t>
+    <t xml:space="preserve">2.03481459617615</t>
   </si>
   <si>
     <t xml:space="preserve">2.07866811752319</t>
@@ -3746,22 +3746,22 @@
     <t xml:space="preserve">2.04533934593201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03130626678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01902723312378</t>
+    <t xml:space="preserve">2.03130602836609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0190269947052</t>
   </si>
   <si>
     <t xml:space="preserve">2.05586433410645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07165145874023</t>
+    <t xml:space="preserve">2.07165169715881</t>
   </si>
   <si>
     <t xml:space="preserve">2.09094738960266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10322618484497</t>
+    <t xml:space="preserve">2.10322642326355</t>
   </si>
   <si>
     <t xml:space="preserve">2.09445548057556</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">2.11725950241089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13830947875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1435718536377</t>
+    <t xml:space="preserve">2.13830924034119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14357161521912</t>
   </si>
   <si>
     <t xml:space="preserve">2.14708018302917</t>
@@ -3782,13 +3782,13 @@
     <t xml:space="preserve">2.14006352424622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15760493278503</t>
+    <t xml:space="preserve">2.15760517120361</t>
   </si>
   <si>
     <t xml:space="preserve">2.16286754608154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16637587547302</t>
+    <t xml:space="preserve">2.16637563705444</t>
   </si>
   <si>
     <t xml:space="preserve">2.18567156791687</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">2.11199712753296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09270143508911</t>
+    <t xml:space="preserve">2.09270119667053</t>
   </si>
   <si>
     <t xml:space="preserve">2.09971809387207</t>
@@ -3809,10 +3809,10 @@
     <t xml:space="preserve">2.13129281997681</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01025629043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95236957073212</t>
+    <t xml:space="preserve">2.01025652885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95236945152283</t>
   </si>
   <si>
     <t xml:space="preserve">1.89974474906921</t>
@@ -3830,13 +3830,13 @@
     <t xml:space="preserve">2.02428960800171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04183125495911</t>
+    <t xml:space="preserve">2.04183101654053</t>
   </si>
   <si>
     <t xml:space="preserve">2.06112670898438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13655519485474</t>
+    <t xml:space="preserve">2.13655543327332</t>
   </si>
   <si>
     <t xml:space="preserve">2.12076783180237</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">2.1733922958374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15585088729858</t>
+    <t xml:space="preserve">2.15585064888</t>
   </si>
   <si>
     <t xml:space="preserve">2.15308046340942</t>
@@ -36304,7 +36304,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1223" t="s">
-        <v>919</v>
+        <v>650</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36330,7 +36330,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1224" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36356,7 +36356,7 @@
         <v>2.0239999294281</v>
       </c>
       <c r="G1225" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36382,7 +36382,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1226" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36408,7 +36408,7 @@
         <v>1.96899998188019</v>
       </c>
       <c r="G1227" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36434,7 +36434,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G1228" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36460,7 +36460,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G1229" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36486,7 +36486,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G1230" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36512,7 +36512,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G1231" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36538,7 +36538,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G1232" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36590,7 +36590,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36616,7 +36616,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36642,7 +36642,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36694,7 +36694,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1238" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36772,7 +36772,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1241" t="s">
-        <v>786</v>
+        <v>931</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36824,7 +36824,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1243" t="s">
-        <v>786</v>
+        <v>931</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -60206,7 +60206,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6493171296</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>838899</v>
@@ -60227,6 +60227,32 @@
         <v>1386</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6496180556</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>1274621</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>2.52600002288818</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>2.51799988746643</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1386">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356380939484</t>
+    <t xml:space="preserve">1.20356392860413</t>
   </si>
   <si>
     <t xml:space="preserve">US.MI</t>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">1.20143187046051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1747807264328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15345990657806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13746917247772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14066755771637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15452587604523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16092228889465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11295020580292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08949720859528</t>
+    <t xml:space="preserve">1.17478084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15346014499664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13746929168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14066731929779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15452599525452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16092216968536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11295032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08949708938599</t>
   </si>
   <si>
     <t xml:space="preserve">1.07030844688416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04578936100006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08523321151733</t>
+    <t xml:space="preserve">1.04578959941864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08523309230804</t>
   </si>
   <si>
     <t xml:space="preserve">1.09482753276825</t>
@@ -89,100 +89,100 @@
     <t xml:space="preserve">1.06817638874054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05378472805023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01274216175079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03832721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01700627803802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984491944313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954642832279205</t>
+    <t xml:space="preserve">1.05378484725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0127420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03832709789276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01700639724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984491884708405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954642713069916</t>
   </si>
   <si>
     <t xml:space="preserve">0.957840800285339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921062409877777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868825972080231</t>
+    <t xml:space="preserve">0.921062290668488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868826270103455</t>
   </si>
   <si>
     <t xml:space="preserve">0.840575873851776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888548076152802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826717436313629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917864143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972232341766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960505962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990354955196381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982893049716949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970100224018097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99994969367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979161858558655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971166372299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988756239414215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01114308834076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0100771188736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03726124763489</t>
+    <t xml:space="preserve">0.888547897338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826717376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917864263057709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972232401371002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505902767181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990355253219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98289281129837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970100402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999949634075165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979161739349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97116631269455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988756060600281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01114296913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01007699966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0372611284256</t>
   </si>
   <si>
     <t xml:space="preserve">1.0617800951004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0468555688858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03566193580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00314772129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01913845539093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02127039432526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01060998439789</t>
+    <t xml:space="preserve">1.04685544967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03566205501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0031476020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01913833618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02127063274384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01061010360718</t>
   </si>
   <si>
     <t xml:space="preserve">1.07777094841003</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">1.08203494548798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07244062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08416700363159</t>
+    <t xml:space="preserve">1.07244074344635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08416712284088</t>
   </si>
   <si>
     <t xml:space="preserve">1.07990288734436</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">1.0884313583374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.076704621315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06604433059692</t>
+    <t xml:space="preserve">1.07670474052429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06604421138763</t>
   </si>
   <si>
     <t xml:space="preserve">1.0862991809845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04365742206573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.049520611763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05005359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07457268238068</t>
+    <t xml:space="preserve">1.04365730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04952049255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05005371570587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07457280158997</t>
   </si>
   <si>
     <t xml:space="preserve">1.05804908275604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02926564216614</t>
+    <t xml:space="preserve">1.02926576137543</t>
   </si>
   <si>
     <t xml:space="preserve">1.07883679866791</t>
@@ -239,34 +239,34 @@
     <t xml:space="preserve">1.0937614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09695959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04845452308655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04259133338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03299689292908</t>
+    <t xml:space="preserve">1.09695971012115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04845464229584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04259145259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03299677371979</t>
   </si>
   <si>
     <t xml:space="preserve">1.01594018936157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00154864788055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976496756076813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970633268356323</t>
+    <t xml:space="preserve">1.00154876708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976496458053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970633387565613</t>
   </si>
   <si>
     <t xml:space="preserve">0.980760812759399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986091017723083</t>
+    <t xml:space="preserve">0.986091077327728</t>
   </si>
   <si>
     <t xml:space="preserve">0.984930813312531</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">1.03829574584961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03365528583527</t>
+    <t xml:space="preserve">1.03365540504456</t>
   </si>
   <si>
     <t xml:space="preserve">1.04409635066986</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">0.993631780147552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993051528930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999432444572449</t>
+    <t xml:space="preserve">0.993051826953888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999432265758514</t>
   </si>
   <si>
     <t xml:space="preserve">0.998272120952606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98203057050705</t>
+    <t xml:space="preserve">0.982030630111694</t>
   </si>
   <si>
     <t xml:space="preserve">0.933306157588959</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">0.901983201503754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871240437030792</t>
+    <t xml:space="preserve">0.871240317821503</t>
   </si>
   <si>
     <t xml:space="preserve">0.861379504203796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834116876125336</t>
+    <t xml:space="preserve">0.83411693572998</t>
   </si>
   <si>
     <t xml:space="preserve">0.871820449829102</t>
@@ -332,28 +332,28 @@
     <t xml:space="preserve">0.91474437713623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912424147129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951287746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851518630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80279415845871</t>
+    <t xml:space="preserve">0.912424087524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951287686824799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85151869058609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80279403924942</t>
   </si>
   <si>
     <t xml:space="preserve">0.825996220111847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792933225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.781332194805145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813234925270081</t>
+    <t xml:space="preserve">0.792933106422424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7813321352005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813234984874725</t>
   </si>
   <si>
     <t xml:space="preserve">0.791193008422852</t>
@@ -374,46 +374,46 @@
     <t xml:space="preserve">0.819615602493286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850938498973846</t>
+    <t xml:space="preserve">0.850938558578491</t>
   </si>
   <si>
     <t xml:space="preserve">0.824256062507629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850358486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866600036621094</t>
+    <t xml:space="preserve">0.850358426570892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866599917411804</t>
   </si>
   <si>
     <t xml:space="preserve">0.847458183765411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849198400974274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854418814182281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842237770557404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852678656578064</t>
+    <t xml:space="preserve">0.849198341369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854418933391571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842237830162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852678716182709</t>
   </si>
   <si>
     <t xml:space="preserve">0.857319235801697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8764608502388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870080351829529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856739044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494886875153</t>
+    <t xml:space="preserve">0.876460909843445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870080173015594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856739103794098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494946479797</t>
   </si>
   <si>
     <t xml:space="preserve">0.826576173305511</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.824836134910583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846878111362457</t>
+    <t xml:space="preserve">0.846878170967102</t>
   </si>
   <si>
     <t xml:space="preserve">0.879361152648926</t>
@@ -437,37 +437,37 @@
     <t xml:space="preserve">0.893282353878021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887481868267059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854998826980591</t>
+    <t xml:space="preserve">0.887481987476349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854998886585236</t>
   </si>
   <si>
     <t xml:space="preserve">0.828896522521973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848038196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837597370147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835277199745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820775806903839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852098703384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340075016022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865439832210541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882841467857361</t>
+    <t xml:space="preserve">0.84803831577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83759731054306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835277080535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820775747299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85209858417511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340194225311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86543995141983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882841408252716</t>
   </si>
   <si>
     <t xml:space="preserve">0.8973428606987</t>
@@ -476,25 +476,25 @@
     <t xml:space="preserve">0.910684108734131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910104036331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881101429462433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834697008132935</t>
+    <t xml:space="preserve">0.910103976726532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881101369857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834697067737579</t>
   </si>
   <si>
     <t xml:space="preserve">0.842817723751068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827736377716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839917421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219478607178</t>
+    <t xml:space="preserve">0.827736496925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839917600154877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219419002533</t>
   </si>
   <si>
     <t xml:space="preserve">0.874720692634583</t>
@@ -506,67 +506,67 @@
     <t xml:space="preserve">0.907783806324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93968677520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949547588825226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960568785667419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980870425701141</t>
+    <t xml:space="preserve">0.939686894416809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94954776763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96056854724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980870544910431</t>
   </si>
   <si>
     <t xml:space="preserve">0.997111976146698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0092933177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00871300697327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0017523765564</t>
+    <t xml:space="preserve">1.00929307937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00871312618256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00175249576569</t>
   </si>
   <si>
     <t xml:space="preserve">0.972169697284698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969849586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947227597236633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976230144500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979130208492279</t>
+    <t xml:space="preserve">0.969849526882172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947227478027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976230204105377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979130387306213</t>
   </si>
   <si>
     <t xml:space="preserve">0.973909914493561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997692167758942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03713572025299</t>
+    <t xml:space="preserve">0.997692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03713583946228</t>
   </si>
   <si>
     <t xml:space="preserve">1.0580176115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06613838672638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05685758590698</t>
+    <t xml:space="preserve">1.06613850593567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05685746669769</t>
   </si>
   <si>
     <t xml:space="preserve">1.02089416980743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03945600986481</t>
+    <t xml:space="preserve">1.03945589065552</t>
   </si>
   <si>
     <t xml:space="preserve">1.03249526023865</t>
@@ -575,52 +575,52 @@
     <t xml:space="preserve">1.02147424221039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00117230415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02611482143402</t>
+    <t xml:space="preserve">1.00117242336273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02611470222473</t>
   </si>
   <si>
     <t xml:space="preserve">1.05337727069855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04583656787872</t>
+    <t xml:space="preserve">1.04583644866943</t>
   </si>
   <si>
     <t xml:space="preserve">1.05743753910065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09920144081116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14850604534149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16590774059296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16126728057861</t>
+    <t xml:space="preserve">1.09920156002045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1485059261322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16590762138367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16126716136932</t>
   </si>
   <si>
     <t xml:space="preserve">1.17054796218872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18214917182922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17170822620392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18330907821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18678939342499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17750871181488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18794977664948</t>
+    <t xml:space="preserve">1.18214905261993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17170810699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18330919742584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18678951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17750859260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18794965744019</t>
   </si>
   <si>
     <t xml:space="preserve">1.17402827739716</t>
@@ -635,64 +635,64 @@
     <t xml:space="preserve">1.20071065425873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22507297992706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2378340959549</t>
+    <t xml:space="preserve">1.22507309913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23783421516418</t>
   </si>
   <si>
     <t xml:space="preserve">1.23551416397095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2285532951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21231186389923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20419108867645</t>
+    <t xml:space="preserve">1.22855353355408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21231162548065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">1.21695232391357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18098902702332</t>
+    <t xml:space="preserve">1.18098890781403</t>
   </si>
   <si>
     <t xml:space="preserve">1.20651137828827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1693879365921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15952706336975</t>
+    <t xml:space="preserve">1.16938805580139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15952694416046</t>
   </si>
   <si>
     <t xml:space="preserve">1.1537264585495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16822791099548</t>
+    <t xml:space="preserve">1.16822779178619</t>
   </si>
   <si>
     <t xml:space="preserve">1.15720677375793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19258987903595</t>
+    <t xml:space="preserve">1.19259011745453</t>
   </si>
   <si>
     <t xml:space="preserve">1.20883166790009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18910956382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13400459289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11718320846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13168442249298</t>
+    <t xml:space="preserve">1.1891096830368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1340047121048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.117182970047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13168430328369</t>
   </si>
   <si>
     <t xml:space="preserve">1.13226449489594</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">1.09804129600525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10210168361664</t>
+    <t xml:space="preserve">1.10210156440735</t>
   </si>
   <si>
     <t xml:space="preserve">1.09050071239471</t>
@@ -719,22 +719,22 @@
     <t xml:space="preserve">1.14154529571533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15604686737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15894711017609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16010701656342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16706776618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15662670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13980531692505</t>
+    <t xml:space="preserve">1.15604674816132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15894687175751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16010689735413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16706800460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15662658214569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13980519771576</t>
   </si>
   <si>
     <t xml:space="preserve">1.19375026226044</t>
@@ -746,55 +746,55 @@
     <t xml:space="preserve">1.19142997264862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19955086708069</t>
+    <t xml:space="preserve">1.1995507478714</t>
   </si>
   <si>
     <t xml:space="preserve">1.20187091827393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18562936782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21811234951019</t>
+    <t xml:space="preserve">1.18562924861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21811246871948</t>
   </si>
   <si>
     <t xml:space="preserve">1.19723033905029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20303094387054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19607031345367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17286813259125</t>
+    <t xml:space="preserve">1.20303106307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19607043266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17286837100983</t>
   </si>
   <si>
     <t xml:space="preserve">1.14560568332672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23087358474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22391283512115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667407035828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25871622562408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27147734165192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26451671123505</t>
+    <t xml:space="preserve">1.23087346553802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22391295433044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667395114899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25871610641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27147722244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26451683044434</t>
   </si>
   <si>
     <t xml:space="preserve">1.27959811687469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29467964172363</t>
+    <t xml:space="preserve">1.29467952251434</t>
   </si>
   <si>
     <t xml:space="preserve">1.27031719684601</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">1.25639581680298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799714565277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24711513519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25175535678864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27207434177399</t>
+    <t xml:space="preserve">1.26799702644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24711525440216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25175559520721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2720742225647</t>
   </si>
   <si>
     <t xml:space="preserve">1.28192579746246</t>
@@ -830,31 +830,31 @@
     <t xml:space="preserve">1.23636245727539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23759412765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24128830432892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24375128746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21912252902985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20803952217102</t>
+    <t xml:space="preserve">1.23759400844574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2412885427475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24375116825104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21912240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20803964138031</t>
   </si>
   <si>
     <t xml:space="preserve">1.19572520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22527980804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21727526187897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22712695598602</t>
+    <t xml:space="preserve">1.22527968883514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21727538108826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22712683677673</t>
   </si>
   <si>
     <t xml:space="preserve">1.21481251716614</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">1.19141507148743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19449377059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21789109706879</t>
+    <t xml:space="preserve">1.19449388980865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21789121627808</t>
   </si>
   <si>
     <t xml:space="preserve">1.20249807834625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22404825687408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19634079933167</t>
+    <t xml:space="preserve">1.22404813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19634091854095</t>
   </si>
   <si>
     <t xml:space="preserve">1.20372951030731</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">1.22096967697144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176638007164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20126664638519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1994194984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20434522628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23143684864044</t>
+    <t xml:space="preserve">1.17663788795471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2012665271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19941937923431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20434534549713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23143672943115</t>
   </si>
   <si>
     <t xml:space="preserve">1.22343254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22835826873779</t>
+    <t xml:space="preserve">1.2283581495285</t>
   </si>
   <si>
     <t xml:space="preserve">1.21358096599579</t>
@@ -914,16 +914,16 @@
     <t xml:space="preserve">1.2117338180542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20680797100067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18525803089142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20003521442413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19203078746796</t>
+    <t xml:space="preserve">1.20680820941925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18525791168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20003509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19203090667725</t>
   </si>
   <si>
     <t xml:space="preserve">1.20496094226837</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22651100158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23882555961609</t>
+    <t xml:space="preserve">1.2265111207962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23882567882538</t>
   </si>
   <si>
     <t xml:space="preserve">1.24251973628998</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">1.19079947471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1889523267746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18587374687195</t>
+    <t xml:space="preserve">1.18895220756531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18587362766266</t>
   </si>
   <si>
     <t xml:space="preserve">1.17355930805206</t>
@@ -971,28 +971,28 @@
     <t xml:space="preserve">1.17602217197418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17417514324188</t>
+    <t xml:space="preserve">1.17417502403259</t>
   </si>
   <si>
     <t xml:space="preserve">1.19387805461884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17910087108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16001343727112</t>
+    <t xml:space="preserve">1.17910075187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16555488109589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16001355648041</t>
   </si>
   <si>
     <t xml:space="preserve">1.161860704422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15324068069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18956792354584</t>
+    <t xml:space="preserve">1.153240442276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18956804275513</t>
   </si>
   <si>
     <t xml:space="preserve">1.20865535736084</t>
@@ -1004,22 +1004,22 @@
     <t xml:space="preserve">1.17848515510559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19757235050201</t>
+    <t xml:space="preserve">1.1975724697113</t>
   </si>
   <si>
     <t xml:space="preserve">1.2222011089325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2074236869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20619249343872</t>
+    <t xml:space="preserve">1.20742392539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20619237422943</t>
   </si>
   <si>
     <t xml:space="preserve">1.21542811393738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21050250530243</t>
+    <t xml:space="preserve">1.21050238609314</t>
   </si>
   <si>
     <t xml:space="preserve">1.19880378246307</t>
@@ -1028,52 +1028,52 @@
     <t xml:space="preserve">1.21419680118561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23020553588867</t>
+    <t xml:space="preserve">1.23020541667938</t>
   </si>
   <si>
     <t xml:space="preserve">1.2098867893219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15693485736847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16124498844147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13600039482117</t>
+    <t xml:space="preserve">1.15693497657776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16124486923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13600063323975</t>
   </si>
   <si>
     <t xml:space="preserve">1.14646768569946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16247653961182</t>
+    <t xml:space="preserve">1.16247630119324</t>
   </si>
   <si>
     <t xml:space="preserve">1.16740214824677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16986501216888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16309213638306</t>
+    <t xml:space="preserve">1.16986489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16309225559235</t>
   </si>
   <si>
     <t xml:space="preserve">1.16493916511536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16801786422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17171216011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16863358020782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18156373500824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21296536922455</t>
+    <t xml:space="preserve">1.16801774501801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17171227931976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16863346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18156361579895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21296525001526</t>
   </si>
   <si>
     <t xml:space="preserve">1.21111810207367</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">1.21604382991791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25237119197845</t>
+    <t xml:space="preserve">1.25237131118774</t>
   </si>
   <si>
     <t xml:space="preserve">1.26222264766693</t>
@@ -1100,46 +1100,46 @@
     <t xml:space="preserve">1.26468563079834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591694355011</t>
+    <t xml:space="preserve">1.26591718196869</t>
   </si>
   <si>
     <t xml:space="preserve">1.28562009334564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30162882804871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30532288551331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29177725315094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28131008148193</t>
+    <t xml:space="preserve">1.301628947258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30532312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29177737236023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28131020069122</t>
   </si>
   <si>
     <t xml:space="preserve">1.26653277873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24990844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25606548786163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22189319133759</t>
+    <t xml:space="preserve">1.24990832805634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25606560707092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22189331054688</t>
   </si>
   <si>
     <t xml:space="preserve">1.23328411579132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23082113265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20465302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944127559662</t>
+    <t xml:space="preserve">1.23082101345062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20465314388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944103717804</t>
   </si>
   <si>
     <t xml:space="preserve">1.24621403217316</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">1.22066175937653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21973824501038</t>
+    <t xml:space="preserve">1.21973836421967</t>
   </si>
   <si>
     <t xml:space="preserve">1.2181990146637</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">1.21512031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18987584114075</t>
+    <t xml:space="preserve">1.18987572193146</t>
   </si>
   <si>
     <t xml:space="preserve">1.18433427810669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19788014888763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21081042289734</t>
+    <t xml:space="preserve">1.19788026809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21081018447876</t>
   </si>
   <si>
     <t xml:space="preserve">1.21019470691681</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.20095872879028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110727310181</t>
+    <t xml:space="preserve">1.1911073923111</t>
   </si>
   <si>
     <t xml:space="preserve">1.18310296535492</t>
@@ -1190,31 +1190,31 @@
     <t xml:space="preserve">1.18464231491089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19018363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20219027996063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20650017261505</t>
+    <t xml:space="preserve">1.19018375873566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20219016075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20650029182434</t>
   </si>
   <si>
     <t xml:space="preserve">1.26406991481781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27145862579346</t>
+    <t xml:space="preserve">1.27145850658417</t>
   </si>
   <si>
     <t xml:space="preserve">1.2806943655014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29424023628235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30409157276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31332719326019</t>
+    <t xml:space="preserve">1.29424011707306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30409181118011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31332755088806</t>
   </si>
   <si>
     <t xml:space="preserve">1.33795619010925</t>
@@ -1229,25 +1229,25 @@
     <t xml:space="preserve">1.34288191795349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3595062494278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37305200099945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38536643981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35827481746674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3761305809021</t>
+    <t xml:space="preserve">1.35950636863708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37305212020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38536655902863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35827493667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37613070011139</t>
   </si>
   <si>
     <t xml:space="preserve">1.38167214393616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35519623756409</t>
+    <t xml:space="preserve">1.3551961183548</t>
   </si>
   <si>
     <t xml:space="preserve">1.35458052158356</t>
@@ -1256,49 +1256,49 @@
     <t xml:space="preserve">1.34041905403137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34349751472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31763756275177</t>
+    <t xml:space="preserve">1.34349763393402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31763744354248</t>
   </si>
   <si>
     <t xml:space="preserve">1.29731869697571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30840158462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29622411727905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2955629825592</t>
+    <t xml:space="preserve">1.30840170383453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29622423648834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29556274414062</t>
   </si>
   <si>
     <t xml:space="preserve">1.2780374288559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26282644271851</t>
+    <t xml:space="preserve">1.26282668113708</t>
   </si>
   <si>
     <t xml:space="preserve">1.25356781482697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26018118858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25059175491333</t>
+    <t xml:space="preserve">1.26018130779266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25059187412262</t>
   </si>
   <si>
     <t xml:space="preserve">1.30217623710632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24463975429535</t>
+    <t xml:space="preserve">1.24463963508606</t>
   </si>
   <si>
     <t xml:space="preserve">1.27473080158234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24893832206726</t>
+    <t xml:space="preserve">1.24893844127655</t>
   </si>
   <si>
     <t xml:space="preserve">1.239018201828</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">1.21851682662964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25786650180817</t>
+    <t xml:space="preserve">1.25786638259888</t>
   </si>
   <si>
     <t xml:space="preserve">1.23934900760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25092256069183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24728512763977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23868775367737</t>
+    <t xml:space="preserve">1.25092232227325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24728500843048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23868763446808</t>
   </si>
   <si>
     <t xml:space="preserve">1.2522451877594</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">1.25555181503296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23604238033295</t>
+    <t xml:space="preserve">1.23604226112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.21686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23835694789886</t>
+    <t xml:space="preserve">1.23835682868958</t>
   </si>
   <si>
     <t xml:space="preserve">1.27043199539185</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">1.25422918796539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25158393383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2995308637619</t>
+    <t xml:space="preserve">1.25158369541168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29953098297119</t>
   </si>
   <si>
     <t xml:space="preserve">1.2909334897995</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">1.32862985134125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3273069858551</t>
+    <t xml:space="preserve">1.32730710506439</t>
   </si>
   <si>
     <t xml:space="preserve">1.31011235713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29192543029785</t>
+    <t xml:space="preserve">1.29192554950714</t>
   </si>
   <si>
     <t xml:space="preserve">1.27737605571747</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">1.29258680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26844799518585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26613318920135</t>
+    <t xml:space="preserve">1.26844787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26613330841064</t>
   </si>
   <si>
     <t xml:space="preserve">1.25951993465424</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">1.26051187515259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26877868175507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27307724952698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.288618683815</t>
+    <t xml:space="preserve">1.26877856254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27307736873627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28861880302429</t>
   </si>
   <si>
     <t xml:space="preserve">1.24959981441498</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">1.24298655986786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24596238136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24331712722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24100232124329</t>
+    <t xml:space="preserve">1.2459625005722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24331700801849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24100244045258</t>
   </si>
   <si>
     <t xml:space="preserve">1.22678363323212</t>
@@ -1433,25 +1433,25 @@
     <t xml:space="preserve">1.26447999477386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28068256378174</t>
+    <t xml:space="preserve">1.28068268299103</t>
   </si>
   <si>
     <t xml:space="preserve">1.25522112846375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25489044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27406930923462</t>
+    <t xml:space="preserve">1.25489056110382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27406919002533</t>
   </si>
   <si>
     <t xml:space="preserve">1.30449092388153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30052304267883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29655468463898</t>
+    <t xml:space="preserve">1.30052280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29655504226685</t>
   </si>
   <si>
     <t xml:space="preserve">1.30482161045074</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">1.29986166954041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28365874290466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28994143009186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32036304473877</t>
+    <t xml:space="preserve">1.28365886211395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28994154930115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32036292552948</t>
   </si>
   <si>
     <t xml:space="preserve">1.31540298461914</t>
@@ -1481,37 +1481,37 @@
     <t xml:space="preserve">1.33259785175323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33061385154724</t>
+    <t xml:space="preserve">1.33061397075653</t>
   </si>
   <si>
     <t xml:space="preserve">1.32400047779083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35574460029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558484077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36698758602142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3855048418045</t>
+    <t xml:space="preserve">1.35574448108673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558472156525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36698746681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38550496101379</t>
   </si>
   <si>
     <t xml:space="preserve">1.38748896121979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40336096286774</t>
+    <t xml:space="preserve">1.40336108207703</t>
   </si>
   <si>
     <t xml:space="preserve">1.41195845603943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41328120231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34251797199249</t>
+    <t xml:space="preserve">1.41328132152557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3425178527832</t>
   </si>
   <si>
     <t xml:space="preserve">1.31705641746521</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">1.29688549041748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30019223690033</t>
+    <t xml:space="preserve">1.30019211769104</t>
   </si>
   <si>
     <t xml:space="preserve">1.31639504432678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26315724849701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26745593547821</t>
+    <t xml:space="preserve">1.26315712928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2674560546875</t>
   </si>
   <si>
     <t xml:space="preserve">1.26249587535858</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">1.2714239358902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24860787391663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24761581420898</t>
+    <t xml:space="preserve">1.24860775470734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24761593341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.23141300678253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24662375450134</t>
+    <t xml:space="preserve">1.24662387371063</t>
   </si>
   <si>
     <t xml:space="preserve">1.24926912784576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2823361158371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26977062225342</t>
+    <t xml:space="preserve">1.28233587741852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26977050304413</t>
   </si>
   <si>
     <t xml:space="preserve">1.27704524993896</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">1.30118417739868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30812835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30912029743195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3253231048584</t>
+    <t xml:space="preserve">1.3081282377243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30912041664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32532298564911</t>
   </si>
   <si>
     <t xml:space="preserve">1.32796823978424</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">1.34119534492493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36566483974457</t>
+    <t xml:space="preserve">1.36566495895386</t>
   </si>
   <si>
     <t xml:space="preserve">1.37095546722412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35971260070801</t>
+    <t xml:space="preserve">1.35971283912659</t>
   </si>
   <si>
     <t xml:space="preserve">1.33590447902679</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">1.33722722530365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34979259967804</t>
+    <t xml:space="preserve">1.34979248046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.33193647861481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34053385257721</t>
+    <t xml:space="preserve">1.3405339717865</t>
   </si>
   <si>
     <t xml:space="preserve">1.32267773151398</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">1.34780859947205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36434197425842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3530992269516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36301946640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30548286437988</t>
+    <t xml:space="preserve">1.36434209346771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35309934616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36301934719086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30548298358917</t>
   </si>
   <si>
     <t xml:space="preserve">1.32333898544312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28961086273193</t>
+    <t xml:space="preserve">1.28961074352264</t>
   </si>
   <si>
     <t xml:space="preserve">1.29060280323029</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">1.28498136997223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26811730861664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30713641643524</t>
+    <t xml:space="preserve">1.26811718940735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30713629722595</t>
   </si>
   <si>
     <t xml:space="preserve">1.30845904350281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34185671806335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3749235868454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36963284015656</t>
+    <t xml:space="preserve">1.34185647964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37492334842682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36963272094727</t>
   </si>
   <si>
     <t xml:space="preserve">1.38881158828735</t>
@@ -1688,31 +1688,31 @@
     <t xml:space="preserve">1.41261970996857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42716908454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39807045459747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4265079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44502544403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44833207130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45362281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44304132461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44965469837189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47081756591797</t>
+    <t xml:space="preserve">1.42716944217682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39807057380676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42650783061981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44502532482147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44833219051361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45362293720245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44304144382477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4496545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47081768512726</t>
   </si>
   <si>
     <t xml:space="preserve">1.48735117912292</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">1.4714789390564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46817243099213</t>
+    <t xml:space="preserve">1.46817231178284</t>
   </si>
   <si>
     <t xml:space="preserve">1.44171869754791</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">1.43642795085907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43576657772064</t>
+    <t xml:space="preserve">1.43576669692993</t>
   </si>
   <si>
     <t xml:space="preserve">1.43907344341278</t>
@@ -1742,82 +1742,82 @@
     <t xml:space="preserve">1.4073292016983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36169672012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38219821453094</t>
+    <t xml:space="preserve">1.361696600914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38219797611237</t>
   </si>
   <si>
     <t xml:space="preserve">1.411297082901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40865194797516</t>
+    <t xml:space="preserve">1.40865182876587</t>
   </si>
   <si>
     <t xml:space="preserve">1.43510544300079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43444406986237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43047606945038</t>
+    <t xml:space="preserve">1.43444395065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43047618865967</t>
   </si>
   <si>
     <t xml:space="preserve">1.43775069713593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44105732440948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43179857730865</t>
+    <t xml:space="preserve">1.44105744361877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43179845809937</t>
   </si>
   <si>
     <t xml:space="preserve">1.4523001909256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45957481861115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46023619174957</t>
+    <t xml:space="preserve">1.45957505702972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46023631095886</t>
   </si>
   <si>
     <t xml:space="preserve">1.47280168533325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4761084318161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883368492126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45825207233429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48602855205536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49065768718719</t>
+    <t xml:space="preserve">1.47610831260681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883356571198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45825219154358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48602843284607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49065780639648</t>
   </si>
   <si>
     <t xml:space="preserve">1.50322329998016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50586843490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562903404236</t>
+    <t xml:space="preserve">1.50586867332458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562891483307</t>
   </si>
   <si>
     <t xml:space="preserve">1.5620824098587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56075954437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57530915737152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57332503795624</t>
+    <t xml:space="preserve">1.56075978279114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57530903816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57332515716553</t>
   </si>
   <si>
     <t xml:space="preserve">1.5640664100647</t>
@@ -1832,34 +1832,34 @@
     <t xml:space="preserve">1.58655190467834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60374653339386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60837590694427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59713351726532</t>
+    <t xml:space="preserve">1.60374665260315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60837614536285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59713327884674</t>
   </si>
   <si>
     <t xml:space="preserve">1.6116828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61102163791656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59448802471161</t>
+    <t xml:space="preserve">1.61102151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5944881439209</t>
   </si>
   <si>
     <t xml:space="preserve">1.59382677078247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59250390529633</t>
+    <t xml:space="preserve">1.59250402450562</t>
   </si>
   <si>
     <t xml:space="preserve">1.59779465198517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60308527946472</t>
+    <t xml:space="preserve">1.60308539867401</t>
   </si>
   <si>
     <t xml:space="preserve">1.60110151767731</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">1.61300551891327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61631226539612</t>
+    <t xml:space="preserve">1.61631214618683</t>
   </si>
   <si>
     <t xml:space="preserve">1.60771465301514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60176277160645</t>
+    <t xml:space="preserve">1.60176265239716</t>
   </si>
   <si>
     <t xml:space="preserve">1.61432814598083</t>
@@ -1886,112 +1886,112 @@
     <t xml:space="preserve">1.61565101146698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61498939990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61829626560211</t>
+    <t xml:space="preserve">1.61498951911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61829614639282</t>
   </si>
   <si>
     <t xml:space="preserve">1.62160289287567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59316527843475</t>
+    <t xml:space="preserve">1.59316515922546</t>
   </si>
   <si>
     <t xml:space="preserve">1.56671178340912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54554891586304</t>
+    <t xml:space="preserve">1.54554903507233</t>
   </si>
   <si>
     <t xml:space="preserve">1.60506951808929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63350701332092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64474987983704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689363956451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6297048330307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916327476501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143290996552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294214725494</t>
+    <t xml:space="preserve">1.63350713253021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64474964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6268937587738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62970459461212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916315555573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143279075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294238567352</t>
   </si>
   <si>
     <t xml:space="preserve">1.60721635818481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59456670284271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57629477977753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52991247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53904843330383</t>
+    <t xml:space="preserve">1.59456658363342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57629489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991259098053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53904831409454</t>
   </si>
   <si>
     <t xml:space="preserve">1.53342628479004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52077651023865</t>
+    <t xml:space="preserve">1.52077662944794</t>
   </si>
   <si>
     <t xml:space="preserve">1.54748153686523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53061509132385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53412902355194</t>
+    <t xml:space="preserve">1.53061521053314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53412926197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.53764283657074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54537332057953</t>
+    <t xml:space="preserve">1.54537308216095</t>
   </si>
   <si>
     <t xml:space="preserve">1.54607605934143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53272342681885</t>
+    <t xml:space="preserve">1.53272354602814</t>
   </si>
   <si>
     <t xml:space="preserve">1.55732023715973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52920973300934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52358770370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56153678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56575322151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57207822799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59526944160461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58964741230011</t>
+    <t xml:space="preserve">1.52920997142792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52358758449554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56153655052185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56575345993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57207810878754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59526932239532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58964729309082</t>
   </si>
   <si>
     <t xml:space="preserve">1.58753907680511</t>
@@ -2000,52 +2000,52 @@
     <t xml:space="preserve">1.57137548923492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61494660377502</t>
+    <t xml:space="preserve">1.61494672298431</t>
   </si>
   <si>
     <t xml:space="preserve">1.61283850669861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63884043693542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64797651767731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64446246623993</t>
+    <t xml:space="preserve">1.638840675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64797639846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64446258544922</t>
   </si>
   <si>
     <t xml:space="preserve">1.6311103105545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63743484020233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65992343425751</t>
+    <t xml:space="preserve">1.63743495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6599235534668</t>
   </si>
   <si>
     <t xml:space="preserve">1.66273438930511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66203165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6732759475708</t>
+    <t xml:space="preserve">1.6620317697525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67327582836151</t>
   </si>
   <si>
     <t xml:space="preserve">1.68100619316101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67819535732269</t>
+    <t xml:space="preserve">1.67819511890411</t>
   </si>
   <si>
     <t xml:space="preserve">1.65008473396301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6992781162262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68873655796051</t>
+    <t xml:space="preserve">1.69927799701691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68873679637909</t>
   </si>
   <si>
     <t xml:space="preserve">1.69225037097931</t>
@@ -2063,31 +2063,31 @@
     <t xml:space="preserve">1.66062617301941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62127149105072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60089147090912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60510802268982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6135413646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57488918304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59667503833771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55661737918854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55169808864594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58472788333893</t>
+    <t xml:space="preserve">1.62127137184143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60089159011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60510790348053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61354124546051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57488930225372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59667491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55661749839783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55169796943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58472800254822</t>
   </si>
   <si>
     <t xml:space="preserve">1.59386372566223</t>
@@ -2096,10 +2096,10 @@
     <t xml:space="preserve">1.62478530406952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60018861293793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59948587417603</t>
+    <t xml:space="preserve">1.60018873214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59948599338531</t>
   </si>
   <si>
     <t xml:space="preserve">1.63251578807831</t>
@@ -2108,121 +2108,121 @@
     <t xml:space="preserve">1.62619078159332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63321840763092</t>
+    <t xml:space="preserve">1.63321828842163</t>
   </si>
   <si>
     <t xml:space="preserve">1.6430572271347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65851771831512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6796008348465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70208919048309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.698575258255</t>
+    <t xml:space="preserve">1.65851783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67960071563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7020890712738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69857537746429</t>
   </si>
   <si>
     <t xml:space="preserve">1.69716989994049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68452000617981</t>
+    <t xml:space="preserve">1.6845201253891</t>
   </si>
   <si>
     <t xml:space="preserve">1.69084489345551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71333336830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69014203548431</t>
+    <t xml:space="preserve">1.7133332490921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69014227390289</t>
   </si>
   <si>
     <t xml:space="preserve">1.69154763221741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6838173866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6964670419693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70560300350189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71473896503448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70138657093048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6676539182663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66624844074249</t>
+    <t xml:space="preserve">1.68381726741791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69646692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7056028842926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7147388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7013863325119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66765356063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6662483215332</t>
   </si>
   <si>
     <t xml:space="preserve">1.65570676326752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66976201534271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6866283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71754992008209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70490026473999</t>
+    <t xml:space="preserve">1.66976189613342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68662846088409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7175498008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7049001455307</t>
   </si>
   <si>
     <t xml:space="preserve">1.7231719493866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73792994022369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76885163784027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77095997333527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76744627952576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77939295768738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76814889907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77447354793549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78220403194427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7723650932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75760734081268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78782594203949</t>
+    <t xml:space="preserve">1.73793005943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76885151863098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77095973491669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76744604110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77939283847809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76814877986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77447366714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78220415115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77236533164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75760746002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78431236743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78782606124878</t>
   </si>
   <si>
     <t xml:space="preserve">1.79204261302948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80258429050446</t>
+    <t xml:space="preserve">1.80258405208588</t>
   </si>
   <si>
     <t xml:space="preserve">1.83280289173126</t>
@@ -2234,100 +2234,100 @@
     <t xml:space="preserve">1.83842480182648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87075209617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85599410533905</t>
+    <t xml:space="preserve">1.87075197696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85599386692047</t>
   </si>
   <si>
     <t xml:space="preserve">1.84756088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86091315746307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82788336277008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82155883312225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84123587608337</t>
+    <t xml:space="preserve">1.86091327667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82788360118866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82155859470367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84123599529266</t>
   </si>
   <si>
     <t xml:space="preserve">1.83772218227386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85388565063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86021029949188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86442708969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85739958286285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81593644618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79133987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81804466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81101715564728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79696178436279</t>
+    <t xml:space="preserve">1.85388576984406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86021065711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86442720890045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85739946365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81593656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79133999347687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81804490089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81101703643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79696190357208</t>
   </si>
   <si>
     <t xml:space="preserve">1.79907023906708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79415082931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80680048465729</t>
+    <t xml:space="preserve">1.79415094852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80680060386658</t>
   </si>
   <si>
     <t xml:space="preserve">1.82436966896057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87918496131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87356293201447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90307927131653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94102823734283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87637400627136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83912789821625</t>
+    <t xml:space="preserve">1.87918519973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87356305122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90307915210724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94102811813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87637388706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83912777900696</t>
   </si>
   <si>
     <t xml:space="preserve">1.82015311717987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81312561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79274547100067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80539500713348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81523382663727</t>
+    <t xml:space="preserve">1.81312537193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79274535179138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80539512634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81523358821869</t>
   </si>
   <si>
     <t xml:space="preserve">1.80047583580017</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">1.78642070293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77587902545929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75057971477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74917423725128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75339066982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75690460205078</t>
+    <t xml:space="preserve">1.77587914466858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75057983398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75339078903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7569043636322</t>
   </si>
   <si>
     <t xml:space="preserve">1.75831019878387</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">1.73230791091919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74144375324249</t>
+    <t xml:space="preserve">1.74144387245178</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895551681519</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">1.73722720146179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72598302364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70068371295929</t>
+    <t xml:space="preserve">1.7259829044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70068347454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.6859256029129</t>
@@ -2378,79 +2378,79 @@
     <t xml:space="preserve">1.71263062953949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73160517215729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71825265884399</t>
+    <t xml:space="preserve">1.731605052948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7182525396347</t>
   </si>
   <si>
     <t xml:space="preserve">1.74214661121368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74847149848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82507252693176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84685814380646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85950779914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69365608692169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63462400436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57980859279633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55591475963593</t>
+    <t xml:space="preserve">1.74847137928009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82507240772247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85950767993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69365620613098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63462388515472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57980847358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55591464042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.52499330043793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50953233242035</t>
+    <t xml:space="preserve">1.50953245162964</t>
   </si>
   <si>
     <t xml:space="preserve">1.45050024986267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41325402259827</t>
+    <t xml:space="preserve">1.41325414180756</t>
   </si>
   <si>
     <t xml:space="preserve">1.30010938644409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28043210506439</t>
+    <t xml:space="preserve">1.28043222427368</t>
   </si>
   <si>
     <t xml:space="preserve">1.27164745330811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19469523429871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25970065593719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2663768529892</t>
+    <t xml:space="preserve">1.19469511508942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25970053672791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637673377991</t>
   </si>
   <si>
     <t xml:space="preserve">1.32540881633759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530481815338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43855333328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44277012348175</t>
+    <t xml:space="preserve">1.37530493736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43855345249176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44277000427246</t>
   </si>
   <si>
     <t xml:space="preserve">1.41676783561707</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">1.57418656349182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54888689517975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55310356616974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61635196208954</t>
+    <t xml:space="preserve">1.54888701438904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55310368537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61635220050812</t>
   </si>
   <si>
     <t xml:space="preserve">1.60229682922363</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">1.51234340667725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51937115192413</t>
+    <t xml:space="preserve">1.51937103271484</t>
   </si>
   <si>
     <t xml:space="preserve">1.53483176231384</t>
@@ -2504,16 +2504,16 @@
     <t xml:space="preserve">1.57699751853943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54326498508453</t>
+    <t xml:space="preserve">1.54326510429382</t>
   </si>
   <si>
     <t xml:space="preserve">1.51796567440033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59761190414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47028803825378</t>
+    <t xml:space="preserve">1.597611784935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47028791904449</t>
   </si>
   <si>
     <t xml:space="preserve">1.46498286724091</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">1.47862458229065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51272940635681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53091824054718</t>
+    <t xml:space="preserve">1.51272928714752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53091835975647</t>
   </si>
   <si>
     <t xml:space="preserve">1.54759180545807</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">1.56881237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51879227161407</t>
+    <t xml:space="preserve">1.51879215240479</t>
   </si>
   <si>
     <t xml:space="preserve">1.55365478992462</t>
@@ -2555,19 +2555,19 @@
     <t xml:space="preserve">1.72341990470886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71129381656647</t>
+    <t xml:space="preserve">1.71129393577576</t>
   </si>
   <si>
     <t xml:space="preserve">1.65975797176361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64005315303802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60670638084412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61125361919403</t>
+    <t xml:space="preserve">1.64005327224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60670626163483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61125373840332</t>
   </si>
   <si>
     <t xml:space="preserve">1.5854856967926</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">1.61883246898651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62337982654572</t>
+    <t xml:space="preserve">1.62337970733643</t>
   </si>
   <si>
     <t xml:space="preserve">1.62186408042908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59154880046844</t>
+    <t xml:space="preserve">1.59154868125916</t>
   </si>
   <si>
     <t xml:space="preserve">1.62792706489563</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">1.57487547397614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60064339637756</t>
+    <t xml:space="preserve">1.60064351558685</t>
   </si>
   <si>
     <t xml:space="preserve">1.59306454658508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61428534984589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61276948451996</t>
+    <t xml:space="preserve">1.6142852306366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61276936531067</t>
   </si>
   <si>
     <t xml:space="preserve">1.59912753105164</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">1.64156889915466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65672659873962</t>
+    <t xml:space="preserve">1.65672647953033</t>
   </si>
   <si>
     <t xml:space="preserve">1.63399004936218</t>
@@ -2630,76 +2630,76 @@
     <t xml:space="preserve">1.64914774894714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65521097183228</t>
+    <t xml:space="preserve">1.6552107334137</t>
   </si>
   <si>
     <t xml:space="preserve">1.63247442245483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64611625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70977818965912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69765222072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946302890778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83407044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85680711269379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83558630943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8280074596405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80678689479828</t>
+    <t xml:space="preserve">1.64611613750458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580097675323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70977807044983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69765210151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432554721832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83407056331635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8568069934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83558619022369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82800734043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80678677558899</t>
   </si>
   <si>
     <t xml:space="preserve">1.80981826782227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84164941310883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8401335477829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377562046051</t>
+    <t xml:space="preserve">1.84164929389954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84013342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377550125122</t>
   </si>
   <si>
     <t xml:space="preserve">1.85832262039185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83710217475891</t>
+    <t xml:space="preserve">1.83710205554962</t>
   </si>
   <si>
     <t xml:space="preserve">1.83861780166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82194459438324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81891286373138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859770298004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76434564590454</t>
+    <t xml:space="preserve">1.82194471359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81891310214996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859746456146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76434540748596</t>
   </si>
   <si>
     <t xml:space="preserve">1.79769229888916</t>
@@ -2708,19 +2708,19 @@
     <t xml:space="preserve">1.82042872905731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82346022129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82649195194244</t>
+    <t xml:space="preserve">1.82346034049988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82649171352386</t>
   </si>
   <si>
     <t xml:space="preserve">1.81739723682404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80527102947235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75979840755463</t>
+    <t xml:space="preserve">1.80527114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75979828834534</t>
   </si>
   <si>
     <t xml:space="preserve">1.76282978057861</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">1.7173570394516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73099887371063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69007325172424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69310486316681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68704175949097</t>
+    <t xml:space="preserve">1.73099863529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69007337093353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69310474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68704187870026</t>
   </si>
   <si>
     <t xml:space="preserve">1.68552601337433</t>
@@ -2747,13 +2747,13 @@
     <t xml:space="preserve">1.67491567134857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70371508598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71584105491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68401026725769</t>
+    <t xml:space="preserve">1.70371496677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71584129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6840101480484</t>
   </si>
   <si>
     <t xml:space="preserve">1.66278958320618</t>
@@ -2762,16 +2762,19 @@
     <t xml:space="preserve">1.58396983146667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5445601940155</t>
+    <t xml:space="preserve">1.54456031322479</t>
   </si>
   <si>
     <t xml:space="preserve">1.55820214748383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52940261363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53394985198975</t>
+    <t xml:space="preserve">1.54607594013214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52940249443054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53394973278046</t>
   </si>
   <si>
     <t xml:space="preserve">1.49226641654968</t>
@@ -2786,100 +2789,97 @@
     <t xml:space="preserve">1.55062329769135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57032823562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58851730823517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5612336397171</t>
+    <t xml:space="preserve">1.57032811641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58851742744446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56123352050781</t>
   </si>
   <si>
     <t xml:space="preserve">1.63702178001404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62944281101227</t>
+    <t xml:space="preserve">1.62944293022156</t>
   </si>
   <si>
     <t xml:space="preserve">1.64308476448059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70068347454071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7219043970108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73706197738647</t>
+    <t xml:space="preserve">1.72190427780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73706185817719</t>
   </si>
   <si>
     <t xml:space="preserve">1.73403036594391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74767208099365</t>
+    <t xml:space="preserve">1.74767220020294</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221943855286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73251461982727</t>
+    <t xml:space="preserve">1.73251450061798</t>
   </si>
   <si>
     <t xml:space="preserve">1.72493577003479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68855762481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72796738147736</t>
+    <t xml:space="preserve">1.6885575056076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72796726226807</t>
   </si>
   <si>
     <t xml:space="preserve">1.6961362361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67643141746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65066349506378</t>
+    <t xml:space="preserve">1.67643129825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65066337585449</t>
   </si>
   <si>
     <t xml:space="preserve">1.67794716358185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66430532932281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66127371788025</t>
+    <t xml:space="preserve">1.6643054485321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66127383708954</t>
   </si>
   <si>
     <t xml:space="preserve">1.66582107543945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67339980602264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67036831378937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70219922065735</t>
+    <t xml:space="preserve">1.67339992523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67036843299866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70219933986664</t>
   </si>
   <si>
     <t xml:space="preserve">1.60822212696075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79011332988739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79617631435394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90227973461151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87196445465088</t>
+    <t xml:space="preserve">1.79011356830597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79617643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89470088481903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9022798538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87196457386017</t>
   </si>
   <si>
     <t xml:space="preserve">1.81436562538147</t>
@@ -2894,16 +2894,16 @@
     <t xml:space="preserve">1.88105928897858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87954354286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89166951179504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89015376567841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90531146526337</t>
+    <t xml:space="preserve">1.87954342365265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89166939258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89015352725983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90531122684479</t>
   </si>
   <si>
     <t xml:space="preserve">1.90834271907806</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">1.90379559993744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88409078121185</t>
+    <t xml:space="preserve">1.88409066200256</t>
   </si>
   <si>
     <t xml:space="preserve">1.90682709217072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93411087989807</t>
+    <t xml:space="preserve">1.93411076068878</t>
   </si>
   <si>
     <t xml:space="preserve">1.91895318031311</t>
@@ -2933,25 +2933,25 @@
     <t xml:space="preserve">1.91592168807983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93714213371277</t>
+    <t xml:space="preserve">1.93714225292206</t>
   </si>
   <si>
     <t xml:space="preserve">1.95684719085693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9432053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93562626838684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94623672962189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95078384876251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9265319108963</t>
+    <t xml:space="preserve">1.94320511817932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93562638759613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94623684883118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95078408718109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92653203010559</t>
   </si>
   <si>
     <t xml:space="preserve">1.96139454841614</t>
@@ -2963,43 +2963,43 @@
     <t xml:space="preserve">1.97048890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98867809772491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01141476631165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9795835018158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97503626346588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98564672470093</t>
+    <t xml:space="preserve">1.9886782169342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01141452789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97958362102509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97503638267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98564648628235</t>
   </si>
   <si>
     <t xml:space="preserve">1.99474108219147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98716247081757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.984130859375</t>
+    <t xml:space="preserve">1.98716235160828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98413097858429</t>
   </si>
   <si>
     <t xml:space="preserve">1.95987868309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99170982837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99625718593597</t>
+    <t xml:space="preserve">1.99170970916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9962569475174</t>
   </si>
   <si>
     <t xml:space="preserve">2.01293015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03869819641113</t>
+    <t xml:space="preserve">2.03869843482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.03566670417786</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">2.04627704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05385613441467</t>
+    <t xml:space="preserve">2.05385589599609</t>
   </si>
   <si>
     <t xml:space="preserve">2.05082440376282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07204508781433</t>
+    <t xml:space="preserve">2.07204484939575</t>
   </si>
   <si>
     <t xml:space="preserve">2.06446623802185</t>
@@ -3023,19 +3023,19 @@
     <t xml:space="preserve">2.04324555397034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03718233108521</t>
+    <t xml:space="preserve">2.03718256950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.06598210334778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09042191505432</t>
+    <t xml:space="preserve">2.09042167663574</t>
   </si>
   <si>
     <t xml:space="preserve">2.02850747108459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99266231060028</t>
+    <t xml:space="preserve">1.99266242980957</t>
   </si>
   <si>
     <t xml:space="preserve">1.98777437210083</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">2.03991270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04480051994324</t>
+    <t xml:space="preserve">2.04480075836182</t>
   </si>
   <si>
     <t xml:space="preserve">2.0464301109314</t>
@@ -3065,82 +3065,82 @@
     <t xml:space="preserve">2.03665399551392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03176593780518</t>
+    <t xml:space="preserve">2.03176617622375</t>
   </si>
   <si>
     <t xml:space="preserve">2.02036094665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02524876594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02687811851501</t>
+    <t xml:space="preserve">2.02524900436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02687788009644</t>
   </si>
   <si>
     <t xml:space="preserve">2.01221442222595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99755024909973</t>
+    <t xml:space="preserve">1.99755012989044</t>
   </si>
   <si>
     <t xml:space="preserve">1.9421534538269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94867050647736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94052398204803</t>
+    <t xml:space="preserve">1.94867062568665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9242308139801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94052386283875</t>
   </si>
   <si>
     <t xml:space="preserve">1.93726527690887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92748928070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99429178237915</t>
+    <t xml:space="preserve">1.92748939990997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99429154396057</t>
   </si>
   <si>
     <t xml:space="preserve">1.98288655281067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96170520782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963334441185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94541192054749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8867564201355</t>
+    <t xml:space="preserve">1.961705327034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96333456039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94541203975677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88675630092621</t>
   </si>
   <si>
     <t xml:space="preserve">1.91282558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91608428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90630805492401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86068725585938</t>
+    <t xml:space="preserve">1.91608417034149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9063081741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8606870174408</t>
   </si>
   <si>
     <t xml:space="preserve">1.88349771499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92097210884094</t>
+    <t xml:space="preserve">1.92097198963165</t>
   </si>
   <si>
     <t xml:space="preserve">1.93400681018829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90956687927246</t>
+    <t xml:space="preserve">1.90956699848175</t>
   </si>
   <si>
     <t xml:space="preserve">1.92586028575897</t>
@@ -3149,13 +3149,13 @@
     <t xml:space="preserve">1.92260134220123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92911899089813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01384329795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02199006080627</t>
+    <t xml:space="preserve">1.92911887168884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01384353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02199029922485</t>
   </si>
   <si>
     <t xml:space="preserve">2.02361941337585</t>
@@ -3164,16 +3164,16 @@
     <t xml:space="preserve">2.00732612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98940360546112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99103307723999</t>
+    <t xml:space="preserve">1.98940372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9910329580307</t>
   </si>
   <si>
     <t xml:space="preserve">2.00243830680847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98451566696167</t>
+    <t xml:space="preserve">1.98451578617096</t>
   </si>
   <si>
     <t xml:space="preserve">1.98614513874054</t>
@@ -3182,34 +3182,34 @@
     <t xml:space="preserve">1.97148108482361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96985185146332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93563580513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96007573604584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95029997825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91445481777191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93889474868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97799837589264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95844650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9812570810318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01873135566711</t>
+    <t xml:space="preserve">1.96985173225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93563604354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96007585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95029985904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91445457935333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93889486789703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97799825668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95844674110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98125696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01873159408569</t>
   </si>
   <si>
     <t xml:space="preserve">2.03013682365417</t>
@@ -3218,25 +3218,25 @@
     <t xml:space="preserve">2.03502464294434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04968881607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04317116737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04154205322266</t>
+    <t xml:space="preserve">2.04968857765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04317140579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04154229164124</t>
   </si>
   <si>
     <t xml:space="preserve">2.05294728279114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06272339820862</t>
+    <t xml:space="preserve">2.06272315979004</t>
   </si>
   <si>
     <t xml:space="preserve">2.05946469306946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05783534049988</t>
+    <t xml:space="preserve">2.0578351020813</t>
   </si>
   <si>
     <t xml:space="preserve">2.07412838935852</t>
@@ -3254,16 +3254,16 @@
     <t xml:space="preserve">1.96496391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95192921161652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00080919265747</t>
+    <t xml:space="preserve">1.95192933082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00080895423889</t>
   </si>
   <si>
     <t xml:space="preserve">1.99592101573944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01058459281921</t>
+    <t xml:space="preserve">2.01058483123779</t>
   </si>
   <si>
     <t xml:space="preserve">1.97636914253235</t>
@@ -3275,18 +3275,15 @@
     <t xml:space="preserve">2.05131793022156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08064579963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07086968421936</t>
+    <t xml:space="preserve">2.08064556121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07086992263794</t>
   </si>
   <si>
     <t xml:space="preserve">2.07738709449768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0659818649292</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.0936803817749</t>
   </si>
   <si>
@@ -3311,7 +3308,7 @@
     <t xml:space="preserve">2.12626671791077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14418935775757</t>
+    <t xml:space="preserve">2.14418911933899</t>
   </si>
   <si>
     <t xml:space="preserve">2.11486148834229</t>
@@ -3326,16 +3323,16 @@
     <t xml:space="preserve">2.09693884849548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0480592250824</t>
+    <t xml:space="preserve">2.04805946350098</t>
   </si>
   <si>
     <t xml:space="preserve">1.95518815517426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97962784767151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91771352291107</t>
+    <t xml:space="preserve">1.97962772846222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91771340370178</t>
   </si>
   <si>
     <t xml:space="preserve">1.81506609916687</t>
@@ -3344,7 +3341,7 @@
     <t xml:space="preserve">1.77107441425323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87046301364899</t>
+    <t xml:space="preserve">1.87046313285828</t>
   </si>
   <si>
     <t xml:space="preserve">1.97473967075348</t>
@@ -3353,7 +3350,7 @@
     <t xml:space="preserve">2.00569677352905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10997366905212</t>
+    <t xml:space="preserve">2.10997343063354</t>
   </si>
   <si>
     <t xml:space="preserve">2.14744782447815</t>
@@ -3368,7 +3365,7 @@
     <t xml:space="preserve">2.16374111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18166375160217</t>
+    <t xml:space="preserve">2.18166399002075</t>
   </si>
   <si>
     <t xml:space="preserve">2.18818140029907</t>
@@ -3377,25 +3374,25 @@
     <t xml:space="preserve">2.19795703887939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16211223602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18003487586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17840504646301</t>
+    <t xml:space="preserve">2.16211199760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18003463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17840528488159</t>
   </si>
   <si>
     <t xml:space="preserve">2.19958639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20284509658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20447421073914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19632792472839</t>
+    <t xml:space="preserve">2.20284485816956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20447444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19632768630981</t>
   </si>
   <si>
     <t xml:space="preserve">2.19143986701965</t>
@@ -3410,7 +3407,7 @@
     <t xml:space="preserve">2.19306898117065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655157089233</t>
+    <t xml:space="preserve">2.18655180931091</t>
   </si>
   <si>
     <t xml:space="preserve">2.17025852203369</t>
@@ -3425,10 +3422,10 @@
     <t xml:space="preserve">2.21099162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14093089103699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17351722717285</t>
+    <t xml:space="preserve">2.14093065261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17351698875427</t>
   </si>
   <si>
     <t xml:space="preserve">2.17514657974243</t>
@@ -36304,7 +36301,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1223" t="s">
-        <v>650</v>
+        <v>918</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36330,7 +36327,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1224" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36356,7 +36353,7 @@
         <v>2.0239999294281</v>
       </c>
       <c r="G1225" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36382,7 +36379,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1226" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36408,7 +36405,7 @@
         <v>1.96899998188019</v>
       </c>
       <c r="G1227" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36434,7 +36431,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G1228" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36460,7 +36457,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G1229" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36486,7 +36483,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G1230" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36512,7 +36509,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G1231" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36538,7 +36535,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G1232" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36590,7 +36587,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36616,7 +36613,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36642,7 +36639,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36694,7 +36691,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1238" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36772,7 +36769,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1241" t="s">
-        <v>930</v>
+        <v>785</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36824,7 +36821,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1243" t="s">
-        <v>930</v>
+        <v>785</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -44520,7 +44517,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1539" t="s">
-        <v>1090</v>
+        <v>1004</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44546,7 +44543,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44728,7 +44725,7 @@
         <v>2.58200001716614</v>
       </c>
       <c r="G1547" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44754,7 +44751,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1548" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44780,7 +44777,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G1549" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44806,7 +44803,7 @@
         <v>2.56399989128113</v>
       </c>
       <c r="G1550" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44884,7 +44881,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1553" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -44910,7 +44907,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1554" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44936,7 +44933,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1555" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44962,7 +44959,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1556" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44988,7 +44985,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1557" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45014,7 +45011,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1558" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45040,7 +45037,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1559" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45066,7 +45063,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1560" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45092,7 +45089,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1561" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45144,7 +45141,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1563" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45196,7 +45193,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1565" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45248,7 +45245,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1567" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45274,7 +45271,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1568" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45352,7 +45349,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1571" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45378,7 +45375,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1572" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45404,7 +45401,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1573" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45430,7 +45427,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1574" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45482,7 +45479,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1576" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45560,7 +45557,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1579" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45586,7 +45583,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1580" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45612,7 +45609,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1581" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45638,7 +45635,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1582" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45664,7 +45661,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1583" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45690,7 +45687,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1584" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45716,7 +45713,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G1585" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45742,7 +45739,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1586" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45768,7 +45765,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45794,7 +45791,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1588" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45820,7 +45817,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1589" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45846,7 +45843,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1590" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45872,7 +45869,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1591" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45898,7 +45895,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1592" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -45924,7 +45921,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1593" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -45950,7 +45947,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1594" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45976,7 +45973,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G1595" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46002,7 +45999,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1596" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46028,7 +46025,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1597" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46054,7 +46051,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1598" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46080,7 +46077,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46106,7 +46103,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1600" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46132,7 +46129,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1601" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46158,7 +46155,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1602" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46184,7 +46181,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G1603" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46210,7 +46207,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1604" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46236,7 +46233,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1605" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46262,7 +46259,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G1606" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46288,7 +46285,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G1607" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46314,7 +46311,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G1608" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46340,7 +46337,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1609" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46366,7 +46363,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G1610" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46392,7 +46389,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1611" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46418,7 +46415,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1612" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46444,7 +46441,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1613" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46470,7 +46467,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1614" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46496,7 +46493,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46522,7 +46519,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1616" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46548,7 +46545,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1617" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46574,7 +46571,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1618" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46600,7 +46597,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1619" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46626,7 +46623,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1620" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46652,7 +46649,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1621" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46678,7 +46675,7 @@
         <v>2.66799998283386</v>
       </c>
       <c r="G1622" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46704,7 +46701,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1623" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46730,7 +46727,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1624" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46756,7 +46753,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46782,7 +46779,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1626" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46808,7 +46805,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1627" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46834,7 +46831,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1628" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46860,7 +46857,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46886,7 +46883,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1630" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46912,7 +46909,7 @@
         <v>2.57599997520447</v>
       </c>
       <c r="G1631" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46938,7 +46935,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1632" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46964,7 +46961,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1633" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46990,7 +46987,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1634" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47016,7 +47013,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1635" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47042,7 +47039,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47068,7 +47065,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1637" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47094,7 +47091,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1638" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47120,7 +47117,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1639" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47146,7 +47143,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1640" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47172,7 +47169,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1641" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47198,7 +47195,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1642" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47224,7 +47221,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G1643" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47250,7 +47247,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1644" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47276,7 +47273,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1645" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47302,7 +47299,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1646" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47328,7 +47325,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1647" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47354,7 +47351,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1648" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47380,7 +47377,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1649" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47406,7 +47403,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1650" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47432,7 +47429,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1651" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47458,7 +47455,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1652" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47484,7 +47481,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1653" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47510,7 +47507,7 @@
         <v>2.30599999427795</v>
       </c>
       <c r="G1654" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47536,7 +47533,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1655" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47562,7 +47559,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1656" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47588,7 +47585,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1657" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47614,7 +47611,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1658" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47640,7 +47637,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G1659" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47666,7 +47663,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1660" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47692,7 +47689,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1661" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47718,7 +47715,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47744,7 +47741,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1663" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47770,7 +47767,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1664" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47796,7 +47793,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1665" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47822,7 +47819,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1666" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47848,7 +47845,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1667" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47874,7 +47871,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1668" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47900,7 +47897,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1669" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47926,7 +47923,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G1670" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47952,7 +47949,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G1671" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47978,7 +47975,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1672" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48004,7 +48001,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1673" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48030,7 +48027,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G1674" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48056,7 +48053,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1675" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48082,7 +48079,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1676" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48108,7 +48105,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1677" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48134,7 +48131,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1678" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48160,7 +48157,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1679" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48186,7 +48183,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1680" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48212,7 +48209,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1681" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48238,7 +48235,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1682" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48264,7 +48261,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1683" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48290,7 +48287,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1684" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48316,7 +48313,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1685" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48342,7 +48339,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1686" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48368,7 +48365,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1687" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48394,7 +48391,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1688" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48420,7 +48417,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1689" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48446,7 +48443,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1690" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48472,7 +48469,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1691" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48498,7 +48495,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1692" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48524,7 +48521,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1693" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48550,7 +48547,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1694" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48576,7 +48573,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1695" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48602,7 +48599,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1696" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48628,7 +48625,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1697" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48654,7 +48651,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G1698" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48680,7 +48677,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1699" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48706,7 +48703,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1700" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48732,7 +48729,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G1701" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48758,7 +48755,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G1702" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48784,7 +48781,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1703" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48810,7 +48807,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1704" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48836,7 +48833,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1705" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48862,7 +48859,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1706" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48888,7 +48885,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1707" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48914,7 +48911,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1708" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48940,7 +48937,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1709" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48966,7 +48963,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G1710" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48992,7 +48989,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G1711" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49018,7 +49015,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49044,7 +49041,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1713" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49070,7 +49067,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1714" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49096,7 +49093,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1715" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49122,7 +49119,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G1716" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49148,7 +49145,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G1717" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49174,7 +49171,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1718" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49200,7 +49197,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1719" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49226,7 +49223,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1720" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49252,7 +49249,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1721" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49278,7 +49275,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1722" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49304,7 +49301,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G1723" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49330,7 +49327,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1724" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49356,7 +49353,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G1725" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49382,7 +49379,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G1726" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49408,7 +49405,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1727" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49434,7 +49431,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1728" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49460,7 +49457,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1729" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49486,7 +49483,7 @@
         <v>2.17799997329712</v>
       </c>
       <c r="G1730" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49512,7 +49509,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1731" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49538,7 +49535,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49564,7 +49561,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G1733" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49590,7 +49587,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1734" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49616,7 +49613,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1735" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49642,7 +49639,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1736" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49668,7 +49665,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G1737" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49694,7 +49691,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1738" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49720,7 +49717,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1739" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49746,7 +49743,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1740" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49772,7 +49769,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1741" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49798,7 +49795,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1742" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49824,7 +49821,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1743" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49850,7 +49847,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1744" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49876,7 +49873,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1745" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49902,7 +49899,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1746" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49928,7 +49925,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1747" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49954,7 +49951,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1748" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49980,7 +49977,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1749" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50006,7 +50003,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1750" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50032,7 +50029,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1751" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50058,7 +50055,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1752" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50084,7 +50081,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50110,7 +50107,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1754" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50136,7 +50133,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1755" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50162,7 +50159,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G1756" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50188,7 +50185,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50214,7 +50211,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1758" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50240,7 +50237,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1759" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50266,7 +50263,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50292,7 +50289,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1761" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50318,7 +50315,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1762" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50344,7 +50341,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50370,7 +50367,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1764" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50396,7 +50393,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1765" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50422,7 +50419,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1766" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50448,7 +50445,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1767" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50474,7 +50471,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1768" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50500,7 +50497,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1769" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50526,7 +50523,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1770" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50552,7 +50549,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1771" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50578,7 +50575,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50604,7 +50601,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1773" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50630,7 +50627,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1774" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50656,7 +50653,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1775" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50682,7 +50679,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1776" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50708,7 +50705,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1777" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50734,7 +50731,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1778" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50760,7 +50757,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1779" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50786,7 +50783,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1780" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50812,7 +50809,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1781" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50838,7 +50835,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1782" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50864,7 +50861,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1783" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50890,7 +50887,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1784" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50916,7 +50913,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1785" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50942,7 +50939,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1786" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50968,7 +50965,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1787" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50994,7 +50991,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G1788" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51020,7 +51017,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1789" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51046,7 +51043,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1790" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51072,7 +51069,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1791" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51098,7 +51095,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1792" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51124,7 +51121,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G1793" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51150,7 +51147,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1794" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51176,7 +51173,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G1795" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51202,7 +51199,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1796" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51228,7 +51225,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G1797" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51254,7 +51251,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1798" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51280,7 +51277,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1799" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51306,7 +51303,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1800" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51332,7 +51329,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1801" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51358,7 +51355,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1802" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51384,7 +51381,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1803" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51410,7 +51407,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51436,7 +51433,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1805" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51462,7 +51459,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1806" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51488,7 +51485,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1807" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51514,7 +51511,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51540,7 +51537,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51566,7 +51563,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51592,7 +51589,7 @@
         <v>2.49200010299683</v>
       </c>
       <c r="G1811" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51618,7 +51615,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1812" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51644,7 +51641,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51670,7 +51667,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1814" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51696,7 +51693,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51722,7 +51719,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1816" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51748,7 +51745,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1817" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51774,7 +51771,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1818" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51800,7 +51797,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G1819" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51826,7 +51823,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1820" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51852,7 +51849,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1821" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51878,7 +51875,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51904,7 +51901,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51930,7 +51927,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1824" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51956,7 +51953,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1825" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51982,7 +51979,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1826" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52008,7 +52005,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1827" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52034,7 +52031,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1828" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52060,7 +52057,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1829" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52086,7 +52083,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1830" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52112,7 +52109,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1831" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52138,7 +52135,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1832" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52164,7 +52161,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1833" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52190,7 +52187,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G1834" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52216,7 +52213,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52242,7 +52239,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G1836" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52268,7 +52265,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1837" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52294,7 +52291,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G1838" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52320,7 +52317,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G1839" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52346,7 +52343,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1840" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52372,7 +52369,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1841" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52398,7 +52395,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G1842" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52424,7 +52421,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1843" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52450,7 +52447,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1844" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52476,7 +52473,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1845" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52502,7 +52499,7 @@
         <v>2.30800008773804</v>
       </c>
       <c r="G1846" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52528,7 +52525,7 @@
         <v>2.32800006866455</v>
       </c>
       <c r="G1847" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52554,7 +52551,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1848" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52580,7 +52577,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1849" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52606,7 +52603,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1850" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52632,7 +52629,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1851" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52658,7 +52655,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1852" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52684,7 +52681,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1853" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52710,7 +52707,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1854" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52736,7 +52733,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1855" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52762,7 +52759,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52788,7 +52785,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1857" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52814,7 +52811,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1858" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52840,7 +52837,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G1859" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52866,7 +52863,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G1860" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52892,7 +52889,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1861" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52918,7 +52915,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1862" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52944,7 +52941,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1863" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52970,7 +52967,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1864" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52996,7 +52993,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1865" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53022,7 +53019,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1866" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53048,7 +53045,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53074,7 +53071,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1868" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53100,7 +53097,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1869" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53126,7 +53123,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1870" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53152,7 +53149,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1871" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53178,7 +53175,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G1872" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53204,7 +53201,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1873" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53230,7 +53227,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53256,7 +53253,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1875" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53282,7 +53279,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1876" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53308,7 +53305,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1877" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53334,7 +53331,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1878" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53360,7 +53357,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1879" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53386,7 +53383,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1880" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53412,7 +53409,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1881" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53438,7 +53435,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1882" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53464,7 +53461,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1883" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53490,7 +53487,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53516,7 +53513,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1885" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53542,7 +53539,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1886" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53568,7 +53565,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1887" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53594,7 +53591,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1888" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53620,7 +53617,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1889" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53646,7 +53643,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1890" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53672,7 +53669,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1891" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53698,7 +53695,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1892" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53724,7 +53721,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1893" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53750,7 +53747,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1894" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53776,7 +53773,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1895" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53802,7 +53799,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1896" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53828,7 +53825,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1897" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53854,7 +53851,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1898" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53880,7 +53877,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1899" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53906,7 +53903,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53932,7 +53929,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1901" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53958,7 +53955,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1902" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53984,7 +53981,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1903" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54010,7 +54007,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1904" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54036,7 +54033,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1905" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54062,7 +54059,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1906" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54088,7 +54085,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1907" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54114,7 +54111,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1908" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54140,7 +54137,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54166,7 +54163,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1910" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54192,7 +54189,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54218,7 +54215,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1912" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54244,7 +54241,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G1913" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54270,7 +54267,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1914" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54296,7 +54293,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G1915" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54322,7 +54319,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1916" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54348,7 +54345,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1917" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54374,7 +54371,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1918" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54400,7 +54397,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1919" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54426,7 +54423,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1920" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54452,7 +54449,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1921" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54478,7 +54475,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G1922" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54504,7 +54501,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1923" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54530,7 +54527,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1924" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54556,7 +54553,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1925" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54582,7 +54579,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1926" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54608,7 +54605,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54634,7 +54631,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1928" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54660,7 +54657,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1929" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54686,7 +54683,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1930" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54712,7 +54709,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1931" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54738,7 +54735,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1932" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54764,7 +54761,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1933" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54790,7 +54787,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1934" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54816,7 +54813,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54842,7 +54839,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1936" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54868,7 +54865,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1937" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54894,7 +54891,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1938" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54920,7 +54917,7 @@
         <v>2.32399988174438</v>
       </c>
       <c r="G1939" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54946,7 +54943,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G1940" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54972,7 +54969,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1941" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -54998,7 +54995,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1942" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55024,7 +55021,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1943" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55050,7 +55047,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1944" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55076,7 +55073,7 @@
         <v>2.35599994659424</v>
       </c>
       <c r="G1945" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55102,7 +55099,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1946" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55128,7 +55125,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1947" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55154,7 +55151,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1948" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55180,7 +55177,7 @@
         <v>2.30599999427795</v>
       </c>
       <c r="G1949" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55206,7 +55203,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1950" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55232,7 +55229,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55258,7 +55255,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1952" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55284,7 +55281,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1953" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55310,7 +55307,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1954" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55336,7 +55333,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1955" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55362,7 +55359,7 @@
         <v>2.30800008773804</v>
       </c>
       <c r="G1956" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55388,7 +55385,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1957" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55414,7 +55411,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G1958" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55440,7 +55437,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1959" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55466,7 +55463,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1960" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55492,7 +55489,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1961" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55518,7 +55515,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1962" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55544,7 +55541,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1963" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55570,7 +55567,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1964" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55596,7 +55593,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1965" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55622,7 +55619,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1966" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55648,7 +55645,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1967" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55674,7 +55671,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1968" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55700,7 +55697,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1969" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55726,7 +55723,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1970" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55752,7 +55749,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G1971" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55778,7 +55775,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1972" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55804,7 +55801,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1973" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55830,7 +55827,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G1974" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55856,7 +55853,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G1975" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55882,7 +55879,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55908,7 +55905,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1977" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55934,7 +55931,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55960,7 +55957,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1979" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55986,7 +55983,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1980" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56012,7 +56009,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1981" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56038,7 +56035,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1982" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56064,7 +56061,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G1983" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56090,7 +56087,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1984" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56116,7 +56113,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1985" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56142,7 +56139,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1986" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56168,7 +56165,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1987" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56194,7 +56191,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56220,7 +56217,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1989" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56246,7 +56243,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1990" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56272,7 +56269,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1991" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56298,7 +56295,7 @@
         <v>2.25</v>
       </c>
       <c r="G1992" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56324,7 +56321,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1993" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56350,7 +56347,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1994" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56376,7 +56373,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56402,7 +56399,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1996" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56428,7 +56425,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1997" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56454,7 +56451,7 @@
         <v>2.25</v>
       </c>
       <c r="G1998" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56480,7 +56477,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1999" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56506,7 +56503,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2000" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56532,7 +56529,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G2001" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56558,7 +56555,7 @@
         <v>2.25</v>
       </c>
       <c r="G2002" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56584,7 +56581,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G2003" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56610,7 +56607,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G2004" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56636,7 +56633,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G2005" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56662,7 +56659,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2006" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56688,7 +56685,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2007" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56714,7 +56711,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G2008" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56740,7 +56737,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G2009" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56766,7 +56763,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2010" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56792,7 +56789,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G2011" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56818,7 +56815,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G2012" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56844,7 +56841,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2013" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56870,7 +56867,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56896,7 +56893,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G2015" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56922,7 +56919,7 @@
         <v>2.25</v>
       </c>
       <c r="G2016" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56948,7 +56945,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56974,7 +56971,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2018" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57000,7 +56997,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G2019" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57026,7 +57023,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G2020" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57052,7 +57049,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2021" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57078,7 +57075,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2022" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57104,7 +57101,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2023" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57130,7 +57127,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G2024" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57156,7 +57153,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G2025" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57182,7 +57179,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G2026" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57208,7 +57205,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2027" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57234,7 +57231,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2028" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57260,7 +57257,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G2029" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57286,7 +57283,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2030" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57312,7 +57309,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2031" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57338,7 +57335,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G2032" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57364,7 +57361,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2033" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57390,7 +57387,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2034" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57416,7 +57413,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2035" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57442,7 +57439,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2036" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57468,7 +57465,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2037" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57494,7 +57491,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G2038" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57520,7 +57517,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G2039" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57546,7 +57543,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G2040" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57572,7 +57569,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G2041" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57598,7 +57595,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G2042" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57624,7 +57621,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G2043" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57650,7 +57647,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G2044" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57676,7 +57673,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G2045" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57702,7 +57699,7 @@
         <v>2.32800006866455</v>
       </c>
       <c r="G2046" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57728,7 +57725,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G2047" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57754,7 +57751,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G2048" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57780,7 +57777,7 @@
         <v>2.35199999809265</v>
       </c>
       <c r="G2049" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57806,7 +57803,7 @@
         <v>2.37599992752075</v>
       </c>
       <c r="G2050" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57832,7 +57829,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G2051" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57858,7 +57855,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G2052" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57884,7 +57881,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G2053" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57910,7 +57907,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G2054" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57936,7 +57933,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G2055" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57962,7 +57959,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G2056" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57988,7 +57985,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G2057" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58014,7 +58011,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G2058" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58040,7 +58037,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G2059" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58066,7 +58063,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G2060" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58092,7 +58089,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G2061" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58118,7 +58115,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G2062" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58144,7 +58141,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G2063" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58170,7 +58167,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G2064" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58196,7 +58193,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G2065" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58222,7 +58219,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G2066" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58248,7 +58245,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G2067" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58274,7 +58271,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G2068" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58300,7 +58297,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G2069" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58326,7 +58323,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G2070" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58352,7 +58349,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G2071" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58378,7 +58375,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G2072" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58404,7 +58401,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G2073" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58430,7 +58427,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G2074" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58456,7 +58453,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G2075" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58482,7 +58479,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G2076" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58508,7 +58505,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G2077" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58534,7 +58531,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G2078" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58560,7 +58557,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G2079" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58586,7 +58583,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58612,7 +58609,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G2081" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58638,7 +58635,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G2082" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58664,7 +58661,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G2083" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58690,7 +58687,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2084" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58716,7 +58713,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G2085" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58742,7 +58739,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2086" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58768,7 +58765,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58794,7 +58791,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G2088" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58820,7 +58817,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2089" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58846,7 +58843,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58872,7 +58869,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2091" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58898,7 +58895,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G2092" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58924,7 +58921,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2093" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58950,7 +58947,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2094" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58976,7 +58973,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G2095" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59002,7 +58999,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59028,7 +59025,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G2097" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59054,7 +59051,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2098" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59080,7 +59077,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G2099" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59106,7 +59103,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2100" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59132,7 +59129,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2101" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59158,7 +59155,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2102" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59184,7 +59181,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2103" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59210,7 +59207,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2104" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59236,7 +59233,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2105" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59262,7 +59259,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2106" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59288,7 +59285,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2107" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59314,7 +59311,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2108" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59340,7 +59337,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2109" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59366,7 +59363,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2110" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59392,7 +59389,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2111" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59418,7 +59415,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2112" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59444,7 +59441,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2113" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59470,7 +59467,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2114" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59496,7 +59493,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2115" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59522,7 +59519,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2116" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59548,7 +59545,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2117" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59574,7 +59571,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2118" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59600,7 +59597,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2119" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59626,7 +59623,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2120" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59652,7 +59649,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59678,7 +59675,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2122" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59704,7 +59701,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G2123" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59730,7 +59727,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2124" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59756,7 +59753,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2125" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59782,7 +59779,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2126" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59808,7 +59805,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2127" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59834,7 +59831,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2128" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59860,7 +59857,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2129" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59886,7 +59883,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G2130" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59912,7 +59909,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G2131" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59938,7 +59935,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2132" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59964,7 +59961,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G2133" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59990,7 +59987,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G2134" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60016,7 +60013,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G2135" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60042,7 +60039,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2136" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60068,7 +60065,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60094,7 +60091,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2138" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60120,7 +60117,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2139" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60146,7 +60143,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60172,7 +60169,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G2141" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60198,7 +60195,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G2142" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60224,7 +60221,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G2143" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60250,7 +60247,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2144" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60276,7 +60273,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2145" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356392860413</t>
+    <t xml:space="preserve">1.20356416702271</t>
   </si>
   <si>
     <t xml:space="preserve">US.MI</t>
@@ -47,46 +47,46 @@
     <t xml:space="preserve">1.20143187046051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17478084564209</t>
+    <t xml:space="preserve">1.17478096485138</t>
   </si>
   <si>
     <t xml:space="preserve">1.15346014499664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13746929168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14066731929779</t>
+    <t xml:space="preserve">1.13746917247772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14066743850708</t>
   </si>
   <si>
     <t xml:space="preserve">1.15452599525452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16092216968536</t>
+    <t xml:space="preserve">1.16092228889465</t>
   </si>
   <si>
     <t xml:space="preserve">1.11295032501221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08949708938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07030844688416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04578959941864</t>
+    <t xml:space="preserve">1.08949720859528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07030856609344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04578948020935</t>
   </si>
   <si>
     <t xml:space="preserve">1.08523309230804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09482753276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07137453556061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06817638874054</t>
+    <t xml:space="preserve">1.09482729434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07137477397919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06817650794983</t>
   </si>
   <si>
     <t xml:space="preserve">1.05378484725952</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">1.0127420425415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03832709789276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01700639724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984491884708405</t>
+    <t xml:space="preserve">1.03832721710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01700627803802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984492003917694</t>
   </si>
   <si>
     <t xml:space="preserve">0.954642713069916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957840800285339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921062290668488</t>
+    <t xml:space="preserve">0.957840919494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921062350273132</t>
   </si>
   <si>
     <t xml:space="preserve">0.868826270103455</t>
@@ -119,16 +119,16 @@
     <t xml:space="preserve">0.840575873851776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888547897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826717376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917864263057709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972232401371002</t>
+    <t xml:space="preserve">0.888548076152802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82671731710434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917864203453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972232520580292</t>
   </si>
   <si>
     <t xml:space="preserve">0.960505902767181</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">0.970100402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999949634075165</t>
+    <t xml:space="preserve">0.999949514865875</t>
   </si>
   <si>
     <t xml:space="preserve">0.979161739349365</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">0.97116631269455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988756060600281</t>
+    <t xml:space="preserve">0.98875617980957</t>
   </si>
   <si>
     <t xml:space="preserve">1.01114296913147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01007699966431</t>
+    <t xml:space="preserve">1.01007688045502</t>
   </si>
   <si>
     <t xml:space="preserve">1.0372611284256</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">1.0617800951004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04685544967651</t>
+    <t xml:space="preserve">1.0468555688858</t>
   </si>
   <si>
     <t xml:space="preserve">1.03566205501556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0031476020813</t>
+    <t xml:space="preserve">1.00314772129059</t>
   </si>
   <si>
     <t xml:space="preserve">1.01913833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02127063274384</t>
+    <t xml:space="preserve">1.02127051353455</t>
   </si>
   <si>
     <t xml:space="preserve">1.01061010360718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07777094841003</t>
+    <t xml:space="preserve">1.07777082920074</t>
   </si>
   <si>
     <t xml:space="preserve">1.08203494548798</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">1.07244074344635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08416712284088</t>
+    <t xml:space="preserve">1.0841668844223</t>
   </si>
   <si>
     <t xml:space="preserve">1.07990288734436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0884313583374</t>
+    <t xml:space="preserve">1.08843123912811</t>
   </si>
   <si>
     <t xml:space="preserve">1.07670474052429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06604421138763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0862991809845</t>
+    <t xml:space="preserve">1.06604433059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08629930019379</t>
   </si>
   <si>
     <t xml:space="preserve">1.04365730285645</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.07457280158997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05804908275604</t>
+    <t xml:space="preserve">1.05804896354675</t>
   </si>
   <si>
     <t xml:space="preserve">1.02926576137543</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">1.07883679866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09269535541534</t>
+    <t xml:space="preserve">1.09269547462463</t>
   </si>
   <si>
     <t xml:space="preserve">1.0937614440918</t>
@@ -245,22 +245,22 @@
     <t xml:space="preserve">1.04845464229584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04259145259857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03299677371979</t>
+    <t xml:space="preserve">1.04259133338928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03299689292908</t>
   </si>
   <si>
     <t xml:space="preserve">1.01594018936157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00154876708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976496458053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970633387565613</t>
+    <t xml:space="preserve">1.00154864788055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976496577262878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970633327960968</t>
   </si>
   <si>
     <t xml:space="preserve">0.980760812759399</t>
@@ -269,22 +269,22 @@
     <t xml:space="preserve">0.986091077327728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984930813312531</t>
+    <t xml:space="preserve">0.98493093252182</t>
   </si>
   <si>
     <t xml:space="preserve">1.00581276416779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03829574584961</t>
+    <t xml:space="preserve">1.0382958650589</t>
   </si>
   <si>
     <t xml:space="preserve">1.03365540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04409635066986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.042356133461</t>
+    <t xml:space="preserve">1.04409623146057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04235625267029</t>
   </si>
   <si>
     <t xml:space="preserve">1.02437448501587</t>
@@ -293,40 +293,40 @@
     <t xml:space="preserve">1.03133523464203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993631780147552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993051826953888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999432265758514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998272120952606</t>
+    <t xml:space="preserve">0.993631660938263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993051767349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999432384967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998272001743317</t>
   </si>
   <si>
     <t xml:space="preserve">0.982030630111694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933306157588959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901983201503754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871240317821503</t>
+    <t xml:space="preserve">0.933306097984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901983261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871240496635437</t>
   </si>
   <si>
     <t xml:space="preserve">0.861379504203796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83411693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871820449829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909523904323578</t>
+    <t xml:space="preserve">0.834116876125336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871820509433746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909524023532867</t>
   </si>
   <si>
     <t xml:space="preserve">0.91474437713623</t>
@@ -335,37 +335,37 @@
     <t xml:space="preserve">0.912424087524414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951287686824799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85151869058609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80279403924942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825996220111847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792933106422424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7813321352005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813234984874725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791193008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756389856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733187735080719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730867445468903</t>
+    <t xml:space="preserve">0.951287806034088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851518511772156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802793979644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825996279716492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792933225631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.781332194805145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813234925270081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.791192829608917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756389796733856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733187675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730867505073547</t>
   </si>
   <si>
     <t xml:space="preserve">0.802214026451111</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">0.819615602493286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850938558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824256062507629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850358426570892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866599917411804</t>
+    <t xml:space="preserve">0.850938498973846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824256122112274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850358366966248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866600036621094</t>
   </si>
   <si>
     <t xml:space="preserve">0.847458183765411</t>
@@ -395,28 +395,28 @@
     <t xml:space="preserve">0.854418933391571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842237830162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852678716182709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857319235801697</t>
+    <t xml:space="preserve">0.842237770557404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852678656578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857319176197052</t>
   </si>
   <si>
     <t xml:space="preserve">0.876460909843445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870080173015594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856739103794098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494946479797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826576173305511</t>
+    <t xml:space="preserve">0.870080232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856739044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494886875153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826576352119446</t>
   </si>
   <si>
     <t xml:space="preserve">0.824836134910583</t>
@@ -425,10 +425,10 @@
     <t xml:space="preserve">0.846878170967102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879361152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888061940670013</t>
+    <t xml:space="preserve">0.879361212253571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888062000274658</t>
   </si>
   <si>
     <t xml:space="preserve">0.885161757469177</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">0.893282353878021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887481987476349</t>
+    <t xml:space="preserve">0.887481808662415</t>
   </si>
   <si>
     <t xml:space="preserve">0.854998886585236</t>
@@ -446,79 +446,79 @@
     <t xml:space="preserve">0.828896522521973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84803831577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835277080535889</t>
+    <t xml:space="preserve">0.8480384349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837597250938416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835277140140533</t>
   </si>
   <si>
     <t xml:space="preserve">0.820775747299194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85209858417511</t>
+    <t xml:space="preserve">0.852098524570465</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340194225311</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86543995141983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882841408252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8973428606987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910684108734131</t>
+    <t xml:space="preserve">0.865439891815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882841348648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89734297990799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910684168338776</t>
   </si>
   <si>
     <t xml:space="preserve">0.910103976726532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881101369857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834697067737579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842817723751068</t>
+    <t xml:space="preserve">0.881101310253143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83469694852829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842817664146423</t>
   </si>
   <si>
     <t xml:space="preserve">0.827736496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839917600154877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874720692634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881681323051453</t>
+    <t xml:space="preserve">0.839917480945587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219478607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874720633029938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881681263446808</t>
   </si>
   <si>
     <t xml:space="preserve">0.907783806324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939686894416809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94954776763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96056854724884</t>
+    <t xml:space="preserve">0.93968665599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949547529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96056866645813</t>
   </si>
   <si>
     <t xml:space="preserve">0.980870544910431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997111976146698</t>
+    <t xml:space="preserve">0.997112095355988</t>
   </si>
   <si>
     <t xml:space="preserve">1.00929307937622</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">1.00175249576569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972169697284698</t>
+    <t xml:space="preserve">0.972169637680054</t>
   </si>
   <si>
     <t xml:space="preserve">0.969849526882172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947227478027344</t>
+    <t xml:space="preserve">0.947227358818054</t>
   </si>
   <si>
     <t xml:space="preserve">0.976230204105377</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">0.979130387306213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973909914493561</t>
+    <t xml:space="preserve">0.973909795284271</t>
   </si>
   <si>
     <t xml:space="preserve">0.997692108154297</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">1.03713583946228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0580176115036</t>
+    <t xml:space="preserve">1.05801773071289</t>
   </si>
   <si>
     <t xml:space="preserve">1.06613850593567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05685746669769</t>
+    <t xml:space="preserve">1.05685758590698</t>
   </si>
   <si>
     <t xml:space="preserve">1.02089416980743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03945589065552</t>
+    <t xml:space="preserve">1.03945600986481</t>
   </si>
   <si>
     <t xml:space="preserve">1.03249526023865</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">1.02147424221039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00117242336273</t>
+    <t xml:space="preserve">1.00117230415344</t>
   </si>
   <si>
     <t xml:space="preserve">1.02611470222473</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">1.05743753910065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09920156002045</t>
+    <t xml:space="preserve">1.09920144081116</t>
   </si>
   <si>
     <t xml:space="preserve">1.1485059261322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16590762138367</t>
+    <t xml:space="preserve">1.16590774059296</t>
   </si>
   <si>
     <t xml:space="preserve">1.16126716136932</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">1.17750859260559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18794965744019</t>
+    <t xml:space="preserve">1.18794977664948</t>
   </si>
   <si>
     <t xml:space="preserve">1.17402827739716</t>
@@ -632,22 +632,22 @@
     <t xml:space="preserve">1.19491028785706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20071065425873</t>
+    <t xml:space="preserve">1.20071077346802</t>
   </si>
   <si>
     <t xml:space="preserve">1.22507309913635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23783421516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23551416397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22855353355408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21231162548065</t>
+    <t xml:space="preserve">1.2378340959549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23551392555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2285532951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21231186389923</t>
   </si>
   <si>
     <t xml:space="preserve">1.20419120788574</t>
@@ -659,43 +659,43 @@
     <t xml:space="preserve">1.18098890781403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20651137828827</t>
+    <t xml:space="preserve">1.20651149749756</t>
   </si>
   <si>
     <t xml:space="preserve">1.16938805580139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15952694416046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1537264585495</t>
+    <t xml:space="preserve">1.15952706336975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15372657775879</t>
   </si>
   <si>
     <t xml:space="preserve">1.16822779178619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15720677375793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19259011745453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20883166790009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1891096830368</t>
+    <t xml:space="preserve">1.15720689296722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19258999824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20883178710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18910980224609</t>
   </si>
   <si>
     <t xml:space="preserve">1.1340047121048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.117182970047</t>
+    <t xml:space="preserve">1.11718308925629</t>
   </si>
   <si>
     <t xml:space="preserve">1.13168430328369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226449489594</t>
+    <t xml:space="preserve">1.13226461410522</t>
   </si>
   <si>
     <t xml:space="preserve">1.15198624134064</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">1.10442197322845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09804129600525</t>
+    <t xml:space="preserve">1.09804141521454</t>
   </si>
   <si>
     <t xml:space="preserve">1.10210156440735</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">1.09050071239471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14154529571533</t>
+    <t xml:space="preserve">1.14154541492462</t>
   </si>
   <si>
     <t xml:space="preserve">1.15604674816132</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">1.15894687175751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16010689735413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16706800460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15662658214569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13980519771576</t>
+    <t xml:space="preserve">1.16010701656342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16706788539886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15662682056427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13980531692505</t>
   </si>
   <si>
     <t xml:space="preserve">1.19375026226044</t>
@@ -743,43 +743,43 @@
     <t xml:space="preserve">1.1786687374115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19142997264862</t>
+    <t xml:space="preserve">1.19142973423004</t>
   </si>
   <si>
     <t xml:space="preserve">1.1995507478714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20187091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18562924861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21811246871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19723033905029</t>
+    <t xml:space="preserve">1.20187103748322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18562936782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21811234951019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19723045825958</t>
   </si>
   <si>
     <t xml:space="preserve">1.20303106307983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19607043266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17286837100983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14560568332672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23087346553802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22391295433044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667395114899</t>
+    <t xml:space="preserve">1.19607031345367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17286825180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14560580253601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23087358474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22391283512115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667418956757</t>
   </si>
   <si>
     <t xml:space="preserve">1.25871610641479</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">1.27147722244263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26451683044434</t>
+    <t xml:space="preserve">1.26451671123505</t>
   </si>
   <si>
     <t xml:space="preserve">1.27959811687469</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">1.29467952251434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27031719684601</t>
+    <t xml:space="preserve">1.27031707763672</t>
   </si>
   <si>
     <t xml:space="preserve">1.25639581680298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799702644348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24711525440216</t>
+    <t xml:space="preserve">1.26799714565277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24711513519287</t>
   </si>
   <si>
     <t xml:space="preserve">1.25175559520721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2720742225647</t>
+    <t xml:space="preserve">1.27207434177399</t>
   </si>
   <si>
     <t xml:space="preserve">1.28192579746246</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">1.29547166824341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28438854217529</t>
+    <t xml:space="preserve">1.28438866138458</t>
   </si>
   <si>
     <t xml:space="preserve">1.27699995040894</t>
@@ -830,25 +830,25 @@
     <t xml:space="preserve">1.23636245727539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23759400844574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2412885427475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24375116825104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21912240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20803964138031</t>
+    <t xml:space="preserve">1.23759412765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24128842353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24375128746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21912252902985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20803952217102</t>
   </si>
   <si>
     <t xml:space="preserve">1.19572520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22527968883514</t>
+    <t xml:space="preserve">1.22527956962585</t>
   </si>
   <si>
     <t xml:space="preserve">1.21727538108826</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">1.20249807834625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22404813766479</t>
+    <t xml:space="preserve">1.22404801845551</t>
   </si>
   <si>
     <t xml:space="preserve">1.19634091854095</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">1.20372951030731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22035396099091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22096967697144</t>
+    <t xml:space="preserve">1.22035384178162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22096955776215</t>
   </si>
   <si>
     <t xml:space="preserve">1.17663788795471</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">1.2012665271759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941937923431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20434534549713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23143672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22343254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2283581495285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21358096599579</t>
+    <t xml:space="preserve">1.1994194984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20434510707855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23143684864044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22343242168427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22835826873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21358108520508</t>
   </si>
   <si>
     <t xml:space="preserve">1.2117338180542</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">1.20680820941925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18525791168213</t>
+    <t xml:space="preserve">1.18525803089142</t>
   </si>
   <si>
     <t xml:space="preserve">1.20003509521484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19203090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20496094226837</t>
+    <t xml:space="preserve">1.19203066825867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20496082305908</t>
   </si>
   <si>
     <t xml:space="preserve">1.21665954589844</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">1.24251973628998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23513126373291</t>
+    <t xml:space="preserve">1.23513114452362</t>
   </si>
   <si>
     <t xml:space="preserve">1.18833649158478</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">1.20065093040466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18772089481354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19079947471619</t>
+    <t xml:space="preserve">1.18772077560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1907993555069</t>
   </si>
   <si>
     <t xml:space="preserve">1.18895220756531</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">1.16001355648041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.161860704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.153240442276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18956804275513</t>
+    <t xml:space="preserve">1.16186058521271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15324068069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18956792354584</t>
   </si>
   <si>
     <t xml:space="preserve">1.20865535736084</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">1.2222011089325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20742392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20619237422943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21542811393738</t>
+    <t xml:space="preserve">1.20742380619049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20619249343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21542823314667</t>
   </si>
   <si>
     <t xml:space="preserve">1.21050238609314</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">1.19880378246307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21419680118561</t>
+    <t xml:space="preserve">1.21419668197632</t>
   </si>
   <si>
     <t xml:space="preserve">1.23020541667938</t>
@@ -1034,19 +1034,19 @@
     <t xml:space="preserve">1.2098867893219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15693497657776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16124486923218</t>
+    <t xml:space="preserve">1.15693485736847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16124510765076</t>
   </si>
   <si>
     <t xml:space="preserve">1.13600063323975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14646768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16247630119324</t>
+    <t xml:space="preserve">1.14646756649017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16247642040253</t>
   </si>
   <si>
     <t xml:space="preserve">1.16740214824677</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">1.16986489295959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16309225559235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16493916511536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16801774501801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17171227931976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16863346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18156361579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21296525001526</t>
+    <t xml:space="preserve">1.16309213638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16493928432465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16801786422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17171216011047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16863358020782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18156373500824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21296513080597</t>
   </si>
   <si>
     <t xml:space="preserve">1.21111810207367</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">1.20927095413208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21604382991791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25237131118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26222264766693</t>
+    <t xml:space="preserve">1.2160439491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25237119197845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26222276687622</t>
   </si>
   <si>
     <t xml:space="preserve">1.24867701530457</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">1.25729715824127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26468563079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26591718196869</t>
+    <t xml:space="preserve">1.26468551158905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2659170627594</t>
   </si>
   <si>
     <t xml:space="preserve">1.28562009334564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.301628947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30532312393188</t>
+    <t xml:space="preserve">1.30162882804871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3053230047226</t>
   </si>
   <si>
     <t xml:space="preserve">1.29177737236023</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">1.28131020069122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26653277873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24990832805634</t>
+    <t xml:space="preserve">1.26653265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24990844726562</t>
   </si>
   <si>
     <t xml:space="preserve">1.25606560707092</t>
@@ -1130,22 +1130,22 @@
     <t xml:space="preserve">1.22189331054688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23328411579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23082101345062</t>
+    <t xml:space="preserve">1.23328399658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2308212518692</t>
   </si>
   <si>
     <t xml:space="preserve">1.20465314388275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23944103717804</t>
+    <t xml:space="preserve">1.23944115638733</t>
   </si>
   <si>
     <t xml:space="preserve">1.24621403217316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23820972442627</t>
+    <t xml:space="preserve">1.23820960521698</t>
   </si>
   <si>
     <t xml:space="preserve">1.21265733242035</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">1.22066175937653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21973836421967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2181990146637</t>
+    <t xml:space="preserve">1.21973824501038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21819889545441</t>
   </si>
   <si>
     <t xml:space="preserve">1.21512031555176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18987572193146</t>
+    <t xml:space="preserve">1.18987584114075</t>
   </si>
   <si>
     <t xml:space="preserve">1.18433427810669</t>
@@ -1172,37 +1172,37 @@
     <t xml:space="preserve">1.19788026809692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21081018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21019470691681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20095872879028</t>
+    <t xml:space="preserve">1.21081030368805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21019458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20095884799957</t>
   </si>
   <si>
     <t xml:space="preserve">1.1911073923111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18310296535492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18464231491089</t>
+    <t xml:space="preserve">1.18310308456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18464243412018</t>
   </si>
   <si>
     <t xml:space="preserve">1.19018375873566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20219016075134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20650029182434</t>
+    <t xml:space="preserve">1.20219027996063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20650017261505</t>
   </si>
   <si>
     <t xml:space="preserve">1.26406991481781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27145850658417</t>
+    <t xml:space="preserve">1.27145838737488</t>
   </si>
   <si>
     <t xml:space="preserve">1.2806943655014</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">1.29424011707306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30409181118011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31332755088806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33795619010925</t>
+    <t xml:space="preserve">1.30409169197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31332743167877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33795607089996</t>
   </si>
   <si>
     <t xml:space="preserve">1.34780764579773</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">1.34657621383667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34288191795349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35950636863708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37305212020874</t>
+    <t xml:space="preserve">1.34288203716278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3595062494278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37305223941803</t>
   </si>
   <si>
     <t xml:space="preserve">1.38536655902863</t>
@@ -1244,37 +1244,37 @@
     <t xml:space="preserve">1.37613070011139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38167214393616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3551961183548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35458052158356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34041905403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34349763393402</t>
+    <t xml:space="preserve">1.38167202472687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35519623756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35458064079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34041917324066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34349739551544</t>
   </si>
   <si>
     <t xml:space="preserve">1.31763744354248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29731869697571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30840170383453</t>
+    <t xml:space="preserve">1.29731893539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30840158462524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29622423648834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29556274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2780374288559</t>
+    <t xml:space="preserve">1.29556286334991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27803730964661</t>
   </si>
   <si>
     <t xml:space="preserve">1.26282668113708</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">1.25356781482697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26018130779266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25059187412262</t>
+    <t xml:space="preserve">1.26018118858337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25059199333191</t>
   </si>
   <si>
     <t xml:space="preserve">1.30217623710632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24463963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27473080158234</t>
+    <t xml:space="preserve">1.24463975429535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27473068237305</t>
   </si>
   <si>
     <t xml:space="preserve">1.24893844127655</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">1.21851682662964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25786638259888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23934900760651</t>
+    <t xml:space="preserve">1.25786650180817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2393491268158</t>
   </si>
   <si>
     <t xml:space="preserve">1.25092232227325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24728500843048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23868763446808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2522451877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2565438747406</t>
+    <t xml:space="preserve">1.24728512763977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23868775367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25224506855011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25654375553131</t>
   </si>
   <si>
     <t xml:space="preserve">1.25555181503296</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">1.21686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23835682868958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27043199539185</t>
+    <t xml:space="preserve">1.23835706710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27043187618256</t>
   </si>
   <si>
     <t xml:space="preserve">1.25422918796539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25158369541168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29953098297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2909334897995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32862985134125</t>
+    <t xml:space="preserve">1.25158381462097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2995308637619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29093337059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32862973213196</t>
   </si>
   <si>
     <t xml:space="preserve">1.32730710506439</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">1.29192554950714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27737605571747</t>
+    <t xml:space="preserve">1.27737593650818</t>
   </si>
   <si>
     <t xml:space="preserve">1.27902948856354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28432011604309</t>
+    <t xml:space="preserve">1.28432023525238</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258680343628</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">1.26613330841064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25951993465424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27506124973297</t>
+    <t xml:space="preserve">1.25951981544495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27506136894226</t>
   </si>
   <si>
     <t xml:space="preserve">1.26051187515259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26877856254578</t>
+    <t xml:space="preserve">1.26877868175507</t>
   </si>
   <si>
     <t xml:space="preserve">1.27307736873627</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">1.24959981441498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24001038074493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24298655986786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2459625005722</t>
+    <t xml:space="preserve">1.24001049995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24298644065857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24596238136292</t>
   </si>
   <si>
     <t xml:space="preserve">1.24331700801849</t>
@@ -1430,16 +1430,16 @@
     <t xml:space="preserve">1.22678363323212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26447999477386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28068268299103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25522112846375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25489056110382</t>
+    <t xml:space="preserve">1.26447987556458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28068280220032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25522124767303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25489068031311</t>
   </si>
   <si>
     <t xml:space="preserve">1.27406919002533</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">1.30449092388153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30052280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29655504226685</t>
+    <t xml:space="preserve">1.30052292346954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29655492305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.30482161045074</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">1.29986166954041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28365886211395</t>
+    <t xml:space="preserve">1.28365874290466</t>
   </si>
   <si>
     <t xml:space="preserve">1.28994154930115</t>
@@ -1469,28 +1469,28 @@
     <t xml:space="preserve">1.32036292552948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31540298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31738698482513</t>
+    <t xml:space="preserve">1.31540286540985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31738710403442</t>
   </si>
   <si>
     <t xml:space="preserve">1.33854973316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33259785175323</t>
+    <t xml:space="preserve">1.33259797096252</t>
   </si>
   <si>
     <t xml:space="preserve">1.33061397075653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32400047779083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35574448108673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558472156525</t>
+    <t xml:space="preserve">1.32400059700012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35574460029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558484077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698746681213</t>
@@ -1499,25 +1499,25 @@
     <t xml:space="preserve">1.38550496101379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38748896121979</t>
+    <t xml:space="preserve">1.38748908042908</t>
   </si>
   <si>
     <t xml:space="preserve">1.40336108207703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41195845603943</t>
+    <t xml:space="preserve">1.41195857524872</t>
   </si>
   <si>
     <t xml:space="preserve">1.41328132152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3425178527832</t>
+    <t xml:space="preserve">1.34251797199249</t>
   </si>
   <si>
     <t xml:space="preserve">1.31705641746521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33127510547638</t>
+    <t xml:space="preserve">1.33127522468567</t>
   </si>
   <si>
     <t xml:space="preserve">1.3511153459549</t>
@@ -1535,43 +1535,43 @@
     <t xml:space="preserve">1.26315712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2674560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26249587535858</t>
+    <t xml:space="preserve">1.26745593547821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26249599456787</t>
   </si>
   <si>
     <t xml:space="preserve">1.2714239358902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24860775470734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24761593341827</t>
+    <t xml:space="preserve">1.24860763549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24761581420898</t>
   </si>
   <si>
     <t xml:space="preserve">1.23141300678253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24662387371063</t>
+    <t xml:space="preserve">1.24662375450134</t>
   </si>
   <si>
     <t xml:space="preserve">1.24926912784576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28233587741852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26977050304413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27704524993896</t>
+    <t xml:space="preserve">1.28233599662781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26977062225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27704536914825</t>
   </si>
   <si>
     <t xml:space="preserve">1.28398942947388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30118417739868</t>
+    <t xml:space="preserve">1.30118429660797</t>
   </si>
   <si>
     <t xml:space="preserve">1.3081282377243</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">1.32532298564911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32796823978424</t>
+    <t xml:space="preserve">1.32796835899353</t>
   </si>
   <si>
     <t xml:space="preserve">1.34119534492493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36566495895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37095546722412</t>
+    <t xml:space="preserve">1.36566483974457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37095534801483</t>
   </si>
   <si>
     <t xml:space="preserve">1.35971283912659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33590447902679</t>
+    <t xml:space="preserve">1.3359043598175</t>
   </si>
   <si>
     <t xml:space="preserve">1.33722722530365</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">1.34979248046875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33193647861481</t>
+    <t xml:space="preserve">1.3319365978241</t>
   </si>
   <si>
     <t xml:space="preserve">1.3405339717865</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.32267773151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36103546619415</t>
+    <t xml:space="preserve">1.36103534698486</t>
   </si>
   <si>
     <t xml:space="preserve">1.37360084056854</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">1.34780859947205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36434209346771</t>
+    <t xml:space="preserve">1.364342212677</t>
   </si>
   <si>
     <t xml:space="preserve">1.35309934616089</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.36301934719086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30548298358917</t>
+    <t xml:space="preserve">1.30548310279846</t>
   </si>
   <si>
     <t xml:space="preserve">1.32333898544312</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">1.28961074352264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29060280323029</t>
+    <t xml:space="preserve">1.29060292243958</t>
   </si>
   <si>
     <t xml:space="preserve">1.3015148639679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30515229701996</t>
+    <t xml:space="preserve">1.30515217781067</t>
   </si>
   <si>
     <t xml:space="preserve">1.30746686458588</t>
@@ -1661,25 +1661,25 @@
     <t xml:space="preserve">1.28498136997223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26811718940735</t>
+    <t xml:space="preserve">1.26811730861664</t>
   </si>
   <si>
     <t xml:space="preserve">1.30713629722595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30845904350281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34185647964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37492334842682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36963272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38881158828735</t>
+    <t xml:space="preserve">1.30845892429352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34185659885406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3749235868454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36963284015656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38881146907806</t>
   </si>
   <si>
     <t xml:space="preserve">1.40402233600616</t>
@@ -1688,43 +1688,43 @@
     <t xml:space="preserve">1.41261970996857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42716944217682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39807057380676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42650783061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44502532482147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44833219051361</t>
+    <t xml:space="preserve">1.42716932296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39807045459747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42650806903839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44502544403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44833207130432</t>
   </si>
   <si>
     <t xml:space="preserve">1.45362293720245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44304144382477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47081768512726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48735117912292</t>
+    <t xml:space="preserve">1.44304132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44965481758118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47081756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48735129833221</t>
   </si>
   <si>
     <t xml:space="preserve">1.47214043140411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4714789390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46817231178284</t>
+    <t xml:space="preserve">1.47147881984711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46817219257355</t>
   </si>
   <si>
     <t xml:space="preserve">1.44171869754791</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">1.43642795085907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43576669692993</t>
+    <t xml:space="preserve">1.43576645851135</t>
   </si>
   <si>
     <t xml:space="preserve">1.43907344341278</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">1.4073292016983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.361696600914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38219797611237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.411297082901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40865182876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43510544300079</t>
+    <t xml:space="preserve">1.36169648170471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38219809532166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41129720211029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40865170955658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4351053237915</t>
   </si>
   <si>
     <t xml:space="preserve">1.43444395065308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43047618865967</t>
+    <t xml:space="preserve">1.43047595024109</t>
   </si>
   <si>
     <t xml:space="preserve">1.43775069713593</t>
@@ -1769,76 +1769,76 @@
     <t xml:space="preserve">1.44105744361877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43179845809937</t>
+    <t xml:space="preserve">1.43179857730865</t>
   </si>
   <si>
     <t xml:space="preserve">1.4523001909256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45957505702972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46023631095886</t>
+    <t xml:space="preserve">1.45957493782043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46023619174957</t>
   </si>
   <si>
     <t xml:space="preserve">1.47280168533325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47610831260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883356571198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45825219154358</t>
+    <t xml:space="preserve">1.47610855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883368492126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45825207233429</t>
   </si>
   <si>
     <t xml:space="preserve">1.48602843284607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49065780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50322329998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50586867332458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562891483307</t>
+    <t xml:space="preserve">1.49065768718719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50322318077087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50586879253387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562879562378</t>
   </si>
   <si>
     <t xml:space="preserve">1.5620824098587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56075978279114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57530903816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57332515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5640664100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57729315757751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58985865116119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58655190467834</t>
+    <t xml:space="preserve">1.56075954437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57530915737152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57332527637482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56406652927399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5772932767868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58985877037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58655178546906</t>
   </si>
   <si>
     <t xml:space="preserve">1.60374665260315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60837614536285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59713327884674</t>
+    <t xml:space="preserve">1.60837626457214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59713351726532</t>
   </si>
   <si>
     <t xml:space="preserve">1.6116828918457</t>
@@ -1847,31 +1847,31 @@
     <t xml:space="preserve">1.61102151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5944881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59382677078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59250402450562</t>
+    <t xml:space="preserve">1.59448802471161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59382665157318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5925041437149</t>
   </si>
   <si>
     <t xml:space="preserve">1.59779465198517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60308539867401</t>
+    <t xml:space="preserve">1.60308527946472</t>
   </si>
   <si>
     <t xml:space="preserve">1.60110151767731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61300551891327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61631214618683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60771465301514</t>
+    <t xml:space="preserve">1.61300539970398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61631226539612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60771477222443</t>
   </si>
   <si>
     <t xml:space="preserve">1.60176265239716</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">1.61432814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60573077201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61565101146698</t>
+    <t xml:space="preserve">1.60573065280914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61565089225769</t>
   </si>
   <si>
     <t xml:space="preserve">1.61498951911926</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">1.61829614639282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62160289287567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59316515922546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56671178340912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54554903507233</t>
+    <t xml:space="preserve">1.62160277366638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59316527843475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56671166419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54554891586304</t>
   </si>
   <si>
     <t xml:space="preserve">1.60506951808929</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">1.63350713253021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64474964141846</t>
+    <t xml:space="preserve">1.64474976062775</t>
   </si>
   <si>
     <t xml:space="preserve">1.6268937587738</t>
@@ -1919,19 +1919,19 @@
     <t xml:space="preserve">1.62970459461212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61916315555573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143279075623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294238567352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60721635818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59456658363342</t>
+    <t xml:space="preserve">1.61916327476501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143267154694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294226646423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60721623897552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59456646442413</t>
   </si>
   <si>
     <t xml:space="preserve">1.57629489898682</t>
@@ -1955,34 +1955,34 @@
     <t xml:space="preserve">1.53061521053314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53412926197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53764283657074</t>
+    <t xml:space="preserve">1.53412914276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53764271736145</t>
   </si>
   <si>
     <t xml:space="preserve">1.54537308216095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54607605934143</t>
+    <t xml:space="preserve">1.54607594013214</t>
   </si>
   <si>
     <t xml:space="preserve">1.53272354602814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55732023715973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52920997142792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52358758449554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56153655052185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56575345993042</t>
+    <t xml:space="preserve">1.55732011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52920985221863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52358770370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56153666973114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56575334072113</t>
   </si>
   <si>
     <t xml:space="preserve">1.57207810878754</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">1.59526932239532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58964729309082</t>
+    <t xml:space="preserve">1.58964741230011</t>
   </si>
   <si>
     <t xml:space="preserve">1.58753907680511</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">1.61283850669861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.638840675354</t>
+    <t xml:space="preserve">1.63884055614471</t>
   </si>
   <si>
     <t xml:space="preserve">1.64797639846802</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">1.6599235534668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66273438930511</t>
+    <t xml:space="preserve">1.6627345085144</t>
   </si>
   <si>
     <t xml:space="preserve">1.6620317697525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67327582836151</t>
+    <t xml:space="preserve">1.6732759475708</t>
   </si>
   <si>
     <t xml:space="preserve">1.68100619316101</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.67819511890411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65008473396301</t>
+    <t xml:space="preserve">1.6500848531723</t>
   </si>
   <si>
     <t xml:space="preserve">1.69927799701691</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">1.68873679637909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69225037097931</t>
+    <t xml:space="preserve">1.69225060939789</t>
   </si>
   <si>
     <t xml:space="preserve">1.64727389812469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65500402450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69435882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66062617301941</t>
+    <t xml:space="preserve">1.6550041437149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6943587064743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66062605381012</t>
   </si>
   <si>
     <t xml:space="preserve">1.62127137184143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60089159011841</t>
+    <t xml:space="preserve">1.60089147090912</t>
   </si>
   <si>
     <t xml:space="preserve">1.60510790348053</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.55661749839783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55169796943665</t>
+    <t xml:space="preserve">1.55169808864594</t>
   </si>
   <si>
     <t xml:space="preserve">1.58472800254822</t>
@@ -2096,13 +2096,13 @@
     <t xml:space="preserve">1.62478530406952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60018873214722</t>
+    <t xml:space="preserve">1.60018885135651</t>
   </si>
   <si>
     <t xml:space="preserve">1.59948599338531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63251578807831</t>
+    <t xml:space="preserve">1.63251566886902</t>
   </si>
   <si>
     <t xml:space="preserve">1.62619078159332</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">1.6430572271347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65851783752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67960071563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7020890712738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69857537746429</t>
+    <t xml:space="preserve">1.65851771831512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6796008348465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70208895206451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69857549667358</t>
   </si>
   <si>
     <t xml:space="preserve">1.69716989994049</t>
@@ -2132,19 +2132,19 @@
     <t xml:space="preserve">1.6845201253891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69084489345551</t>
+    <t xml:space="preserve">1.69084501266479</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133332490921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69014227390289</t>
+    <t xml:space="preserve">1.69014203548431</t>
   </si>
   <si>
     <t xml:space="preserve">1.69154763221741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68381726741791</t>
+    <t xml:space="preserve">1.6838173866272</t>
   </si>
   <si>
     <t xml:space="preserve">1.69646692276001</t>
@@ -2156,49 +2156,49 @@
     <t xml:space="preserve">1.7147388458252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7013863325119</t>
+    <t xml:space="preserve">1.70138645172119</t>
   </si>
   <si>
     <t xml:space="preserve">1.66765356063843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6662483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65570676326752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66976189613342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68662846088409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7175498008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7049001455307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7231719493866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73793005943298</t>
+    <t xml:space="preserve">1.66624820232391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65570664405823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66976201534271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68662858009338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71754992008209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70490026473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72317183017731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73793017864227</t>
   </si>
   <si>
     <t xml:space="preserve">1.76885151863098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77095973491669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76744604110718</t>
+    <t xml:space="preserve">1.77095949649811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7674458026886</t>
   </si>
   <si>
     <t xml:space="preserve">1.77939283847809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76814877986908</t>
+    <t xml:space="preserve">1.76814889907837</t>
   </si>
   <si>
     <t xml:space="preserve">1.77447366714478</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">1.77236533164978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75760746002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78431236743927</t>
+    <t xml:space="preserve">1.75760722160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78431212902069</t>
   </si>
   <si>
     <t xml:space="preserve">1.78782606124878</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">1.83842480182648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87075197696686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85599386692047</t>
+    <t xml:space="preserve">1.87075173854828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85599410533905</t>
   </si>
   <si>
     <t xml:space="preserve">1.84756088256836</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">1.83772218227386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85388576984406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86021065711975</t>
+    <t xml:space="preserve">1.85388553142548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86021041870117</t>
   </si>
   <si>
     <t xml:space="preserve">1.86442720890045</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">1.81593656539917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79133999347687</t>
+    <t xml:space="preserve">1.79133975505829</t>
   </si>
   <si>
     <t xml:space="preserve">1.81804490089417</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">1.81101703643799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79696190357208</t>
+    <t xml:space="preserve">1.79696214199066</t>
   </si>
   <si>
     <t xml:space="preserve">1.79907023906708</t>
@@ -2300,22 +2300,22 @@
     <t xml:space="preserve">1.87918519973755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87356305122375</t>
+    <t xml:space="preserve">1.87356281280518</t>
   </si>
   <si>
     <t xml:space="preserve">1.90307915210724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94102811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87637388706207</t>
+    <t xml:space="preserve">1.94102823734283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87637412548065</t>
   </si>
   <si>
     <t xml:space="preserve">1.83912777900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82015311717987</t>
+    <t xml:space="preserve">1.82015287876129</t>
   </si>
   <si>
     <t xml:space="preserve">1.81312537193298</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">1.80539512634277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81523358821869</t>
+    <t xml:space="preserve">1.81523382663727</t>
   </si>
   <si>
     <t xml:space="preserve">1.80047583580017</t>
@@ -2342,10 +2342,10 @@
     <t xml:space="preserve">1.75057983398438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74917411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75339078903198</t>
+    <t xml:space="preserve">1.74917423725128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75339066982269</t>
   </si>
   <si>
     <t xml:space="preserve">1.7569043636322</t>
@@ -2354,457 +2354,457 @@
     <t xml:space="preserve">1.75831019878387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73230791091919</t>
+    <t xml:space="preserve">1.7323077917099</t>
   </si>
   <si>
     <t xml:space="preserve">1.74144387245178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71895551681519</t>
+    <t xml:space="preserve">1.7189553976059</t>
   </si>
   <si>
     <t xml:space="preserve">1.73722720146179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7259829044342</t>
+    <t xml:space="preserve">1.72598314285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68592536449432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71263062953949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.731605052948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7182525396347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74847137928009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82507228851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85950779914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6936559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63462400436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57980847358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55591464042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52499318122864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50953245162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45050024986267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41325402259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30010938644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28043222427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27164745330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19469499588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25970053672791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637673377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32540881633759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37530493736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43855333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44277000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41676795482635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48423302173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48844957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57559204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53975117206573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51164078712463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57418644428253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54888713359833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55310368537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61635220050812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229682922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61213552951813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54045403003693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51234340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51937103271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53483176231384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57699751853943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54326510429382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51796567440033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.597611784935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47028791904449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498286724091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45664608478546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47862458229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51272928714752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53091835975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54759180545807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56881237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51879215240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55365478992462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60973799228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64460051059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66733694076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72341990470886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71129393577576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65975797176361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005327224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60670626163483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61125373840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5854856967926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63853740692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61883246898651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62337970733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62186408042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59154868125916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62792706489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57487547397614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60064351558685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59306454658508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6142852306366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61276936531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59912753105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156889915466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65672647953033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63399004936218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63550591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62489557266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65217936038971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64914774894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6552107334137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63247442245483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64611613750458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580097675323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70977807044983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69765210151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432554721832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83407056331635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8568069934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83558619022369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82800734043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80678677558899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80981826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164929389954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84013342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83710205554962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83861780166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82194471359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81891310214996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859746456146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76434540748596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79769229888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82042872905731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82346034049988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82649171352386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81739723682404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80527114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75979828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76282978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7173570394516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73099863529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69007337093353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69310474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68704187870026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68552601337433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67491567134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371496677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71584129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6840101480484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278958320618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58396983146667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54456031322479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820214748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52940249443054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53394973278046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49226641654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48620355129242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51121342182159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55062329769135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57032811641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58851742744446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56123352050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63702178001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62944293022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64308476448059</t>
   </si>
   <si>
     <t xml:space="preserve">1.70068347454071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6859256029129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71263062953949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.731605052948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7182525396347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74214661121368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74847137928009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82507240772247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84685802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85950767993927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69365620613098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63462388515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57980847358704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55591464042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52499330043793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50953245162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45050024986267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41325414180756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30010938644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28043222427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27164745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19469511508942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25970053672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26637673377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32540881633759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37530493736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43855345249176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44277000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41676783561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48423302173615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48844957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57559216022491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53975117206573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51164066791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57418656349182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54888701438904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55310368537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61635220050812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229682922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61213564872742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54045391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51234340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51937103271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53483176231384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57699751853943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54326510429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51796567440033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.597611784935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47028791904449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46498286724091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45664608478546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47862458229065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51272928714752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53091835975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54759180545807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56881237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51879215240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55365478992462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60973799228668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64460051059723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66733694076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72341990470886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71129393577576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65975797176361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005327224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60670626163483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61125373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5854856967926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63853740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61883246898651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62337970733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62186408042908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59154868125916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62792706489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57487547397614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60064351558685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59306454658508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6142852306366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61276936531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59912753105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156889915466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65672647953033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63399004936218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63550591468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62489557266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65217936038971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64914774894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6552107334137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63247442245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64611613750458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580097675323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70977807044983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69765210151672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946290969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432554721832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83407056331635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8568069934845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83558619022369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82800734043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80678677558899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80981826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164929389954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84013342857361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83710205554962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83861780166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82194471359253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81891310214996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859746456146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76434540748596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79769229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82042872905731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82346034049988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82649171352386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81739723682404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80527114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75979828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76282978057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7173570394516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73099863529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69007337093353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69310474395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68704187870026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68552601337433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67491567134857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371496677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71584129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6840101480484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278958320618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58396983146667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54456031322479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54607594013214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52940249443054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53394973278046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49226641654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48620355129242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51121342182159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55062329769135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57032811641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58851742744446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56123352050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63702178001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62944293022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64308476448059</t>
   </si>
   <si>
     <t xml:space="preserve">1.72190427780151</t>
@@ -36301,7 +36301,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1223" t="s">
-        <v>918</v>
+        <v>650</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36327,7 +36327,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1224" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36353,7 +36353,7 @@
         <v>2.0239999294281</v>
       </c>
       <c r="G1225" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36379,7 +36379,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1226" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36405,7 +36405,7 @@
         <v>1.96899998188019</v>
       </c>
       <c r="G1227" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36431,7 +36431,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G1228" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36457,7 +36457,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G1229" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36483,7 +36483,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G1230" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36509,7 +36509,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G1231" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36535,7 +36535,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G1232" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36587,7 +36587,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36613,7 +36613,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36639,7 +36639,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36691,7 +36691,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1238" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36769,7 +36769,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1241" t="s">
-        <v>785</v>
+        <v>930</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36821,7 +36821,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1243" t="s">
-        <v>785</v>
+        <v>930</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -60255,7 +60255,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6493518519</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>663274</v>
@@ -60276,6 +60276,32 @@
         <v>1382</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6495138889</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>790058</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.5220000743866</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.5220000743866</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.5220000743866</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -44,22 +44,22 @@
     <t xml:space="preserve">US.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2014319896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17478096485138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15346002578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13746929168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14066743850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15452575683594</t>
+    <t xml:space="preserve">1.20143187046051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17478084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15345990657806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1374694108963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14066755771637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15452587604523</t>
   </si>
   <si>
     <t xml:space="preserve">1.16092228889465</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">1.11295032501221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08949732780457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07030832767487</t>
+    <t xml:space="preserve">1.08949720859528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07030844688416</t>
   </si>
   <si>
     <t xml:space="preserve">1.04578948020935</t>
@@ -80,22 +80,22 @@
     <t xml:space="preserve">1.08523321151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09482729434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07137453556061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06817650794983</t>
+    <t xml:space="preserve">1.09482741355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0713746547699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06817626953125</t>
   </si>
   <si>
     <t xml:space="preserve">1.05378484725952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0127420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03832697868347</t>
+    <t xml:space="preserve">1.01274216175079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03832709789276</t>
   </si>
   <si>
     <t xml:space="preserve">1.01700627803802</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">0.984492003917694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954642713069916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957840919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921062231063843</t>
+    <t xml:space="preserve">0.954642534255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957840800285339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921062350273132</t>
   </si>
   <si>
     <t xml:space="preserve">0.868826150894165</t>
@@ -119,40 +119,40 @@
     <t xml:space="preserve">0.840575993061066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888548016548157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826717436313629</t>
+    <t xml:space="preserve">0.888547956943512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82671731710434</t>
   </si>
   <si>
     <t xml:space="preserve">0.917864143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972232520580292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960506021976471</t>
+    <t xml:space="preserve">0.972232460975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505902767181</t>
   </si>
   <si>
     <t xml:space="preserve">0.99035519361496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982892692089081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970100283622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999949514865875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979161858558655</t>
+    <t xml:space="preserve">0.98289293050766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970100402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99994957447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979161620140076</t>
   </si>
   <si>
     <t xml:space="preserve">0.97116631269455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988756000995636</t>
+    <t xml:space="preserve">0.988756239414215</t>
   </si>
   <si>
     <t xml:space="preserve">1.01114296913147</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">1.0372611284256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06177997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0468555688858</t>
+    <t xml:space="preserve">1.06178021430969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04685533046722</t>
   </si>
   <si>
     <t xml:space="preserve">1.03566205501556</t>
@@ -176,49 +176,49 @@
     <t xml:space="preserve">1.00314772129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01913833618164</t>
+    <t xml:space="preserve">1.01913845539093</t>
   </si>
   <si>
     <t xml:space="preserve">1.02127039432526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01061022281647</t>
+    <t xml:space="preserve">1.01060998439789</t>
   </si>
   <si>
     <t xml:space="preserve">1.07777082920074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08203494548798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07244062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08416700363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07990276813507</t>
+    <t xml:space="preserve">1.08203506469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07244074344635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08416724205017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07990300655365</t>
   </si>
   <si>
     <t xml:space="preserve">1.08843123912811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07670485973358</t>
+    <t xml:space="preserve">1.07670474052429</t>
   </si>
   <si>
     <t xml:space="preserve">1.06604433059692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08629930019379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04365730285645</t>
+    <t xml:space="preserve">1.08629906177521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04365742206573</t>
   </si>
   <si>
     <t xml:space="preserve">1.04952049255371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05005371570587</t>
+    <t xml:space="preserve">1.05005359649658</t>
   </si>
   <si>
     <t xml:space="preserve">1.07457256317139</t>
@@ -227,28 +227,28 @@
     <t xml:space="preserve">1.05804896354675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02926576137543</t>
+    <t xml:space="preserve">1.02926564216614</t>
   </si>
   <si>
     <t xml:space="preserve">1.07883679866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09269547462463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0937614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09695971012115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04845476150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04259145259857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03299677371979</t>
+    <t xml:space="preserve">1.09269535541534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09376156330109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09695959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04845440387726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04259133338928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03299689292908</t>
   </si>
   <si>
     <t xml:space="preserve">1.01594018936157</t>
@@ -257,118 +257,118 @@
     <t xml:space="preserve">1.00154852867126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976496577262878</t>
+    <t xml:space="preserve">0.976496517658234</t>
   </si>
   <si>
     <t xml:space="preserve">0.970633327960968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980760931968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986090958118439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984930813312531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00581276416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03829574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03365540504456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04409635066986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04235637187958</t>
+    <t xml:space="preserve">0.98076069355011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986091017723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98493093252182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00581288337708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0382958650589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03365528583527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04409646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04235625267029</t>
   </si>
   <si>
     <t xml:space="preserve">1.02437448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03133523464203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993631780147552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993051648139954</t>
+    <t xml:space="preserve">1.03133535385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993631720542908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993051707744598</t>
   </si>
   <si>
     <t xml:space="preserve">0.999432146549225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998272120952606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982030630111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933306157588959</t>
+    <t xml:space="preserve">0.998272061347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98203045129776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933306097984314</t>
   </si>
   <si>
     <t xml:space="preserve">0.901983201503754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871240437030792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861379444599152</t>
+    <t xml:space="preserve">0.871240317821503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861379504203796</t>
   </si>
   <si>
     <t xml:space="preserve">0.83411693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871820509433746</t>
+    <t xml:space="preserve">0.871820449829102</t>
   </si>
   <si>
     <t xml:space="preserve">0.909523904323578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91474449634552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912424147129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951287806034088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85151869058609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80279403924942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825996220111847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792933225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7813321352005</t>
+    <t xml:space="preserve">0.91474437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912424206733704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951287686824799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851518630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802794098854065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825996398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792933166027069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.781332075595856</t>
   </si>
   <si>
     <t xml:space="preserve">0.81323504447937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791193008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756389796733856</t>
+    <t xml:space="preserve">0.791192948818207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756389915943146</t>
   </si>
   <si>
     <t xml:space="preserve">0.733187675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.730867445468903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802214026451111</t>
+    <t xml:space="preserve">0.730867385864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802214086055756</t>
   </si>
   <si>
     <t xml:space="preserve">0.819615602493286</t>
@@ -377,55 +377,55 @@
     <t xml:space="preserve">0.850938618183136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82425594329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850358426570892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866599977016449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847458124160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849198341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854418933391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842237830162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852678656578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857319176197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876461029052734</t>
+    <t xml:space="preserve">0.824256062507629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850358486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866600036621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847458243370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849198460578918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854418873786926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842237710952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852678716182709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857319116592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876460909843445</t>
   </si>
   <si>
     <t xml:space="preserve">0.870080351829529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.856739103794098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811495006084442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826576352119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824836134910583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846878230571747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879361093044281</t>
+    <t xml:space="preserve">0.856739044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494946479797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826576232910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824836075305939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846878170967102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879361212253571</t>
   </si>
   <si>
     <t xml:space="preserve">0.888062000274658</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">0.893282353878021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887481868267059</t>
+    <t xml:space="preserve">0.887481927871704</t>
   </si>
   <si>
     <t xml:space="preserve">0.854998826980591</t>
@@ -446,28 +446,28 @@
     <t xml:space="preserve">0.828896462917328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848038256168365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837597370147705</t>
+    <t xml:space="preserve">0.848038196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837597191333771</t>
   </si>
   <si>
     <t xml:space="preserve">0.835277020931244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82077568769455</t>
+    <t xml:space="preserve">0.820775866508484</t>
   </si>
   <si>
     <t xml:space="preserve">0.852098703384399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340075016022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865439891815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882841527462006</t>
+    <t xml:space="preserve">0.868340134620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86543995141983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882841408252716</t>
   </si>
   <si>
     <t xml:space="preserve">0.8973428606987</t>
@@ -476,85 +476,85 @@
     <t xml:space="preserve">0.910683989524841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910103857517242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881101369857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83469694852829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842817664146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82773631811142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839917480945587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219359397888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874720752239227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881681323051453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907783925533295</t>
+    <t xml:space="preserve">0.910104095935822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881101310253143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834697008132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842817723751068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827736377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839917540550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219478607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874720573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881681263446808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907783806324005</t>
   </si>
   <si>
     <t xml:space="preserve">0.93968665599823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949547648429871</t>
+    <t xml:space="preserve">0.949547529220581</t>
   </si>
   <si>
     <t xml:space="preserve">0.96056854724884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980870544910431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997112095355988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00929319858551</t>
+    <t xml:space="preserve">0.980870485305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997112035751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00929307937622</t>
   </si>
   <si>
     <t xml:space="preserve">1.00871300697327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00175261497498</t>
+    <t xml:space="preserve">1.0017523765564</t>
   </si>
   <si>
     <t xml:space="preserve">0.972169816493988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969849526882172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947227358818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976230084896088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979130268096924</t>
+    <t xml:space="preserve">0.969849467277527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947227537631989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976230263710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979130387306213</t>
   </si>
   <si>
     <t xml:space="preserve">0.973909914493561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997691988945007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03713572025299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05801773071289</t>
+    <t xml:space="preserve">0.997692048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0371356010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0580176115036</t>
   </si>
   <si>
     <t xml:space="preserve">1.06613850593567</t>
@@ -563,34 +563,34 @@
     <t xml:space="preserve">1.05685746669769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02089405059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03945600986481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03249537944794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02147436141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00117230415344</t>
+    <t xml:space="preserve">1.02089416980743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03945589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03249526023865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02147424221039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00117242336273</t>
   </si>
   <si>
     <t xml:space="preserve">1.02611482143402</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05337738990784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04583644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05743753910065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09920132160187</t>
+    <t xml:space="preserve">1.05337715148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04583668708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05743741989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09920156002045</t>
   </si>
   <si>
     <t xml:space="preserve">1.14850604534149</t>
@@ -599,25 +599,25 @@
     <t xml:space="preserve">1.16590762138367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16126716136932</t>
+    <t xml:space="preserve">1.16126728057861</t>
   </si>
   <si>
     <t xml:space="preserve">1.17054796218872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18214905261993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17170822620392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18330919742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18678951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1775084733963</t>
+    <t xml:space="preserve">1.18214917182922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17170798778534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18330907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18678963184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17750871181488</t>
   </si>
   <si>
     <t xml:space="preserve">1.18794965744019</t>
@@ -629,70 +629,70 @@
     <t xml:space="preserve">1.190269947052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19491016864777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20071077346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22507309913635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23783421516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23551416397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22855353355408</t>
+    <t xml:space="preserve">1.19491040706635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20071065425873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22507321834564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23783433437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23551404476166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22855341434479</t>
   </si>
   <si>
     <t xml:space="preserve">1.21231174468994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20419120788574</t>
+    <t xml:space="preserve">1.20419108867645</t>
   </si>
   <si>
     <t xml:space="preserve">1.21695232391357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18098902702332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20651125907898</t>
+    <t xml:space="preserve">1.18098890781403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20651137828827</t>
   </si>
   <si>
     <t xml:space="preserve">1.1693879365921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15952706336975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1537264585495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1682276725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15720689296722</t>
+    <t xml:space="preserve">1.15952694416046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15372633934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16822779178619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15720677375793</t>
   </si>
   <si>
     <t xml:space="preserve">1.19258999824524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20883178710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18910980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1340047121048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11718308925629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13168430328369</t>
+    <t xml:space="preserve">1.20883166790009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1891096830368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13400459289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11718320846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13168454170227</t>
   </si>
   <si>
     <t xml:space="preserve">1.13226449489594</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">1.15198624134064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10732233524323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10442197322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09804129600525</t>
+    <t xml:space="preserve">1.10732221603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10442209243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09804141521454</t>
   </si>
   <si>
     <t xml:space="preserve">1.10210168361664</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">1.09050071239471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14154541492462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15604674816132</t>
+    <t xml:space="preserve">1.14154529571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15604650974274</t>
   </si>
   <si>
     <t xml:space="preserve">1.1589469909668</t>
@@ -728,28 +728,28 @@
     <t xml:space="preserve">1.16010713577271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16706776618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15662658214569</t>
+    <t xml:space="preserve">1.16706788539886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15662682056427</t>
   </si>
   <si>
     <t xml:space="preserve">1.13980519771576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19375014305115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1786687374115</t>
+    <t xml:space="preserve">1.19375026226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17866885662079</t>
   </si>
   <si>
     <t xml:space="preserve">1.19142985343933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19955062866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20187091827393</t>
+    <t xml:space="preserve">1.1995507478714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20187079906464</t>
   </si>
   <si>
     <t xml:space="preserve">1.18562948703766</t>
@@ -758,55 +758,55 @@
     <t xml:space="preserve">1.2181122303009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19723033905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20303106307983</t>
+    <t xml:space="preserve">1.19723045825958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20303094387054</t>
   </si>
   <si>
     <t xml:space="preserve">1.19607031345367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17286825180054</t>
+    <t xml:space="preserve">1.17286813259125</t>
   </si>
   <si>
     <t xml:space="preserve">1.14560580253601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23087358474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22391295433044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667407035828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25871610641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27147722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26451671123505</t>
+    <t xml:space="preserve">1.23087346553802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22391283512115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667418956757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25871622562408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27147746086121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26451683044434</t>
   </si>
   <si>
     <t xml:space="preserve">1.27959811687469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29467952251434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27031719684601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25639569759369</t>
+    <t xml:space="preserve">1.29467964172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27031707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25639593601227</t>
   </si>
   <si>
     <t xml:space="preserve">1.26799702644348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24711525440216</t>
+    <t xml:space="preserve">1.24711513519287</t>
   </si>
   <si>
     <t xml:space="preserve">1.25175559520721</t>
@@ -824,43 +824,43 @@
     <t xml:space="preserve">1.28438854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27700006961823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23636245727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23759400844574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24128830432892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24375128746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21912252902985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20803964138031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19572532176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22527968883514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21727538108826</t>
+    <t xml:space="preserve">1.27699995040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23636257648468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23759412765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24128842353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24375116825104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21912264823914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2080397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19572520256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22527956962585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21727526187897</t>
   </si>
   <si>
     <t xml:space="preserve">1.22712683677673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21481239795685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19141507148743</t>
+    <t xml:space="preserve">1.21481251716614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19141519069672</t>
   </si>
   <si>
     <t xml:space="preserve">1.19449377059937</t>
@@ -878,37 +878,37 @@
     <t xml:space="preserve">1.19634091854095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2037296295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22035384178162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22096979618073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17663788795471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2012665271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19941937923431</t>
+    <t xml:space="preserve">1.20372951030731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22035396099091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22096967697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.176638007164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20126664638519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1994194984436</t>
   </si>
   <si>
     <t xml:space="preserve">1.20434522628784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23143696784973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22343242168427</t>
+    <t xml:space="preserve">1.23143672943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22343254089355</t>
   </si>
   <si>
     <t xml:space="preserve">1.22835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2135808467865</t>
+    <t xml:space="preserve">1.21358096599579</t>
   </si>
   <si>
     <t xml:space="preserve">1.21173393726349</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">1.19203090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20496106147766</t>
+    <t xml:space="preserve">1.20496082305908</t>
   </si>
   <si>
     <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22651088237762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2388254404068</t>
+    <t xml:space="preserve">1.2265111207962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23882555961609</t>
   </si>
   <si>
     <t xml:space="preserve">1.24251973628998</t>
@@ -956,10 +956,10 @@
     <t xml:space="preserve">1.18772089481354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19079947471619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18895220756531</t>
+    <t xml:space="preserve">1.1907993555069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1889523267746</t>
   </si>
   <si>
     <t xml:space="preserve">1.18587374687195</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">1.17355930805206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17602217197418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17417514324188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19387805461884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17910075187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555488109589</t>
+    <t xml:space="preserve">1.17602229118347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1741749048233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19387793540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17910063266754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16555500030518</t>
   </si>
   <si>
     <t xml:space="preserve">1.16001343727112</t>
@@ -995,25 +995,25 @@
     <t xml:space="preserve">1.18956804275513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20865535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18341088294983</t>
+    <t xml:space="preserve">1.20865523815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18341076374054</t>
   </si>
   <si>
     <t xml:space="preserve">1.1784850358963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1975724697113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2222011089325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20742380619049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20619237422943</t>
+    <t xml:space="preserve">1.19757235050201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22220098972321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20742392539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20619225502014</t>
   </si>
   <si>
     <t xml:space="preserve">1.21542811393738</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">1.21419680118561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23020553588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2098867893219</t>
+    <t xml:space="preserve">1.23020541667938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20988667011261</t>
   </si>
   <si>
     <t xml:space="preserve">1.15693485736847</t>
@@ -1040,16 +1040,16 @@
     <t xml:space="preserve">1.16124498844147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13600051403046</t>
+    <t xml:space="preserve">1.13600039482117</t>
   </si>
   <si>
     <t xml:space="preserve">1.14646768569946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16247642040253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16740226745605</t>
+    <t xml:space="preserve">1.16247630119324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16740214824677</t>
   </si>
   <si>
     <t xml:space="preserve">1.16986501216888</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">1.16309213638306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16493916511536</t>
+    <t xml:space="preserve">1.16493928432465</t>
   </si>
   <si>
     <t xml:space="preserve">1.16801774501801</t>
@@ -1067,34 +1067,34 @@
     <t xml:space="preserve">1.17171216011047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16863346099854</t>
+    <t xml:space="preserve">1.16863358020782</t>
   </si>
   <si>
     <t xml:space="preserve">1.18156361579895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21296525001526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21111822128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927107334137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2160439491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25237131118774</t>
+    <t xml:space="preserve">1.21296536922455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21111798286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21604382991791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25237119197845</t>
   </si>
   <si>
     <t xml:space="preserve">1.26222276687622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24867701530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729715824127</t>
+    <t xml:space="preserve">1.24867713451385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729703903198</t>
   </si>
   <si>
     <t xml:space="preserve">1.26468551158905</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">1.28562009334564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30162882804871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30532312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29177737236023</t>
+    <t xml:space="preserve">1.30162870883942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3053230047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29177725315094</t>
   </si>
   <si>
     <t xml:space="preserve">1.28131008148193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26653277873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24990820884705</t>
+    <t xml:space="preserve">1.26653265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24990844726562</t>
   </si>
   <si>
     <t xml:space="preserve">1.25606560707092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22189331054688</t>
+    <t xml:space="preserve">1.22189342975616</t>
   </si>
   <si>
     <t xml:space="preserve">1.23328399658203</t>
@@ -1136,67 +1136,67 @@
     <t xml:space="preserve">1.23082113265991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20465302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944115638733</t>
+    <t xml:space="preserve">1.20465326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944127559662</t>
   </si>
   <si>
     <t xml:space="preserve">1.24621403217316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23820960521698</t>
+    <t xml:space="preserve">1.23820972442627</t>
   </si>
   <si>
     <t xml:space="preserve">1.21265745162964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22066187858582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21973812580109</t>
+    <t xml:space="preserve">1.22066175937653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21973824501038</t>
   </si>
   <si>
     <t xml:space="preserve">1.21819889545441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21512031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18987572193146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18433439731598</t>
+    <t xml:space="preserve">1.21512043476105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18987584114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18433427810669</t>
   </si>
   <si>
     <t xml:space="preserve">1.19788014888763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21081018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21019458770752</t>
+    <t xml:space="preserve">1.21081042289734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21019470691681</t>
   </si>
   <si>
     <t xml:space="preserve">1.20095884799957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110727310181</t>
+    <t xml:space="preserve">1.1911073923111</t>
   </si>
   <si>
     <t xml:space="preserve">1.18310296535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18464243412018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19018363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20219027996063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20650029182434</t>
+    <t xml:space="preserve">1.1846421957016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19018375873566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20219016075134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20650017261505</t>
   </si>
   <si>
     <t xml:space="preserve">1.26406991481781</t>
@@ -1205,61 +1205,61 @@
     <t xml:space="preserve">1.27145862579346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28069424629211</t>
+    <t xml:space="preserve">1.2806943655014</t>
   </si>
   <si>
     <t xml:space="preserve">1.29424011707306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30409181118011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31332731246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33795642852783</t>
+    <t xml:space="preserve">1.30409169197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31332743167877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33795619010925</t>
   </si>
   <si>
     <t xml:space="preserve">1.34780752658844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34657609462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3428817987442</t>
+    <t xml:space="preserve">1.34657621383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34288191795349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3595062494278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37305200099945</t>
+    <t xml:space="preserve">1.37305223941803</t>
   </si>
   <si>
     <t xml:space="preserve">1.38536643981934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35827493667603</t>
+    <t xml:space="preserve">1.35827481746674</t>
   </si>
   <si>
     <t xml:space="preserve">1.3761305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38167202472687</t>
+    <t xml:space="preserve">1.38167214393616</t>
   </si>
   <si>
     <t xml:space="preserve">1.35519623756409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35458052158356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34041893482208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34349751472473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31763744354248</t>
+    <t xml:space="preserve">1.35458064079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34041917324066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34349763393402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31763756275177</t>
   </si>
   <si>
     <t xml:space="preserve">1.297318816185</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">1.30840170383453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29622411727905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29556286334991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27803719043732</t>
+    <t xml:space="preserve">1.29622435569763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29556274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27803754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26282668113708</t>
@@ -1283,43 +1283,43 @@
     <t xml:space="preserve">1.25356781482697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26018106937408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25059187412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30217623710632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24463963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27473080158234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24893856048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.239018201828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2370343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24166393280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21851670742035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25786650180817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23934900760651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25092244148254</t>
+    <t xml:space="preserve">1.26018130779266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25059175491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30217611789703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24463975429535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27473068237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24893832206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23901844024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23703420162201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24166369438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21851682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25786638259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2393491268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25092256069183</t>
   </si>
   <si>
     <t xml:space="preserve">1.24728512763977</t>
@@ -1328,55 +1328,55 @@
     <t xml:space="preserve">1.23868775367737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25224506855011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2565438747406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25555193424225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23604238033295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21686363220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23835706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27043187618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25422930717468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25158369541168</t>
+    <t xml:space="preserve">1.2522451877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25654375553131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25555181503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23604226112366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21686351299286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23835694789886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27043199539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2542290687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25158381462097</t>
   </si>
   <si>
     <t xml:space="preserve">1.2995308637619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2909334897995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32862985134125</t>
+    <t xml:space="preserve">1.29093360900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32862997055054</t>
   </si>
   <si>
     <t xml:space="preserve">1.32730710506439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31011211872101</t>
+    <t xml:space="preserve">1.3101122379303</t>
   </si>
   <si>
     <t xml:space="preserve">1.29192543029785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27737593650818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27902948856354</t>
+    <t xml:space="preserve">1.27737605571747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27902936935425</t>
   </si>
   <si>
     <t xml:space="preserve">1.28432011604309</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">1.29258680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26844799518585</t>
+    <t xml:space="preserve">1.26844787597656</t>
   </si>
   <si>
     <t xml:space="preserve">1.26613330841064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25951993465424</t>
+    <t xml:space="preserve">1.25951981544495</t>
   </si>
   <si>
     <t xml:space="preserve">1.27506124973297</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">1.26877856254578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307736873627</t>
+    <t xml:space="preserve">1.27307724952698</t>
   </si>
   <si>
     <t xml:space="preserve">1.28861880302429</t>
@@ -1412,49 +1412,49 @@
     <t xml:space="preserve">1.24959981441498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24001049995422</t>
+    <t xml:space="preserve">1.24001038074493</t>
   </si>
   <si>
     <t xml:space="preserve">1.24298644065857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24596226215363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24331712722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24100244045258</t>
+    <t xml:space="preserve">1.2459625005722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24331700801849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.241002202034</t>
   </si>
   <si>
     <t xml:space="preserve">1.22678363323212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26447999477386</t>
+    <t xml:space="preserve">1.26447987556458</t>
   </si>
   <si>
     <t xml:space="preserve">1.28068268299103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25522112846375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25489044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27406919002533</t>
+    <t xml:space="preserve">1.25522100925446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25489068031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27406930923462</t>
   </si>
   <si>
     <t xml:space="preserve">1.30449092388153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30052304267883</t>
+    <t xml:space="preserve">1.30052292346954</t>
   </si>
   <si>
     <t xml:space="preserve">1.29655492305756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30482161045074</t>
+    <t xml:space="preserve">1.30482149124146</t>
   </si>
   <si>
     <t xml:space="preserve">1.29986155033112</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">1.28365874290466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28994154930115</t>
+    <t xml:space="preserve">1.28994166851044</t>
   </si>
   <si>
     <t xml:space="preserve">1.32036304473877</t>
@@ -1475,25 +1475,25 @@
     <t xml:space="preserve">1.31738698482513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33854985237122</t>
+    <t xml:space="preserve">1.33854973316193</t>
   </si>
   <si>
     <t xml:space="preserve">1.33259797096252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33061385154724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32400059700012</t>
+    <t xml:space="preserve">1.33061373233795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32400035858154</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574471950531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558472156525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36698746681213</t>
+    <t xml:space="preserve">1.37558495998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36698734760284</t>
   </si>
   <si>
     <t xml:space="preserve">1.38550496101379</t>
@@ -1502,25 +1502,25 @@
     <t xml:space="preserve">1.38748896121979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40336096286774</t>
+    <t xml:space="preserve">1.40336108207703</t>
   </si>
   <si>
     <t xml:space="preserve">1.41195845603943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41328132152557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34251773357391</t>
+    <t xml:space="preserve">1.41328120231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3425178527832</t>
   </si>
   <si>
     <t xml:space="preserve">1.31705641746521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33127510547638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35111522674561</t>
+    <t xml:space="preserve">1.33127522468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3511153459549</t>
   </si>
   <si>
     <t xml:space="preserve">1.29688549041748</t>
@@ -1529,19 +1529,19 @@
     <t xml:space="preserve">1.30019223690033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31639504432678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26315724849701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26745581626892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26249587535858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2714239358902</t>
+    <t xml:space="preserve">1.31639492511749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26315712928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26745593547821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26249599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27142405509949</t>
   </si>
   <si>
     <t xml:space="preserve">1.24860787391663</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">1.24926912784576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2823361158371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26977062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27704536914825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28398942947388</t>
+    <t xml:space="preserve">1.28233599662781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26977050304413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27704548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28398931026459</t>
   </si>
   <si>
     <t xml:space="preserve">1.30118417739868</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">1.30912041664124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32532322406769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32796823978424</t>
+    <t xml:space="preserve">1.32532286643982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32796835899353</t>
   </si>
   <si>
     <t xml:space="preserve">1.34119534492493</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">1.36566483974457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37095546722412</t>
+    <t xml:space="preserve">1.37095534801483</t>
   </si>
   <si>
     <t xml:space="preserve">1.3597127199173</t>
@@ -1601,22 +1601,22 @@
     <t xml:space="preserve">1.33590447902679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33722722530365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34979259967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33193647861481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34053385257721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32267761230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36103534698486</t>
+    <t xml:space="preserve">1.33722710609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34979236125946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33193635940552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3405339717865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32267773151398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36103558540344</t>
   </si>
   <si>
     <t xml:space="preserve">1.37360084056854</t>
@@ -1634,22 +1634,22 @@
     <t xml:space="preserve">1.36301946640015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30548286437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32333898544312</t>
+    <t xml:space="preserve">1.30548298358917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32333922386169</t>
   </si>
   <si>
     <t xml:space="preserve">1.28961086273193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29060280323029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3015148639679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30515229701996</t>
+    <t xml:space="preserve">1.29060292243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30151498317719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30515217781067</t>
   </si>
   <si>
     <t xml:space="preserve">1.30746686458588</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">1.30713629722595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30845904350281</t>
+    <t xml:space="preserve">1.30845892429352</t>
   </si>
   <si>
     <t xml:space="preserve">1.34185659885406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3749235868454</t>
+    <t xml:space="preserve">1.37492346763611</t>
   </si>
   <si>
     <t xml:space="preserve">1.36963284015656</t>
@@ -1685,19 +1685,19 @@
     <t xml:space="preserve">1.40402245521545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41261982917786</t>
+    <t xml:space="preserve">1.41261970996857</t>
   </si>
   <si>
     <t xml:space="preserve">1.42716932296753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39807045459747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42650818824768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44502532482147</t>
+    <t xml:space="preserve">1.39807057380676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4265079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44502544403076</t>
   </si>
   <si>
     <t xml:space="preserve">1.44833207130432</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">1.45362281799316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44304132461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47081744670868</t>
+    <t xml:space="preserve">1.44304144382477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44965481758118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47081768512726</t>
   </si>
   <si>
     <t xml:space="preserve">1.48735117912292</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">1.4714789390564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46817243099213</t>
+    <t xml:space="preserve">1.46817231178284</t>
   </si>
   <si>
     <t xml:space="preserve">1.44171869754791</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">1.43907344341278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4073292016983</t>
+    <t xml:space="preserve">1.40732896327972</t>
   </si>
   <si>
     <t xml:space="preserve">1.36169672012329</t>
@@ -1751,31 +1751,31 @@
     <t xml:space="preserve">1.41129720211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40865194797516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4351053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43444395065308</t>
+    <t xml:space="preserve">1.40865182876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43510544300079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4344437122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.43047606945038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43775069713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44105744361877</t>
+    <t xml:space="preserve">1.43775081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44105732440948</t>
   </si>
   <si>
     <t xml:space="preserve">1.43179857730865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45230031013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45957493782043</t>
+    <t xml:space="preserve">1.4523001909256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45957481861115</t>
   </si>
   <si>
     <t xml:space="preserve">1.46023619174957</t>
@@ -1784,112 +1784,112 @@
     <t xml:space="preserve">1.47280180454254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4761084318161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883356571198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45825219154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48602855205536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49065780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50322329998016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5058685541153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562879562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56208229064941</t>
+    <t xml:space="preserve">1.47610855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883368492126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45825207233429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48602843284607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49065768718719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50322306156158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50586867332458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562891483307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5620824098587</t>
   </si>
   <si>
     <t xml:space="preserve">1.56075966358185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57530903816223</t>
+    <t xml:space="preserve">1.57530915737152</t>
   </si>
   <si>
     <t xml:space="preserve">1.57332515716553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5640664100647</t>
+    <t xml:space="preserve">1.56406652927399</t>
   </si>
   <si>
     <t xml:space="preserve">1.5772932767868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5898585319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58655190467834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60374653339386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60837614536285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59713315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6116828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61102139949799</t>
+    <t xml:space="preserve">1.58985888957977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58655178546906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60374677181244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60837602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59713351726532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61168277263641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61102151870728</t>
   </si>
   <si>
     <t xml:space="preserve">1.59448802471161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59382665157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59250402450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59779465198517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60308539867401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60110151767731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61300551891327</t>
+    <t xml:space="preserve">1.59382677078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5925041437149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59779477119446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60308527946472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60110139846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61300539970398</t>
   </si>
   <si>
     <t xml:space="preserve">1.61631214618683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60771477222443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60176265239716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61432802677155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60573077201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61565089225769</t>
+    <t xml:space="preserve">1.60771489143372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60176253318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61432814598083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60573053359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61565101146698</t>
   </si>
   <si>
     <t xml:space="preserve">1.61498951911926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61829602718353</t>
+    <t xml:space="preserve">1.61829614639282</t>
   </si>
   <si>
     <t xml:space="preserve">1.62160277366638</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">1.59316515922546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56671190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54554903507233</t>
+    <t xml:space="preserve">1.56671166419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54554891586304</t>
   </si>
   <si>
     <t xml:space="preserve">1.60506951808929</t>
@@ -1910,37 +1910,37 @@
     <t xml:space="preserve">1.63350713253021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64474964141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6268937587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62970459461212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916303634644</t>
+    <t xml:space="preserve">1.64474987983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689352035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62970471382141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916315555573</t>
   </si>
   <si>
     <t xml:space="preserve">1.61143279075623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56294214725494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60721611976624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59456670284271</t>
+    <t xml:space="preserve">1.56294226646423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60721623897552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59456658363342</t>
   </si>
   <si>
     <t xml:space="preserve">1.57629477977753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52991247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53904843330383</t>
+    <t xml:space="preserve">1.52991259098053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53904831409454</t>
   </si>
   <si>
     <t xml:space="preserve">1.53342628479004</t>
@@ -1952,16 +1952,16 @@
     <t xml:space="preserve">1.54748153686523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53061532974243</t>
+    <t xml:space="preserve">1.53061521053314</t>
   </si>
   <si>
     <t xml:space="preserve">1.53412914276123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53764295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54537320137024</t>
+    <t xml:space="preserve">1.53764271736145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54537308216095</t>
   </si>
   <si>
     <t xml:space="preserve">1.54607605934143</t>
@@ -1970,28 +1970,28 @@
     <t xml:space="preserve">1.53272354602814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55732035636902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52920985221863</t>
+    <t xml:space="preserve">1.55732011795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52920973300934</t>
   </si>
   <si>
     <t xml:space="preserve">1.52358770370483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56153666973114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56575322151184</t>
+    <t xml:space="preserve">1.56153655052185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56575334072113</t>
   </si>
   <si>
     <t xml:space="preserve">1.57207810878754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59526932239532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58964717388153</t>
+    <t xml:space="preserve">1.59526944160461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58964729309082</t>
   </si>
   <si>
     <t xml:space="preserve">1.58753907680511</t>
@@ -2000,34 +2000,34 @@
     <t xml:space="preserve">1.57137548923492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61494672298431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283850669861</t>
+    <t xml:space="preserve">1.6149468421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283838748932</t>
   </si>
   <si>
     <t xml:space="preserve">1.638840675354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64797639846802</t>
+    <t xml:space="preserve">1.64797651767731</t>
   </si>
   <si>
     <t xml:space="preserve">1.64446258544922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63111042976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63743484020233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65992331504822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66273427009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66203188896179</t>
+    <t xml:space="preserve">1.6311103105545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63743495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65992343425751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6627345085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6620317697525</t>
   </si>
   <si>
     <t xml:space="preserve">1.6732759475708</t>
@@ -2036,46 +2036,46 @@
     <t xml:space="preserve">1.6810063123703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67819511890411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65008497238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6992781162262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6887366771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6922504901886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64727365970612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65500402450562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69435882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66062617301941</t>
+    <t xml:space="preserve">1.6781952381134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6500848531723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69927799701691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68873679637909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69225060939789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64727377891541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6550041437149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6943587064743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66062605381012</t>
   </si>
   <si>
     <t xml:space="preserve">1.62127137184143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6008917093277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60510790348053</t>
+    <t xml:space="preserve">1.60089159011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60510778427124</t>
   </si>
   <si>
     <t xml:space="preserve">1.61354124546051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57488918304443</t>
+    <t xml:space="preserve">1.57488930225372</t>
   </si>
   <si>
     <t xml:space="preserve">1.59667491912842</t>
@@ -2087,70 +2087,70 @@
     <t xml:space="preserve">1.55169796943665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58472788333893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59386372566223</t>
+    <t xml:space="preserve">1.58472800254822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59386384487152</t>
   </si>
   <si>
     <t xml:space="preserve">1.62478530406952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60018861293793</t>
+    <t xml:space="preserve">1.60018873214722</t>
   </si>
   <si>
     <t xml:space="preserve">1.59948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63251554965973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62619066238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689387798309</t>
+    <t xml:space="preserve">1.63251566886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62619078159332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689363956451</t>
   </si>
   <si>
     <t xml:space="preserve">1.63321828842163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6430572271347</t>
+    <t xml:space="preserve">1.64305710792542</t>
   </si>
   <si>
     <t xml:space="preserve">1.65851771831512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67960095405579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70208919048309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69857549667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69716966152191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68452024459839</t>
+    <t xml:space="preserve">1.67960071563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7020890712738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.698575258255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69716989994049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6845201253891</t>
   </si>
   <si>
     <t xml:space="preserve">1.69084489345551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7133332490921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6901421546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69154787063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6838173866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69646680355072</t>
+    <t xml:space="preserve">1.71333336830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69014203548431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69154763221741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68381750583649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6964670419693</t>
   </si>
   <si>
     <t xml:space="preserve">1.70560300350189</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">1.7147388458252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7013863325119</t>
+    <t xml:space="preserve">1.70138645172119</t>
   </si>
   <si>
     <t xml:space="preserve">1.66765379905701</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">1.65570676326752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66976201534271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68662846088409</t>
+    <t xml:space="preserve">1.669762134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68662869930267</t>
   </si>
   <si>
     <t xml:space="preserve">1.71754992008209</t>
@@ -2189,64 +2189,64 @@
     <t xml:space="preserve">1.73793005943298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76885151863098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7709596157074</t>
+    <t xml:space="preserve">1.76885163784027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77095985412598</t>
   </si>
   <si>
     <t xml:space="preserve">1.76744592189789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77939319610596</t>
+    <t xml:space="preserve">1.77939295768738</t>
   </si>
   <si>
     <t xml:space="preserve">1.76814877986908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77447354793549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78220391273499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77236533164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75760722160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78782594203949</t>
+    <t xml:space="preserve">1.77447378635406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78220415115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77236545085907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75760734081268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78431236743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78782606124878</t>
   </si>
   <si>
     <t xml:space="preserve">1.79204261302948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80258405208588</t>
+    <t xml:space="preserve">1.80258393287659</t>
   </si>
   <si>
     <t xml:space="preserve">1.83280277252197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82858633995056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842480182648</t>
+    <t xml:space="preserve">1.82858610153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842468261719</t>
   </si>
   <si>
     <t xml:space="preserve">1.87075185775757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85599386692047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84756088256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86091327667236</t>
+    <t xml:space="preserve">1.85599398612976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84756076335907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86091339588165</t>
   </si>
   <si>
     <t xml:space="preserve">1.82788360118866</t>
@@ -2261,25 +2261,25 @@
     <t xml:space="preserve">1.83772218227386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85388576984406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86021053791046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86442720890045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85739946365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81593644618988</t>
+    <t xml:space="preserve">1.85388565063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86021065711975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86442708969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85739934444427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81593668460846</t>
   </si>
   <si>
     <t xml:space="preserve">1.79133987426758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81804466247559</t>
+    <t xml:space="preserve">1.81804490089417</t>
   </si>
   <si>
     <t xml:space="preserve">1.81101715564728</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">1.87356293201447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90307891368866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94102811813354</t>
+    <t xml:space="preserve">1.90307915210724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94102823734283</t>
   </si>
   <si>
     <t xml:space="preserve">1.87637412548065</t>
@@ -2321,31 +2321,31 @@
     <t xml:space="preserve">1.82015311717987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81312561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79274559020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80539524555206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81523370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047595500946</t>
+    <t xml:space="preserve">1.81312549114227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79274547100067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80539500713348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81523358821869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047571659088</t>
   </si>
   <si>
     <t xml:space="preserve">1.78642058372498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77587902545929</t>
+    <t xml:space="preserve">1.77587914466858</t>
   </si>
   <si>
     <t xml:space="preserve">1.75057971477509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74917423725128</t>
+    <t xml:space="preserve">1.74917435646057</t>
   </si>
   <si>
     <t xml:space="preserve">1.75339066982269</t>
@@ -2363,13 +2363,13 @@
     <t xml:space="preserve">1.74144375324249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7189553976059</t>
+    <t xml:space="preserve">1.71895551681519</t>
   </si>
   <si>
     <t xml:space="preserve">1.73722720146179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72598314285278</t>
+    <t xml:space="preserve">1.7259829044342</t>
   </si>
   <si>
     <t xml:space="preserve">1.70068347454071</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">1.68592548370361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71263074874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73160517215729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71825265884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74214673042297</t>
+    <t xml:space="preserve">1.7126305103302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.731605052948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7182525396347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74214661121368</t>
   </si>
   <si>
     <t xml:space="preserve">1.7484712600708</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">1.84685814380646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85950756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6936559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6346241235733</t>
+    <t xml:space="preserve">1.85950779914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69365608692169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63462400436401</t>
   </si>
   <si>
     <t xml:space="preserve">1.57980847358704</t>
@@ -2414,55 +2414,55 @@
     <t xml:space="preserve">1.55591464042664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52499318122864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50953245162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45050024986267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41325390338898</t>
+    <t xml:space="preserve">1.52499330043793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50953233242035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45050036907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41325402259827</t>
   </si>
   <si>
     <t xml:space="preserve">1.30010938644409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28043210506439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2716475725174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19469523429871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25970053672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2663768529892</t>
+    <t xml:space="preserve">1.2804319858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27164745330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19469511508942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25970041751862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637673377991</t>
   </si>
   <si>
     <t xml:space="preserve">1.32540881633759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530493736267</t>
+    <t xml:space="preserve">1.37530481815338</t>
   </si>
   <si>
     <t xml:space="preserve">1.43855345249176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44277000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41676771640778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48423290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48844957351685</t>
+    <t xml:space="preserve">1.44276988506317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41676783561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48423302173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48844945430756</t>
   </si>
   <si>
     <t xml:space="preserve">1.57559216022491</t>
@@ -2471,10 +2471,10 @@
     <t xml:space="preserve">1.53975117206573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51164078712463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57418644428253</t>
+    <t xml:space="preserve">1.51164066791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57418656349182</t>
   </si>
   <si>
     <t xml:space="preserve">1.54888713359833</t>
@@ -2489,34 +2489,34 @@
     <t xml:space="preserve">1.60229694843292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61213552951813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54045379161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51234352588654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51937103271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53483188152313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57699751853943</t>
+    <t xml:space="preserve">1.61213564872742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54045391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51234340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51937115192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53483176231384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57699739933014</t>
   </si>
   <si>
     <t xml:space="preserve">1.54326510429382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51796555519104</t>
+    <t xml:space="preserve">1.51796567440033</t>
   </si>
   <si>
     <t xml:space="preserve">1.597611784935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47028803825378</t>
+    <t xml:space="preserve">1.47028791904449</t>
   </si>
   <si>
     <t xml:space="preserve">1.46498286724091</t>
@@ -2525,22 +2525,22 @@
     <t xml:space="preserve">1.45664608478546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47862470149994</t>
+    <t xml:space="preserve">1.47862458229065</t>
   </si>
   <si>
     <t xml:space="preserve">1.51272928714752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53091847896576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54759180545807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.568812251091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51879227161407</t>
+    <t xml:space="preserve">1.53091835975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54759168624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56881237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51879215240479</t>
   </si>
   <si>
     <t xml:space="preserve">1.55365478992462</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">1.60973799228668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64460039138794</t>
+    <t xml:space="preserve">1.64460062980652</t>
   </si>
   <si>
     <t xml:space="preserve">1.66733694076538</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">1.71129393577576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6597580909729</t>
+    <t xml:space="preserve">1.65975797176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.64005327224731</t>
@@ -2570,19 +2570,19 @@
     <t xml:space="preserve">1.60670626163483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61125373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58548581600189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63853740692139</t>
+    <t xml:space="preserve">1.61125361919403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5854856967926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63853752613068</t>
   </si>
   <si>
     <t xml:space="preserve">1.61883246898651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62337982654572</t>
+    <t xml:space="preserve">1.62337970733643</t>
   </si>
   <si>
     <t xml:space="preserve">1.62186408042908</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">1.62792706489563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57487547397614</t>
+    <t xml:space="preserve">1.57487559318542</t>
   </si>
   <si>
     <t xml:space="preserve">1.60064339637756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59306466579437</t>
+    <t xml:space="preserve">1.59306454658508</t>
   </si>
   <si>
     <t xml:space="preserve">1.6142852306366</t>
@@ -2609,16 +2609,16 @@
     <t xml:space="preserve">1.61276936531067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59912753105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156877994537</t>
+    <t xml:space="preserve">1.59912741184235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156889915466</t>
   </si>
   <si>
     <t xml:space="preserve">1.65672647953033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63399016857147</t>
+    <t xml:space="preserve">1.63399004936218</t>
   </si>
   <si>
     <t xml:space="preserve">1.63550591468811</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">1.62489557266235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65217936038971</t>
+    <t xml:space="preserve">1.65217924118042</t>
   </si>
   <si>
     <t xml:space="preserve">1.64914774894714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65521085262299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63247442245483</t>
+    <t xml:space="preserve">1.6552107334137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63247430324554</t>
   </si>
   <si>
     <t xml:space="preserve">1.64611625671387</t>
@@ -2648,13 +2648,13 @@
     <t xml:space="preserve">1.70977807044983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69765198230743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946302890778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432542800903</t>
+    <t xml:space="preserve">1.69765210151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432554721832</t>
   </si>
   <si>
     <t xml:space="preserve">1.83407044410706</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">1.8568069934845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83558630943298</t>
+    <t xml:space="preserve">1.83558619022369</t>
   </si>
   <si>
     <t xml:space="preserve">1.82800757884979</t>
@@ -2672,40 +2672,40 @@
     <t xml:space="preserve">1.80678701400757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80981826782227</t>
+    <t xml:space="preserve">1.80981838703156</t>
   </si>
   <si>
     <t xml:space="preserve">1.84164929389954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8401335477829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377526283264</t>
+    <t xml:space="preserve">1.84013330936432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377550125122</t>
   </si>
   <si>
     <t xml:space="preserve">1.85832250118256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83710217475891</t>
+    <t xml:space="preserve">1.83710193634033</t>
   </si>
   <si>
     <t xml:space="preserve">1.83861780166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82194435596466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81891310214996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859746456146</t>
+    <t xml:space="preserve">1.82194471359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81891322135925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859758377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.76434552669525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79769217967987</t>
+    <t xml:space="preserve">1.79769229888916</t>
   </si>
   <si>
     <t xml:space="preserve">1.82042872905731</t>
@@ -2714,28 +2714,28 @@
     <t xml:space="preserve">1.82346022129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82649159431458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81739699840546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80527091026306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75979816913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7628298997879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71735692024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73099875450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69007325172424</t>
+    <t xml:space="preserve">1.82649183273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81739723682404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80527102947235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75979828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76282978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7173570394516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73099863529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69007337093353</t>
   </si>
   <si>
     <t xml:space="preserve">1.69310474395752</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">1.68704187870026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68552589416504</t>
+    <t xml:space="preserve">1.68552601337433</t>
   </si>
   <si>
     <t xml:space="preserve">1.67491567134857</t>
@@ -2756,13 +2756,13 @@
     <t xml:space="preserve">1.71584117412567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6840101480484</t>
+    <t xml:space="preserve">1.68401002883911</t>
   </si>
   <si>
     <t xml:space="preserve">1.66278958320618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58396995067596</t>
+    <t xml:space="preserve">1.58396983146667</t>
   </si>
   <si>
     <t xml:space="preserve">1.54456031322479</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">1.54607594013214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52940261363983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53394985198975</t>
+    <t xml:space="preserve">1.52940249443054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53394973278046</t>
   </si>
   <si>
     <t xml:space="preserve">1.49226641654968</t>
@@ -2786,10 +2786,10 @@
     <t xml:space="preserve">1.48620343208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51121354103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55062317848206</t>
+    <t xml:space="preserve">1.51121342182159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55062329769135</t>
   </si>
   <si>
     <t xml:space="preserve">1.57032823562622</t>
@@ -2798,28 +2798,28 @@
     <t xml:space="preserve">1.58851730823517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56123352050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63702166080475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62944281101227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6430846452713</t>
+    <t xml:space="preserve">1.5612336397171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63702178001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62944293022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64308476448059</t>
   </si>
   <si>
     <t xml:space="preserve">1.72190427780151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73706185817719</t>
+    <t xml:space="preserve">1.7370617389679</t>
   </si>
   <si>
     <t xml:space="preserve">1.73403036594391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74767208099365</t>
+    <t xml:space="preserve">1.74767231941223</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221943855286</t>
@@ -2831,16 +2831,16 @@
     <t xml:space="preserve">1.72493577003479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68855738639832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72796738147736</t>
+    <t xml:space="preserve">1.6885575056076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72796726226807</t>
   </si>
   <si>
     <t xml:space="preserve">1.6961362361908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67643141746521</t>
+    <t xml:space="preserve">1.67643129825592</t>
   </si>
   <si>
     <t xml:space="preserve">1.65066349506378</t>
@@ -2852,25 +2852,25 @@
     <t xml:space="preserve">1.6643054485321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66127371788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66582095623016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67339968681335</t>
+    <t xml:space="preserve">1.66127383708954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66582107543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67339980602264</t>
   </si>
   <si>
     <t xml:space="preserve">1.67036843299866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70219922065735</t>
+    <t xml:space="preserve">1.70219933986664</t>
   </si>
   <si>
     <t xml:space="preserve">1.60822212696075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79011332988739</t>
+    <t xml:space="preserve">1.79011344909668</t>
   </si>
   <si>
     <t xml:space="preserve">1.79617643356323</t>
@@ -2882,16 +2882,16 @@
     <t xml:space="preserve">1.9022798538208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87196457386017</t>
+    <t xml:space="preserve">1.87196469306946</t>
   </si>
   <si>
     <t xml:space="preserve">1.81436562538147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85225975513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8613543510437</t>
+    <t xml:space="preserve">1.85225963592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135411262512</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105928897858</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">1.93411076068878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9189532995224</t>
+    <t xml:space="preserve">1.91895318031311</t>
   </si>
   <si>
     <t xml:space="preserve">1.91440582275391</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">1.95684719085693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9432053565979</t>
+    <t xml:space="preserve">1.94320511817932</t>
   </si>
   <si>
     <t xml:space="preserve">1.93562638759613</t>
@@ -2966,13 +2966,13 @@
     <t xml:space="preserve">1.97048890590668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9886782169342</t>
+    <t xml:space="preserve">1.98867797851562</t>
   </si>
   <si>
     <t xml:space="preserve">2.01141452789307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97958362102509</t>
+    <t xml:space="preserve">1.97958338260651</t>
   </si>
   <si>
     <t xml:space="preserve">1.97503638267517</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">1.98413097858429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95987892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99170982837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99625718593597</t>
+    <t xml:space="preserve">1.95987868309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99170970916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9962569475174</t>
   </si>
   <si>
     <t xml:space="preserve">2.01293015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03869819641113</t>
+    <t xml:space="preserve">2.03869843482971</t>
   </si>
   <si>
     <t xml:space="preserve">2.03566694259644</t>
@@ -3029,267 +3029,267 @@
     <t xml:space="preserve">2.03718256950378</t>
   </si>
   <si>
+    <t xml:space="preserve">2.0659818649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09042167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02850747108459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99266242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98777437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99917960166931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00406742095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03991270065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04480075836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0464301109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03828358650208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06109380722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03665399551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03176617622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02036094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02524900436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02687788009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01221442222595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99755012989044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9421534538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94867062568665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9242308139801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94052386283875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93726527690887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92748939990997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99429154396057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98288655281067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.961705327034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96333456039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94541203975677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88675630092621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91282558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91608417034149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9063081741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8606870174408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349771499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92097198963165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93400681018829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90956699848175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92586028575897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92260134220123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92911887168884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01384353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02199029922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02361941337585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00732612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98940372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9910329580307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00243830680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98451578617096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98614513874054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97148108482361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96985173225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93563604354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96007585525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95029985904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91445457935333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93889486789703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97799825668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95844674110413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98125696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01873159408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03013682365417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03502464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04968857765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04317140579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04154229164124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05294728279114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06272315979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05946469306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0578351020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07412838935852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06924057006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05620574951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01710224151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96496391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95192933082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00080895423889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99592101573944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01058483123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97636914253235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06435251235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05131793022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08064556121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07086992263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07738709449768</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.06598210334778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09042191505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02850747108459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99266231060028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98777437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99917960166931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00406765937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0399124622345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04480051994324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0464301109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0382833480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06109404563904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03665399551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03176617622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02036094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02524900436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02687788009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01221442222595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99755012989044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9421534538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94867062568665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92423057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94052386283875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93726527690887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92748939990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99429178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98288631439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96170508861542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.963334441185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94541203975677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88675630092621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91282558441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91608417034149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9063081741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86068725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349771499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92097222805023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93400681018829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90956699848175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92586028575897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92260134220123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92911887168884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01384353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02199029922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02361941337585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00732636451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98940372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9910329580307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00243854522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98451578617096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98614513874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97148108482361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96985173225403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93563604354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96007585525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95029985904694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91445457935333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93889486789703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97799837589264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95844650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98125696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01873135566711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03013682365417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03502464294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04968857765198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04317140579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04154229164124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05294728279114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06272339820862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05946469306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0578351020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07412838935852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06924033164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01710224151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96496391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95192909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00080895423889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99592101573944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01058459281921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97636914253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06435251235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05131793022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08064579963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07086992263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07738709449768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0659818649292</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.0936803817749</t>
   </si>
   <si>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">2.10834431648254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10508561134338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08879256248474</t>
+    <t xml:space="preserve">2.10508584976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08879232406616</t>
   </si>
   <si>
     <t xml:space="preserve">2.07575798034668</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">2.12137889862061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12626647949219</t>
+    <t xml:space="preserve">2.12626671791077</t>
   </si>
   <si>
     <t xml:space="preserve">2.14418911933899</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">2.09693884849548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0480592250824</t>
+    <t xml:space="preserve">2.04805946350098</t>
   </si>
   <si>
     <t xml:space="preserve">1.95518815517426</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">1.97962772846222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91771364212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81506597995758</t>
+    <t xml:space="preserve">1.91771340370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81506609916687</t>
   </si>
   <si>
     <t xml:space="preserve">1.77107441425323</t>
@@ -3350,16 +3350,16 @@
     <t xml:space="preserve">1.87046313285828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97473990917206</t>
+    <t xml:space="preserve">1.97473967075348</t>
   </si>
   <si>
     <t xml:space="preserve">2.00569677352905</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10997366905212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14744806289673</t>
+    <t xml:space="preserve">2.10997343063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14744782447815</t>
   </si>
   <si>
     <t xml:space="preserve">2.13278412818909</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">2.16374111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18166375160217</t>
+    <t xml:space="preserve">2.18166399002075</t>
   </si>
   <si>
     <t xml:space="preserve">2.18818140029907</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">2.18003463745117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17840504646301</t>
+    <t xml:space="preserve">2.17840528488159</t>
   </si>
   <si>
     <t xml:space="preserve">2.19958639144897</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">2.20447444915771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19632792472839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19143962860107</t>
+    <t xml:space="preserve">2.19632768630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19143986701965</t>
   </si>
   <si>
     <t xml:space="preserve">2.16862916946411</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">2.21099162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14093089103699</t>
+    <t xml:space="preserve">2.14093065261841</t>
   </si>
   <si>
     <t xml:space="preserve">2.17351698875427</t>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="1387">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">1.15346002578735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13746917247772</t>
+    <t xml:space="preserve">1.13746929168701</t>
   </si>
   <si>
     <t xml:space="preserve">1.14066743850708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15452587604523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16092228889465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11295032501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08949708938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07030856609344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04578948020935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08523321151733</t>
+    <t xml:space="preserve">1.15452599525452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16092216968536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11295020580292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08949720859528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07030844688416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04578959941864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08523297309875</t>
   </si>
   <si>
     <t xml:space="preserve">1.09482753276825</t>
@@ -86,31 +86,31 @@
     <t xml:space="preserve">1.07137453556061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06817626953125</t>
+    <t xml:space="preserve">1.06817638874054</t>
   </si>
   <si>
     <t xml:space="preserve">1.05378472805023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01274216175079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03832709789276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01700615882874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984492003917694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954642713069916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957840859889984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921062350273132</t>
+    <t xml:space="preserve">1.0127420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03832697868347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01700627803802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984491944313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954642593860626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957840800285339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921062290668488</t>
   </si>
   <si>
     <t xml:space="preserve">0.86882609128952</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">0.888548016548157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826717376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917864143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972232520580292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960505902767181</t>
+    <t xml:space="preserve">0.826717436313629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917864084243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972232460975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505783557892</t>
   </si>
   <si>
     <t xml:space="preserve">0.990355134010315</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">0.982892870903015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970100343227386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99994945526123</t>
+    <t xml:space="preserve">0.970100462436676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999949812889099</t>
   </si>
   <si>
     <t xml:space="preserve">0.97916167974472</t>
@@ -152,55 +152,55 @@
     <t xml:space="preserve">0.971166431903839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98875617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01114308834076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01007699966431</t>
+    <t xml:space="preserve">0.988756120204926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01114296913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01007688045502</t>
   </si>
   <si>
     <t xml:space="preserve">1.03726100921631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06177997589111</t>
+    <t xml:space="preserve">1.06178021430969</t>
   </si>
   <si>
     <t xml:space="preserve">1.0468555688858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03566205501556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0031476020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01913833618164</t>
+    <t xml:space="preserve">1.03566193580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00314772129059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01913845539093</t>
   </si>
   <si>
     <t xml:space="preserve">1.02127051353455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01060998439789</t>
+    <t xml:space="preserve">1.0106098651886</t>
   </si>
   <si>
     <t xml:space="preserve">1.07777082920074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08203494548798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07244062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08416712284088</t>
+    <t xml:space="preserve">1.08203506469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07244050502777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08416700363159</t>
   </si>
   <si>
     <t xml:space="preserve">1.07990288734436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08843123912811</t>
+    <t xml:space="preserve">1.0884313583374</t>
   </si>
   <si>
     <t xml:space="preserve">1.07670474052429</t>
@@ -209,28 +209,28 @@
     <t xml:space="preserve">1.06604433059692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08629930019379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04365730285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04952049255371</t>
+    <t xml:space="preserve">1.0862991809845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04365742206573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.049520611763</t>
   </si>
   <si>
     <t xml:space="preserve">1.05005347728729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07457268238068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05804884433746</t>
+    <t xml:space="preserve">1.07457280158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05804896354675</t>
   </si>
   <si>
     <t xml:space="preserve">1.02926576137543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0788369178772</t>
+    <t xml:space="preserve">1.07883679866791</t>
   </si>
   <si>
     <t xml:space="preserve">1.09269547462463</t>
@@ -239,49 +239,49 @@
     <t xml:space="preserve">1.09376156330109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09695971012115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04845452308655</t>
+    <t xml:space="preserve">1.09695982933044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04845464229584</t>
   </si>
   <si>
     <t xml:space="preserve">1.04259133338928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03299701213837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01594030857086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00154840946198</t>
+    <t xml:space="preserve">1.03299689292908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01594018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00154864788055</t>
   </si>
   <si>
     <t xml:space="preserve">0.976496636867523</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970633327960968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980760753154755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986091017723083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984930753707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00581276416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0382958650589</t>
+    <t xml:space="preserve">0.970633447170258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980760812759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986090958118439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984930872917175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0058126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03829562664032</t>
   </si>
   <si>
     <t xml:space="preserve">1.03365528583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04409623146057</t>
+    <t xml:space="preserve">1.04409635066986</t>
   </si>
   <si>
     <t xml:space="preserve">1.04235625267029</t>
@@ -290,67 +290,67 @@
     <t xml:space="preserve">1.02437448501587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03133523464203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993631780147552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993051648139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999432325363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998272061347961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982030689716339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933306038379669</t>
+    <t xml:space="preserve">1.03133511543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993631660938263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993051826953888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99943220615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998272001743317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982030749320984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933306157588959</t>
   </si>
   <si>
     <t xml:space="preserve">0.901983141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871240377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861379444599152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834116876125336</t>
+    <t xml:space="preserve">0.871240258216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861379384994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83411693572998</t>
   </si>
   <si>
     <t xml:space="preserve">0.871820390224457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909524023532867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91474449634552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912424206733704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951287746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851518571376801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802793979644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825996220111847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792933225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.781332194805145</t>
+    <t xml:space="preserve">0.909523963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914744436740875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912424147129059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951287865638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851518630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802794098854065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825996160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792933166027069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.781332075595856</t>
   </si>
   <si>
     <t xml:space="preserve">0.81323504447937</t>
@@ -359,91 +359,91 @@
     <t xml:space="preserve">0.791193008422852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756389796733856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733187675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730867445468903</t>
+    <t xml:space="preserve">0.756389856338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733187615871429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730867564678192</t>
   </si>
   <si>
     <t xml:space="preserve">0.802214086055756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819615602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850938558578491</t>
+    <t xml:space="preserve">0.819615542888641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850938498973846</t>
   </si>
   <si>
     <t xml:space="preserve">0.824256122112274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850358426570892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866599977016449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847458302974701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849198341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854418814182281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842237710952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852678716182709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857319116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876460909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870080351829529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856738984584808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494886875153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826576292514801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824836254119873</t>
+    <t xml:space="preserve">0.850358545780182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866599917411804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847458243370056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849198400974274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854418933391571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842237830162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852678656578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857319176197052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876460790634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870080232620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856739044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826576173305511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824836015701294</t>
   </si>
   <si>
     <t xml:space="preserve">0.846878170967102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879361212253571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888062000274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885161757469177</t>
+    <t xml:space="preserve">0.879361152648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888061881065369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885161638259888</t>
   </si>
   <si>
     <t xml:space="preserve">0.893282353878021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887481808662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854998886585236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828896462917328</t>
+    <t xml:space="preserve">0.887481927871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854998767375946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828896641731262</t>
   </si>
   <si>
     <t xml:space="preserve">0.848038196563721</t>
@@ -452,118 +452,118 @@
     <t xml:space="preserve">0.83759731054306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835277140140533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820775747299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85209858417511</t>
+    <t xml:space="preserve">0.835277259349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820775628089905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852098703384399</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340134620667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86543995141983</t>
+    <t xml:space="preserve">0.865439891815186</t>
   </si>
   <si>
     <t xml:space="preserve">0.882841527462006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897342920303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910684108734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910104036331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881101369857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834697127342224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842817783355713</t>
+    <t xml:space="preserve">0.8973428606987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910684168338776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910103917121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881101489067078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83469694852829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842817664146423</t>
   </si>
   <si>
     <t xml:space="preserve">0.82773631811142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839917540550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874720811843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881681382656097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90778374671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93968665599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949547588825226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96056866645813</t>
+    <t xml:space="preserve">0.839917421340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219359397888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874720692634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881681263446808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907783806324005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939686834812164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949547708034515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960568606853485</t>
   </si>
   <si>
     <t xml:space="preserve">0.980870544910431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997111976146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00929319858551</t>
+    <t xml:space="preserve">0.997112035751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00929307937622</t>
   </si>
   <si>
     <t xml:space="preserve">1.00871312618256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00175249576569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972169518470764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969849407672882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947227358818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976230025291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979130208492279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973909914493561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997692048549652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03713572025299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05801749229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06613838672638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05685758590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02089428901672</t>
+    <t xml:space="preserve">1.00175261497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972169578075409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969849526882172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947227418422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976230144500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979130387306213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973909854888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03713583946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0580176115036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06613850593567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05685746669769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02089416980743</t>
   </si>
   <si>
     <t xml:space="preserve">1.03945600986481</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">1.03249526023865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02147424221039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00117230415344</t>
+    <t xml:space="preserve">1.02147436141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00117242336273</t>
   </si>
   <si>
     <t xml:space="preserve">1.02611470222473</t>
@@ -587,64 +587,64 @@
     <t xml:space="preserve">1.04583644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05743765830994</t>
+    <t xml:space="preserve">1.05743753910065</t>
   </si>
   <si>
     <t xml:space="preserve">1.09920144081116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1485059261322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16590774059296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16126704216003</t>
+    <t xml:space="preserve">1.14850604534149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16590738296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16126728057861</t>
   </si>
   <si>
     <t xml:space="preserve">1.17054808139801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18214917182922</t>
+    <t xml:space="preserve">1.18214929103851</t>
   </si>
   <si>
     <t xml:space="preserve">1.17170810699463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18330919742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18678975105286</t>
+    <t xml:space="preserve">1.18330907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18678963184357</t>
   </si>
   <si>
     <t xml:space="preserve">1.17750871181488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18794965744019</t>
+    <t xml:space="preserve">1.1879495382309</t>
   </si>
   <si>
     <t xml:space="preserve">1.17402839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.190269947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19491016864777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20071065425873</t>
+    <t xml:space="preserve">1.19026982784271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19491028785706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20071089267731</t>
   </si>
   <si>
     <t xml:space="preserve">1.22507297992706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23783421516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23551416397095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22855341434479</t>
+    <t xml:space="preserve">1.23783445358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23551404476166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2285532951355</t>
   </si>
   <si>
     <t xml:space="preserve">1.21231186389923</t>
@@ -656,37 +656,37 @@
     <t xml:space="preserve">1.21695232391357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18098902702332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20651113986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1693879365921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15952706336975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1537264585495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16822779178619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15720689296722</t>
+    <t xml:space="preserve">1.18098890781403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20651125907898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16938805580139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15952694416046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15372657775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16822755336761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15720677375793</t>
   </si>
   <si>
     <t xml:space="preserve">1.19259011745453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2088315486908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18910980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13400459289551</t>
+    <t xml:space="preserve">1.20883166790009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1891096830368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1340047121048</t>
   </si>
   <si>
     <t xml:space="preserve">1.11718308925629</t>
@@ -695,19 +695,19 @@
     <t xml:space="preserve">1.13168454170227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226461410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15198612213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10732233524323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10442209243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09804129600525</t>
+    <t xml:space="preserve">1.13226449489594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15198624134064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10732221603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10442197322845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09804141521454</t>
   </si>
   <si>
     <t xml:space="preserve">1.10210168361664</t>
@@ -719,19 +719,19 @@
     <t xml:space="preserve">1.14154541492462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15604674816132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1589469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16010701656342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16706776618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15662670135498</t>
+    <t xml:space="preserve">1.15604662895203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15894711017609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16010713577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16706788539886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15662682056427</t>
   </si>
   <si>
     <t xml:space="preserve">1.13980519771576</t>
@@ -740,34 +740,34 @@
     <t xml:space="preserve">1.19375026226044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17866885662079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19142997264862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19955086708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20187103748322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18562924861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21811234951019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19723045825958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20303094387054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19607043266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17286813259125</t>
+    <t xml:space="preserve">1.1786687374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19142985343933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1995507478714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20187091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18562948703766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2181122303009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19723057746887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20303082466125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19607031345367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17286825180054</t>
   </si>
   <si>
     <t xml:space="preserve">1.14560568332672</t>
@@ -776,43 +776,43 @@
     <t xml:space="preserve">1.23087358474731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22391283512115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667418956757</t>
+    <t xml:space="preserve">1.22391295433044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667407035828</t>
   </si>
   <si>
     <t xml:space="preserve">1.25871622562408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27147722244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26451683044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27959799766541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29467952251434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2703173160553</t>
+    <t xml:space="preserve">1.27147734165192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26451671123505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27959823608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29467964172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27031719684601</t>
   </si>
   <si>
     <t xml:space="preserve">1.25639581680298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799702644348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24711513519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2517557144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27207434177399</t>
+    <t xml:space="preserve">1.26799714565277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24711501598358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25175547599792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2720742225647</t>
   </si>
   <si>
     <t xml:space="preserve">1.28192579746246</t>
@@ -824,28 +824,28 @@
     <t xml:space="preserve">1.28438854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27699995040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23636245727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23759412765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24128830432892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24375128746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21912240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20803964138031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19572520256042</t>
+    <t xml:space="preserve">1.27699983119965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23636257648468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23759388923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24128842353821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24375116825104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21912252902985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20803952217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19572532176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.22527968883514</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">1.22712683677673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21481239795685</t>
+    <t xml:space="preserve">1.21481251716614</t>
   </si>
   <si>
     <t xml:space="preserve">1.19141507148743</t>
@@ -875,16 +875,16 @@
     <t xml:space="preserve">1.22404825687408</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19634103775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20372951030731</t>
+    <t xml:space="preserve">1.19634091854095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2037296295166</t>
   </si>
   <si>
     <t xml:space="preserve">1.22035384178162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22096955776215</t>
+    <t xml:space="preserve">1.22096979618073</t>
   </si>
   <si>
     <t xml:space="preserve">1.17663788795471</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">1.1994194984436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20434534549713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23143696784973</t>
+    <t xml:space="preserve">1.20434510707855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23143684864044</t>
   </si>
   <si>
     <t xml:space="preserve">1.22343254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22835838794708</t>
+    <t xml:space="preserve">1.22835826873779</t>
   </si>
   <si>
     <t xml:space="preserve">1.21358096599579</t>
@@ -923,31 +923,31 @@
     <t xml:space="preserve">1.20003521442413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19203078746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20496094226837</t>
+    <t xml:space="preserve">1.19203090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20496106147766</t>
   </si>
   <si>
     <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2265111207962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2388254404068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24251973628998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23513114452362</t>
+    <t xml:space="preserve">1.22651124000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23882567882538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24251985549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23513126373291</t>
   </si>
   <si>
     <t xml:space="preserve">1.18833661079407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19818794727325</t>
+    <t xml:space="preserve">1.19818806648254</t>
   </si>
   <si>
     <t xml:space="preserve">1.20065093040466</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">1.19079947471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18895220756531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18587386608124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17355918884277</t>
+    <t xml:space="preserve">1.1889523267746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18587374687195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17355930805206</t>
   </si>
   <si>
     <t xml:space="preserve">1.17602217197418</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">1.19387793540955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17910087108612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555511951447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16001343727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16186058521271</t>
+    <t xml:space="preserve">1.17910075187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16555500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16001331806183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.161860704422</t>
   </si>
   <si>
     <t xml:space="preserve">1.15324068069458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18956816196442</t>
+    <t xml:space="preserve">1.18956792354584</t>
   </si>
   <si>
     <t xml:space="preserve">1.20865535736084</t>
@@ -1010,43 +1010,43 @@
     <t xml:space="preserve">1.2222011089325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20742392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20619249343872</t>
+    <t xml:space="preserve">1.20742380619049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20619237422943</t>
   </si>
   <si>
     <t xml:space="preserve">1.21542811393738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21050250530243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19880366325378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21419680118561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23020541667938</t>
+    <t xml:space="preserve">1.21050238609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19880378246307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21419656276703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23020553588867</t>
   </si>
   <si>
     <t xml:space="preserve">1.2098867893219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15693473815918</t>
+    <t xml:space="preserve">1.15693497657776</t>
   </si>
   <si>
     <t xml:space="preserve">1.16124498844147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13600063323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14646780490875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16247642040253</t>
+    <t xml:space="preserve">1.13600039482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16247630119324</t>
   </si>
   <si>
     <t xml:space="preserve">1.16740214824677</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">1.16986501216888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16309201717377</t>
+    <t xml:space="preserve">1.16309213638306</t>
   </si>
   <si>
     <t xml:space="preserve">1.16493928432465</t>
@@ -1067,43 +1067,43 @@
     <t xml:space="preserve">1.17171216011047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16863369941711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18156361579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21296536922455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21111822128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927083492279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21604382991791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25237119197845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26222264766693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24867713451385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729691982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26468563079834</t>
+    <t xml:space="preserve">1.16863346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18156373500824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21296525001526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21111810207367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2160439491272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25237107276917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26222276687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24867701530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26468551158905</t>
   </si>
   <si>
     <t xml:space="preserve">1.26591718196869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28562021255493</t>
+    <t xml:space="preserve">1.28562009334564</t>
   </si>
   <si>
     <t xml:space="preserve">1.30162882804871</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">1.28131008148193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26653289794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24990832805634</t>
+    <t xml:space="preserve">1.26653265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24990844726562</t>
   </si>
   <si>
     <t xml:space="preserve">1.25606560707092</t>
@@ -1133,70 +1133,70 @@
     <t xml:space="preserve">1.23328399658203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23082113265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20465326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944115638733</t>
+    <t xml:space="preserve">1.23082101345062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20465302467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944127559662</t>
   </si>
   <si>
     <t xml:space="preserve">1.24621403217316</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23820972442627</t>
+    <t xml:space="preserve">1.23820960521698</t>
   </si>
   <si>
     <t xml:space="preserve">1.21265733242035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22066175937653</t>
+    <t xml:space="preserve">1.22066152095795</t>
   </si>
   <si>
     <t xml:space="preserve">1.21973812580109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21819889545441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21512043476105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18987572193146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18433427810669</t>
+    <t xml:space="preserve">1.21819877624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21512019634247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18987584114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18433439731598</t>
   </si>
   <si>
     <t xml:space="preserve">1.19788026809692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21081030368805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21019446849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20095884799957</t>
+    <t xml:space="preserve">1.21081042289734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21019458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20095872879028</t>
   </si>
   <si>
     <t xml:space="preserve">1.19110727310181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18310296535492</t>
+    <t xml:space="preserve">1.18310284614563</t>
   </si>
   <si>
     <t xml:space="preserve">1.18464231491089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19018387794495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20219027996063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20650005340576</t>
+    <t xml:space="preserve">1.19018363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20219039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20650017261505</t>
   </si>
   <si>
     <t xml:space="preserve">1.26406991481781</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">1.28069424629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29424011707306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30409169197083</t>
+    <t xml:space="preserve">1.29424023628235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30409157276154</t>
   </si>
   <si>
     <t xml:space="preserve">1.31332731246948</t>
@@ -1220,40 +1220,40 @@
     <t xml:space="preserve">1.33795619010925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34780740737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34657633304596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34288191795349</t>
+    <t xml:space="preserve">1.34780752658844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34657621383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3428817987442</t>
   </si>
   <si>
     <t xml:space="preserve">1.3595062494278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37305212020874</t>
+    <t xml:space="preserve">1.37305200099945</t>
   </si>
   <si>
     <t xml:space="preserve">1.38536643981934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35827481746674</t>
+    <t xml:space="preserve">1.35827505588531</t>
   </si>
   <si>
     <t xml:space="preserve">1.3761305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38167202472687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3551961183548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35458052158356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34041893482208</t>
+    <t xml:space="preserve">1.38167214393616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35519623756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35458064079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34041905403137</t>
   </si>
   <si>
     <t xml:space="preserve">1.34349763393402</t>
@@ -1262,52 +1262,52 @@
     <t xml:space="preserve">1.31763744354248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.297318816185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30840182304382</t>
+    <t xml:space="preserve">1.29731869697571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30840170383453</t>
   </si>
   <si>
     <t xml:space="preserve">1.29622411727905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2955629825592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2780374288559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26282644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25356781482697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26018130779266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25059175491333</t>
+    <t xml:space="preserve">1.29556286334991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27803730964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2628265619278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25356769561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26018118858337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25059187412262</t>
   </si>
   <si>
     <t xml:space="preserve">1.30217623710632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24463951587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27473056316376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24893832206726</t>
+    <t xml:space="preserve">1.24463975429535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27473068237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24893844127655</t>
   </si>
   <si>
     <t xml:space="preserve">1.23901832103729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23703444004059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24166369438171</t>
+    <t xml:space="preserve">1.2370343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.241663813591</t>
   </si>
   <si>
     <t xml:space="preserve">1.21851682662964</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">1.23934900760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25092244148254</t>
+    <t xml:space="preserve">1.25092256069183</t>
   </si>
   <si>
     <t xml:space="preserve">1.24728512763977</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">1.23868763446808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25224506855011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25654375553131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25555181503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23604226112366</t>
+    <t xml:space="preserve">1.2522451877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2565438747406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25555169582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23604238033295</t>
   </si>
   <si>
     <t xml:space="preserve">1.21686351299286</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">1.27043199539185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25422918796539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25158393383026</t>
+    <t xml:space="preserve">1.2542290687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25158381462097</t>
   </si>
   <si>
     <t xml:space="preserve">1.2995308637619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29093337059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32862997055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32730710506439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31011235713959</t>
+    <t xml:space="preserve">1.2909334897995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32862985134125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3273069858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3101122379303</t>
   </si>
   <si>
     <t xml:space="preserve">1.29192554950714</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">1.27737605571747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27902925014496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28432011604309</t>
+    <t xml:space="preserve">1.27902948856354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2843199968338</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258680343628</t>
@@ -1388,40 +1388,40 @@
     <t xml:space="preserve">1.26844799518585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26613342761993</t>
+    <t xml:space="preserve">1.26613330841064</t>
   </si>
   <si>
     <t xml:space="preserve">1.25951993465424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27506136894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26051199436188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26877844333649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27307736873627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28861880302429</t>
+    <t xml:space="preserve">1.27506148815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26051187515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26877856254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27307724952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.288618683815</t>
   </si>
   <si>
     <t xml:space="preserve">1.24959981441498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24001049995422</t>
+    <t xml:space="preserve">1.24001038074493</t>
   </si>
   <si>
     <t xml:space="preserve">1.24298644065857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24596238136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24331700801849</t>
+    <t xml:space="preserve">1.24596226215363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24331712722778</t>
   </si>
   <si>
     <t xml:space="preserve">1.24100244045258</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">1.25489056110382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27406919002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30449104309082</t>
+    <t xml:space="preserve">1.27406930923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30449080467224</t>
   </si>
   <si>
     <t xml:space="preserve">1.30052292346954</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">1.29655480384827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30482161045074</t>
+    <t xml:space="preserve">1.30482149124146</t>
   </si>
   <si>
     <t xml:space="preserve">1.29986155033112</t>
@@ -1466,19 +1466,19 @@
     <t xml:space="preserve">1.28994154930115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32036304473877</t>
+    <t xml:space="preserve">1.32036292552948</t>
   </si>
   <si>
     <t xml:space="preserve">1.31540298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31738698482513</t>
+    <t xml:space="preserve">1.31738710403442</t>
   </si>
   <si>
     <t xml:space="preserve">1.33854985237122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33259785175323</t>
+    <t xml:space="preserve">1.33259797096252</t>
   </si>
   <si>
     <t xml:space="preserve">1.33061385154724</t>
@@ -1490,37 +1490,37 @@
     <t xml:space="preserve">1.35574471950531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37558484077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36698734760284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38550508022308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38748908042908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40336096286774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41195857524872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41328108310699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3425178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31705629825592</t>
+    <t xml:space="preserve">1.37558495998383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36698746681213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3855048418045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38748896121979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40336108207703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41195845603943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41328120231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34251797199249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31705641746521</t>
   </si>
   <si>
     <t xml:space="preserve">1.33127510547638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3511153459549</t>
+    <t xml:space="preserve">1.35111522674561</t>
   </si>
   <si>
     <t xml:space="preserve">1.29688549041748</t>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">1.26315712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26745593547821</t>
+    <t xml:space="preserve">1.2674560546875</t>
   </si>
   <si>
     <t xml:space="preserve">1.26249587535858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27142405509949</t>
+    <t xml:space="preserve">1.2714239358902</t>
   </si>
   <si>
     <t xml:space="preserve">1.24860787391663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24761581420898</t>
+    <t xml:space="preserve">1.24761569499969</t>
   </si>
   <si>
     <t xml:space="preserve">1.23141300678253</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">1.24662375450134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24926924705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2823361158371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26977062225342</t>
+    <t xml:space="preserve">1.24926912784576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233599662781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26977050304413</t>
   </si>
   <si>
     <t xml:space="preserve">1.27704536914825</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.30118429660797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30812835693359</t>
+    <t xml:space="preserve">1.3081282377243</t>
   </si>
   <si>
     <t xml:space="preserve">1.30912029743195</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">1.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32796835899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34119522571564</t>
+    <t xml:space="preserve">1.32796823978424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34119534492493</t>
   </si>
   <si>
     <t xml:space="preserve">1.36566483974457</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">1.37095546722412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35971283912659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33590459823608</t>
+    <t xml:space="preserve">1.35971260070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33590447902679</t>
   </si>
   <si>
     <t xml:space="preserve">1.33722722530365</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.33193647861481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34053385257721</t>
+    <t xml:space="preserve">1.3405339717865</t>
   </si>
   <si>
     <t xml:space="preserve">1.32267773151398</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">1.37360072135925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34780859947205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36434209346771</t>
+    <t xml:space="preserve">1.34780871868134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.364342212677</t>
   </si>
   <si>
     <t xml:space="preserve">1.35309934616089</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.36301946640015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30548286437988</t>
+    <t xml:space="preserve">1.30548310279846</t>
   </si>
   <si>
     <t xml:space="preserve">1.3233391046524</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">1.30746698379517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28200531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28498125076294</t>
+    <t xml:space="preserve">1.28200542926788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28498148918152</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811730861664</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">1.34185671806335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37492346763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36963295936584</t>
+    <t xml:space="preserve">1.3749235868454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36963272094727</t>
   </si>
   <si>
     <t xml:space="preserve">1.38881158828735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40402245521545</t>
+    <t xml:space="preserve">1.40402233600616</t>
   </si>
   <si>
     <t xml:space="preserve">1.41261970996857</t>
@@ -1691,85 +1691,85 @@
     <t xml:space="preserve">1.42716932296753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39807045459747</t>
+    <t xml:space="preserve">1.39807033538818</t>
   </si>
   <si>
     <t xml:space="preserve">1.4265079498291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44502544403076</t>
+    <t xml:space="preserve">1.44502532482147</t>
   </si>
   <si>
     <t xml:space="preserve">1.44833219051361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45362269878387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44304144382477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44965469837189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47081756591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48735117912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47214043140411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4714789390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46817231178284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44171857833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43642783164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43576657772064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43907356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40732908248901</t>
+    <t xml:space="preserve">1.45362293720245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44304132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44965493679047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47081744670868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48735094070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47214031219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47147881984711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46817243099213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4417188167572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43642795085907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43576681613922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43907332420349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4073292016983</t>
   </si>
   <si>
     <t xml:space="preserve">1.36169672012329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38219833374023</t>
+    <t xml:space="preserve">1.38219821453094</t>
   </si>
   <si>
     <t xml:space="preserve">1.41129720211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40865170955658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43510544300079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43444383144379</t>
+    <t xml:space="preserve">1.40865182876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4351053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43444406986237</t>
   </si>
   <si>
     <t xml:space="preserve">1.43047606945038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43775069713593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44105744361877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43179857730865</t>
+    <t xml:space="preserve">1.43775057792664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44105732440948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43179869651794</t>
   </si>
   <si>
     <t xml:space="preserve">1.45230031013489</t>
@@ -1784,52 +1784,52 @@
     <t xml:space="preserve">1.47280156612396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47610831260681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883356571198</t>
+    <t xml:space="preserve">1.4761084318161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883368492126</t>
   </si>
   <si>
     <t xml:space="preserve">1.45825219154358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48602831363678</t>
+    <t xml:space="preserve">1.48602843284607</t>
   </si>
   <si>
     <t xml:space="preserve">1.49065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50322318077087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50586867332458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562867641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5620824098587</t>
+    <t xml:space="preserve">1.50322341918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50586843490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562891483307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56208229064941</t>
   </si>
   <si>
     <t xml:space="preserve">1.56075966358185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57530915737152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57332515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56406629085541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57729315757751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58985877037048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58655190467834</t>
+    <t xml:space="preserve">1.57530903816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57332503795624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5640664100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5772932767868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58985865116119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58655166625977</t>
   </si>
   <si>
     <t xml:space="preserve">1.60374665260315</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">1.60837602615356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59713327884674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6116828918457</t>
+    <t xml:space="preserve">1.59713339805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61168277263641</t>
   </si>
   <si>
     <t xml:space="preserve">1.61102163791656</t>
@@ -1859,25 +1859,25 @@
     <t xml:space="preserve">1.59779465198517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6030855178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60110151767731</t>
+    <t xml:space="preserve">1.60308527946472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60110139846802</t>
   </si>
   <si>
     <t xml:space="preserve">1.61300551891327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61631214618683</t>
+    <t xml:space="preserve">1.61631238460541</t>
   </si>
   <si>
     <t xml:space="preserve">1.60771477222443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60176265239716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61432802677155</t>
+    <t xml:space="preserve">1.60176277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61432814598083</t>
   </si>
   <si>
     <t xml:space="preserve">1.60573065280914</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">1.61565089225769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61498939990997</t>
+    <t xml:space="preserve">1.61498951911926</t>
   </si>
   <si>
     <t xml:space="preserve">1.61829626560211</t>
@@ -1898,250 +1898,250 @@
     <t xml:space="preserve">1.59316515922546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56671190261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54554891586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60506963729858</t>
+    <t xml:space="preserve">1.56671178340912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54554903507233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60506951808929</t>
   </si>
   <si>
     <t xml:space="preserve">1.63350701332092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64474964141846</t>
+    <t xml:space="preserve">1.64474987983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689363956451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62970471382141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916303634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143290996552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294214725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60721623897552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59456670284271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57629489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991235256195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53904843330383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53342616558075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52077662944794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54748141765594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53061521053314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53412902355194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53764283657074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54537332057953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54607582092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53272342681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55732023715973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52920973300934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52358770370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56153678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56575322151184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57207822799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59526932239532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58964729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58753895759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57137537002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61494672298431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283838748932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63884043693542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64797639846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64446258544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63111042976379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63743507862091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65992331504822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66273438930511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66203165054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67327582836151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68100619316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6781952381134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65008473396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6992781162262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6887366771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69225037097931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64727389812469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6550041437149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6943587064743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66062617301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62127149105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60089159011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60510802268982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61354124546051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57488930225372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59667503833771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55661737918854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55169808864594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58472800254822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59386372566223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62478530406952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60018849372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59948575496674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63251566886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62619078159332</t>
   </si>
   <si>
     <t xml:space="preserve">1.6268937587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62970459461212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916315555573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143279075623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294214725494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60721623897552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59456670284271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57629466056824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52991247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53904843330383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53342616558075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52077662944794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54748153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53061532974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53412914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53764283657074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54537332057953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54607594013214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53272366523743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55732023715973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52920973300934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52358770370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56153666973114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56575322151184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57207822799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59526920318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58964717388153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58753895759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57137548923492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61494672298431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283838748932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63884055614471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64797639846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64446258544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63111042976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63743507862091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65992331504822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66273427009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66203153133392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67327606678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68100607395172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67819511890411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65008473396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69927787780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6887366771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69225037097931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64727389812469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6550041437149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69435858726501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66062593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62127149105072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60089159011841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60510802268982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61354112625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57488918304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59667491912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55661725997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55169820785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58472800254822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59386372566223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62478530406952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60018861293793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59948587417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63251566886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62619090080261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689363956451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321852684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64305710792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65851771831512</t>
+    <t xml:space="preserve">1.63321828842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6430572271347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65851783752441</t>
   </si>
   <si>
     <t xml:space="preserve">1.67960095405579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7020890712738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69857549667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69716954231262</t>
+    <t xml:space="preserve">1.70208919048309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69857537746429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6971697807312</t>
   </si>
   <si>
     <t xml:space="preserve">1.6845201253891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69084477424622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71333312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69014203548431</t>
+    <t xml:space="preserve">1.69084489345551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7133332490921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6901421546936</t>
   </si>
   <si>
     <t xml:space="preserve">1.69154787063599</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">1.69646716117859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70560312271118</t>
+    <t xml:space="preserve">1.70560300350189</t>
   </si>
   <si>
     <t xml:space="preserve">1.71473896503448</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">1.7013863325119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66765379905701</t>
+    <t xml:space="preserve">1.6676539182663</t>
   </si>
   <si>
     <t xml:space="preserve">1.6662483215332</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">1.65570676326752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.669762134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68662846088409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71754992008209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70490026473999</t>
+    <t xml:space="preserve">1.66976201534271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6866283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71755003929138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7049001455307</t>
   </si>
   <si>
     <t xml:space="preserve">1.72317183017731</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">1.78431236743927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7878258228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79204273223877</t>
+    <t xml:space="preserve">1.78782606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79204249382019</t>
   </si>
   <si>
     <t xml:space="preserve">1.80258405208588</t>
@@ -2240,31 +2240,31 @@
     <t xml:space="preserve">1.87075197696686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85599386692047</t>
+    <t xml:space="preserve">1.85599410533905</t>
   </si>
   <si>
     <t xml:space="preserve">1.84756064414978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86091327667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82788372039795</t>
+    <t xml:space="preserve">1.86091303825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82788348197937</t>
   </si>
   <si>
     <t xml:space="preserve">1.82155883312225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84123563766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83772206306458</t>
+    <t xml:space="preserve">1.84123587608337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83772230148315</t>
   </si>
   <si>
     <t xml:space="preserve">1.85388576984406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86021077632904</t>
+    <t xml:space="preserve">1.86021053791046</t>
   </si>
   <si>
     <t xml:space="preserve">1.86442732810974</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">1.79133999347687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8180445432663</t>
+    <t xml:space="preserve">1.81804478168488</t>
   </si>
   <si>
     <t xml:space="preserve">1.8110169172287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7969616651535</t>
+    <t xml:space="preserve">1.79696190357208</t>
   </si>
   <si>
     <t xml:space="preserve">1.79907023906708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79415082931519</t>
+    <t xml:space="preserve">1.7941507101059</t>
   </si>
   <si>
     <t xml:space="preserve">1.80680072307587</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">1.94102823734283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87637388706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83912777900696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82015287876129</t>
+    <t xml:space="preserve">1.87637412548065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83912801742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82015311717987</t>
   </si>
   <si>
     <t xml:space="preserve">1.81312549114227</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">1.80539524555206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81523358821869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047571659088</t>
+    <t xml:space="preserve">1.81523382663727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047595500946</t>
   </si>
   <si>
     <t xml:space="preserve">1.78642070293427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77587914466858</t>
+    <t xml:space="preserve">1.77587890625</t>
   </si>
   <si>
     <t xml:space="preserve">1.75057971477509</t>
@@ -2351,13 +2351,13 @@
     <t xml:space="preserve">1.75339066982269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75690472126007</t>
+    <t xml:space="preserve">1.75690448284149</t>
   </si>
   <si>
     <t xml:space="preserve">1.75831007957458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73230791091919</t>
+    <t xml:space="preserve">1.73230803012848</t>
   </si>
   <si>
     <t xml:space="preserve">1.74144375324249</t>
@@ -2366,25 +2366,25 @@
     <t xml:space="preserve">1.71895551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7372270822525</t>
+    <t xml:space="preserve">1.73722720146179</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598326206207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70068371295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6859256029129</t>
+    <t xml:space="preserve">1.70068383216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68592536449432</t>
   </si>
   <si>
     <t xml:space="preserve">1.7126305103302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.731605052948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7182525396347</t>
+    <t xml:space="preserve">1.73160493373871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71825265884399</t>
   </si>
   <si>
     <t xml:space="preserve">1.74214661121368</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">1.74847137928009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82507228851318</t>
+    <t xml:space="preserve">1.82507252693176</t>
   </si>
   <si>
     <t xml:space="preserve">1.84685814380646</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">1.69365620613098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63462400436401</t>
+    <t xml:space="preserve">1.63462388515472</t>
   </si>
   <si>
     <t xml:space="preserve">1.57980859279633</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">1.41325390338898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30010938644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2804319858551</t>
+    <t xml:space="preserve">1.3001092672348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28043210506439</t>
   </si>
   <si>
     <t xml:space="preserve">1.27164745330811</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">1.19469511508942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25970065593719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26637697219849</t>
+    <t xml:space="preserve">1.25970077514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2663768529892</t>
   </si>
   <si>
     <t xml:space="preserve">1.32540881633759</t>
@@ -2459,13 +2459,13 @@
     <t xml:space="preserve">1.41676783561707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48423290252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48844969272614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57559216022491</t>
+    <t xml:space="preserve">1.48423302173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48844957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57559204101562</t>
   </si>
   <si>
     <t xml:space="preserve">1.53975117206573</t>
@@ -2483,16 +2483,16 @@
     <t xml:space="preserve">1.55310368537903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61635220050812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229694843292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61213576793671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54045379161835</t>
+    <t xml:space="preserve">1.61635208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229682922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61213564872742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54045403003693</t>
   </si>
   <si>
     <t xml:space="preserve">1.51234352588654</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">1.53483188152313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57699751853943</t>
+    <t xml:space="preserve">1.57699763774872</t>
   </si>
   <si>
     <t xml:space="preserve">1.54326510429382</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">1.59761190414429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47028803825378</t>
+    <t xml:space="preserve">1.47028791904449</t>
   </si>
   <si>
     <t xml:space="preserve">1.46498274803162</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">1.56881237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51879239082336</t>
+    <t xml:space="preserve">1.51879227161407</t>
   </si>
   <si>
     <t xml:space="preserve">1.55365478992462</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">1.60973811149597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64460062980652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66733682155609</t>
+    <t xml:space="preserve">1.64460051059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66733694076538</t>
   </si>
   <si>
     <t xml:space="preserve">1.72341990470886</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">1.71129393577576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65975821018219</t>
+    <t xml:space="preserve">1.65975797176361</t>
   </si>
   <si>
     <t xml:space="preserve">1.64005327224731</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">1.60670626163483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61125361919403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58548581600189</t>
+    <t xml:space="preserve">1.61125349998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5854856967926</t>
   </si>
   <si>
     <t xml:space="preserve">1.63853740692139</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">1.60064339637756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59306454658508</t>
+    <t xml:space="preserve">1.59306466579437</t>
   </si>
   <si>
     <t xml:space="preserve">1.61428534984589</t>
@@ -2612,49 +2612,49 @@
     <t xml:space="preserve">1.59912753105164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156877994537</t>
+    <t xml:space="preserve">1.64156889915466</t>
   </si>
   <si>
     <t xml:space="preserve">1.65672647953033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63399004936218</t>
+    <t xml:space="preserve">1.63399016857147</t>
   </si>
   <si>
     <t xml:space="preserve">1.6355060338974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62489569187164</t>
+    <t xml:space="preserve">1.62489557266235</t>
   </si>
   <si>
     <t xml:space="preserve">1.65217924118042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64914786815643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65521097183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63247430324554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64611613750458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580097675323</t>
+    <t xml:space="preserve">1.64914774894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6552107334137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63247418403625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64611625671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580085754395</t>
   </si>
   <si>
     <t xml:space="preserve">1.70977807044983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69765210151672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946314811707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432542800903</t>
+    <t xml:space="preserve">1.69765198230743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946302890778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432554721832</t>
   </si>
   <si>
     <t xml:space="preserve">1.83407056331635</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">1.8568069934845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83558642864227</t>
+    <t xml:space="preserve">1.83558619022369</t>
   </si>
   <si>
     <t xml:space="preserve">1.8280074596405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80678713321686</t>
+    <t xml:space="preserve">1.80678689479828</t>
   </si>
   <si>
     <t xml:space="preserve">1.80981838703156</t>
@@ -2678,13 +2678,13 @@
     <t xml:space="preserve">1.84164941310883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84013366699219</t>
+    <t xml:space="preserve">1.84013342857361</t>
   </si>
   <si>
     <t xml:space="preserve">1.85377538204193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85832250118256</t>
+    <t xml:space="preserve">1.85832273960114</t>
   </si>
   <si>
     <t xml:space="preserve">1.83710193634033</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.82194459438324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81891286373138</t>
+    <t xml:space="preserve">1.81891310214996</t>
   </si>
   <si>
     <t xml:space="preserve">1.78859746456146</t>
@@ -2726,40 +2726,40 @@
     <t xml:space="preserve">1.75979816913605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7628298997879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71735692024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73099875450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69007313251495</t>
+    <t xml:space="preserve">1.76282966136932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7173570394516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73099863529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69007337093353</t>
   </si>
   <si>
     <t xml:space="preserve">1.69310474395752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68704175949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68552589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67491590976715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371508598328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71584117412567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6840101480484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278958320618</t>
+    <t xml:space="preserve">1.68704187870026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68552613258362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67491579055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371496677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71584129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68401002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278970241547</t>
   </si>
   <si>
     <t xml:space="preserve">1.58396995067596</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">1.54456031322479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55820214748383</t>
+    <t xml:space="preserve">1.55820202827454</t>
   </si>
   <si>
     <t xml:space="preserve">1.52940249443054</t>
@@ -2780,10 +2780,10 @@
     <t xml:space="preserve">1.49226653575897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48620331287384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51121342182159</t>
+    <t xml:space="preserve">1.48620343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51121354103088</t>
   </si>
   <si>
     <t xml:space="preserve">1.55062317848206</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">1.56123352050781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63702154159546</t>
+    <t xml:space="preserve">1.63702166080475</t>
   </si>
   <si>
     <t xml:space="preserve">1.62944293022156</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">1.73706185817719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73403024673462</t>
+    <t xml:space="preserve">1.73403036594391</t>
   </si>
   <si>
     <t xml:space="preserve">1.74767208099365</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">1.75221943855286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73251461982727</t>
+    <t xml:space="preserve">1.73251450061798</t>
   </si>
   <si>
     <t xml:space="preserve">1.72493577003479</t>
@@ -2834,19 +2834,19 @@
     <t xml:space="preserve">1.6885575056076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72796738147736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6961362361908</t>
+    <t xml:space="preserve">1.72796726226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69613635540009</t>
   </si>
   <si>
     <t xml:space="preserve">1.67643129825592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65066361427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67794716358185</t>
+    <t xml:space="preserve">1.65066349506378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67794704437256</t>
   </si>
   <si>
     <t xml:space="preserve">1.6643054485321</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">1.66127371788025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66582095623016</t>
+    <t xml:space="preserve">1.66582107543945</t>
   </si>
   <si>
     <t xml:space="preserve">1.67339980602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67036831378937</t>
+    <t xml:space="preserve">1.67036843299866</t>
   </si>
   <si>
     <t xml:space="preserve">1.70219933986664</t>
@@ -2876,13 +2876,13 @@
     <t xml:space="preserve">1.79617655277252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89470112323761</t>
+    <t xml:space="preserve">1.89470088481903</t>
   </si>
   <si>
     <t xml:space="preserve">1.9022798538208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87196457386017</t>
+    <t xml:space="preserve">1.87196469306946</t>
   </si>
   <si>
     <t xml:space="preserve">1.81436562538147</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">1.85225975513458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86135447025299</t>
+    <t xml:space="preserve">1.86135423183441</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105928897858</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">1.89166927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89015376567841</t>
+    <t xml:space="preserve">1.89015352725983</t>
   </si>
   <si>
     <t xml:space="preserve">1.90531146526337</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">1.93411099910736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9189532995224</t>
+    <t xml:space="preserve">1.91895306110382</t>
   </si>
   <si>
     <t xml:space="preserve">1.9144059419632</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">1.93562650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94623708724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9507839679718</t>
+    <t xml:space="preserve">1.94623684883118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95078420639038</t>
   </si>
   <si>
     <t xml:space="preserve">1.92653203010559</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">1.96139442920685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97655212879181</t>
+    <t xml:space="preserve">1.97655236721039</t>
   </si>
   <si>
     <t xml:space="preserve">1.97048878669739</t>
@@ -2987,19 +2987,19 @@
     <t xml:space="preserve">1.98716247081757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98413109779358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95987844467163</t>
+    <t xml:space="preserve">1.984130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95987868309021</t>
   </si>
   <si>
     <t xml:space="preserve">1.99170958995819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99625718593597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01293039321899</t>
+    <t xml:space="preserve">1.9962569475174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01293015480042</t>
   </si>
   <si>
     <t xml:space="preserve">2.03869819641113</t>
@@ -3008,22 +3008,22 @@
     <t xml:space="preserve">2.03566694259644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04627728462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05385565757751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05082440376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07204508781433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06446599960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04324555397034</t>
+    <t xml:space="preserve">2.04627704620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05385589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05082416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07204484939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06446623802185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04324579238892</t>
   </si>
   <si>
     <t xml:space="preserve">2.03718256950378</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">2.06598210334778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09042191505432</t>
+    <t xml:space="preserve">2.09042167663574</t>
   </si>
   <si>
     <t xml:space="preserve">2.02850723266602</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">2.00406765937805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0399124622345</t>
+    <t xml:space="preserve">2.03991270065308</t>
   </si>
   <si>
     <t xml:space="preserve">2.04480075836182</t>
@@ -3065,10 +3065,10 @@
     <t xml:space="preserve">2.06109380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0366542339325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03176617622375</t>
+    <t xml:space="preserve">2.03665399551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03176593780518</t>
   </si>
   <si>
     <t xml:space="preserve">2.02036094665527</t>
@@ -3077,16 +3077,16 @@
     <t xml:space="preserve">2.02524900436401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02687835693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01221418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99755012989044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94215357303619</t>
+    <t xml:space="preserve">2.02687811851501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01221442222595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99755036830902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94215333461761</t>
   </si>
   <si>
     <t xml:space="preserve">1.94867062568665</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">1.93726539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92748928070068</t>
+    <t xml:space="preserve">1.92748939990997</t>
   </si>
   <si>
     <t xml:space="preserve">1.99429166316986</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">1.98288643360138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96170508861542</t>
+    <t xml:space="preserve">1.961705327034</t>
   </si>
   <si>
     <t xml:space="preserve">1.96333467960358</t>
@@ -3125,13 +3125,13 @@
     <t xml:space="preserve">1.91282558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91608417034149</t>
+    <t xml:space="preserve">1.9160840511322</t>
   </si>
   <si>
     <t xml:space="preserve">1.90630805492401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86068713665009</t>
+    <t xml:space="preserve">1.8606870174408</t>
   </si>
   <si>
     <t xml:space="preserve">1.88349771499634</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">1.90956699848175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92586016654968</t>
+    <t xml:space="preserve">1.92586040496826</t>
   </si>
   <si>
     <t xml:space="preserve">1.92260122299194</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">1.98451602458954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98614490032196</t>
+    <t xml:space="preserve">1.98614513874054</t>
   </si>
   <si>
     <t xml:space="preserve">1.9714812040329</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">1.93889462947845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97799849510193</t>
+    <t xml:space="preserve">1.97799825668335</t>
   </si>
   <si>
     <t xml:space="preserve">1.95844674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98125696182251</t>
+    <t xml:space="preserve">1.9812570810318</t>
   </si>
   <si>
     <t xml:space="preserve">2.01873135566711</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">2.05294728279114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06272339820862</t>
+    <t xml:space="preserve">2.06272315979004</t>
   </si>
   <si>
     <t xml:space="preserve">2.05946469306946</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">2.05783534049988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0741286277771</t>
+    <t xml:space="preserve">2.07412838935852</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924057006836</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">2.0562059879303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01710200309753</t>
+    <t xml:space="preserve">2.01710224151611</t>
   </si>
   <si>
     <t xml:space="preserve">1.96496379375458</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">1.95192921161652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00080919265747</t>
+    <t xml:space="preserve">2.00080895423889</t>
   </si>
   <si>
     <t xml:space="preserve">1.99592101573944</t>
@@ -3287,10 +3287,7 @@
     <t xml:space="preserve">2.07738709449768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0659818649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09368014335632</t>
+    <t xml:space="preserve">2.0936803817749</t>
   </si>
   <si>
     <t xml:space="preserve">2.1034562587738</t>
@@ -3305,10 +3302,10 @@
     <t xml:space="preserve">2.08879232406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0757577419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12137913703918</t>
+    <t xml:space="preserve">2.07575798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12137889862061</t>
   </si>
   <si>
     <t xml:space="preserve">2.12626671791077</t>
@@ -3323,16 +3320,16 @@
     <t xml:space="preserve">2.11974954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10182690620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09693884849548</t>
+    <t xml:space="preserve">2.1018271446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09693908691406</t>
   </si>
   <si>
     <t xml:space="preserve">2.04805946350098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95518779754639</t>
+    <t xml:space="preserve">1.95518803596497</t>
   </si>
   <si>
     <t xml:space="preserve">1.97962784767151</t>
@@ -3353,22 +3350,22 @@
     <t xml:space="preserve">1.97473967075348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00569701194763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10997366905212</t>
+    <t xml:space="preserve">2.00569677352905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10997343063354</t>
   </si>
   <si>
     <t xml:space="preserve">2.14744782447815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13278436660767</t>
+    <t xml:space="preserve">2.13278412818909</t>
   </si>
   <si>
     <t xml:space="preserve">2.14256024360657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16374135017395</t>
+    <t xml:space="preserve">2.16374111175537</t>
   </si>
   <si>
     <t xml:space="preserve">2.18166375160217</t>
@@ -3386,25 +3383,25 @@
     <t xml:space="preserve">2.18003463745117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17840528488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19958662986755</t>
+    <t xml:space="preserve">2.17840552330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19958639144897</t>
   </si>
   <si>
     <t xml:space="preserve">2.20284485816956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20447444915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19632768630981</t>
+    <t xml:space="preserve">2.20447421073914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19632792472839</t>
   </si>
   <si>
     <t xml:space="preserve">2.19143962860107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16862940788269</t>
+    <t xml:space="preserve">2.16862916946411</t>
   </si>
   <si>
     <t xml:space="preserve">2.17677593231201</t>
@@ -3431,7 +3428,7 @@
     <t xml:space="preserve">2.14093065261841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17351722717285</t>
+    <t xml:space="preserve">2.17351698875427</t>
   </si>
   <si>
     <t xml:space="preserve">2.17514657974243</t>
@@ -44523,7 +44520,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1539" t="s">
-        <v>1091</v>
+        <v>1005</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44549,7 +44546,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1540" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -44731,7 +44728,7 @@
         <v>2.58200001716614</v>
       </c>
       <c r="G1547" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44757,7 +44754,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1548" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44783,7 +44780,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G1549" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44809,7 +44806,7 @@
         <v>2.56399989128113</v>
       </c>
       <c r="G1550" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44887,7 +44884,7 @@
         <v>2.54800009727478</v>
       </c>
       <c r="G1553" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -44913,7 +44910,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1554" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44939,7 +44936,7 @@
         <v>2.60999989509583</v>
       </c>
       <c r="G1555" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44965,7 +44962,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1556" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44991,7 +44988,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1557" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -45017,7 +45014,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1558" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -45043,7 +45040,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1559" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -45069,7 +45066,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1560" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -45095,7 +45092,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1561" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -45147,7 +45144,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1563" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -45199,7 +45196,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1565" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -45251,7 +45248,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1567" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -45277,7 +45274,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1568" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -45355,7 +45352,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1571" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -45381,7 +45378,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1572" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -45407,7 +45404,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1573" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45433,7 +45430,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1574" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -45485,7 +45482,7 @@
         <v>2.46199989318848</v>
       </c>
       <c r="G1576" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -45563,7 +45560,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1579" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -45589,7 +45586,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1580" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -45615,7 +45612,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1581" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -45641,7 +45638,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1582" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45667,7 +45664,7 @@
         <v>2.60400009155273</v>
       </c>
       <c r="G1583" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45693,7 +45690,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1584" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45719,7 +45716,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G1585" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45745,7 +45742,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1586" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45771,7 +45768,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1587" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45797,7 +45794,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1588" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45823,7 +45820,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G1589" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45849,7 +45846,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1590" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45875,7 +45872,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1591" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45901,7 +45898,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1592" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -45927,7 +45924,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1593" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -45953,7 +45950,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1594" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45979,7 +45976,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G1595" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -46005,7 +46002,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1596" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -46031,7 +46028,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1597" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -46057,7 +46054,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1598" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -46083,7 +46080,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1599" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -46109,7 +46106,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G1600" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -46135,7 +46132,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1601" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -46161,7 +46158,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1602" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -46187,7 +46184,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G1603" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -46213,7 +46210,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1604" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -46239,7 +46236,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1605" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -46265,7 +46262,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G1606" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -46291,7 +46288,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G1607" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -46317,7 +46314,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G1608" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -46343,7 +46340,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1609" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -46369,7 +46366,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G1610" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -46395,7 +46392,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1611" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -46421,7 +46418,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G1612" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -46447,7 +46444,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G1613" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -46473,7 +46470,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1614" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -46499,7 +46496,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -46525,7 +46522,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1616" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -46551,7 +46548,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1617" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -46577,7 +46574,7 @@
         <v>2.71399998664856</v>
       </c>
       <c r="G1618" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -46603,7 +46600,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1619" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -46629,7 +46626,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1620" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -46655,7 +46652,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G1621" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46681,7 +46678,7 @@
         <v>2.66799998283386</v>
       </c>
       <c r="G1622" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46707,7 +46704,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G1623" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46733,7 +46730,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1624" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46759,7 +46756,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1625" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46785,7 +46782,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1626" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46811,7 +46808,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1627" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46837,7 +46834,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1628" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46863,7 +46860,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46889,7 +46886,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1630" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46915,7 +46912,7 @@
         <v>2.57599997520447</v>
       </c>
       <c r="G1631" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46941,7 +46938,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1632" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46967,7 +46964,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1633" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46993,7 +46990,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1634" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47019,7 +47016,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1635" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47045,7 +47042,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47071,7 +47068,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1637" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -47097,7 +47094,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1638" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -47123,7 +47120,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1639" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -47149,7 +47146,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1640" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -47175,7 +47172,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1641" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -47201,7 +47198,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1642" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -47227,7 +47224,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G1643" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -47253,7 +47250,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1644" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -47279,7 +47276,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1645" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -47305,7 +47302,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1646" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -47331,7 +47328,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1647" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -47357,7 +47354,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1648" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -47383,7 +47380,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1649" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -47409,7 +47406,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1650" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -47435,7 +47432,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1651" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -47461,7 +47458,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1652" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -47487,7 +47484,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1653" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -47513,7 +47510,7 @@
         <v>2.30599999427795</v>
       </c>
       <c r="G1654" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -47539,7 +47536,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1655" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -47565,7 +47562,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1656" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -47591,7 +47588,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1657" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -47617,7 +47614,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1658" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -47643,7 +47640,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G1659" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47669,7 +47666,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1660" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47695,7 +47692,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1661" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47721,7 +47718,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1662" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47747,7 +47744,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1663" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47773,7 +47770,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1664" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47799,7 +47796,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1665" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47825,7 +47822,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1666" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47851,7 +47848,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1667" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47877,7 +47874,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1668" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47903,7 +47900,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1669" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47929,7 +47926,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G1670" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47955,7 +47952,7 @@
         <v>2.14599990844727</v>
       </c>
       <c r="G1671" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47981,7 +47978,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1672" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48007,7 +48004,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1673" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48033,7 +48030,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G1674" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48059,7 +48056,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1675" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -48085,7 +48082,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1676" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -48111,7 +48108,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1677" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -48137,7 +48134,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1678" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -48163,7 +48160,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1679" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -48189,7 +48186,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1680" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -48215,7 +48212,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1681" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -48241,7 +48238,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1682" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -48267,7 +48264,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1683" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -48293,7 +48290,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1684" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -48319,7 +48316,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1685" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -48345,7 +48342,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1686" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -48371,7 +48368,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1687" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -48397,7 +48394,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1688" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -48423,7 +48420,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1689" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -48449,7 +48446,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1690" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -48475,7 +48472,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1691" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -48501,7 +48498,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1692" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -48527,7 +48524,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1693" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -48553,7 +48550,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1694" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -48579,7 +48576,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1695" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -48605,7 +48602,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1696" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -48631,7 +48628,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1697" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -48657,7 +48654,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G1698" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48683,7 +48680,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1699" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48709,7 +48706,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1700" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48735,7 +48732,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G1701" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48761,7 +48758,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G1702" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48787,7 +48784,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1703" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48813,7 +48810,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1704" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48839,7 +48836,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1705" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48865,7 +48862,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1706" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48891,7 +48888,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1707" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48917,7 +48914,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1708" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48943,7 +48940,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1709" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48969,7 +48966,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G1710" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48995,7 +48992,7 @@
         <v>2.21799993515015</v>
       </c>
       <c r="G1711" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49021,7 +49018,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1712" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49047,7 +49044,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1713" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49073,7 +49070,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1714" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -49099,7 +49096,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1715" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -49125,7 +49122,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G1716" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -49151,7 +49148,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G1717" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -49177,7 +49174,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1718" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -49203,7 +49200,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1719" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -49229,7 +49226,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1720" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -49255,7 +49252,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1721" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -49281,7 +49278,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1722" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -49307,7 +49304,7 @@
         <v>2.1159999370575</v>
       </c>
       <c r="G1723" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -49333,7 +49330,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1724" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -49359,7 +49356,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G1725" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -49385,7 +49382,7 @@
         <v>2.09800004959106</v>
       </c>
       <c r="G1726" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -49411,7 +49408,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1727" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -49437,7 +49434,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1728" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -49463,7 +49460,7 @@
         <v>2.17400002479553</v>
       </c>
       <c r="G1729" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -49489,7 +49486,7 @@
         <v>2.17799997329712</v>
       </c>
       <c r="G1730" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -49515,7 +49512,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1731" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -49541,7 +49538,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -49567,7 +49564,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G1733" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -49593,7 +49590,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1734" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -49619,7 +49616,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1735" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -49645,7 +49642,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1736" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49671,7 +49668,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G1737" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49697,7 +49694,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1738" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49723,7 +49720,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1739" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49749,7 +49746,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1740" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49775,7 +49772,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1741" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49801,7 +49798,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1742" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49827,7 +49824,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1743" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49853,7 +49850,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1744" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49879,7 +49876,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1745" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49905,7 +49902,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1746" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49931,7 +49928,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1747" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49957,7 +49954,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1748" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49983,7 +49980,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1749" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50009,7 +50006,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1750" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50035,7 +50032,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1751" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50061,7 +50058,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1752" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -50087,7 +50084,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -50113,7 +50110,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1754" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -50139,7 +50136,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1755" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -50165,7 +50162,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G1756" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -50191,7 +50188,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -50217,7 +50214,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1758" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -50243,7 +50240,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1759" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -50269,7 +50266,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1760" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -50295,7 +50292,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1761" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -50321,7 +50318,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1762" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -50347,7 +50344,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -50373,7 +50370,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1764" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -50399,7 +50396,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1765" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -50425,7 +50422,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1766" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -50451,7 +50448,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1767" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -50477,7 +50474,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1768" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -50503,7 +50500,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1769" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -50529,7 +50526,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1770" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -50555,7 +50552,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1771" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -50581,7 +50578,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -50607,7 +50604,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1773" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -50633,7 +50630,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1774" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -50659,7 +50656,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1775" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50685,7 +50682,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1776" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50711,7 +50708,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1777" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50737,7 +50734,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1778" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50763,7 +50760,7 @@
         <v>2.33200001716614</v>
       </c>
       <c r="G1779" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50789,7 +50786,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1780" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50815,7 +50812,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1781" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50841,7 +50838,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1782" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50867,7 +50864,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1783" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50893,7 +50890,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1784" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50919,7 +50916,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1785" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50945,7 +50942,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1786" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50971,7 +50968,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1787" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50997,7 +50994,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G1788" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51023,7 +51020,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1789" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51049,7 +51046,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1790" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51075,7 +51072,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1791" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -51101,7 +51098,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1792" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -51127,7 +51124,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G1793" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -51153,7 +51150,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1794" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -51179,7 +51176,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G1795" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -51205,7 +51202,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1796" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -51231,7 +51228,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G1797" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -51257,7 +51254,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1798" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -51283,7 +51280,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1799" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -51309,7 +51306,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1800" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -51335,7 +51332,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1801" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -51361,7 +51358,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1802" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -51387,7 +51384,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1803" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -51413,7 +51410,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -51439,7 +51436,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1805" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -51465,7 +51462,7 @@
         <v>2.46600008010864</v>
       </c>
       <c r="G1806" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -51491,7 +51488,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1807" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -51517,7 +51514,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1808" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -51543,7 +51540,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1809" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -51569,7 +51566,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1810" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -51595,7 +51592,7 @@
         <v>2.49200010299683</v>
       </c>
       <c r="G1811" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -51621,7 +51618,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1812" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -51647,7 +51644,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1813" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51673,7 +51670,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1814" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51699,7 +51696,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1815" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51725,7 +51722,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1816" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51751,7 +51748,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1817" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51777,7 +51774,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1818" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51803,7 +51800,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G1819" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51829,7 +51826,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1820" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51855,7 +51852,7 @@
         <v>2.38599991798401</v>
       </c>
       <c r="G1821" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51881,7 +51878,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1822" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51907,7 +51904,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51933,7 +51930,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1824" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51959,7 +51956,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1825" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51985,7 +51982,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1826" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52011,7 +52008,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1827" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52037,7 +52034,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1828" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52063,7 +52060,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1829" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -52089,7 +52086,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1830" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -52115,7 +52112,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1831" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -52141,7 +52138,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1832" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -52167,7 +52164,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G1833" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -52193,7 +52190,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G1834" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -52219,7 +52216,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1835" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -52245,7 +52242,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G1836" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -52271,7 +52268,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1837" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -52297,7 +52294,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G1838" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -52323,7 +52320,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G1839" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -52349,7 +52346,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1840" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -52375,7 +52372,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1841" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -52401,7 +52398,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G1842" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -52427,7 +52424,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1843" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -52453,7 +52450,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1844" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -52479,7 +52476,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1845" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -52505,7 +52502,7 @@
         <v>2.30800008773804</v>
       </c>
       <c r="G1846" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -52531,7 +52528,7 @@
         <v>2.32800006866455</v>
       </c>
       <c r="G1847" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -52557,7 +52554,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1848" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -52583,7 +52580,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1849" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -52609,7 +52606,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1850" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -52635,7 +52632,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1851" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -52661,7 +52658,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1852" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52687,7 +52684,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1853" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52713,7 +52710,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1854" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52739,7 +52736,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G1855" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52765,7 +52762,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52791,7 +52788,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1857" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52817,7 +52814,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1858" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52843,7 +52840,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G1859" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52869,7 +52866,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G1860" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52895,7 +52892,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1861" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52921,7 +52918,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1862" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52947,7 +52944,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1863" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52973,7 +52970,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1864" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52999,7 +52996,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1865" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53025,7 +53022,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1866" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53051,7 +53048,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53077,7 +53074,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1868" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -53103,7 +53100,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1869" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -53129,7 +53126,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1870" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -53155,7 +53152,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1871" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -53181,7 +53178,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G1872" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -53207,7 +53204,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1873" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -53233,7 +53230,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -53259,7 +53256,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1875" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -53285,7 +53282,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1876" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -53311,7 +53308,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1877" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -53337,7 +53334,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1878" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -53363,7 +53360,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1879" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -53389,7 +53386,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1880" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -53415,7 +53412,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1881" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -53441,7 +53438,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1882" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -53467,7 +53464,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1883" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -53493,7 +53490,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -53519,7 +53516,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1885" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -53545,7 +53542,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1886" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -53571,7 +53568,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1887" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -53597,7 +53594,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1888" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -53623,7 +53620,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1889" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -53649,7 +53646,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1890" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53675,7 +53672,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1891" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53701,7 +53698,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1892" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -53727,7 +53724,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1893" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53753,7 +53750,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1894" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -53779,7 +53776,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1895" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53805,7 +53802,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1896" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -53831,7 +53828,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1897" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -53857,7 +53854,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1898" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -53883,7 +53880,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1899" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -53909,7 +53906,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1900" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -53935,7 +53932,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1901" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -53961,7 +53958,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1902" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -53987,7 +53984,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1903" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54013,7 +54010,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1904" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54039,7 +54036,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1905" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54065,7 +54062,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1906" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -54091,7 +54088,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1907" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -54117,7 +54114,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1908" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -54143,7 +54140,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -54169,7 +54166,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1910" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -54195,7 +54192,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -54221,7 +54218,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1912" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -54247,7 +54244,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G1913" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -54273,7 +54270,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1914" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -54299,7 +54296,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G1915" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -54325,7 +54322,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1916" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -54351,7 +54348,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1917" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -54377,7 +54374,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1918" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -54403,7 +54400,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1919" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -54429,7 +54426,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1920" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -54455,7 +54452,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1921" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -54481,7 +54478,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G1922" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -54507,7 +54504,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1923" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -54533,7 +54530,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1924" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -54559,7 +54556,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1925" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -54585,7 +54582,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1926" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -54611,7 +54608,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1927" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -54637,7 +54634,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1928" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -54663,7 +54660,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1929" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54689,7 +54686,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1930" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -54715,7 +54712,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G1931" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54741,7 +54738,7 @@
         <v>2.29800009727478</v>
       </c>
       <c r="G1932" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54767,7 +54764,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1933" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -54793,7 +54790,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1934" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54819,7 +54816,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54845,7 +54842,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1936" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -54871,7 +54868,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1937" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -54897,7 +54894,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1938" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -54923,7 +54920,7 @@
         <v>2.32399988174438</v>
       </c>
       <c r="G1939" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -54949,7 +54946,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G1940" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -54975,7 +54972,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1941" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55001,7 +54998,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G1942" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55027,7 +55024,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1943" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55053,7 +55050,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1944" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -55079,7 +55076,7 @@
         <v>2.35599994659424</v>
       </c>
       <c r="G1945" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -55105,7 +55102,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1946" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -55131,7 +55128,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1947" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -55157,7 +55154,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G1948" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -55183,7 +55180,7 @@
         <v>2.30599999427795</v>
       </c>
       <c r="G1949" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -55209,7 +55206,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1950" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -55235,7 +55232,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -55261,7 +55258,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1952" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -55287,7 +55284,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G1953" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -55313,7 +55310,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1954" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -55339,7 +55336,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1955" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -55365,7 +55362,7 @@
         <v>2.30800008773804</v>
       </c>
       <c r="G1956" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -55391,7 +55388,7 @@
         <v>2.2960000038147</v>
       </c>
       <c r="G1957" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -55417,7 +55414,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G1958" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -55443,7 +55440,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1959" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -55469,7 +55466,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1960" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -55495,7 +55492,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1961" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -55521,7 +55518,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1962" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -55547,7 +55544,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1963" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -55573,7 +55570,7 @@
         <v>2.34599995613098</v>
       </c>
       <c r="G1964" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -55599,7 +55596,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1965" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -55625,7 +55622,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1966" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -55651,7 +55648,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1967" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -55677,7 +55674,7 @@
         <v>2.34200000762939</v>
       </c>
       <c r="G1968" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -55703,7 +55700,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1969" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -55729,7 +55726,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G1970" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -55755,7 +55752,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G1971" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -55781,7 +55778,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1972" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -55807,7 +55804,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1973" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -55833,7 +55830,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G1974" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -55859,7 +55856,7 @@
         <v>2.23200011253357</v>
       </c>
       <c r="G1975" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -55885,7 +55882,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1976" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -55911,7 +55908,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1977" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -55937,7 +55934,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1978" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -55963,7 +55960,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1979" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -55989,7 +55986,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G1980" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56015,7 +56012,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1981" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56041,7 +56038,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1982" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56067,7 +56064,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G1983" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -56093,7 +56090,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1984" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -56119,7 +56116,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1985" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -56145,7 +56142,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1986" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -56171,7 +56168,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1987" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -56197,7 +56194,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1988" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -56223,7 +56220,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1989" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -56249,7 +56246,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G1990" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -56275,7 +56272,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1991" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -56301,7 +56298,7 @@
         <v>2.25</v>
       </c>
       <c r="G1992" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -56327,7 +56324,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1993" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -56353,7 +56350,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1994" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -56379,7 +56376,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -56405,7 +56402,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1996" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -56431,7 +56428,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1997" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -56457,7 +56454,7 @@
         <v>2.25</v>
       </c>
       <c r="G1998" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -56483,7 +56480,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1999" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -56509,7 +56506,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G2000" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -56535,7 +56532,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G2001" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -56561,7 +56558,7 @@
         <v>2.25</v>
       </c>
       <c r="G2002" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -56587,7 +56584,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G2003" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -56613,7 +56610,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G2004" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -56639,7 +56636,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G2005" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -56665,7 +56662,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2006" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -56691,7 +56688,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2007" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -56717,7 +56714,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G2008" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -56743,7 +56740,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G2009" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -56769,7 +56766,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2010" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -56795,7 +56792,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G2011" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -56821,7 +56818,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G2012" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -56847,7 +56844,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2013" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -56873,7 +56870,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2014" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -56899,7 +56896,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G2015" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -56925,7 +56922,7 @@
         <v>2.25</v>
       </c>
       <c r="G2016" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -56951,7 +56948,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2017" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -56977,7 +56974,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2018" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57003,7 +57000,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G2019" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57029,7 +57026,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G2020" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57055,7 +57052,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G2021" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -57081,7 +57078,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G2022" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -57107,7 +57104,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G2023" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -57133,7 +57130,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G2024" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -57159,7 +57156,7 @@
         <v>2.28200006484985</v>
       </c>
       <c r="G2025" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -57185,7 +57182,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G2026" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -57211,7 +57208,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2027" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -57237,7 +57234,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2028" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -57263,7 +57260,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G2029" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -57289,7 +57286,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G2030" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -57315,7 +57312,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G2031" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -57341,7 +57338,7 @@
         <v>2.25200009346008</v>
       </c>
       <c r="G2032" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -57367,7 +57364,7 @@
         <v>2.25399994850159</v>
       </c>
       <c r="G2033" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -57393,7 +57390,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2034" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -57419,7 +57416,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2035" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -57445,7 +57442,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2036" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -57471,7 +57468,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G2037" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -57497,7 +57494,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G2038" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -57523,7 +57520,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G2039" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -57549,7 +57546,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G2040" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -57575,7 +57572,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G2041" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -57601,7 +57598,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G2042" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -57627,7 +57624,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G2043" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -57653,7 +57650,7 @@
         <v>2.30200004577637</v>
       </c>
       <c r="G2044" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -57679,7 +57676,7 @@
         <v>2.31800007820129</v>
       </c>
       <c r="G2045" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -57705,7 +57702,7 @@
         <v>2.32800006866455</v>
       </c>
       <c r="G2046" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -57731,7 +57728,7 @@
         <v>2.33400011062622</v>
       </c>
       <c r="G2047" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -57757,7 +57754,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G2048" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -57783,7 +57780,7 @@
         <v>2.35199999809265</v>
       </c>
       <c r="G2049" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -57809,7 +57806,7 @@
         <v>2.37599992752075</v>
       </c>
       <c r="G2050" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -57835,7 +57832,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G2051" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -57861,7 +57858,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G2052" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -57887,7 +57884,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G2053" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -57913,7 +57910,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G2054" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -57939,7 +57936,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G2055" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -57965,7 +57962,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G2056" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -57991,7 +57988,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G2057" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58017,7 +58014,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G2058" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58043,7 +58040,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G2059" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58069,7 +58066,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G2060" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58095,7 +58092,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G2061" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58121,7 +58118,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G2062" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58147,7 +58144,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G2063" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58173,7 +58170,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G2064" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -58199,7 +58196,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G2065" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58225,7 +58222,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G2066" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58251,7 +58248,7 @@
         <v>2.41599988937378</v>
       </c>
       <c r="G2067" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58277,7 +58274,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G2068" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58303,7 +58300,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G2069" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58329,7 +58326,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G2070" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58355,7 +58352,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G2071" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -58381,7 +58378,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G2072" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -58407,7 +58404,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G2073" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -58433,7 +58430,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G2074" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -58459,7 +58456,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G2075" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -58485,7 +58482,7 @@
         <v>2.66400003433228</v>
       </c>
       <c r="G2076" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -58511,7 +58508,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G2077" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -58537,7 +58534,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G2078" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -58563,7 +58560,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G2079" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -58589,7 +58586,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G2080" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -58615,7 +58612,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G2081" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -58641,7 +58638,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G2082" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -58667,7 +58664,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G2083" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -58693,7 +58690,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2084" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -58719,7 +58716,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G2085" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -58745,7 +58742,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2086" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -58771,7 +58768,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -58797,7 +58794,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G2088" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -58823,7 +58820,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2089" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -58849,7 +58846,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -58875,7 +58872,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2091" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -58901,7 +58898,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G2092" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -58927,7 +58924,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2093" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -58953,7 +58950,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2094" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -58979,7 +58976,7 @@
         <v>2.67600011825562</v>
       </c>
       <c r="G2095" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59005,7 +59002,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59031,7 +59028,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G2097" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59057,7 +59054,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2098" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59083,7 +59080,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G2099" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59109,7 +59106,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2100" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59135,7 +59132,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2101" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59161,7 +59158,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2102" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59187,7 +59184,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2103" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59213,7 +59210,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2104" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -59239,7 +59236,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2105" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59265,7 +59262,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2106" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59291,7 +59288,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2107" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59317,7 +59314,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2108" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59343,7 +59340,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2109" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59369,7 +59366,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2110" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59395,7 +59392,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2111" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -59421,7 +59418,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2112" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59447,7 +59444,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2113" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59473,7 +59470,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G2114" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59499,7 +59496,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2115" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -59525,7 +59522,7 @@
         <v>2.69199991226196</v>
       </c>
       <c r="G2116" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -59551,7 +59548,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2117" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -59577,7 +59574,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2118" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -59603,7 +59600,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G2119" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -59629,7 +59626,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2120" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -59655,7 +59652,7 @@
         <v>2.67799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -59681,7 +59678,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2122" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -59707,7 +59704,7 @@
         <v>2.67199993133545</v>
       </c>
       <c r="G2123" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -59733,7 +59730,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2124" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -59759,7 +59756,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2125" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -59785,7 +59782,7 @@
         <v>2.68199992179871</v>
       </c>
       <c r="G2126" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -59811,7 +59808,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G2127" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -59837,7 +59834,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G2128" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -59863,7 +59860,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2129" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -59889,7 +59886,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G2130" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -59915,7 +59912,7 @@
         <v>2.69400000572205</v>
       </c>
       <c r="G2131" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -59941,7 +59938,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G2132" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -59967,7 +59964,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G2133" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -59993,7 +59990,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G2134" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60019,7 +60016,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G2135" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60045,7 +60042,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2136" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60071,7 +60068,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2137" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60097,7 +60094,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2138" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60123,7 +60120,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2139" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60149,7 +60146,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60175,7 +60172,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G2141" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60201,7 +60198,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G2142" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60227,7 +60224,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G2143" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60253,7 +60250,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G2144" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60279,7 +60276,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2145" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60305,7 +60302,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2146" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60331,7 +60328,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2147" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60357,7 +60354,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2148" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60383,7 +60380,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G2149" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -60409,7 +60406,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G2150" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -60435,7 +60432,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G2151" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -60443,7 +60440,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6507638889</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>4103284</v>
@@ -60461,9 +60458,35 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G2152" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6496180556</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>688726</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>2.52800011634827</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356392860413</t>
+    <t xml:space="preserve">1.20356380939484</t>
   </si>
   <si>
     <t xml:space="preserve">US.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20143187046051</t>
+    <t xml:space="preserve">1.2014319896698</t>
   </si>
   <si>
     <t xml:space="preserve">1.1747807264328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15346002578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13746929168701</t>
+    <t xml:space="preserve">1.15346014499664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13746917247772</t>
   </si>
   <si>
     <t xml:space="preserve">1.14066743850708</t>
@@ -62,142 +62,142 @@
     <t xml:space="preserve">1.15452599525452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16092216968536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11295020580292</t>
+    <t xml:space="preserve">1.16092228889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11295032501221</t>
   </si>
   <si>
     <t xml:space="preserve">1.08949720859528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07030844688416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04578959941864</t>
+    <t xml:space="preserve">1.07030856609344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04578948020935</t>
   </si>
   <si>
     <t xml:space="preserve">1.08523297309875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09482753276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07137453556061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06817638874054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05378472805023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0127420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03832697868347</t>
+    <t xml:space="preserve">1.09482741355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0713746547699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06817626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05378484725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01274216175079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03832721710205</t>
   </si>
   <si>
     <t xml:space="preserve">1.01700627803802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984491944313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954642593860626</t>
+    <t xml:space="preserve">0.98449182510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954642713069916</t>
   </si>
   <si>
     <t xml:space="preserve">0.957840800285339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921062290668488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86882609128952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840575993061066</t>
+    <t xml:space="preserve">0.921062350273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868825972080231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840575933456421</t>
   </si>
   <si>
     <t xml:space="preserve">0.888548016548157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826717436313629</t>
+    <t xml:space="preserve">0.82671731710434</t>
   </si>
   <si>
     <t xml:space="preserve">0.917864084243774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972232460975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960505783557892</t>
+    <t xml:space="preserve">0.972232282161713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505902767181</t>
   </si>
   <si>
     <t xml:space="preserve">0.990355134010315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982892870903015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970100462436676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999949812889099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97916167974472</t>
+    <t xml:space="preserve">0.982892751693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970100343227386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99994957447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979161560535431</t>
   </si>
   <si>
     <t xml:space="preserve">0.971166431903839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988756120204926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01114296913147</t>
+    <t xml:space="preserve">0.988756239414215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01114308834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.01007688045502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03726100921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06178021430969</t>
+    <t xml:space="preserve">1.0372611284256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0617800951004</t>
   </si>
   <si>
     <t xml:space="preserve">1.0468555688858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03566193580627</t>
+    <t xml:space="preserve">1.03566205501556</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314772129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01913845539093</t>
+    <t xml:space="preserve">1.01913833618164</t>
   </si>
   <si>
     <t xml:space="preserve">1.02127051353455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0106098651886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07777082920074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08203506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07244050502777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08416700363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07990288734436</t>
+    <t xml:space="preserve">1.01061010360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07777070999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08203494548798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07244062423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08416712284088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07990300655365</t>
   </si>
   <si>
     <t xml:space="preserve">1.0884313583374</t>
@@ -212,43 +212,43 @@
     <t xml:space="preserve">1.0862991809845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04365742206573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.049520611763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05005347728729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07457280158997</t>
+    <t xml:space="preserve">1.04365730285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04952049255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05005359649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07457268238068</t>
   </si>
   <si>
     <t xml:space="preserve">1.05804896354675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02926576137543</t>
+    <t xml:space="preserve">1.02926588058472</t>
   </si>
   <si>
     <t xml:space="preserve">1.07883679866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09269547462463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09376156330109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09695982933044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04845464229584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04259133338928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03299689292908</t>
+    <t xml:space="preserve">1.09269535541534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0937614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09695959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04845452308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04259145259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03299677371979</t>
   </si>
   <si>
     <t xml:space="preserve">1.01594018936157</t>
@@ -260,22 +260,22 @@
     <t xml:space="preserve">0.976496636867523</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970633447170258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980760812759399</t>
+    <t xml:space="preserve">0.970633327960968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980760753154755</t>
   </si>
   <si>
     <t xml:space="preserve">0.986090958118439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984930872917175</t>
+    <t xml:space="preserve">0.984930813312531</t>
   </si>
   <si>
     <t xml:space="preserve">1.0058126449585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03829562664032</t>
+    <t xml:space="preserve">1.0382958650589</t>
   </si>
   <si>
     <t xml:space="preserve">1.03365528583527</t>
@@ -293,43 +293,43 @@
     <t xml:space="preserve">1.03133511543274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993631660938263</t>
+    <t xml:space="preserve">0.993631780147552</t>
   </si>
   <si>
     <t xml:space="preserve">0.993051826953888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99943220615387</t>
+    <t xml:space="preserve">0.999432325363159</t>
   </si>
   <si>
     <t xml:space="preserve">0.998272001743317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982030749320984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933306157588959</t>
+    <t xml:space="preserve">0.982030630111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933306097984314</t>
   </si>
   <si>
     <t xml:space="preserve">0.901983141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871240258216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861379384994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83411693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871820390224457</t>
+    <t xml:space="preserve">0.871240437030792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861379444599152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834116995334625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871820449829102</t>
   </si>
   <si>
     <t xml:space="preserve">0.909523963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914744436740875</t>
+    <t xml:space="preserve">0.91474437713623</t>
   </si>
   <si>
     <t xml:space="preserve">0.912424147129059</t>
@@ -341,10 +341,10 @@
     <t xml:space="preserve">0.851518630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802794098854065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825996160507202</t>
+    <t xml:space="preserve">0.802793979644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825996279716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.792933166027069</t>
@@ -356,49 +356,49 @@
     <t xml:space="preserve">0.81323504447937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791193008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756389856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733187615871429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730867564678192</t>
+    <t xml:space="preserve">0.791193068027496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756389796733856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733187675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730867505073547</t>
   </si>
   <si>
     <t xml:space="preserve">0.802214086055756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819615542888641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850938498973846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824256122112274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850358545780182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866599917411804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.847458243370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849198400974274</t>
+    <t xml:space="preserve">0.819615602493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850938618183136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824256002902985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850358486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866599857807159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847458124160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849198341369629</t>
   </si>
   <si>
     <t xml:space="preserve">0.854418933391571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842237830162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852678656578064</t>
+    <t xml:space="preserve">0.842237770557404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852678716182709</t>
   </si>
   <si>
     <t xml:space="preserve">0.857319176197052</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">0.870080232620239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.856739044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826576173305511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824836015701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846878170967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879361152648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888061881065369</t>
+    <t xml:space="preserve">0.856739163398743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811495065689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826576352119446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824836194515228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846878290176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879361212253571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888061940670013</t>
   </si>
   <si>
     <t xml:space="preserve">0.885161638259888</t>
@@ -437,28 +437,28 @@
     <t xml:space="preserve">0.893282353878021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887481927871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854998767375946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828896641731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848038196563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835277259349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820775628089905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852098703384399</t>
+    <t xml:space="preserve">0.887481868267059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854998826980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828896522521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84803831577301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837597370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835277140140533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82077568769455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852098524570465</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340134620667</t>
@@ -467,52 +467,52 @@
     <t xml:space="preserve">0.865439891815186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882841527462006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8973428606987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910684168338776</t>
+    <t xml:space="preserve">0.882841467857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897342801094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910683989524841</t>
   </si>
   <si>
     <t xml:space="preserve">0.910103917121887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881101489067078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83469694852829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842817664146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82773631811142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839917421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219359397888</t>
+    <t xml:space="preserve">0.881101369857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834697067737579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842817723751068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827736437320709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839917480945587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219419002533</t>
   </si>
   <si>
     <t xml:space="preserve">0.874720692634583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881681263446808</t>
+    <t xml:space="preserve">0.881681323051453</t>
   </si>
   <si>
     <t xml:space="preserve">0.907783806324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939686834812164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949547708034515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960568606853485</t>
+    <t xml:space="preserve">0.939686715602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949547469615936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960568726062775</t>
   </si>
   <si>
     <t xml:space="preserve">0.980870544910431</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">0.997112035751343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00929307937622</t>
+    <t xml:space="preserve">1.00929319858551</t>
   </si>
   <si>
     <t xml:space="preserve">1.00871312618256</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">1.00175261497498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972169578075409</t>
+    <t xml:space="preserve">0.972169756889343</t>
   </si>
   <si>
     <t xml:space="preserve">0.969849526882172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947227418422699</t>
+    <t xml:space="preserve">0.947227537631989</t>
   </si>
   <si>
     <t xml:space="preserve">0.976230144500732</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">0.979130387306213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973909854888916</t>
+    <t xml:space="preserve">0.973909974098206</t>
   </si>
   <si>
     <t xml:space="preserve">0.997692108154297</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">1.02089416980743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03945600986481</t>
+    <t xml:space="preserve">1.03945589065552</t>
   </si>
   <si>
     <t xml:space="preserve">1.03249526023865</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">1.00117242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02611470222473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05337715148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04583644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05743753910065</t>
+    <t xml:space="preserve">1.02611458301544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05337703227997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04583656787872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05743765830994</t>
   </si>
   <si>
     <t xml:space="preserve">1.09920144081116</t>
@@ -596,31 +596,31 @@
     <t xml:space="preserve">1.14850604534149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16590738296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16126728057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17054808139801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18214929103851</t>
+    <t xml:space="preserve">1.16590750217438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16126716136932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17054796218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18214905261993</t>
   </si>
   <si>
     <t xml:space="preserve">1.17170810699463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18330907821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18678963184357</t>
+    <t xml:space="preserve">1.18330919742584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18678951263428</t>
   </si>
   <si>
     <t xml:space="preserve">1.17750871181488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1879495382309</t>
+    <t xml:space="preserve">1.18794965744019</t>
   </si>
   <si>
     <t xml:space="preserve">1.17402839660645</t>
@@ -629,22 +629,22 @@
     <t xml:space="preserve">1.19026982784271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19491028785706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20071089267731</t>
+    <t xml:space="preserve">1.19491016864777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20071065425873</t>
   </si>
   <si>
     <t xml:space="preserve">1.22507297992706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23783445358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23551404476166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2285532951355</t>
+    <t xml:space="preserve">1.23783433437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23551416397095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22855341434479</t>
   </si>
   <si>
     <t xml:space="preserve">1.21231186389923</t>
@@ -668,31 +668,31 @@
     <t xml:space="preserve">1.15952694416046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15372657775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16822755336761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15720677375793</t>
+    <t xml:space="preserve">1.1537264585495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1682276725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15720689296722</t>
   </si>
   <si>
     <t xml:space="preserve">1.19259011745453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20883166790009</t>
+    <t xml:space="preserve">1.2088315486908</t>
   </si>
   <si>
     <t xml:space="preserve">1.1891096830368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1340047121048</t>
+    <t xml:space="preserve">1.13400483131409</t>
   </si>
   <si>
     <t xml:space="preserve">1.11718308925629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13168454170227</t>
+    <t xml:space="preserve">1.13168442249298</t>
   </si>
   <si>
     <t xml:space="preserve">1.13226449489594</t>
@@ -719,16 +719,16 @@
     <t xml:space="preserve">1.14154541492462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15604662895203</t>
+    <t xml:space="preserve">1.15604674816132</t>
   </si>
   <si>
     <t xml:space="preserve">1.15894711017609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16010713577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16706788539886</t>
+    <t xml:space="preserve">1.16010701656342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16706776618958</t>
   </si>
   <si>
     <t xml:space="preserve">1.15662682056427</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">1.13980519771576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19375026226044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1786687374115</t>
+    <t xml:space="preserve">1.19375014305115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17866885662079</t>
   </si>
   <si>
     <t xml:space="preserve">1.19142985343933</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">1.20187091827393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18562948703766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2181122303009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19723057746887</t>
+    <t xml:space="preserve">1.18562924861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21811234951019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19723033905029</t>
   </si>
   <si>
     <t xml:space="preserve">1.20303082466125</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">1.19607031345367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17286825180054</t>
+    <t xml:space="preserve">1.17286837100983</t>
   </si>
   <si>
     <t xml:space="preserve">1.14560568332672</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">1.22391295433044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23667407035828</t>
+    <t xml:space="preserve">1.23667418956757</t>
   </si>
   <si>
     <t xml:space="preserve">1.25871622562408</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">1.27959823608398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29467964172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27031719684601</t>
+    <t xml:space="preserve">1.29467952251434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2703173160553</t>
   </si>
   <si>
     <t xml:space="preserve">1.25639581680298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799714565277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24711501598358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25175547599792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2720742225647</t>
+    <t xml:space="preserve">1.26799702644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24711513519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25175559520721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27207434177399</t>
   </si>
   <si>
     <t xml:space="preserve">1.28192579746246</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.23636257648468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23759388923645</t>
+    <t xml:space="preserve">1.23759400844574</t>
   </si>
   <si>
     <t xml:space="preserve">1.24128842353821</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">1.24375116825104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21912252902985</t>
+    <t xml:space="preserve">1.21912240982056</t>
   </si>
   <si>
     <t xml:space="preserve">1.20803952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19572532176971</t>
+    <t xml:space="preserve">1.19572520256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.22527968883514</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">1.22712683677673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21481251716614</t>
+    <t xml:space="preserve">1.21481239795685</t>
   </si>
   <si>
     <t xml:space="preserve">1.19141507148743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19449388980865</t>
+    <t xml:space="preserve">1.19449400901794</t>
   </si>
   <si>
     <t xml:space="preserve">1.21789109706879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20249795913696</t>
+    <t xml:space="preserve">1.20249807834625</t>
   </si>
   <si>
     <t xml:space="preserve">1.22404825687408</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">1.2037296295166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22035384178162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22096979618073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17663788795471</t>
+    <t xml:space="preserve">1.22035396099091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22096967697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.176638007164</t>
   </si>
   <si>
     <t xml:space="preserve">1.20126664638519</t>
@@ -896,58 +896,58 @@
     <t xml:space="preserve">1.1994194984436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20434510707855</t>
+    <t xml:space="preserve">1.20434522628784</t>
   </si>
   <si>
     <t xml:space="preserve">1.23143684864044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22343254089355</t>
+    <t xml:space="preserve">1.22343266010284</t>
   </si>
   <si>
     <t xml:space="preserve">1.22835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21358096599579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21173393726349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20680820941925</t>
+    <t xml:space="preserve">1.21358108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2117338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20680809020996</t>
   </si>
   <si>
     <t xml:space="preserve">1.18525791168213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20003521442413</t>
+    <t xml:space="preserve">1.20003533363342</t>
   </si>
   <si>
     <t xml:space="preserve">1.19203090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20496106147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21665954589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22651124000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23882567882538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24251985549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23513126373291</t>
+    <t xml:space="preserve">1.20496094226837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21665942668915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2265111207962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23882555961609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24251973628998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23513114452362</t>
   </si>
   <si>
     <t xml:space="preserve">1.18833661079407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19818806648254</t>
+    <t xml:space="preserve">1.19818818569183</t>
   </si>
   <si>
     <t xml:space="preserve">1.20065093040466</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">1.18587374687195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17355930805206</t>
+    <t xml:space="preserve">1.17355942726135</t>
   </si>
   <si>
     <t xml:space="preserve">1.17602217197418</t>
@@ -974,37 +974,37 @@
     <t xml:space="preserve">1.17417502403259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19387793540955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17910075187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16001331806183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.161860704422</t>
+    <t xml:space="preserve">1.19387805461884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17910063266754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16555511951447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16001343727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16186082363129</t>
   </si>
   <si>
     <t xml:space="preserve">1.15324068069458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18956792354584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20865535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18341076374054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17848515510559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19757235050201</t>
+    <t xml:space="preserve">1.18956804275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20865523815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18341088294983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17848527431488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1975724697113</t>
   </si>
   <si>
     <t xml:space="preserve">1.2222011089325</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">1.20742380619049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20619237422943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21542811393738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21050238609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19880378246307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21419656276703</t>
+    <t xml:space="preserve">1.20619249343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21542823314667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21050250530243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19880366325378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21419680118561</t>
   </si>
   <si>
     <t xml:space="preserve">1.23020553588867</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">1.14646768569946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16247630119324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16740214824677</t>
+    <t xml:space="preserve">1.16247642040253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16740226745605</t>
   </si>
   <si>
     <t xml:space="preserve">1.16986501216888</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">1.16309213638306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16493928432465</t>
+    <t xml:space="preserve">1.16493916511536</t>
   </si>
   <si>
     <t xml:space="preserve">1.16801786422729</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">1.17171216011047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16863346099854</t>
+    <t xml:space="preserve">1.16863369941711</t>
   </si>
   <si>
     <t xml:space="preserve">1.18156373500824</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">1.2160439491272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25237107276917</t>
+    <t xml:space="preserve">1.25237131118774</t>
   </si>
   <si>
     <t xml:space="preserve">1.26222276687622</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">1.26468551158905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591718196869</t>
+    <t xml:space="preserve">1.2659170627594</t>
   </si>
   <si>
     <t xml:space="preserve">1.28562009334564</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">1.3053230047226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29177725315094</t>
+    <t xml:space="preserve">1.29177737236023</t>
   </si>
   <si>
     <t xml:space="preserve">1.28131008148193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26653265953064</t>
+    <t xml:space="preserve">1.26653277873993</t>
   </si>
   <si>
     <t xml:space="preserve">1.24990844726562</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">1.25606560707092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22189319133759</t>
+    <t xml:space="preserve">1.2218930721283</t>
   </si>
   <si>
     <t xml:space="preserve">1.23328399658203</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">1.23082101345062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20465302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944127559662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24621403217316</t>
+    <t xml:space="preserve">1.20465314388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944115638733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24621415138245</t>
   </si>
   <si>
     <t xml:space="preserve">1.23820960521698</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">1.21265733242035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22066152095795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21973812580109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21819877624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21512019634247</t>
+    <t xml:space="preserve">1.22066164016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21973824501038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21819889545441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21512031555176</t>
   </si>
   <si>
     <t xml:space="preserve">1.18987584114075</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">1.18433439731598</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19788026809692</t>
+    <t xml:space="preserve">1.19788014888763</t>
   </si>
   <si>
     <t xml:space="preserve">1.21081042289734</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">1.21019458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20095872879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19110727310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18310284614563</t>
+    <t xml:space="preserve">1.20095884799957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1911073923111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18310296535492</t>
   </si>
   <si>
     <t xml:space="preserve">1.18464231491089</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.19018363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20219039916992</t>
+    <t xml:space="preserve">1.20219027996063</t>
   </si>
   <si>
     <t xml:space="preserve">1.20650017261505</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">1.28069424629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29424023628235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30409157276154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31332731246948</t>
+    <t xml:space="preserve">1.29424011707306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30409169197083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31332743167877</t>
   </si>
   <si>
     <t xml:space="preserve">1.33795619010925</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">1.34780752658844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34657621383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3428817987442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3595062494278</t>
+    <t xml:space="preserve">1.34657633304596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34288191795349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35950636863708</t>
   </si>
   <si>
     <t xml:space="preserve">1.37305200099945</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">1.3761305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38167214393616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35519623756409</t>
+    <t xml:space="preserve">1.38167202472687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3551961183548</t>
   </si>
   <si>
     <t xml:space="preserve">1.35458064079285</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">1.29731869697571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30840170383453</t>
+    <t xml:space="preserve">1.30840158462524</t>
   </si>
   <si>
     <t xml:space="preserve">1.29622411727905</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">1.2628265619278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25356769561768</t>
+    <t xml:space="preserve">1.25356781482697</t>
   </si>
   <si>
     <t xml:space="preserve">1.26018118858337</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">1.25059187412262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30217623710632</t>
+    <t xml:space="preserve">1.30217635631561</t>
   </si>
   <si>
     <t xml:space="preserve">1.24463975429535</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.27473068237305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24893844127655</t>
+    <t xml:space="preserve">1.24893832206726</t>
   </si>
   <si>
     <t xml:space="preserve">1.23901832103729</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.24728512763977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23868763446808</t>
+    <t xml:space="preserve">1.23868775367737</t>
   </si>
   <si>
     <t xml:space="preserve">1.2522451877594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2565438747406</t>
+    <t xml:space="preserve">1.25654375553131</t>
   </si>
   <si>
     <t xml:space="preserve">1.25555169582367</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">1.21686351299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23835694789886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27043199539185</t>
+    <t xml:space="preserve">1.23835706710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27043187618256</t>
   </si>
   <si>
     <t xml:space="preserve">1.2542290687561</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">1.25158381462097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2995308637619</t>
+    <t xml:space="preserve">1.29953098297119</t>
   </si>
   <si>
     <t xml:space="preserve">1.2909334897995</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">1.32862985134125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3273069858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3101122379303</t>
+    <t xml:space="preserve">1.32730710506439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31011235713959</t>
   </si>
   <si>
     <t xml:space="preserve">1.29192554950714</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">1.27902948856354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2843199968338</t>
+    <t xml:space="preserve">1.28432011604309</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258680343628</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">1.26051187515259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26877856254578</t>
+    <t xml:space="preserve">1.26877868175507</t>
   </si>
   <si>
     <t xml:space="preserve">1.27307724952698</t>
@@ -1409,25 +1409,25 @@
     <t xml:space="preserve">1.288618683815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24959981441498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24001038074493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24298644065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24596226215363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24331712722778</t>
+    <t xml:space="preserve">1.24959993362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24001026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24298655986786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24596238136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24331700801849</t>
   </si>
   <si>
     <t xml:space="preserve">1.24100244045258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22678363323212</t>
+    <t xml:space="preserve">1.22678375244141</t>
   </si>
   <si>
     <t xml:space="preserve">1.26447987556458</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">1.25489056110382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27406930923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30449080467224</t>
+    <t xml:space="preserve">1.27406919002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30449092388153</t>
   </si>
   <si>
     <t xml:space="preserve">1.30052292346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29655480384827</t>
+    <t xml:space="preserve">1.29655492305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.30482149124146</t>
@@ -1463,22 +1463,22 @@
     <t xml:space="preserve">1.28365874290466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28994154930115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32036292552948</t>
+    <t xml:space="preserve">1.28994143009186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32036304473877</t>
   </si>
   <si>
     <t xml:space="preserve">1.31540298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31738710403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33854985237122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33259797096252</t>
+    <t xml:space="preserve">1.31738698482513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33854997158051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33259785175323</t>
   </si>
   <si>
     <t xml:space="preserve">1.33061385154724</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">1.32400047779083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35574471950531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558495998383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36698746681213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3855048418045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38748896121979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40336108207703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41195845603943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41328120231628</t>
+    <t xml:space="preserve">1.35574460029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558484077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36698734760284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38550496101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38748908042908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40336096286774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41195857524872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41328108310699</t>
   </si>
   <si>
     <t xml:space="preserve">1.34251797199249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31705641746521</t>
+    <t xml:space="preserve">1.31705629825592</t>
   </si>
   <si>
     <t xml:space="preserve">1.33127510547638</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">1.26315712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2674560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26249587535858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2714239358902</t>
+    <t xml:space="preserve">1.26745593547821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26249599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27142405509949</t>
   </si>
   <si>
     <t xml:space="preserve">1.24860787391663</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">1.23141300678253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24662375450134</t>
+    <t xml:space="preserve">1.24662363529205</t>
   </si>
   <si>
     <t xml:space="preserve">1.24926912784576</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">1.28233599662781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26977050304413</t>
+    <t xml:space="preserve">1.26977062225342</t>
   </si>
   <si>
     <t xml:space="preserve">1.27704536914825</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.30118429660797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3081282377243</t>
+    <t xml:space="preserve">1.30812835693359</t>
   </si>
   <si>
     <t xml:space="preserve">1.30912029743195</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">1.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32796823978424</t>
+    <t xml:space="preserve">1.32796835899353</t>
   </si>
   <si>
     <t xml:space="preserve">1.34119534492493</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">1.36566483974457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37095546722412</t>
+    <t xml:space="preserve">1.37095534801483</t>
   </si>
   <si>
     <t xml:space="preserve">1.35971260070801</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">1.33590447902679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33722722530365</t>
+    <t xml:space="preserve">1.33722734451294</t>
   </si>
   <si>
     <t xml:space="preserve">1.34979248046875</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.33193647861481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3405339717865</t>
+    <t xml:space="preserve">1.34053385257721</t>
   </si>
   <si>
     <t xml:space="preserve">1.32267773151398</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">1.364342212677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35309934616089</t>
+    <t xml:space="preserve">1.3530992269516</t>
   </si>
   <si>
     <t xml:space="preserve">1.36301946640015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30548310279846</t>
+    <t xml:space="preserve">1.30548298358917</t>
   </si>
   <si>
     <t xml:space="preserve">1.3233391046524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28961086273193</t>
+    <t xml:space="preserve">1.28961074352264</t>
   </si>
   <si>
     <t xml:space="preserve">1.29060280323029</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">1.30746698379517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28200542926788</t>
+    <t xml:space="preserve">1.28200531005859</t>
   </si>
   <si>
     <t xml:space="preserve">1.28498148918152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26811730861664</t>
+    <t xml:space="preserve">1.26811718940735</t>
   </si>
   <si>
     <t xml:space="preserve">1.30713629722595</t>
@@ -1670,13 +1670,13 @@
     <t xml:space="preserve">1.30845892429352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34185671806335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3749235868454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36963272094727</t>
+    <t xml:space="preserve">1.34185659885406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37492346763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36963284015656</t>
   </si>
   <si>
     <t xml:space="preserve">1.38881158828735</t>
@@ -1685,16 +1685,16 @@
     <t xml:space="preserve">1.40402233600616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41261970996857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42716932296753</t>
+    <t xml:space="preserve">1.41261982917786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42716944217682</t>
   </si>
   <si>
     <t xml:space="preserve">1.39807033538818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4265079498291</t>
+    <t xml:space="preserve">1.42650783061981</t>
   </si>
   <si>
     <t xml:space="preserve">1.44502532482147</t>
@@ -1703,43 +1703,43 @@
     <t xml:space="preserve">1.44833219051361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45362293720245</t>
+    <t xml:space="preserve">1.45362281799316</t>
   </si>
   <si>
     <t xml:space="preserve">1.44304132461548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44965493679047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47081744670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48735094070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47214031219482</t>
+    <t xml:space="preserve">1.44965469837189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47081756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48735117912292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47214043140411</t>
   </si>
   <si>
     <t xml:space="preserve">1.47147881984711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46817243099213</t>
+    <t xml:space="preserve">1.46817231178284</t>
   </si>
   <si>
     <t xml:space="preserve">1.4417188167572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43642795085907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43576681613922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43907332420349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4073292016983</t>
+    <t xml:space="preserve">1.43642783164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43576669692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43907344341278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40732908248901</t>
   </si>
   <si>
     <t xml:space="preserve">1.36169672012329</t>
@@ -1757,28 +1757,28 @@
     <t xml:space="preserve">1.4351053237915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43444406986237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43047606945038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43775057792664</t>
+    <t xml:space="preserve">1.43444383144379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43047595024109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43775069713593</t>
   </si>
   <si>
     <t xml:space="preserve">1.44105732440948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43179869651794</t>
+    <t xml:space="preserve">1.43179857730865</t>
   </si>
   <si>
     <t xml:space="preserve">1.45230031013489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45957493782043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46023619174957</t>
+    <t xml:space="preserve">1.45957505702972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46023631095886</t>
   </si>
   <si>
     <t xml:space="preserve">1.47280156612396</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">1.4761084318161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46883368492126</t>
+    <t xml:space="preserve">1.46883356571198</t>
   </si>
   <si>
     <t xml:space="preserve">1.45825219154358</t>
@@ -1799,49 +1799,49 @@
     <t xml:space="preserve">1.49065780639648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50322341918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50586843490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562891483307</t>
+    <t xml:space="preserve">1.50322318077087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5058685541153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562867641449</t>
   </si>
   <si>
     <t xml:space="preserve">1.56208229064941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56075966358185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57530903816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57332503795624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5640664100647</t>
+    <t xml:space="preserve">1.56075954437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57530915737152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57332515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56406629085541</t>
   </si>
   <si>
     <t xml:space="preserve">1.5772932767868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58985865116119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58655166625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60374665260315</t>
+    <t xml:space="preserve">1.58985888957977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58655190467834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60374677181244</t>
   </si>
   <si>
     <t xml:space="preserve">1.60837602615356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59713339805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61168277263641</t>
+    <t xml:space="preserve">1.59713315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6116828918457</t>
   </si>
   <si>
     <t xml:space="preserve">1.61102163791656</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">1.59250390529633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59779465198517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60308527946472</t>
+    <t xml:space="preserve">1.59779477119446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60308539867401</t>
   </si>
   <si>
     <t xml:space="preserve">1.60110139846802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61300551891327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61631238460541</t>
+    <t xml:space="preserve">1.61300539970398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61631226539612</t>
   </si>
   <si>
     <t xml:space="preserve">1.60771477222443</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">1.60176277160645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61432814598083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60573065280914</t>
+    <t xml:space="preserve">1.61432802677155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60573077201843</t>
   </si>
   <si>
     <t xml:space="preserve">1.61565089225769</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.61498951911926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61829626560211</t>
+    <t xml:space="preserve">1.61829614639282</t>
   </si>
   <si>
     <t xml:space="preserve">1.62160277366638</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">1.56671178340912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54554903507233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60506951808929</t>
+    <t xml:space="preserve">1.54554879665375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60506963729858</t>
   </si>
   <si>
     <t xml:space="preserve">1.63350701332092</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">1.62689363956451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62970471382141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916303634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143290996552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294214725494</t>
+    <t xml:space="preserve">1.62970459461212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916315555573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143279075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294226646423</t>
   </si>
   <si>
     <t xml:space="preserve">1.60721623897552</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">1.59456670284271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57629489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52991235256195</t>
+    <t xml:space="preserve">1.57629477977753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991259098053</t>
   </si>
   <si>
     <t xml:space="preserve">1.53904843330383</t>
@@ -1952,52 +1952,52 @@
     <t xml:space="preserve">1.54748141765594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53061521053314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53412902355194</t>
+    <t xml:space="preserve">1.53061532974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53412926197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.53764283657074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54537332057953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54607582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53272342681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55732023715973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52920973300934</t>
+    <t xml:space="preserve">1.54537320137024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54607594013214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53272366523743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55732035636902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52920985221863</t>
   </si>
   <si>
     <t xml:space="preserve">1.52358770370483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56153678894043</t>
+    <t xml:space="preserve">1.56153666973114</t>
   </si>
   <si>
     <t xml:space="preserve">1.56575322151184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57207822799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59526932239532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58964729309082</t>
+    <t xml:space="preserve">1.57207810878754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59526920318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58964717388153</t>
   </si>
   <si>
     <t xml:space="preserve">1.58753895759583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57137537002563</t>
+    <t xml:space="preserve">1.57137548923492</t>
   </si>
   <si>
     <t xml:space="preserve">1.61494672298431</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">1.61283838748932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63884043693542</t>
+    <t xml:space="preserve">1.63884055614471</t>
   </si>
   <si>
     <t xml:space="preserve">1.64797639846802</t>
@@ -2018,22 +2018,22 @@
     <t xml:space="preserve">1.63111042976379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63743507862091</t>
+    <t xml:space="preserve">1.63743495941162</t>
   </si>
   <si>
     <t xml:space="preserve">1.65992331504822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66273438930511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66203165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67327582836151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68100619316101</t>
+    <t xml:space="preserve">1.66273427009583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66203153133392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67327606678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68100607395172</t>
   </si>
   <si>
     <t xml:space="preserve">1.6781952381134</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">1.65008473396301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6992781162262</t>
+    <t xml:space="preserve">1.69927787780762</t>
   </si>
   <si>
     <t xml:space="preserve">1.6887366771698</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.69225037097931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64727389812469</t>
+    <t xml:space="preserve">1.64727377891541</t>
   </si>
   <si>
     <t xml:space="preserve">1.6550041437149</t>
@@ -2060,31 +2060,31 @@
     <t xml:space="preserve">1.6943587064743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66062617301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62127149105072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60089159011841</t>
+    <t xml:space="preserve">1.66062593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62127137184143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60089147090912</t>
   </si>
   <si>
     <t xml:space="preserve">1.60510802268982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61354124546051</t>
+    <t xml:space="preserve">1.61354112625122</t>
   </si>
   <si>
     <t xml:space="preserve">1.57488930225372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59667503833771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55661737918854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55169808864594</t>
+    <t xml:space="preserve">1.59667491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55661725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55169820785522</t>
   </si>
   <si>
     <t xml:space="preserve">1.58472800254822</t>
@@ -2096,28 +2096,25 @@
     <t xml:space="preserve">1.62478530406952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60018849372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59948575496674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63251566886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62619078159332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6268937587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321828842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6430572271347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65851783752441</t>
+    <t xml:space="preserve">1.60018861293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59948587417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63251578807831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62619090080261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63321840763092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64305710792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65851771831512</t>
   </si>
   <si>
     <t xml:space="preserve">1.67960095405579</t>
@@ -2126,16 +2123,16 @@
     <t xml:space="preserve">1.70208919048309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69857537746429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6971697807312</t>
+    <t xml:space="preserve">1.69857549667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69716954231262</t>
   </si>
   <si>
     <t xml:space="preserve">1.6845201253891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69084489345551</t>
+    <t xml:space="preserve">1.69084465503693</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133332490921</t>
@@ -2144,7 +2141,7 @@
     <t xml:space="preserve">1.6901421546936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69154787063599</t>
+    <t xml:space="preserve">1.69154798984528</t>
   </si>
   <si>
     <t xml:space="preserve">1.68381726741791</t>
@@ -2153,7 +2150,7 @@
     <t xml:space="preserve">1.69646716117859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70560300350189</t>
+    <t xml:space="preserve">1.70560312271118</t>
   </si>
   <si>
     <t xml:space="preserve">1.71473896503448</t>
@@ -2162,7 +2159,7 @@
     <t xml:space="preserve">1.7013863325119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6676539182663</t>
+    <t xml:space="preserve">1.66765379905701</t>
   </si>
   <si>
     <t xml:space="preserve">1.6662483215332</t>
@@ -2171,28 +2168,28 @@
     <t xml:space="preserve">1.65570676326752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66976201534271</t>
+    <t xml:space="preserve">1.669762134552</t>
   </si>
   <si>
     <t xml:space="preserve">1.6866283416748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71755003929138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7049001455307</t>
+    <t xml:space="preserve">1.71754992008209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70490026473999</t>
   </si>
   <si>
     <t xml:space="preserve">1.72317183017731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73793005943298</t>
+    <t xml:space="preserve">1.73792994022369</t>
   </si>
   <si>
     <t xml:space="preserve">1.76885151863098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77095973491669</t>
+    <t xml:space="preserve">1.77095985412598</t>
   </si>
   <si>
     <t xml:space="preserve">1.76744604110718</t>
@@ -2201,106 +2198,106 @@
     <t xml:space="preserve">1.77939295768738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76814889907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77447366714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78220403194427</t>
+    <t xml:space="preserve">1.76814877986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77447354793549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78220391273499</t>
   </si>
   <si>
     <t xml:space="preserve">1.77236533164978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7576071023941</t>
+    <t xml:space="preserve">1.75760698318481</t>
   </si>
   <si>
     <t xml:space="preserve">1.78431236743927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78782606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79204249382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80258405208588</t>
+    <t xml:space="preserve">1.7878258228302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79204261302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80258393287659</t>
   </si>
   <si>
     <t xml:space="preserve">1.83280277252197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82858633995056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842492103577</t>
+    <t xml:space="preserve">1.82858622074127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842504024506</t>
   </si>
   <si>
     <t xml:space="preserve">1.87075197696686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85599410533905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84756064414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86091303825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82788348197937</t>
+    <t xml:space="preserve">1.85599398612976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84756088256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86091327667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82788360118866</t>
   </si>
   <si>
     <t xml:space="preserve">1.82155883312225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84123587608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83772230148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85388576984406</t>
+    <t xml:space="preserve">1.84123575687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83772206306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85388565063477</t>
   </si>
   <si>
     <t xml:space="preserve">1.86021053791046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86442732810974</t>
+    <t xml:space="preserve">1.86442708969116</t>
   </si>
   <si>
     <t xml:space="preserve">1.85739946365356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81593668460846</t>
+    <t xml:space="preserve">1.81593656539917</t>
   </si>
   <si>
     <t xml:space="preserve">1.79133999347687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81804478168488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8110169172287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79696190357208</t>
+    <t xml:space="preserve">1.81804466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81101703643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79696178436279</t>
   </si>
   <si>
     <t xml:space="preserve">1.79907023906708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7941507101059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80680072307587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82436978816986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87918508052826</t>
+    <t xml:space="preserve">1.79415106773376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80680048465729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82436966896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87918531894684</t>
   </si>
   <si>
     <t xml:space="preserve">1.87356305122375</t>
@@ -2315,10 +2312,10 @@
     <t xml:space="preserve">1.87637412548065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83912801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82015311717987</t>
+    <t xml:space="preserve">1.83912777900696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82015287876129</t>
   </si>
   <si>
     <t xml:space="preserve">1.81312549114227</t>
@@ -2330,28 +2327,28 @@
     <t xml:space="preserve">1.80539524555206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81523382663727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047595500946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78642070293427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77587890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75057971477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74917423725128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75339066982269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75690448284149</t>
+    <t xml:space="preserve">1.81523358821869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047583580017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78642046451569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77587926387787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7505795955658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74917411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75339043140411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75690484046936</t>
   </si>
   <si>
     <t xml:space="preserve">1.75831007957458</t>
@@ -2360,55 +2357,55 @@
     <t xml:space="preserve">1.73230803012848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74144375324249</t>
+    <t xml:space="preserve">1.7414436340332</t>
   </si>
   <si>
     <t xml:space="preserve">1.71895551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73722720146179</t>
+    <t xml:space="preserve">1.73722696304321</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598326206207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70068383216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68592536449432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7126305103302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73160493373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71825265884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74214661121368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74847137928009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82507252693176</t>
+    <t xml:space="preserve">1.70068371295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6859256029129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71263062953949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73160517215729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7182525396347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74847149848938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82507228851318</t>
   </si>
   <si>
     <t xml:space="preserve">1.84685814380646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85950767993927</t>
+    <t xml:space="preserve">1.85950779914856</t>
   </si>
   <si>
     <t xml:space="preserve">1.69365620613098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63462388515472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57980859279633</t>
+    <t xml:space="preserve">1.63462400436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57980847358704</t>
   </si>
   <si>
     <t xml:space="preserve">1.55591475963593</t>
@@ -2417,7 +2414,7 @@
     <t xml:space="preserve">1.52499318122864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50953233242035</t>
+    <t xml:space="preserve">1.50953245162964</t>
   </si>
   <si>
     <t xml:space="preserve">1.45050024986267</t>
@@ -2429,7 +2426,7 @@
     <t xml:space="preserve">1.3001092672348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28043210506439</t>
+    <t xml:space="preserve">1.2804319858551</t>
   </si>
   <si>
     <t xml:space="preserve">1.27164745330811</t>
@@ -2438,16 +2435,16 @@
     <t xml:space="preserve">1.19469511508942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25970077514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2663768529892</t>
+    <t xml:space="preserve">1.25970065593719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637697219849</t>
   </si>
   <si>
     <t xml:space="preserve">1.32540881633759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530493736267</t>
+    <t xml:space="preserve">1.37530481815338</t>
   </si>
   <si>
     <t xml:space="preserve">1.43855345249176</t>
@@ -2459,13 +2456,13 @@
     <t xml:space="preserve">1.41676783561707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48423302173615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48844957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57559204101562</t>
+    <t xml:space="preserve">1.48423290252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48844969272614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57559216022491</t>
   </si>
   <si>
     <t xml:space="preserve">1.53975117206573</t>
@@ -2483,16 +2480,16 @@
     <t xml:space="preserve">1.55310368537903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61635208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229682922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61213564872742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54045403003693</t>
+    <t xml:space="preserve">1.61635231971741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229694843292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61213576793671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54045379161835</t>
   </si>
   <si>
     <t xml:space="preserve">1.51234352588654</t>
@@ -2504,7 +2501,7 @@
     <t xml:space="preserve">1.53483188152313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57699763774872</t>
+    <t xml:space="preserve">1.57699751853943</t>
   </si>
   <si>
     <t xml:space="preserve">1.54326510429382</t>
@@ -2516,10 +2513,10 @@
     <t xml:space="preserve">1.59761190414429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47028791904449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46498274803162</t>
+    <t xml:space="preserve">1.47028815746307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498286724091</t>
   </si>
   <si>
     <t xml:space="preserve">1.45664608478546</t>
@@ -2531,7 +2528,7 @@
     <t xml:space="preserve">1.51272928714752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53091835975647</t>
+    <t xml:space="preserve">1.53091847896576</t>
   </si>
   <si>
     <t xml:space="preserve">1.54759180545807</t>
@@ -2540,7 +2537,7 @@
     <t xml:space="preserve">1.56881237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51879227161407</t>
+    <t xml:space="preserve">1.51879239082336</t>
   </si>
   <si>
     <t xml:space="preserve">1.55365478992462</t>
@@ -2552,16 +2549,16 @@
     <t xml:space="preserve">1.64460051059723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66733694076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72341990470886</t>
+    <t xml:space="preserve">1.66733682155609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72342002391815</t>
   </si>
   <si>
     <t xml:space="preserve">1.71129393577576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65975797176361</t>
+    <t xml:space="preserve">1.65975821018219</t>
   </si>
   <si>
     <t xml:space="preserve">1.64005327224731</t>
@@ -2570,16 +2567,16 @@
     <t xml:space="preserve">1.60670626163483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61125349998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5854856967926</t>
+    <t xml:space="preserve">1.61125361919403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58548581600189</t>
   </si>
   <si>
     <t xml:space="preserve">1.63853740692139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61883246898651</t>
+    <t xml:space="preserve">1.61883234977722</t>
   </si>
   <si>
     <t xml:space="preserve">1.62337970733643</t>
@@ -2618,43 +2615,43 @@
     <t xml:space="preserve">1.65672647953033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63399016857147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6355060338974</t>
+    <t xml:space="preserve">1.63399004936218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63550591468811</t>
   </si>
   <si>
     <t xml:space="preserve">1.62489557266235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65217924118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64914774894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6552107334137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63247418403625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64611625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580085754395</t>
+    <t xml:space="preserve">1.65217936038971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64914786815643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65521085262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63247430324554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64611601829529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580109596252</t>
   </si>
   <si>
     <t xml:space="preserve">1.70977807044983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69765198230743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946302890778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432554721832</t>
+    <t xml:space="preserve">1.69765210151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946314811707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432530879974</t>
   </si>
   <si>
     <t xml:space="preserve">1.83407056331635</t>
@@ -2663,13 +2660,13 @@
     <t xml:space="preserve">1.8568069934845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83558619022369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8280074596405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80678689479828</t>
+    <t xml:space="preserve">1.83558630943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82800734043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80678701400757</t>
   </si>
   <si>
     <t xml:space="preserve">1.80981838703156</t>
@@ -2678,13 +2675,13 @@
     <t xml:space="preserve">1.84164941310883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84013342857361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377538204193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85832273960114</t>
+    <t xml:space="preserve">1.8401335477829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377562046051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85832262039185</t>
   </si>
   <si>
     <t xml:space="preserve">1.83710193634033</t>
@@ -2696,10 +2693,10 @@
     <t xml:space="preserve">1.82194459438324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81891310214996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859746456146</t>
+    <t xml:space="preserve">1.81891298294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859758377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.76434540748596</t>
@@ -2717,16 +2714,16 @@
     <t xml:space="preserve">1.82649183273315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81739735603333</t>
+    <t xml:space="preserve">1.81739723682404</t>
   </si>
   <si>
     <t xml:space="preserve">1.80527102947235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75979816913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76282966136932</t>
+    <t xml:space="preserve">1.75979828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76282978057861</t>
   </si>
   <si>
     <t xml:space="preserve">1.7173570394516</t>
@@ -2735,7 +2732,7 @@
     <t xml:space="preserve">1.73099863529205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69007337093353</t>
+    <t xml:space="preserve">1.69007313251495</t>
   </si>
   <si>
     <t xml:space="preserve">1.69310474395752</t>
@@ -2744,19 +2741,19 @@
     <t xml:space="preserve">1.68704187870026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68552613258362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67491579055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371496677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71584129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68401002883911</t>
+    <t xml:space="preserve">1.68552589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67491590976715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371508598328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71584105491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6840101480484</t>
   </si>
   <si>
     <t xml:space="preserve">1.66278970241547</t>
@@ -2783,10 +2780,10 @@
     <t xml:space="preserve">1.48620343208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51121354103088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55062317848206</t>
+    <t xml:space="preserve">1.51121342182159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55062329769135</t>
   </si>
   <si>
     <t xml:space="preserve">1.57032811641693</t>
@@ -2813,19 +2810,19 @@
     <t xml:space="preserve">1.72190427780151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73706185817719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73403036594391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74767208099365</t>
+    <t xml:space="preserve">1.73706197738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73403024673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74767231941223</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221943855286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73251450061798</t>
+    <t xml:space="preserve">1.73251461982727</t>
   </si>
   <si>
     <t xml:space="preserve">1.72493577003479</t>
@@ -2834,16 +2831,16 @@
     <t xml:space="preserve">1.6885575056076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72796726226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69613635540009</t>
+    <t xml:space="preserve">1.72796738147736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6961362361908</t>
   </si>
   <si>
     <t xml:space="preserve">1.67643129825592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65066349506378</t>
+    <t xml:space="preserve">1.65066361427307</t>
   </si>
   <si>
     <t xml:space="preserve">1.67794704437256</t>
@@ -2852,46 +2849,46 @@
     <t xml:space="preserve">1.6643054485321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66127371788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66582107543945</t>
+    <t xml:space="preserve">1.66127359867096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66582095623016</t>
   </si>
   <si>
     <t xml:space="preserve">1.67339980602264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67036843299866</t>
+    <t xml:space="preserve">1.67036831378937</t>
   </si>
   <si>
     <t xml:space="preserve">1.70219933986664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60822212696075</t>
+    <t xml:space="preserve">1.60822200775146</t>
   </si>
   <si>
     <t xml:space="preserve">1.79011356830597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79617655277252</t>
+    <t xml:space="preserve">1.79617643356323</t>
   </si>
   <si>
     <t xml:space="preserve">1.89470088481903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9022798538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87196469306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81436562538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85225975513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135423183441</t>
+    <t xml:space="preserve">1.90227961540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87196457386017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81436574459076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.852259516716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135447025299</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105928897858</t>
@@ -2903,19 +2900,19 @@
     <t xml:space="preserve">1.89166927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89015352725983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90531146526337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90834259986877</t>
+    <t xml:space="preserve">1.89015376567841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90531122684479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90834271907806</t>
   </si>
   <si>
     <t xml:space="preserve">1.90379559993744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88409078121185</t>
+    <t xml:space="preserve">1.88409066200256</t>
   </si>
   <si>
     <t xml:space="preserve">1.90682697296143</t>
@@ -2924,7 +2921,7 @@
     <t xml:space="preserve">1.93411099910736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91895306110382</t>
+    <t xml:space="preserve">1.9189532995224</t>
   </si>
   <si>
     <t xml:space="preserve">1.9144059419632</t>
@@ -2933,7 +2930,7 @@
     <t xml:space="preserve">1.91137433052063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91592168807983</t>
+    <t xml:space="preserve">1.91592144966125</t>
   </si>
   <si>
     <t xml:space="preserve">1.93714213371277</t>
@@ -2945,22 +2942,22 @@
     <t xml:space="preserve">1.94320523738861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93562650680542</t>
+    <t xml:space="preserve">1.93562626838684</t>
   </si>
   <si>
     <t xml:space="preserve">1.94623684883118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95078420639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92653203010559</t>
+    <t xml:space="preserve">1.9507839679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92653179168701</t>
   </si>
   <si>
     <t xml:space="preserve">1.96139442920685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97655236721039</t>
+    <t xml:space="preserve">1.97655212879181</t>
   </si>
   <si>
     <t xml:space="preserve">1.97048878669739</t>
@@ -2975,10 +2972,10 @@
     <t xml:space="preserve">1.9795835018158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97503638267517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98564660549164</t>
+    <t xml:space="preserve">1.97503614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98564636707306</t>
   </si>
   <si>
     <t xml:space="preserve">1.99474120140076</t>
@@ -2987,10 +2984,10 @@
     <t xml:space="preserve">1.98716247081757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.984130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95987868309021</t>
+    <t xml:space="preserve">1.98413109779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95987844467163</t>
   </si>
   <si>
     <t xml:space="preserve">1.99170958995819</t>
@@ -3002,28 +2999,28 @@
     <t xml:space="preserve">2.01293015480042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03869819641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03566694259644</t>
+    <t xml:space="preserve">2.03869843482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03566670417786</t>
   </si>
   <si>
     <t xml:space="preserve">2.04627704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05385589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05082416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07204484939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06446623802185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04324579238892</t>
+    <t xml:space="preserve">2.05385565757751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05082440376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07204508781433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06446599960327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04324555397034</t>
   </si>
   <si>
     <t xml:space="preserve">2.03718256950378</t>
@@ -3032,13 +3029,13 @@
     <t xml:space="preserve">2.06598210334778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09042167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02850723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99266231060028</t>
+    <t xml:space="preserve">2.09042191505432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02850747108459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99266254901886</t>
   </si>
   <si>
     <t xml:space="preserve">1.98777437210083</t>
@@ -3053,7 +3050,7 @@
     <t xml:space="preserve">2.03991270065308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04480075836182</t>
+    <t xml:space="preserve">2.04480051994324</t>
   </si>
   <si>
     <t xml:space="preserve">2.0464301109314</t>
@@ -3068,28 +3065,28 @@
     <t xml:space="preserve">2.03665399551392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03176593780518</t>
+    <t xml:space="preserve">2.03176617622375</t>
   </si>
   <si>
     <t xml:space="preserve">2.02036094665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02524900436401</t>
+    <t xml:space="preserve">2.02524876594543</t>
   </si>
   <si>
     <t xml:space="preserve">2.02687811851501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01221442222595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99755036830902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94215333461761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94867062568665</t>
+    <t xml:space="preserve">2.01221418380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99755024909973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9421534538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94867050647736</t>
   </si>
   <si>
     <t xml:space="preserve">1.9242308139801</t>
@@ -3098,19 +3095,19 @@
     <t xml:space="preserve">1.94052398204803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93726539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92748939990997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99429166316986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98288643360138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.961705327034</t>
+    <t xml:space="preserve">1.93726551532745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92748928070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99429178237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98288655281067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96170520782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.96333467960358</t>
@@ -3119,13 +3116,13 @@
     <t xml:space="preserve">1.94541192054749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88675630092621</t>
+    <t xml:space="preserve">1.88675618171692</t>
   </si>
   <si>
     <t xml:space="preserve">1.91282558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9160840511322</t>
+    <t xml:space="preserve">1.91608428955078</t>
   </si>
   <si>
     <t xml:space="preserve">1.90630805492401</t>
@@ -3137,25 +3134,25 @@
     <t xml:space="preserve">1.88349771499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92097222805023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.934006690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90956699848175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92586040496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92260122299194</t>
+    <t xml:space="preserve">1.92097210884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93400657176971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90956687927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92586028575897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92260134220123</t>
   </si>
   <si>
     <t xml:space="preserve">1.92911875247955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01384353637695</t>
+    <t xml:space="preserve">2.01384329795837</t>
   </si>
   <si>
     <t xml:space="preserve">2.02199029922485</t>
@@ -3167,25 +3164,25 @@
     <t xml:space="preserve">2.00732612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98940372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99103307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00243830680847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98451602458954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98614513874054</t>
+    <t xml:space="preserve">1.98940360546112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99103283882141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00243806838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98451590538025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98614490032196</t>
   </si>
   <si>
     <t xml:space="preserve">1.9714812040329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96985173225403</t>
+    <t xml:space="preserve">1.96985185146332</t>
   </si>
   <si>
     <t xml:space="preserve">1.93563604354858</t>
@@ -3194,16 +3191,16 @@
     <t xml:space="preserve">1.96007573604584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95029985904694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91445469856262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93889462947845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97799825668335</t>
+    <t xml:space="preserve">1.95029997825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91445481777191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93889474868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97799837589264</t>
   </si>
   <si>
     <t xml:space="preserve">1.95844674110413</t>
@@ -3230,37 +3227,37 @@
     <t xml:space="preserve">2.04154205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05294728279114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06272315979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05946469306946</t>
+    <t xml:space="preserve">2.05294752120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06272339820862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05946445465088</t>
   </si>
   <si>
     <t xml:space="preserve">2.05783534049988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07412838935852</t>
+    <t xml:space="preserve">2.0741286277771</t>
   </si>
   <si>
     <t xml:space="preserve">2.06924057006836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0562059879303</t>
+    <t xml:space="preserve">2.05620574951172</t>
   </si>
   <si>
     <t xml:space="preserve">2.01710224151611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96496379375458</t>
+    <t xml:space="preserve">1.96496367454529</t>
   </si>
   <si>
     <t xml:space="preserve">1.95192921161652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00080895423889</t>
+    <t xml:space="preserve">2.00080919265747</t>
   </si>
   <si>
     <t xml:space="preserve">1.99592101573944</t>
@@ -3272,21 +3269,24 @@
     <t xml:space="preserve">1.97636914253235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06435251235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05131769180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08064579963684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07086992263794</t>
+    <t xml:space="preserve">2.0643527507782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05131793022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08064556121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07086968421936</t>
   </si>
   <si>
     <t xml:space="preserve">2.07738709449768</t>
   </si>
   <si>
+    <t xml:space="preserve">2.0659818649292</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.0936803817749</t>
   </si>
   <si>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">2.10834431648254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10508561134338</t>
+    <t xml:space="preserve">2.10508584976196</t>
   </si>
   <si>
     <t xml:space="preserve">2.08879232406616</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">2.07575798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12137889862061</t>
+    <t xml:space="preserve">2.12137913703918</t>
   </si>
   <si>
     <t xml:space="preserve">2.12626671791077</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">2.11974954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1018271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09693908691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04805946350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95518803596497</t>
+    <t xml:space="preserve">2.10182690620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09693884849548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0480592250824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95518791675568</t>
   </si>
   <si>
     <t xml:space="preserve">1.97962784767151</t>
@@ -3344,22 +3344,22 @@
     <t xml:space="preserve">1.77107441425323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87046313285828</t>
+    <t xml:space="preserve">1.87046301364899</t>
   </si>
   <si>
     <t xml:space="preserve">1.97473967075348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00569677352905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10997343063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14744782447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13278412818909</t>
+    <t xml:space="preserve">2.00569701194763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10997366905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14744806289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13278436660767</t>
   </si>
   <si>
     <t xml:space="preserve">2.14256024360657</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">2.18166375160217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18818140029907</t>
+    <t xml:space="preserve">2.18818116188049</t>
   </si>
   <si>
     <t xml:space="preserve">2.19795703887939</t>
@@ -3380,28 +3380,28 @@
     <t xml:space="preserve">2.16211199760437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18003463745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17840552330017</t>
+    <t xml:space="preserve">2.18003487586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17840528488159</t>
   </si>
   <si>
     <t xml:space="preserve">2.19958639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20284485816956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20447421073914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19632792472839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19143962860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16862916946411</t>
+    <t xml:space="preserve">2.20284509658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20447444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19632768630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19143986701965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16862940788269</t>
   </si>
   <si>
     <t xml:space="preserve">2.17677593231201</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">2.19306898117065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655180931091</t>
+    <t xml:space="preserve">2.18655157089233</t>
   </si>
   <si>
     <t xml:space="preserve">2.17025852203369</t>
@@ -3419,19 +3419,19 @@
     <t xml:space="preserve">2.20610380172729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13441348075867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21099185943604</t>
+    <t xml:space="preserve">2.13441324234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21099162101746</t>
   </si>
   <si>
     <t xml:space="preserve">2.14093065261841</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17351698875427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17514657974243</t>
+    <t xml:space="preserve">2.17351722717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17514634132385</t>
   </si>
   <si>
     <t xml:space="preserve">2.24531245231628</t>
@@ -28816,7 +28816,7 @@
         <v>2.31500005722046</v>
       </c>
       <c r="G935" t="s">
-        <v>698</v>
+        <v>633</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>2.32399988174438</v>
       </c>
       <c r="G936" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G937" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G938" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28920,7 +28920,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G939" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28946,7 +28946,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>2.41700005531311</v>
       </c>
       <c r="G942" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29024,7 +29024,7 @@
         <v>2.41499996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>2.3970000743866</v>
       </c>
       <c r="G944" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29076,7 +29076,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G945" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G946" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G947" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G948" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>2.40700006484985</v>
       </c>
       <c r="G949" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29206,7 +29206,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G950" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29232,7 +29232,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G951" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29258,7 +29258,7 @@
         <v>2.42700004577637</v>
       </c>
       <c r="G952" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29284,7 +29284,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G953" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29310,7 +29310,7 @@
         <v>2.4210000038147</v>
       </c>
       <c r="G954" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29336,7 +29336,7 @@
         <v>2.37299990653992</v>
       </c>
       <c r="G955" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29362,7 +29362,7 @@
         <v>2.37299990653992</v>
       </c>
       <c r="G956" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29414,7 +29414,7 @@
         <v>2.37100005149841</v>
       </c>
       <c r="G958" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29440,7 +29440,7 @@
         <v>2.35599994659424</v>
       </c>
       <c r="G959" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29466,7 +29466,7 @@
         <v>2.37599992752075</v>
       </c>
       <c r="G960" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29492,7 +29492,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G961" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29518,7 +29518,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G962" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29544,7 +29544,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G963" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29570,7 +29570,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G964" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29596,7 +29596,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G965" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29622,7 +29622,7 @@
         <v>2.47300004959106</v>
       </c>
       <c r="G966" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29648,7 +29648,7 @@
         <v>2.51699995994568</v>
       </c>
       <c r="G967" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29674,7 +29674,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29700,7 +29700,7 @@
         <v>2.51500010490417</v>
       </c>
       <c r="G969" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29726,7 +29726,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G970" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29752,7 +29752,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G971" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29778,7 +29778,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G972" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29804,7 +29804,7 @@
         <v>2.52500009536743</v>
       </c>
       <c r="G973" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29830,7 +29830,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G974" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29856,7 +29856,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G975" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29882,7 +29882,7 @@
         <v>2.50099992752075</v>
       </c>
       <c r="G976" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29908,7 +29908,7 @@
         <v>2.53900003433228</v>
       </c>
       <c r="G977" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29934,7 +29934,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G978" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29960,7 +29960,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G979" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29986,7 +29986,7 @@
         <v>2.56500005722046</v>
       </c>
       <c r="G980" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30012,7 +30012,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G981" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G982" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G983" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30090,7 +30090,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G984" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30116,7 +30116,7 @@
         <v>2.64100003242493</v>
       </c>
       <c r="G985" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30142,7 +30142,7 @@
         <v>2.62899994850159</v>
       </c>
       <c r="G986" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30168,7 +30168,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G987" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30194,7 +30194,7 @@
         <v>2.6010000705719</v>
       </c>
       <c r="G988" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30220,7 +30220,7 @@
         <v>2.59200000762939</v>
       </c>
       <c r="G989" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30246,7 +30246,7 @@
         <v>2.6010000705719</v>
       </c>
       <c r="G990" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G991" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G992" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>2.61500000953674</v>
       </c>
       <c r="G993" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>2.63800001144409</v>
       </c>
       <c r="G994" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30376,7 +30376,7 @@
         <v>2.6470000743866</v>
       </c>
       <c r="G995" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30402,7 +30402,7 @@
         <v>2.65300011634827</v>
       </c>
       <c r="G996" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>2.64299988746643</v>
       </c>
       <c r="G997" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30454,7 +30454,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G998" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>2.54900002479553</v>
       </c>
       <c r="G999" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30506,7 +30506,7 @@
         <v>2.58699989318848</v>
       </c>
       <c r="G1000" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30532,7 +30532,7 @@
         <v>2.57699990272522</v>
       </c>
       <c r="G1001" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30558,7 +30558,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1002" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30584,7 +30584,7 @@
         <v>2.55699992179871</v>
       </c>
       <c r="G1003" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30610,7 +30610,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1004" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30636,7 +30636,7 @@
         <v>2.55299997329712</v>
       </c>
       <c r="G1005" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30662,7 +30662,7 @@
         <v>2.57100009918213</v>
       </c>
       <c r="G1006" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30688,7 +30688,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1007" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30714,7 +30714,7 @@
         <v>2.6470000743866</v>
       </c>
       <c r="G1008" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30740,7 +30740,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G1009" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30766,7 +30766,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G1010" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30792,7 +30792,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1011" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30818,7 +30818,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G1012" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30844,7 +30844,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30870,7 +30870,7 @@
         <v>2.61700010299683</v>
       </c>
       <c r="G1014" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30896,7 +30896,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1015" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -30922,7 +30922,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30948,7 +30948,7 @@
         <v>2.55100011825562</v>
       </c>
       <c r="G1017" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30974,7 +30974,7 @@
         <v>2.55299997329712</v>
       </c>
       <c r="G1018" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31000,7 +31000,7 @@
         <v>2.59200000762939</v>
       </c>
       <c r="G1019" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31026,7 +31026,7 @@
         <v>2.56900000572205</v>
       </c>
       <c r="G1020" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31052,7 +31052,7 @@
         <v>2.58299994468689</v>
       </c>
       <c r="G1021" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31078,7 +31078,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G1022" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31104,7 +31104,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1023" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31130,7 +31130,7 @@
         <v>2.52699995040894</v>
       </c>
       <c r="G1024" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31156,7 +31156,7 @@
         <v>2.4909999370575</v>
       </c>
       <c r="G1025" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31182,7 +31182,7 @@
         <v>2.48900008201599</v>
       </c>
       <c r="G1026" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31208,7 +31208,7 @@
         <v>2.49499988555908</v>
       </c>
       <c r="G1027" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31234,7 +31234,7 @@
         <v>2.5</v>
       </c>
       <c r="G1028" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31260,7 +31260,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1029" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31286,7 +31286,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1030" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31312,7 +31312,7 @@
         <v>2.46499991416931</v>
       </c>
       <c r="G1031" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31338,7 +31338,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1032" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31364,7 +31364,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1033" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31390,7 +31390,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1034" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31416,7 +31416,7 @@
         <v>2.49499988555908</v>
       </c>
       <c r="G1035" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31442,7 +31442,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1036" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31468,7 +31468,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1037" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31494,7 +31494,7 @@
         <v>2.3989999294281</v>
       </c>
       <c r="G1038" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31520,7 +31520,7 @@
         <v>2.4210000038147</v>
       </c>
       <c r="G1039" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31546,7 +31546,7 @@
         <v>2.43700003623962</v>
       </c>
       <c r="G1040" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31572,7 +31572,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1041" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31598,7 +31598,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1042" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31624,7 +31624,7 @@
         <v>2.4449999332428</v>
       </c>
       <c r="G1043" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31650,7 +31650,7 @@
         <v>2.47900009155273</v>
       </c>
       <c r="G1044" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31676,7 +31676,7 @@
         <v>2.4909999370575</v>
       </c>
       <c r="G1045" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31702,7 +31702,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G1046" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31728,7 +31728,7 @@
         <v>2.59699988365173</v>
       </c>
       <c r="G1047" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31754,7 +31754,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1048" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31780,7 +31780,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G1049" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31806,7 +31806,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1050" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31832,7 +31832,7 @@
         <v>2.61700010299683</v>
       </c>
       <c r="G1051" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31858,7 +31858,7 @@
         <v>2.57100009918213</v>
       </c>
       <c r="G1052" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31884,7 +31884,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1053" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31910,7 +31910,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1054" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31936,7 +31936,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1055" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31962,7 +31962,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1056" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31988,7 +31988,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1057" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32014,7 +32014,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1058" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32040,7 +32040,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1059" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32066,7 +32066,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1060" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32092,7 +32092,7 @@
         <v>2.06399989128113</v>
       </c>
       <c r="G1061" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32118,7 +32118,7 @@
         <v>2.01099991798401</v>
       </c>
       <c r="G1062" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32144,7 +32144,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1063" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32170,7 +32170,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G1064" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32196,7 +32196,7 @@
         <v>1.80949997901917</v>
       </c>
       <c r="G1065" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32222,7 +32222,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1066" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32248,7 +32248,7 @@
         <v>1.79250001907349</v>
       </c>
       <c r="G1067" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32274,7 +32274,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G1068" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32300,7 +32300,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1069" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32326,7 +32326,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G1070" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32352,7 +32352,7 @@
         <v>2.04699993133545</v>
       </c>
       <c r="G1071" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32378,7 +32378,7 @@
         <v>2.05299997329712</v>
       </c>
       <c r="G1072" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32404,7 +32404,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G1073" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32430,7 +32430,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G1074" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32456,7 +32456,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G1075" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32482,7 +32482,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1076" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32508,7 +32508,7 @@
         <v>2.19099998474121</v>
       </c>
       <c r="G1077" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32534,7 +32534,7 @@
         <v>2.15100002288818</v>
       </c>
       <c r="G1078" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32560,7 +32560,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1079" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32586,7 +32586,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1080" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32612,7 +32612,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1081" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32638,7 +32638,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1082" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32664,7 +32664,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1083" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32690,7 +32690,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1084" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32716,7 +32716,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1085" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32742,7 +32742,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1086" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32768,7 +32768,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1087" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32794,7 +32794,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G1088" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32820,7 +32820,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G1089" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32846,7 +32846,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G1090" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32872,7 +32872,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1091" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32898,7 +32898,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1092" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1097" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33054,7 +33054,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1098" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33080,7 +33080,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1099" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33132,7 +33132,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1101" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33158,7 +33158,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1102" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33184,7 +33184,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1103" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33288,7 +33288,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1107" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33314,7 +33314,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1108" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33366,7 +33366,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G1110" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33392,7 +33392,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1111" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33418,7 +33418,7 @@
         <v>1.93299996852875</v>
       </c>
       <c r="G1112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33444,7 +33444,7 @@
         <v>1.92200005054474</v>
       </c>
       <c r="G1113" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33470,7 +33470,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G1114" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33496,7 +33496,7 @@
         <v>1.99600005149841</v>
       </c>
       <c r="G1115" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33522,7 +33522,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1116" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33548,7 +33548,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G1117" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33574,7 +33574,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1118" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33600,7 +33600,7 @@
         <v>2.00399994850159</v>
       </c>
       <c r="G1119" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33626,7 +33626,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1120" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33652,7 +33652,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1121" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33678,7 +33678,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1122" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33704,7 +33704,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33730,7 +33730,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1124" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33756,7 +33756,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G1125" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33782,7 +33782,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1126" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33808,7 +33808,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G1127" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33834,7 +33834,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1128" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33860,7 +33860,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1129" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33886,7 +33886,7 @@
         <v>2.09200000762939</v>
       </c>
       <c r="G1130" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33912,7 +33912,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G1131" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33938,7 +33938,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G1132" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33964,7 +33964,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1133" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33990,7 +33990,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1134" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34016,7 +34016,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1135" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34042,7 +34042,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1136" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34068,7 +34068,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G1137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34094,7 +34094,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G1138" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34120,7 +34120,7 @@
         <v>2.10199999809265</v>
       </c>
       <c r="G1139" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34146,7 +34146,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1140" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34172,7 +34172,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1141" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34198,7 +34198,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1142" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34224,7 +34224,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1143" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34250,7 +34250,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1144" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34276,7 +34276,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1145" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34302,7 +34302,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1146" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34328,7 +34328,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G1147" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34354,7 +34354,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G1148" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34380,7 +34380,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1149" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34406,7 +34406,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1150" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34432,7 +34432,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G1151" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34458,7 +34458,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G1152" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34484,7 +34484,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1153" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34510,7 +34510,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1154" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34536,7 +34536,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1155" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34562,7 +34562,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1156" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34588,7 +34588,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1157" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34614,7 +34614,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1158" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34640,7 +34640,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1159" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34666,7 +34666,7 @@
         <v>2.15400004386902</v>
       </c>
       <c r="G1160" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34692,7 +34692,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1161" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34718,7 +34718,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1162" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34744,7 +34744,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G1163" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34770,7 +34770,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1164" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34796,7 +34796,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1165" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34822,7 +34822,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1166" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34848,7 +34848,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1167" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34874,7 +34874,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1168" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34900,7 +34900,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1169" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34926,7 +34926,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34952,7 +34952,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1171" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34978,7 +34978,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35004,7 +35004,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1173" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35030,7 +35030,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1174" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35056,7 +35056,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1175" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35082,7 +35082,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1176" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35108,7 +35108,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1177" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35134,7 +35134,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1178" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35160,7 +35160,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1179" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35186,7 +35186,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1180" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35212,7 +35212,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1181" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35238,7 +35238,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1182" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35264,7 +35264,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1183" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35290,7 +35290,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1184" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35316,7 +35316,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1185" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35342,7 +35342,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1186" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35368,7 +35368,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1187" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35394,7 +35394,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1188" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35420,7 +35420,7 @@
         <v>2.32800006866455</v>
       </c>
       <c r="G1189" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35446,7 +35446,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G1190" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35472,7 +35472,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1191" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35498,7 +35498,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1192" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35524,7 +35524,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1193" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35550,7 +35550,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1194" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35576,7 +35576,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1195" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35602,7 +35602,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1196" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35628,7 +35628,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G1197" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35654,7 +35654,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1198" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35680,7 +35680,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1199" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35706,7 +35706,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1200" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35732,7 +35732,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1201" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35758,7 +35758,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1202" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35784,7 +35784,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1203" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35810,7 +35810,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1204" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35836,7 +35836,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G1205" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35862,7 +35862,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G1206" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35888,7 +35888,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G1207" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35914,7 +35914,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1208" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35940,7 +35940,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35966,7 +35966,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1210" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35992,7 +35992,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1211" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36018,7 +36018,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1212" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36044,7 +36044,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1213" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36070,7 +36070,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36096,7 +36096,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1215" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36122,7 +36122,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1216" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36148,7 +36148,7 @@
         <v>2.15400004386902</v>
       </c>
       <c r="G1217" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36174,7 +36174,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1218" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36200,7 +36200,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1219" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36226,7 +36226,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G1220" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36252,7 +36252,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G1221" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36278,7 +36278,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G1222" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36330,7 +36330,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1224" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36356,7 +36356,7 @@
         <v>2.0239999294281</v>
       </c>
       <c r="G1225" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36382,7 +36382,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1226" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36408,7 +36408,7 @@
         <v>1.96899998188019</v>
       </c>
       <c r="G1227" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36434,7 +36434,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G1228" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36460,7 +36460,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G1229" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36486,7 +36486,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G1230" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36512,7 +36512,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G1231" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36538,7 +36538,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G1232" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36564,7 +36564,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1233" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36590,7 +36590,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36616,7 +36616,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36642,7 +36642,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36668,7 +36668,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36694,7 +36694,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1238" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36720,7 +36720,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G1239" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36746,7 +36746,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1240" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36772,7 +36772,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1241" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36798,7 +36798,7 @@
         <v>2.2720000743866</v>
       </c>
       <c r="G1242" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36824,7 +36824,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1243" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36850,7 +36850,7 @@
         <v>2.29200005531311</v>
       </c>
       <c r="G1244" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36876,7 +36876,7 @@
         <v>2.28800010681152</v>
       </c>
       <c r="G1245" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36902,7 +36902,7 @@
         <v>2.30599999427795</v>
       </c>
       <c r="G1246" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36928,7 +36928,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1247" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36954,7 +36954,7 @@
         <v>2.28600001335144</v>
       </c>
       <c r="G1248" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36980,7 +36980,7 @@
         <v>2.27600002288818</v>
       </c>
       <c r="G1249" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37006,7 +37006,7 @@
         <v>2.2279999256134</v>
       </c>
       <c r="G1250" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37032,7 +37032,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1251" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37058,7 +37058,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1252" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37084,7 +37084,7 @@
         <v>2.23799991607666</v>
       </c>
       <c r="G1253" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37110,7 +37110,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1254" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37136,7 +37136,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1255" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37162,7 +37162,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1256" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37188,7 +37188,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G1257" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37214,7 +37214,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G1258" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37240,7 +37240,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1259" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37266,7 +37266,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1260" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37292,7 +37292,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1261" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37318,7 +37318,7 @@
         <v>2.17799997329712</v>
       </c>
       <c r="G1262" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37344,7 +37344,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1263" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37370,7 +37370,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1264" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37396,7 +37396,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1265" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37422,7 +37422,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1266" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37448,7 +37448,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1267" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37474,7 +37474,7 @@
         <v>2.21199989318848</v>
       </c>
       <c r="G1268" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37500,7 +37500,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G1269" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37526,7 +37526,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1270" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37552,7 +37552,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1271" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37578,7 +37578,7 @@
         <v>2.19799995422363</v>
       </c>
       <c r="G1272" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37604,7 +37604,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1273" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37630,7 +37630,7 @@
         <v>2.20799994468689</v>
       </c>
       <c r="G1274" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37656,7 +37656,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1275" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37682,7 +37682,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1276" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37708,7 +37708,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37734,7 +37734,7 @@
         <v>2.24600005149841</v>
       </c>
       <c r="G1278" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37760,7 +37760,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1279" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37786,7 +37786,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1280" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37812,7 +37812,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1281" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37838,7 +37838,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G1282" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37864,7 +37864,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1283" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37890,7 +37890,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1284" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37916,7 +37916,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G1285" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37942,7 +37942,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1286" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37968,7 +37968,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1287" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37994,7 +37994,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1288" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38020,7 +38020,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1289" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38046,7 +38046,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1290" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38072,7 +38072,7 @@
         <v>2.12199997901917</v>
       </c>
       <c r="G1291" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38098,7 +38098,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1292" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38124,7 +38124,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1293" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38150,7 +38150,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1294" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38176,7 +38176,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1295" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38202,7 +38202,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1296" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38228,7 +38228,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1297" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38254,7 +38254,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1298" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38280,7 +38280,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1299" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38306,7 +38306,7 @@
         <v>2.5</v>
       </c>
       <c r="G1300" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38332,7 +38332,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1301" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38358,7 +38358,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1302" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38384,7 +38384,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1303" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38410,7 +38410,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1304" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38436,7 +38436,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1305" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38462,7 +38462,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1306" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38488,7 +38488,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1307" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38514,7 +38514,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38540,7 +38540,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1309" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38566,7 +38566,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1310" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38592,7 +38592,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1311" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38618,7 +38618,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1312" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38644,7 +38644,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1313" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38670,7 +38670,7 @@
         <v>2.49600005149841</v>
       </c>
       <c r="G1314" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38696,7 +38696,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1315" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38722,7 +38722,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1316" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38748,7 +38748,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G1317" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38774,7 +38774,7 @@
         <v>2.5</v>
       </c>
       <c r="G1318" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38800,7 +38800,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1319" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38826,7 +38826,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1320" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38852,7 +38852,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G1321" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38878,7 +38878,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1322" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38904,7 +38904,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G1323" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38930,7 +38930,7 @@
         <v>2.55200004577637</v>
       </c>
       <c r="G1324" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38956,7 +38956,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1325" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38982,7 +38982,7 @@
         <v>2.51399993896484</v>
       </c>
       <c r="G1326" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39008,7 +39008,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1327" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39034,7 +39034,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G1328" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39060,7 +39060,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G1329" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39086,7 +39086,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G1330" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39112,7 +39112,7 @@
         <v>2.55599999427795</v>
       </c>
       <c r="G1331" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39138,7 +39138,7 @@
         <v>2.58200001716614</v>
       </c>
       <c r="G1332" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39164,7 +39164,7 @@
         <v>2.56399989128113</v>
       </c>
       <c r="G1333" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39190,7 +39190,7 @@
         <v>2.55399990081787</v>
       </c>
       <c r="G1334" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39216,7 +39216,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G1335" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39242,7 +39242,7 @@
         <v>2.57399988174438</v>
       </c>
       <c r="G1336" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39268,7 +39268,7 @@
         <v>2.55399990081787</v>
       </c>
       <c r="G1337" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39294,7 +39294,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1338" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39320,7 +39320,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G1339" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39346,7 +39346,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G1340" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39372,7 +39372,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G1341" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39398,7 +39398,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1342" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39424,7 +39424,7 @@
         <v>2.62400007247925</v>
       </c>
       <c r="G1343" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39450,7 +39450,7 @@
         <v>2.65400004386902</v>
       </c>
       <c r="G1344" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39476,7 +39476,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G1345" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39502,7 +39502,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1346" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39528,7 +39528,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1347" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39554,7 +39554,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1348" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39580,7 +39580,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G1349" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39606,7 +39606,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G1350" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39632,7 +39632,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1351" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39658,7 +39658,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1352" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39684,7 +39684,7 @@
         <v>2.58599996566772</v>
       </c>
       <c r="G1353" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39710,7 +39710,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1354" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39736,7 +39736,7 @@
         <v>2.60599994659424</v>
       </c>
       <c r="G1355" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39762,7 +39762,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G1356" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39788,7 +39788,7 @@
         <v>2.6340000629425</v>
       </c>
       <c r="G1357" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39814,7 +39814,7 @@
         <v>2.65599989891052</v>
       </c>
       <c r="G1358" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39840,7 +39840,7 @@
         <v>2.69000005722046</v>
       </c>
       <c r="G1359" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39866,7 +39866,7 @@
         <v>2.68600010871887</v>
       </c>
       <c r="G1360" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39892,7 +39892,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G1361" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -39918,7 +39918,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1362" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -39944,7 +39944,7 @@
         <v>2.70600008964539</v>
       </c>
       <c r="G1363" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -39970,7 +39970,7 @@
         <v>2.73399996757507</v>
       </c>
       <c r="G1364" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -39996,7 +39996,7 @@
         <v>2.72399997711182</v>
       </c>
       <c r="G1365" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40022,7 +40022,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G1366" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40048,7 +40048,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G1367" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40074,7 +40074,7 @@
         <v>2.7260000705719</v>
       </c>
       <c r="G1368" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40100,7 +40100,7 @@
         <v>2.56599998474121</v>
       </c>
       <c r="G1369" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40126,7 +40126,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1370" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40152,7 +40152,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1371" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40178,7 +40178,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1372" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40204,7 +40204,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1373" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40230,7 +40230,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40256,7 +40256,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1375" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -40282,7 +40282,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1376" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -40308,7 +40308,7 @@
         <v>2.51200008392334</v>
       </c>
       <c r="G1377" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -40334,7 +40334,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1378" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -40360,7 +40360,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1379" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40386,7 +40386,7 @@
         <v>2.5</v>
       </c>
       <c r="G1380" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -40412,7 +40412,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1381" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -40438,7 +40438,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1382" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -40464,7 +40464,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1383" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -40490,7 +40490,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G1384" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -40516,7 +40516,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G1385" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -40542,7 +40542,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1386" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -40568,7 +40568,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1387" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -40594,7 +40594,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1388" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -40620,7 +40620,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1389" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -40646,7 +40646,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1390" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40672,7 +40672,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1391" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -40698,7 +40698,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1392" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -40724,7 +40724,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G1393" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -40750,7 +40750,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1394" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -40776,7 +40776,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G1395" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40802,7 +40802,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1396" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -40828,7 +40828,7 @@
         <v>2.43400001525879</v>
       </c>
       <c r="G1397" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -40854,7 +40854,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G1398" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40880,7 +40880,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1399" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -40906,7 +40906,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1400" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -40932,7 +40932,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1401" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -40958,7 +40958,7 @@
         <v>2.31599998474121</v>
       </c>
       <c r="G1402" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40984,7 +40984,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G1403" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -41010,7 +41010,7 @@
         <v>2.35199999809265</v>
       </c>
       <c r="G1404" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -41036,7 +41036,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1405" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -41062,7 +41062,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G1406" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -41088,7 +41088,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1407" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -41114,7 +41114,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1408" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -41140,7 +41140,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1409" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -41166,7 +41166,7 @@
         <v>2.31200003623962</v>
       </c>
       <c r="G1410" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -41192,7 +41192,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1411" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -41218,7 +41218,7 @@
         <v>2.35800004005432</v>
       </c>
       <c r="G1412" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -41244,7 +41244,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1413" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -41270,7 +41270,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1414" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -41296,7 +41296,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G1415" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -41322,7 +41322,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G1416" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -41348,7 +41348,7 @@
         <v>2.37400007247925</v>
       </c>
       <c r="G1417" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -41374,7 +41374,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1418" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41400,7 +41400,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G1419" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -41426,7 +41426,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1420" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -41452,7 +41452,7 @@
         <v>2.3659999370575</v>
       </c>
       <c r="G1421" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -41478,7 +41478,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1422" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -41504,7 +41504,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G1423" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -41530,7 +41530,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1424" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -41556,7 +41556,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1425" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41582,7 +41582,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1426" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -41608,7 +41608,7 @@
         <v>2.48399996757507</v>
       </c>
       <c r="G1427" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -41634,7 +41634,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1428" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -41660,7 +41660,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1429" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41686,7 +41686,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1430" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41712,7 +41712,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1431" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -41738,7 +41738,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1432" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -41764,7 +41764,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1433" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -41790,7 +41790,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1434" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -41816,7 +41816,7 @@
         <v>2.45799994468689</v>
       </c>
       <c r="G1435" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -41842,7 +41842,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1436" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -41868,7 +41868,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1437" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -41894,7 +41894,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1438" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -41920,7 +41920,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1439" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -41946,7 +41946,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1440" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -41972,7 +41972,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1441" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -41998,7 +41998,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1442" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -42024,7 +42024,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1443" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -42050,7 +42050,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1444" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -42076,7 +42076,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1445" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -42102,7 +42102,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G1446" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -42128,7 +42128,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G1447" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -42154,7 +42154,7 @@
         <v>2.37599992752075</v>
       </c>
       <c r="G1448" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -42180,7 +42180,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1449" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -42206,7 +42206,7 @@
         <v>2.39400005340576</v>
       </c>
       <c r="G1450" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -42232,7 +42232,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1451" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -42258,7 +42258,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1452" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -42284,7 +42284,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G1453" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -42310,7 +42310,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1454" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -42336,7 +42336,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1455" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42362,7 +42362,7 @@
         <v>2.40799999237061</v>
       </c>
       <c r="G1456" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -42388,7 +42388,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1457" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -42414,7 +42414,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1458" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -42440,7 +42440,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1459" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -42466,7 +42466,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1460" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -42492,7 +42492,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1461" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -42518,7 +42518,7 @@
         <v>2.43199992179871</v>
       </c>
       <c r="G1462" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -42544,7 +42544,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1463" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -42570,7 +42570,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1464" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -42596,7 +42596,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1465" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -42622,7 +42622,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1466" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -42648,7 +42648,7 @@
         <v>2.49200010299683</v>
       </c>
       <c r="G1467" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -42674,7 +42674,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1468" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -42700,7 +42700,7 @@
         <v>2.5</v>
       </c>
       <c r="G1469" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -42726,7 +42726,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1470" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -42752,7 +42752,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1471" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -42778,7 +42778,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1472" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -42804,7 +42804,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1473" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -42830,7 +42830,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1474" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -42856,7 +42856,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1475" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -42882,7 +42882,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1476" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -42908,7 +42908,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1477" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -42934,7 +42934,7 @@
         <v>2.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -42960,7 +42960,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1479" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -42986,7 +42986,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G1480" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -43012,7 +43012,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1481" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -43038,7 +43038,7 @@
         <v>2.50600004196167</v>
       </c>
       <c r="G1482" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -43064,7 +43064,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1483" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -43090,7 +43090,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1484" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -43116,7 +43116,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1485" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -43142,7 +43142,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1486" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -43168,7 +43168,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1487" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -43194,7 +43194,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1488" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -43220,7 +43220,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G1489" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -43246,7 +43246,7 @@
         <v>2.49799990653992</v>
       </c>
       <c r="G1490" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -43272,7 +43272,7 @@
         <v>2.50600004196167</v>
       </c>
       <c r="G1491" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -43298,7 +43298,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G1492" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -43324,7 +43324,7 @@
         <v>2.52600002288818</v>
       </c>
       <c r="G1493" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -43350,7 +43350,7 @@
         <v>2.5460000038147</v>
       </c>
       <c r="G1494" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -43376,7 +43376,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1495" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -43402,7 +43402,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1496" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -43428,7 +43428,7 @@
         <v>2.5239999294281</v>
       </c>
       <c r="G1497" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -43454,7 +43454,7 @@
         <v>2.49399995803833</v>
       </c>
       <c r="G1498" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -43480,7 +43480,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1499" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -43506,7 +43506,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G1500" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -43532,7 +43532,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1501" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -43558,7 +43558,7 @@
         <v>2.4760000705719</v>
       </c>
       <c r="G1502" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -43584,7 +43584,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1503" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -43610,7 +43610,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1504" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -43636,7 +43636,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G1505" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -43662,7 +43662,7 @@
         <v>2.44799995422363</v>
       </c>
       <c r="G1506" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -43688,7 +43688,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1507" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -43714,7 +43714,7 @@
         <v>2.43600010871887</v>
       </c>
       <c r="G1508" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -43740,7 +43740,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1509" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -43766,7 +43766,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G1510" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -43792,7 +43792,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1511" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -43818,7 +43818,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1512" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -43844,7 +43844,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1513" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -43870,7 +43870,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1514" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -43896,7 +43896,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1515" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -43922,7 +43922,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1516" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -43948,7 +43948,7 @@
         <v>2.46799993515015</v>
       </c>
       <c r="G1517" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -43974,7 +43974,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1518" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -44000,7 +44000,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1519" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -44026,7 +44026,7 @@
         <v>2.44199991226196</v>
       </c>
       <c r="G1520" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -44052,7 +44052,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G1521" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -44078,7 +44078,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1522" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -44104,7 +44104,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -44130,7 +44130,7 @@
         <v>2.48200011253357</v>
       </c>
       <c r="G1524" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -44156,7 +44156,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1525" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -44182,7 +44182,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1526" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -44208,7 +44208,7 @@
         <v>2.48600006103516</v>
       </c>
       <c r="G1527" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -44234,7 +44234,7 @@
         <v>2.5</v>
       </c>
       <c r="G1528" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -44260,7 +44260,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1529" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -44286,7 +44286,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1530" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -44312,7 +44312,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1531" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -44338,7 +44338,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1532" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -44364,7 +44364,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1533" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -44390,7 +44390,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G1534" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -44416,7 +44416,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G1535" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -44442,7 +44442,7 @@
         <v>2.55399990081787</v>
       </c>
       <c r="G1536" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -44468,7 +44468,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1537" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -44494,7 +44494,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1538" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -44520,7 +44520,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G1539" t="s">
-        <v>1005</v>
+        <v>1090</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -44572,7 +44572,7 @@
         <v>2.53399991989136</v>
       </c>
       <c r="G1541" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -44598,7 +44598,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1542" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -44624,7 +44624,7 @@
         <v>2.4539999961853</v>
       </c>
       <c r="G1543" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -44650,7 +44650,7 @@
         <v>2.50600004196167</v>
       </c>
       <c r="G1544" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -44676,7 +44676,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G1545" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44702,7 +44702,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G1546" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44832,7 +44832,7 @@
         <v>2.51799988746643</v>
       </c>
       <c r="G1551" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -44858,7 +44858,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1552" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45118,7 +45118,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1562" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -45170,7 +45170,7 @@
         <v>2.50399994850159</v>
       </c>
       <c r="G1564" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -45222,7 +45222,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1566" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -45300,7 +45300,7 @@
         <v>2.34400010108948</v>
       </c>
       <c r="G1569" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -45326,7 +45326,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1570" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -45456,7 +45456,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G1575" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -45508,7 +45508,7 @@
         <v>2.52800011634827</v>
       </c>
       <c r="G1577" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -45534,7 +45534,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1578" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -60466,7 +60466,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6496180556</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>688726</v>
@@ -60487,6 +60487,32 @@
         <v>1386</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.649525463</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>748033</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>2.52800011634827</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2.5239999294281</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>2.52800011634827</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356392860413</t>
+    <t xml:space="preserve">1.20356404781342</t>
   </si>
   <si>
     <t xml:space="preserve">US.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2014319896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17478060722351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15346002578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1374694108963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14066755771637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15452587604523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16092216968536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11295020580292</t>
+    <t xml:space="preserve">1.20143187046051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17478084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15345990657806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13746929168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14066743850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15452599525452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16092228889465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11295032501221</t>
   </si>
   <si>
     <t xml:space="preserve">1.08949720859528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07030844688416</t>
+    <t xml:space="preserve">1.07030856609344</t>
   </si>
   <si>
     <t xml:space="preserve">1.04578948020935</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">1.08523321151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09482741355896</t>
+    <t xml:space="preserve">1.09482729434967</t>
   </si>
   <si>
     <t xml:space="preserve">1.07137453556061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06817626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05378496646881</t>
+    <t xml:space="preserve">1.06817638874054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05378460884094</t>
   </si>
   <si>
     <t xml:space="preserve">1.0127420425415</t>
@@ -104,37 +104,37 @@
     <t xml:space="preserve">0.984491944313049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954642713069916</t>
+    <t xml:space="preserve">0.954642593860626</t>
   </si>
   <si>
     <t xml:space="preserve">0.957840859889984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921062290668488</t>
+    <t xml:space="preserve">0.921062350273132</t>
   </si>
   <si>
     <t xml:space="preserve">0.86882609128952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84057605266571</t>
+    <t xml:space="preserve">0.840575993061066</t>
   </si>
   <si>
     <t xml:space="preserve">0.888547897338867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826717495918274</t>
+    <t xml:space="preserve">0.826717376708984</t>
   </si>
   <si>
     <t xml:space="preserve">0.917864143848419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972232282161713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960506021976471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990355253219604</t>
+    <t xml:space="preserve">0.972232520580292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505902767181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990355134010315</t>
   </si>
   <si>
     <t xml:space="preserve">0.982892870903015</t>
@@ -149,34 +149,34 @@
     <t xml:space="preserve">0.97916167974472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97116631269455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988756060600281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01114296913147</t>
+    <t xml:space="preserve">0.971166431903839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98875617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01114308834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.01007699966431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0372611284256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06177997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0468555688858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03566217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00314784049988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01913845539093</t>
+    <t xml:space="preserve">1.03726100921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0617800951004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04685544967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03566205501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0031476020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01913833618164</t>
   </si>
   <si>
     <t xml:space="preserve">1.02127051353455</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">1.07777082920074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08203506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07244050502777</t>
+    <t xml:space="preserve">1.08203494548798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07244062423706</t>
   </si>
   <si>
     <t xml:space="preserve">1.08416712284088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07990300655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08843123912811</t>
+    <t xml:space="preserve">1.07990288734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08843111991882</t>
   </si>
   <si>
     <t xml:space="preserve">1.07670474052429</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">1.04365730285645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04952049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05005371570587</t>
+    <t xml:space="preserve">1.049520611763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05005359649658</t>
   </si>
   <si>
     <t xml:space="preserve">1.07457268238068</t>
@@ -233,46 +233,46 @@
     <t xml:space="preserve">1.07883679866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09269523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0937614440918</t>
+    <t xml:space="preserve">1.09269547462463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09376156330109</t>
   </si>
   <si>
     <t xml:space="preserve">1.09695971012115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04845440387726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04259121417999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03299677371979</t>
+    <t xml:space="preserve">1.04845452308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04259145259857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03299689292908</t>
   </si>
   <si>
     <t xml:space="preserve">1.01594018936157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00154864788055</t>
+    <t xml:space="preserve">1.00154852867126</t>
   </si>
   <si>
     <t xml:space="preserve">0.976496517658234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970633327960968</t>
+    <t xml:space="preserve">0.970633447170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.980760753154755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986091077327728</t>
+    <t xml:space="preserve">0.986091017723083</t>
   </si>
   <si>
     <t xml:space="preserve">0.984930872917175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00581288337708</t>
+    <t xml:space="preserve">1.00581276416779</t>
   </si>
   <si>
     <t xml:space="preserve">1.0382958650589</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">1.03365528583527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04409623146057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.042356133461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02437448501587</t>
+    <t xml:space="preserve">1.04409635066986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04235625267029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02437436580658</t>
   </si>
   <si>
     <t xml:space="preserve">1.03133523464203</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">0.993631780147552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993051767349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999432325363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998271942138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982030689716339</t>
+    <t xml:space="preserve">0.993051528930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99943220615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998272061347961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98203057050705</t>
   </si>
   <si>
     <t xml:space="preserve">0.933306097984314</t>
@@ -317,22 +317,22 @@
     <t xml:space="preserve">0.871240437030792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861379444599152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834117114543915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871820509433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909523844718933</t>
+    <t xml:space="preserve">0.861379325389862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834116876125336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871820390224457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909523904323578</t>
   </si>
   <si>
     <t xml:space="preserve">0.91474437713623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912424147129059</t>
+    <t xml:space="preserve">0.912424206733704</t>
   </si>
   <si>
     <t xml:space="preserve">0.951287746429443</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">0.825996220111847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792933225631714</t>
+    <t xml:space="preserve">0.792933106422424</t>
   </si>
   <si>
     <t xml:space="preserve">0.7813321352005</t>
@@ -356,46 +356,46 @@
     <t xml:space="preserve">0.81323504447937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791192948818207</t>
+    <t xml:space="preserve">0.791193008422852</t>
   </si>
   <si>
     <t xml:space="preserve">0.756389796733856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733187675476074</t>
+    <t xml:space="preserve">0.733187735080719</t>
   </si>
   <si>
     <t xml:space="preserve">0.730867445468903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802214086055756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819615602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850938618183136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824256062507629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850358426570892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866599977016449</t>
+    <t xml:space="preserve">0.802214026451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819615721702576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850938439369202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824256122112274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850358605384827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866599857807159</t>
   </si>
   <si>
     <t xml:space="preserve">0.847458183765411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849198341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854418992996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842237710952759</t>
+    <t xml:space="preserve">0.849198281764984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854418814182281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842237830162048</t>
   </si>
   <si>
     <t xml:space="preserve">0.852678716182709</t>
@@ -404,85 +404,85 @@
     <t xml:space="preserve">0.857319116592407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8764608502388</t>
+    <t xml:space="preserve">0.876461029052734</t>
   </si>
   <si>
     <t xml:space="preserve">0.870080232620239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.856739044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494946479797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826576352119446</t>
+    <t xml:space="preserve">0.856739103794098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494886875153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826576173305511</t>
   </si>
   <si>
     <t xml:space="preserve">0.824836254119873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846878230571747</t>
+    <t xml:space="preserve">0.846878170967102</t>
   </si>
   <si>
     <t xml:space="preserve">0.879361212253571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.888062059879303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885161578655243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893282353878021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887481927871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85499894618988</t>
+    <t xml:space="preserve">0.888062000274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885161757469177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893282473087311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887481808662415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854998886585236</t>
   </si>
   <si>
     <t xml:space="preserve">0.828896462917328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848038256168365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837597370147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835277020931244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820775806903839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85209858417511</t>
+    <t xml:space="preserve">0.848038196563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83759731054306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835277140140533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820775747299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852098703384399</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340134620667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865439832210541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882841467857361</t>
+    <t xml:space="preserve">0.865439891815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882841408252716</t>
   </si>
   <si>
     <t xml:space="preserve">0.897342801094055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910683989524841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910103797912598</t>
+    <t xml:space="preserve">0.910684108734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910104036331177</t>
   </si>
   <si>
     <t xml:space="preserve">0.881101369857788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834697067737579</t>
+    <t xml:space="preserve">0.834697127342224</t>
   </si>
   <si>
     <t xml:space="preserve">0.842817664146423</t>
@@ -491,88 +491,88 @@
     <t xml:space="preserve">0.827736437320709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839917480945587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219478607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874720752239227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881681323051453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907783806324005</t>
+    <t xml:space="preserve">0.839917540550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219299793243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874720692634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881681382656097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90778374671936</t>
   </si>
   <si>
     <t xml:space="preserve">0.93968677520752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949547529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960568785667419</t>
+    <t xml:space="preserve">0.949547708034515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96056866645813</t>
   </si>
   <si>
     <t xml:space="preserve">0.980870544910431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997112035751343</t>
+    <t xml:space="preserve">0.997111976146698</t>
   </si>
   <si>
     <t xml:space="preserve">1.00929319858551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00871312618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00175261497498</t>
+    <t xml:space="preserve">1.00871300697327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00175249576569</t>
   </si>
   <si>
     <t xml:space="preserve">0.972169637680054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969849526882172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947227478027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976230144500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979130327701569</t>
+    <t xml:space="preserve">0.969849407672882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947227358818054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976230025291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979130446910858</t>
   </si>
   <si>
     <t xml:space="preserve">0.973909914493561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997692167758942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03713572025299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05801749229431</t>
+    <t xml:space="preserve">0.997692048549652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0371356010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0580176115036</t>
   </si>
   <si>
     <t xml:space="preserve">1.06613838672638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05685746669769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02089416980743</t>
+    <t xml:space="preserve">1.05685758590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02089428901672</t>
   </si>
   <si>
     <t xml:space="preserve">1.03945589065552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03249514102936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02147436141968</t>
+    <t xml:space="preserve">1.03249526023865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02147424221039</t>
   </si>
   <si>
     <t xml:space="preserve">1.00117230415344</t>
@@ -584,94 +584,94 @@
     <t xml:space="preserve">1.05337715148926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04583656787872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05743753910065</t>
+    <t xml:space="preserve">1.04583644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05743765830994</t>
   </si>
   <si>
     <t xml:space="preserve">1.09920144081116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14850604534149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16590762138367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16126716136932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17054796218872</t>
+    <t xml:space="preserve">1.14850580692291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16590750217438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16126704216003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17054808139801</t>
   </si>
   <si>
     <t xml:space="preserve">1.18214905261993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17170798778534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18330919742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18678951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17750859260559</t>
+    <t xml:space="preserve">1.17170810699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18330931663513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18678963184357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17750871181488</t>
   </si>
   <si>
     <t xml:space="preserve">1.18794965744019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17402839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19026982784271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19491004943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20071065425873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22507297992706</t>
+    <t xml:space="preserve">1.17402827739716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.190269947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19491016864777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20071077346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22507309913635</t>
   </si>
   <si>
     <t xml:space="preserve">1.23783421516418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23551416397095</t>
+    <t xml:space="preserve">1.23551404476166</t>
   </si>
   <si>
     <t xml:space="preserve">1.22855341434479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21231174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20419096946716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21695244312286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18098890781403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20651113986969</t>
+    <t xml:space="preserve">1.21231198310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20419108867645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21695232391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18098902702332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20651125907898</t>
   </si>
   <si>
     <t xml:space="preserve">1.1693879365921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15952682495117</t>
+    <t xml:space="preserve">1.15952706336975</t>
   </si>
   <si>
     <t xml:space="preserve">1.1537264585495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16822779178619</t>
+    <t xml:space="preserve">1.16822791099548</t>
   </si>
   <si>
     <t xml:space="preserve">1.15720677375793</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">1.19258999824524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2088315486908</t>
+    <t xml:space="preserve">1.20883166790009</t>
   </si>
   <si>
     <t xml:space="preserve">1.18910980224609</t>
@@ -695,28 +695,28 @@
     <t xml:space="preserve">1.13168442249298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226437568665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15198612213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10732221603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10442209243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09804129600525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10210168361664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09050059318542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14154541492462</t>
+    <t xml:space="preserve">1.13226461410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15198624134064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10732209682465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10442185401917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09804141521454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10210156440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09050071239471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14154529571533</t>
   </si>
   <si>
     <t xml:space="preserve">1.15604674816132</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">1.16010701656342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16706776618958</t>
+    <t xml:space="preserve">1.16706764698029</t>
   </si>
   <si>
     <t xml:space="preserve">1.15662670135498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13980531692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19375014305115</t>
+    <t xml:space="preserve">1.13980519771576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19375026226044</t>
   </si>
   <si>
     <t xml:space="preserve">1.17866885662079</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">1.19142985343933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19955062866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20187091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18562924861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2181122303009</t>
+    <t xml:space="preserve">1.1995507478714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20187103748322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18562936782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21811234951019</t>
   </si>
   <si>
     <t xml:space="preserve">1.19723033905029</t>
@@ -764,28 +764,28 @@
     <t xml:space="preserve">1.20303106307983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19607043266296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17286825180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14560580253601</t>
+    <t xml:space="preserve">1.19607055187225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17286813259125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14560568332672</t>
   </si>
   <si>
     <t xml:space="preserve">1.23087358474731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22391295433044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667407035828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25871622562408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27147734165192</t>
+    <t xml:space="preserve">1.22391283512115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667395114899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25871610641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27147722244263</t>
   </si>
   <si>
     <t xml:space="preserve">1.26451683044434</t>
@@ -797,31 +797,31 @@
     <t xml:space="preserve">1.29467964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27031743526459</t>
+    <t xml:space="preserve">1.2703173160553</t>
   </si>
   <si>
     <t xml:space="preserve">1.25639593601227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799690723419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24711525440216</t>
+    <t xml:space="preserve">1.26799702644348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24711513519287</t>
   </si>
   <si>
     <t xml:space="preserve">1.25175559520721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2720742225647</t>
+    <t xml:space="preserve">1.27207434177399</t>
   </si>
   <si>
     <t xml:space="preserve">1.28192579746246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29547154903412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28438854217529</t>
+    <t xml:space="preserve">1.29547166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28438866138458</t>
   </si>
   <si>
     <t xml:space="preserve">1.27699995040894</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">1.24128830432892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24375116825104</t>
+    <t xml:space="preserve">1.24375128746033</t>
   </si>
   <si>
     <t xml:space="preserve">1.21912240982056</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">1.20803964138031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19572520256042</t>
+    <t xml:space="preserve">1.19572508335114</t>
   </si>
   <si>
     <t xml:space="preserve">1.22527980804443</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">1.21727538108826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22712695598602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21481239795685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19141519069672</t>
+    <t xml:space="preserve">1.22712683677673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21481251716614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19141507148743</t>
   </si>
   <si>
     <t xml:space="preserve">1.19449388980865</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">1.21789109706879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20249807834625</t>
+    <t xml:space="preserve">1.20249795913696</t>
   </si>
   <si>
     <t xml:space="preserve">1.22404825687408</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">1.20372951030731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2203540802002</t>
+    <t xml:space="preserve">1.22035384178162</t>
   </si>
   <si>
     <t xml:space="preserve">1.22096955776215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176638007164</t>
+    <t xml:space="preserve">1.17663788795471</t>
   </si>
   <si>
     <t xml:space="preserve">1.2012665271759</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">1.20434534549713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23143684864044</t>
+    <t xml:space="preserve">1.23143696784973</t>
   </si>
   <si>
     <t xml:space="preserve">1.22343254089355</t>
@@ -908,28 +908,28 @@
     <t xml:space="preserve">1.22835826873779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21358108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21173393726349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20680809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18525803089142</t>
+    <t xml:space="preserve">1.21358096599579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2117338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20680820941925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18525791168213</t>
   </si>
   <si>
     <t xml:space="preserve">1.20003521442413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19203090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20496106147766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21665942668915</t>
+    <t xml:space="preserve">1.19203078746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20496094226837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2265111207962</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">1.24251973628998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23513126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18833661079407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19818818569183</t>
+    <t xml:space="preserve">1.23513114452362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18833649158478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19818794727325</t>
   </si>
   <si>
     <t xml:space="preserve">1.20065093040466</t>
@@ -959,46 +959,46 @@
     <t xml:space="preserve">1.19079947471619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18895220756531</t>
+    <t xml:space="preserve">1.1889523267746</t>
   </si>
   <si>
     <t xml:space="preserve">1.18587374687195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17355942726135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17602217197418</t>
+    <t xml:space="preserve">1.17355918884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17602229118347</t>
   </si>
   <si>
     <t xml:space="preserve">1.17417502403259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19387805461884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17910063266754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555500030518</t>
+    <t xml:space="preserve">1.19387793540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17910087108612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16555511951447</t>
   </si>
   <si>
     <t xml:space="preserve">1.16001343727112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.161860704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15324056148529</t>
+    <t xml:space="preserve">1.16186058521271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15324068069458</t>
   </si>
   <si>
     <t xml:space="preserve">1.18956816196442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20865523815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18341088294983</t>
+    <t xml:space="preserve">1.20865535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18341076374054</t>
   </si>
   <si>
     <t xml:space="preserve">1.17848515510559</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">1.19757235050201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2222011089325</t>
+    <t xml:space="preserve">1.22220098972321</t>
   </si>
   <si>
     <t xml:space="preserve">1.20742392539978</t>
@@ -1022,43 +1022,43 @@
     <t xml:space="preserve">1.21050250530243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19880378246307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21419668197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23020553588867</t>
+    <t xml:space="preserve">1.19880366325378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21419680118561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23020541667938</t>
   </si>
   <si>
     <t xml:space="preserve">1.2098867893219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15693497657776</t>
+    <t xml:space="preserve">1.15693473815918</t>
   </si>
   <si>
     <t xml:space="preserve">1.16124498844147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13600039482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14646780490875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16247642040253</t>
+    <t xml:space="preserve">1.13600063323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14646768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16247630119324</t>
   </si>
   <si>
     <t xml:space="preserve">1.16740214824677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16986501216888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16309201717377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16493916511536</t>
+    <t xml:space="preserve">1.16986489295959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16309213638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16493928432465</t>
   </si>
   <si>
     <t xml:space="preserve">1.16801786422729</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">1.17171216011047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1686338186264</t>
+    <t xml:space="preserve">1.16863369941711</t>
   </si>
   <si>
     <t xml:space="preserve">1.18156373500824</t>
@@ -1076,73 +1076,73 @@
     <t xml:space="preserve">1.21296536922455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21111810207367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2160439491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25237131118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26222276687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24867701530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729703903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26468551158905</t>
+    <t xml:space="preserve">1.21111822128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927083492279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21604382991791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25237119197845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26222264766693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24867713451385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729691982269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26468563079834</t>
   </si>
   <si>
     <t xml:space="preserve">1.2659170627594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28562009334564</t>
+    <t xml:space="preserve">1.28562021255493</t>
   </si>
   <si>
     <t xml:space="preserve">1.30162870883942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30532312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29177737236023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28131008148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26653265953064</t>
+    <t xml:space="preserve">1.3053230047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29177713394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28130996227264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26653289794922</t>
   </si>
   <si>
     <t xml:space="preserve">1.24990832805634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25606560707092</t>
+    <t xml:space="preserve">1.25606572628021</t>
   </si>
   <si>
     <t xml:space="preserve">1.22189319133759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23328411579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23082101345062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20465302467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944115638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24621415138245</t>
+    <t xml:space="preserve">1.23328399658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2308212518692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20465326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944103717804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24621403217316</t>
   </si>
   <si>
     <t xml:space="preserve">1.23820972442627</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">1.22066175937653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21973812580109</t>
+    <t xml:space="preserve">1.21973824501038</t>
   </si>
   <si>
     <t xml:space="preserve">1.21819889545441</t>
@@ -1166,25 +1166,25 @@
     <t xml:space="preserve">1.18987572193146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18433427810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19788014888763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21081018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21019458770752</t>
+    <t xml:space="preserve">1.18433439731598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19788026809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21081030368805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21019446849823</t>
   </si>
   <si>
     <t xml:space="preserve">1.20095884799957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19110727310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18310296535492</t>
+    <t xml:space="preserve">1.19110715389252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18310284614563</t>
   </si>
   <si>
     <t xml:space="preserve">1.18464231491089</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">1.19018375873566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20219016075134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20650017261505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2640700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27145850658417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28069412708282</t>
+    <t xml:space="preserve">1.20219027996063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20650005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26406991481781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27145862579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28069424629211</t>
   </si>
   <si>
     <t xml:space="preserve">1.29424011707306</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">1.30409169197083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31332743167877</t>
+    <t xml:space="preserve">1.31332731246948</t>
   </si>
   <si>
     <t xml:space="preserve">1.33795619010925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34780764579773</t>
+    <t xml:space="preserve">1.34780752658844</t>
   </si>
   <si>
     <t xml:space="preserve">1.34657633304596</t>
@@ -1229,19 +1229,19 @@
     <t xml:space="preserve">1.34288191795349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3595062494278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37305200099945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38536643981934</t>
+    <t xml:space="preserve">1.35950636863708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37305212020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38536667823792</t>
   </si>
   <si>
     <t xml:space="preserve">1.35827481746674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37613046169281</t>
+    <t xml:space="preserve">1.37613070011139</t>
   </si>
   <si>
     <t xml:space="preserve">1.38167202472687</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">1.35519623756409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35458064079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34041905403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34349763393402</t>
+    <t xml:space="preserve">1.35458052158356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34041893482208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34349751472473</t>
   </si>
   <si>
     <t xml:space="preserve">1.31763744354248</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">1.29731869697571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30840170383453</t>
+    <t xml:space="preserve">1.30840182304382</t>
   </si>
   <si>
     <t xml:space="preserve">1.29622411727905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29556286334991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27803730964661</t>
+    <t xml:space="preserve">1.2955629825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2780374288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26282644271851</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">1.25059175491333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30217635631561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24463975429535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27473068237305</t>
+    <t xml:space="preserve">1.30217623710632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24463951587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27473056316376</t>
   </si>
   <si>
     <t xml:space="preserve">1.24893832206726</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">1.25224506855011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2565438747406</t>
+    <t xml:space="preserve">1.25654375553131</t>
   </si>
   <si>
     <t xml:space="preserve">1.25555181503296</t>
@@ -1343,64 +1343,64 @@
     <t xml:space="preserve">1.21686351299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23835706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27043187618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2542290687561</t>
+    <t xml:space="preserve">1.23835694789886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27043199539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25422918796539</t>
   </si>
   <si>
     <t xml:space="preserve">1.25158393383026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29953098297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2909334897995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32862973213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3273069858551</t>
+    <t xml:space="preserve">1.2995308637619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29093337059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32862997055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32730710506439</t>
   </si>
   <si>
     <t xml:space="preserve">1.31011235713959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29192566871643</t>
+    <t xml:space="preserve">1.29192554950714</t>
   </si>
   <si>
     <t xml:space="preserve">1.27737605571747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27902948856354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28432023525238</t>
+    <t xml:space="preserve">1.27902925014496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28432011604309</t>
   </si>
   <si>
     <t xml:space="preserve">1.29258680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26844787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26613330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25951981544495</t>
+    <t xml:space="preserve">1.26844799518585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26613342761993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25951993465424</t>
   </si>
   <si>
     <t xml:space="preserve">1.27506136894226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26051187515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26877868175507</t>
+    <t xml:space="preserve">1.26051199436188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26877844333649</t>
   </si>
   <si>
     <t xml:space="preserve">1.27307736873627</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">1.28861880302429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24959993362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24001038074493</t>
+    <t xml:space="preserve">1.24959981441498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24001049995422</t>
   </si>
   <si>
     <t xml:space="preserve">1.24298644065857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2459625005722</t>
+    <t xml:space="preserve">1.24596238136292</t>
   </si>
   <si>
     <t xml:space="preserve">1.24331700801849</t>
@@ -1442,16 +1442,16 @@
     <t xml:space="preserve">1.25489056110382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27406930923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30449092388153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30052280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29655492305756</t>
+    <t xml:space="preserve">1.27406919002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30449104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30052292346954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29655480384827</t>
   </si>
   <si>
     <t xml:space="preserve">1.30482161045074</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">1.29986155033112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28365862369537</t>
+    <t xml:space="preserve">1.28365874290466</t>
   </si>
   <si>
     <t xml:space="preserve">1.28994154930115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32036316394806</t>
+    <t xml:space="preserve">1.32036304473877</t>
   </si>
   <si>
     <t xml:space="preserve">1.31540298461914</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">1.33259785175323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33061397075653</t>
+    <t xml:space="preserve">1.33061385154724</t>
   </si>
   <si>
     <t xml:space="preserve">1.32400047779083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35574460029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37558472156525</t>
+    <t xml:space="preserve">1.35574471950531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37558484077454</t>
   </si>
   <si>
     <t xml:space="preserve">1.36698734760284</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">1.40336096286774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41195845603943</t>
+    <t xml:space="preserve">1.41195857524872</t>
   </si>
   <si>
     <t xml:space="preserve">1.41328108310699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34251773357391</t>
+    <t xml:space="preserve">1.3425178527832</t>
   </si>
   <si>
     <t xml:space="preserve">1.31705629825592</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">1.29688549041748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30019211769104</t>
+    <t xml:space="preserve">1.30019223690033</t>
   </si>
   <si>
     <t xml:space="preserve">1.31639492511749</t>
@@ -1538,25 +1538,25 @@
     <t xml:space="preserve">1.26745593547821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26249599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2714239358902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24860775470734</t>
+    <t xml:space="preserve">1.26249587535858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27142405509949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24860787391663</t>
   </si>
   <si>
     <t xml:space="preserve">1.24761581420898</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23141312599182</t>
+    <t xml:space="preserve">1.23141300678253</t>
   </si>
   <si>
     <t xml:space="preserve">1.24662375450134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24926912784576</t>
+    <t xml:space="preserve">1.24926924705505</t>
   </si>
   <si>
     <t xml:space="preserve">1.2823361158371</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">1.26977062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27704524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28398931026459</t>
+    <t xml:space="preserve">1.27704536914825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28398942947388</t>
   </si>
   <si>
     <t xml:space="preserve">1.30118429660797</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">1.30912029743195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32532322406769</t>
+    <t xml:space="preserve">1.3253231048584</t>
   </si>
   <si>
     <t xml:space="preserve">1.32796835899353</t>
@@ -1589,22 +1589,22 @@
     <t xml:space="preserve">1.34119522571564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36566472053528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37095534801483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3597127199173</t>
+    <t xml:space="preserve">1.36566483974457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37095546722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35971283912659</t>
   </si>
   <si>
     <t xml:space="preserve">1.33590459823608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33722710609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34979259967804</t>
+    <t xml:space="preserve">1.33722722530365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34979248046875</t>
   </si>
   <si>
     <t xml:space="preserve">1.33193647861481</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">1.36103534698486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37360060214996</t>
+    <t xml:space="preserve">1.37360072135925</t>
   </si>
   <si>
     <t xml:space="preserve">1.34780859947205</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">1.36301946640015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30548274517059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32333898544312</t>
+    <t xml:space="preserve">1.30548286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3233391046524</t>
   </si>
   <si>
     <t xml:space="preserve">1.28961086273193</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.28200531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28498136997223</t>
+    <t xml:space="preserve">1.28498125076294</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811730861664</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">1.30845892429352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34185659885406</t>
+    <t xml:space="preserve">1.34185671806335</t>
   </si>
   <si>
     <t xml:space="preserve">1.37492346763611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36963284015656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38881146907806</t>
+    <t xml:space="preserve">1.36963295936584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38881158828735</t>
   </si>
   <si>
     <t xml:space="preserve">1.40402245521545</t>
@@ -1691,28 +1691,28 @@
     <t xml:space="preserve">1.42716932296753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39807033538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42650783061981</t>
+    <t xml:space="preserve">1.39807045459747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4265079498291</t>
   </si>
   <si>
     <t xml:space="preserve">1.44502544403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4483323097229</t>
+    <t xml:space="preserve">1.44833219051361</t>
   </si>
   <si>
     <t xml:space="preserve">1.45362269878387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44304132461548</t>
+    <t xml:space="preserve">1.44304144382477</t>
   </si>
   <si>
     <t xml:space="preserve">1.44965469837189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47081768512726</t>
+    <t xml:space="preserve">1.47081756591797</t>
   </si>
   <si>
     <t xml:space="preserve">1.48735117912292</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">1.46817231178284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44171869754791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43642771244049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43576669692993</t>
+    <t xml:space="preserve">1.44171857833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43642783164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43576657772064</t>
   </si>
   <si>
     <t xml:space="preserve">1.43907356262207</t>
@@ -1745,22 +1745,22 @@
     <t xml:space="preserve">1.36169672012329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38219821453094</t>
+    <t xml:space="preserve">1.38219833374023</t>
   </si>
   <si>
     <t xml:space="preserve">1.41129720211029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40865182876587</t>
+    <t xml:space="preserve">1.40865170955658</t>
   </si>
   <si>
     <t xml:space="preserve">1.43510544300079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43444395065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43047595024109</t>
+    <t xml:space="preserve">1.43444383144379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43047606945038</t>
   </si>
   <si>
     <t xml:space="preserve">1.43775069713593</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">1.46023619174957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47280144691467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4761084318161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883344650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45825207233429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48602843284607</t>
+    <t xml:space="preserve">1.47280156612396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47610831260681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883356571198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45825219154358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48602831363678</t>
   </si>
   <si>
     <t xml:space="preserve">1.49065780639648</t>
@@ -1802,16 +1802,16 @@
     <t xml:space="preserve">1.50322318077087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5058685541153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562879562378</t>
+    <t xml:space="preserve">1.50586867332458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562867641449</t>
   </si>
   <si>
     <t xml:space="preserve">1.5620824098587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56075978279114</t>
+    <t xml:space="preserve">1.56075966358185</t>
   </si>
   <si>
     <t xml:space="preserve">1.57530915737152</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">1.57332515716553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5640664100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5772932767868</t>
+    <t xml:space="preserve">1.56406629085541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57729315757751</t>
   </si>
   <si>
     <t xml:space="preserve">1.58985877037048</t>
@@ -1835,52 +1835,52 @@
     <t xml:space="preserve">1.60374665260315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60837614536285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59713315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61168277263641</t>
+    <t xml:space="preserve">1.60837602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59713327884674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6116828918457</t>
   </si>
   <si>
     <t xml:space="preserve">1.61102163791656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59448802471161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59382677078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59250402450562</t>
+    <t xml:space="preserve">1.59448790550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59382688999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59250390529633</t>
   </si>
   <si>
     <t xml:space="preserve">1.59779465198517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60308539867401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60110139846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61300539970398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61631202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60771465301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60176289081573</t>
+    <t xml:space="preserve">1.6030855178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60110151767731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61300551891327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61631214618683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60771477222443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60176265239716</t>
   </si>
   <si>
     <t xml:space="preserve">1.61432802677155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60573077201843</t>
+    <t xml:space="preserve">1.60573065280914</t>
   </si>
   <si>
     <t xml:space="preserve">1.61565089225769</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">1.61498939990997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61829614639282</t>
+    <t xml:space="preserve">1.61829626560211</t>
   </si>
   <si>
     <t xml:space="preserve">1.62160277366638</t>
@@ -1898,49 +1898,49 @@
     <t xml:space="preserve">1.59316515922546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56671178340912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54554879665375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60506951808929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63350677490234</t>
+    <t xml:space="preserve">1.56671190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54554891586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60506963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63350701332092</t>
   </si>
   <si>
     <t xml:space="preserve">1.64474964141846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62689387798309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62970471382141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916327476501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61143290996552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294226646423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60721611976624</t>
+    <t xml:space="preserve">1.6268937587738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62970459461212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916315555573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61143279075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294214725494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60721623897552</t>
   </si>
   <si>
     <t xml:space="preserve">1.59456670284271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57629477977753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52991259098053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53904855251312</t>
+    <t xml:space="preserve">1.57629466056824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53904843330383</t>
   </si>
   <si>
     <t xml:space="preserve">1.53342616558075</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.53764283657074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54537320137024</t>
+    <t xml:space="preserve">1.54537332057953</t>
   </si>
   <si>
     <t xml:space="preserve">1.54607594013214</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">1.53272366523743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55732035636902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52920985221863</t>
+    <t xml:space="preserve">1.55732023715973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52920973300934</t>
   </si>
   <si>
     <t xml:space="preserve">1.52358770370483</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">1.58753895759583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57137560844421</t>
+    <t xml:space="preserve">1.57137548923492</t>
   </si>
   <si>
     <t xml:space="preserve">1.61494672298431</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">1.61283838748932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63884043693542</t>
+    <t xml:space="preserve">1.63884055614471</t>
   </si>
   <si>
     <t xml:space="preserve">1.64797639846802</t>
@@ -2018,55 +2018,55 @@
     <t xml:space="preserve">1.63111042976379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63743495941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6599235534668</t>
+    <t xml:space="preserve">1.63743507862091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65992331504822</t>
   </si>
   <si>
     <t xml:space="preserve">1.66273427009583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66203165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6732759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68100619316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6781952381134</t>
+    <t xml:space="preserve">1.66203153133392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67327606678009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68100607395172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67819511890411</t>
   </si>
   <si>
     <t xml:space="preserve">1.65008473396301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6992781162262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68873655796051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6922504901886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64727365970612</t>
+    <t xml:space="preserve">1.69927787780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6887366771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69225037097931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64727389812469</t>
   </si>
   <si>
     <t xml:space="preserve">1.6550041437149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69435882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66062605381012</t>
+    <t xml:space="preserve">1.69435858726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66062593460083</t>
   </si>
   <si>
     <t xml:space="preserve">1.62127149105072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60089147090912</t>
+    <t xml:space="preserve">1.60089159011841</t>
   </si>
   <si>
     <t xml:space="preserve">1.60510802268982</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">1.59667491912842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55661737918854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55169808864594</t>
+    <t xml:space="preserve">1.55661725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55169820785522</t>
   </si>
   <si>
     <t xml:space="preserve">1.58472800254822</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">1.59386372566223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62478542327881</t>
+    <t xml:space="preserve">1.62478530406952</t>
   </si>
   <si>
     <t xml:space="preserve">1.60018861293793</t>
@@ -2102,31 +2102,31 @@
     <t xml:space="preserve">1.59948587417603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63251578807831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62619078159332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6268937587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321840763092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6430572271347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65851783752441</t>
+    <t xml:space="preserve">1.63251566886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62619090080261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689363956451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63321852684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64305710792542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65851771831512</t>
   </si>
   <si>
     <t xml:space="preserve">1.67960095405579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70208919048309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.698575258255</t>
+    <t xml:space="preserve">1.7020890712738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69857549667358</t>
   </si>
   <si>
     <t xml:space="preserve">1.69716954231262</t>
@@ -2138,34 +2138,34 @@
     <t xml:space="preserve">1.69084477424622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7133332490921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69014227390289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69154798984528</t>
+    <t xml:space="preserve">1.71333312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69014203548431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69154787063599</t>
   </si>
   <si>
     <t xml:space="preserve">1.68381726741791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6964670419693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70560300350189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7147388458252</t>
+    <t xml:space="preserve">1.69646716117859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70560312271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71473896503448</t>
   </si>
   <si>
     <t xml:space="preserve">1.7013863325119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66765367984772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66624820232391</t>
+    <t xml:space="preserve">1.66765379905701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6662483215332</t>
   </si>
   <si>
     <t xml:space="preserve">1.65570676326752</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">1.669762134552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68662822246552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7175498008728</t>
+    <t xml:space="preserve">1.68662846088409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71754992008209</t>
   </si>
   <si>
     <t xml:space="preserve">1.70490026473999</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">1.72317183017731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73792994022369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76885163784027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77095985412598</t>
+    <t xml:space="preserve">1.73793005943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76885151863098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77095973491669</t>
   </si>
   <si>
     <t xml:space="preserve">1.76744604110718</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">1.77939295768738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7681485414505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77447354793549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78220391273499</t>
+    <t xml:space="preserve">1.76814889907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77447366714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78220403194427</t>
   </si>
   <si>
     <t xml:space="preserve">1.77236533164978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75760698318481</t>
+    <t xml:space="preserve">1.7576071023941</t>
   </si>
   <si>
     <t xml:space="preserve">1.78431236743927</t>
@@ -2222,25 +2222,25 @@
     <t xml:space="preserve">1.7878258228302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79204261302948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80258417129517</t>
+    <t xml:space="preserve">1.79204273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80258405208588</t>
   </si>
   <si>
     <t xml:space="preserve">1.83280277252197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82858622074127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83842504024506</t>
+    <t xml:space="preserve">1.82858633995056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83842492103577</t>
   </si>
   <si>
     <t xml:space="preserve">1.87075197696686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85599374771118</t>
+    <t xml:space="preserve">1.85599386692047</t>
   </si>
   <si>
     <t xml:space="preserve">1.84756064414978</t>
@@ -2249,19 +2249,19 @@
     <t xml:space="preserve">1.86091327667236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82788360118866</t>
+    <t xml:space="preserve">1.82788372039795</t>
   </si>
   <si>
     <t xml:space="preserve">1.82155883312225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84123587608337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83772194385529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85388565063477</t>
+    <t xml:space="preserve">1.84123563766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83772206306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85388576984406</t>
   </si>
   <si>
     <t xml:space="preserve">1.86021077632904</t>
@@ -2270,22 +2270,22 @@
     <t xml:space="preserve">1.86442732810974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85739922523499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81593656539917</t>
+    <t xml:space="preserve">1.85739946365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81593668460846</t>
   </si>
   <si>
     <t xml:space="preserve">1.79133999347687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81804466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81101703643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79696178436279</t>
+    <t xml:space="preserve">1.8180445432663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8110169172287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7969616651535</t>
   </si>
   <si>
     <t xml:space="preserve">1.79907023906708</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">1.79415082931519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80680048465729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82436966896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87918531894684</t>
+    <t xml:space="preserve">1.80680072307587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82436978816986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87918508052826</t>
   </si>
   <si>
     <t xml:space="preserve">1.87356305122375</t>
@@ -2312,52 +2312,52 @@
     <t xml:space="preserve">1.94102823734283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87637412548065</t>
+    <t xml:space="preserve">1.87637388706207</t>
   </si>
   <si>
     <t xml:space="preserve">1.83912777900696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82015311717987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81312525272369</t>
+    <t xml:space="preserve">1.82015287876129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81312549114227</t>
   </si>
   <si>
     <t xml:space="preserve">1.79274547100067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80539500713348</t>
+    <t xml:space="preserve">1.80539524555206</t>
   </si>
   <si>
     <t xml:space="preserve">1.81523358821869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80047583580017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78642046451569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77587902545929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75057983398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74917435646057</t>
+    <t xml:space="preserve">1.80047571659088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78642070293427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77587914466858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75057971477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74917423725128</t>
   </si>
   <si>
     <t xml:space="preserve">1.75339066982269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75690460205078</t>
+    <t xml:space="preserve">1.75690472126007</t>
   </si>
   <si>
     <t xml:space="preserve">1.75831007957458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73230803012848</t>
+    <t xml:space="preserve">1.73230791091919</t>
   </si>
   <si>
     <t xml:space="preserve">1.74144375324249</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">1.71895551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73722696304321</t>
+    <t xml:space="preserve">1.7372270822525</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598326206207</t>
@@ -2381,28 +2381,28 @@
     <t xml:space="preserve">1.7126305103302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73160493373871</t>
+    <t xml:space="preserve">1.731605052948</t>
   </si>
   <si>
     <t xml:space="preserve">1.7182525396347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74214649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7484712600708</t>
+    <t xml:space="preserve">1.74214661121368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74847137928009</t>
   </si>
   <si>
     <t xml:space="preserve">1.82507228851318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84685802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85950779914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69365608692169</t>
+    <t xml:space="preserve">1.84685814380646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85950767993927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69365620613098</t>
   </si>
   <si>
     <t xml:space="preserve">1.63462400436401</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">1.50953233242035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45050036907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41325402259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3001092672348</t>
+    <t xml:space="preserve">1.45050024986267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41325390338898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30010938644409</t>
   </si>
   <si>
     <t xml:space="preserve">1.2804319858551</t>
@@ -2441,13 +2441,13 @@
     <t xml:space="preserve">1.25970065593719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2663768529892</t>
+    <t xml:space="preserve">1.26637697219849</t>
   </si>
   <si>
     <t xml:space="preserve">1.32540881633759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530481815338</t>
+    <t xml:space="preserve">1.37530493736267</t>
   </si>
   <si>
     <t xml:space="preserve">1.43855345249176</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">1.53975117206573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51164054870605</t>
+    <t xml:space="preserve">1.51164066791534</t>
   </si>
   <si>
     <t xml:space="preserve">1.57418644428253</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">1.54045379161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51234364509583</t>
+    <t xml:space="preserve">1.51234352588654</t>
   </si>
   <si>
     <t xml:space="preserve">1.51937103271484</t>
@@ -2510,16 +2510,16 @@
     <t xml:space="preserve">1.54326510429382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51796555519104</t>
+    <t xml:space="preserve">1.51796543598175</t>
   </si>
   <si>
     <t xml:space="preserve">1.59761190414429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47028815746307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46498286724091</t>
+    <t xml:space="preserve">1.47028803825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498274803162</t>
   </si>
   <si>
     <t xml:space="preserve">1.45664608478546</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">1.51272928714752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53091847896576</t>
+    <t xml:space="preserve">1.53091835975647</t>
   </si>
   <si>
     <t xml:space="preserve">1.54759180545807</t>
@@ -2549,13 +2549,13 @@
     <t xml:space="preserve">1.60973811149597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64460051059723</t>
+    <t xml:space="preserve">1.64460062980652</t>
   </si>
   <si>
     <t xml:space="preserve">1.66733682155609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72342002391815</t>
+    <t xml:space="preserve">1.72341990470886</t>
   </si>
   <si>
     <t xml:space="preserve">1.71129393577576</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">1.63853740692139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61883234977722</t>
+    <t xml:space="preserve">1.61883246898651</t>
   </si>
   <si>
     <t xml:space="preserve">1.62337970733643</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">1.60064339637756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59306466579437</t>
+    <t xml:space="preserve">1.59306454658508</t>
   </si>
   <si>
     <t xml:space="preserve">1.61428534984589</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">1.59912753105164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156889915466</t>
+    <t xml:space="preserve">1.64156877994537</t>
   </si>
   <si>
     <t xml:space="preserve">1.65672647953033</t>
@@ -2621,28 +2621,28 @@
     <t xml:space="preserve">1.63399004936218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63550591468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62489557266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65217936038971</t>
+    <t xml:space="preserve">1.6355060338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62489569187164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65217924118042</t>
   </si>
   <si>
     <t xml:space="preserve">1.64914786815643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65521085262299</t>
+    <t xml:space="preserve">1.65521097183228</t>
   </si>
   <si>
     <t xml:space="preserve">1.63247430324554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64611601829529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580109596252</t>
+    <t xml:space="preserve">1.64611613750458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580097675323</t>
   </si>
   <si>
     <t xml:space="preserve">1.70977807044983</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">1.67946314811707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71432530879974</t>
+    <t xml:space="preserve">1.71432542800903</t>
   </si>
   <si>
     <t xml:space="preserve">1.83407056331635</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">1.8568069934845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83558630943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82800734043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80678701400757</t>
+    <t xml:space="preserve">1.83558642864227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8280074596405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80678713321686</t>
   </si>
   <si>
     <t xml:space="preserve">1.80981838703156</t>
@@ -2678,13 +2678,13 @@
     <t xml:space="preserve">1.84164941310883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8401335477829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377562046051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85832262039185</t>
+    <t xml:space="preserve">1.84013366699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377538204193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85832250118256</t>
   </si>
   <si>
     <t xml:space="preserve">1.83710193634033</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">1.82194459438324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81891298294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859758377075</t>
+    <t xml:space="preserve">1.81891286373138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859746456146</t>
   </si>
   <si>
     <t xml:space="preserve">1.76434540748596</t>
@@ -2717,22 +2717,22 @@
     <t xml:space="preserve">1.82649183273315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81739723682404</t>
+    <t xml:space="preserve">1.81739735603333</t>
   </si>
   <si>
     <t xml:space="preserve">1.80527102947235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75979828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76282978057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7173570394516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73099863529205</t>
+    <t xml:space="preserve">1.75979816913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7628298997879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71735692024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73099875450134</t>
   </si>
   <si>
     <t xml:space="preserve">1.69007313251495</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">1.69310474395752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68704187870026</t>
+    <t xml:space="preserve">1.68704175949097</t>
   </si>
   <si>
     <t xml:space="preserve">1.68552589416504</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">1.70371508598328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71584105491638</t>
+    <t xml:space="preserve">1.71584117412567</t>
   </si>
   <si>
     <t xml:space="preserve">1.6840101480484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66278970241547</t>
+    <t xml:space="preserve">1.66278958320618</t>
   </si>
   <si>
     <t xml:space="preserve">1.58396995067596</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">1.54456031322479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55820202827454</t>
+    <t xml:space="preserve">1.55820214748383</t>
   </si>
   <si>
     <t xml:space="preserve">1.52940249443054</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">1.49226653575897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48620343208313</t>
+    <t xml:space="preserve">1.48620331287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.51121342182159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55062329769135</t>
+    <t xml:space="preserve">1.55062317848206</t>
   </si>
   <si>
     <t xml:space="preserve">1.57032811641693</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">1.56123352050781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63702166080475</t>
+    <t xml:space="preserve">1.63702154159546</t>
   </si>
   <si>
     <t xml:space="preserve">1.62944293022156</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">1.72190427780151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73706197738647</t>
+    <t xml:space="preserve">1.73706185817719</t>
   </si>
   <si>
     <t xml:space="preserve">1.73403024673462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74767231941223</t>
+    <t xml:space="preserve">1.74767208099365</t>
   </si>
   <si>
     <t xml:space="preserve">1.75221943855286</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">1.65066361427307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67794704437256</t>
+    <t xml:space="preserve">1.67794716358185</t>
   </si>
   <si>
     <t xml:space="preserve">1.6643054485321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66127359867096</t>
+    <t xml:space="preserve">1.66127371788025</t>
   </si>
   <si>
     <t xml:space="preserve">1.66582095623016</t>
@@ -2867,28 +2867,28 @@
     <t xml:space="preserve">1.70219933986664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60822200775146</t>
+    <t xml:space="preserve">1.60822212696075</t>
   </si>
   <si>
     <t xml:space="preserve">1.79011356830597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79617643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89470088481903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90227961540222</t>
+    <t xml:space="preserve">1.79617655277252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89470112323761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9022798538208</t>
   </si>
   <si>
     <t xml:space="preserve">1.87196457386017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81436574459076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.852259516716</t>
+    <t xml:space="preserve">1.81436562538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85225975513458</t>
   </si>
   <si>
     <t xml:space="preserve">1.86135447025299</t>
@@ -2906,16 +2906,16 @@
     <t xml:space="preserve">1.89015376567841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90531122684479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90834271907806</t>
+    <t xml:space="preserve">1.90531146526337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90834259986877</t>
   </si>
   <si>
     <t xml:space="preserve">1.90379559993744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88409066200256</t>
+    <t xml:space="preserve">1.88409078121185</t>
   </si>
   <si>
     <t xml:space="preserve">1.90682697296143</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">1.91137433052063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91592144966125</t>
+    <t xml:space="preserve">1.91592168807983</t>
   </si>
   <si>
     <t xml:space="preserve">1.93714213371277</t>
@@ -2945,16 +2945,16 @@
     <t xml:space="preserve">1.94320523738861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93562626838684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94623684883118</t>
+    <t xml:space="preserve">1.93562650680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94623708724976</t>
   </si>
   <si>
     <t xml:space="preserve">1.9507839679718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92653179168701</t>
+    <t xml:space="preserve">1.92653203010559</t>
   </si>
   <si>
     <t xml:space="preserve">1.96139442920685</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">1.9795835018158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97503614425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98564636707306</t>
+    <t xml:space="preserve">1.97503638267517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98564660549164</t>
   </si>
   <si>
     <t xml:space="preserve">1.99474120140076</t>
@@ -2996,19 +2996,19 @@
     <t xml:space="preserve">1.99170958995819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9962569475174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01293015480042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03869843482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03566670417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04627704620361</t>
+    <t xml:space="preserve">1.99625718593597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01293039321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03869819641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03566694259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04627728462219</t>
   </si>
   <si>
     <t xml:space="preserve">2.05385565757751</t>
@@ -3035,10 +3035,10 @@
     <t xml:space="preserve">2.09042191505432</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02850747108459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99266254901886</t>
+    <t xml:space="preserve">2.02850723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99266231060028</t>
   </si>
   <si>
     <t xml:space="preserve">1.98777437210083</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">2.00406765937805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03991270065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04480051994324</t>
+    <t xml:space="preserve">2.0399124622345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04480075836182</t>
   </si>
   <si>
     <t xml:space="preserve">2.0464301109314</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">2.06109380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03665399551392</t>
+    <t xml:space="preserve">2.0366542339325</t>
   </si>
   <si>
     <t xml:space="preserve">2.03176617622375</t>
@@ -3074,22 +3074,22 @@
     <t xml:space="preserve">2.02036094665527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02524876594543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02687811851501</t>
+    <t xml:space="preserve">2.02524900436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02687835693359</t>
   </si>
   <si>
     <t xml:space="preserve">2.01221418380737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99755024909973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9421534538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94867050647736</t>
+    <t xml:space="preserve">1.99755012989044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94215357303619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94867062568665</t>
   </si>
   <si>
     <t xml:space="preserve">1.9242308139801</t>
@@ -3098,19 +3098,19 @@
     <t xml:space="preserve">1.94052398204803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93726551532745</t>
+    <t xml:space="preserve">1.93726539611816</t>
   </si>
   <si>
     <t xml:space="preserve">1.92748928070068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99429178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98288655281067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96170520782471</t>
+    <t xml:space="preserve">1.99429166316986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98288643360138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96170508861542</t>
   </si>
   <si>
     <t xml:space="preserve">1.96333467960358</t>
@@ -3119,43 +3119,43 @@
     <t xml:space="preserve">1.94541192054749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88675618171692</t>
+    <t xml:space="preserve">1.88675630092621</t>
   </si>
   <si>
     <t xml:space="preserve">1.91282558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91608428955078</t>
+    <t xml:space="preserve">1.91608417034149</t>
   </si>
   <si>
     <t xml:space="preserve">1.90630805492401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8606870174408</t>
+    <t xml:space="preserve">1.86068713665009</t>
   </si>
   <si>
     <t xml:space="preserve">1.88349771499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92097210884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93400657176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90956687927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92586028575897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92260134220123</t>
+    <t xml:space="preserve">1.92097222805023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.934006690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90956699848175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92586016654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92260122299194</t>
   </si>
   <si>
     <t xml:space="preserve">1.92911875247955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01384329795837</t>
+    <t xml:space="preserve">2.01384353637695</t>
   </si>
   <si>
     <t xml:space="preserve">2.02199029922485</t>
@@ -3167,16 +3167,16 @@
     <t xml:space="preserve">2.00732612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98940360546112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99103283882141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00243806838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98451590538025</t>
+    <t xml:space="preserve">1.98940372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99103307723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00243830680847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98451602458954</t>
   </si>
   <si>
     <t xml:space="preserve">1.98614490032196</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">1.9714812040329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96985185146332</t>
+    <t xml:space="preserve">1.96985173225403</t>
   </si>
   <si>
     <t xml:space="preserve">1.93563604354858</t>
@@ -3194,22 +3194,22 @@
     <t xml:space="preserve">1.96007573604584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95029997825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91445481777191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93889474868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97799837589264</t>
+    <t xml:space="preserve">1.95029985904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91445469856262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93889462947845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97799849510193</t>
   </si>
   <si>
     <t xml:space="preserve">1.95844674110413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9812570810318</t>
+    <t xml:space="preserve">1.98125696182251</t>
   </si>
   <si>
     <t xml:space="preserve">2.01873135566711</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">2.04154205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05294752120972</t>
+    <t xml:space="preserve">2.05294728279114</t>
   </si>
   <si>
     <t xml:space="preserve">2.06272339820862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05946445465088</t>
+    <t xml:space="preserve">2.05946469306946</t>
   </si>
   <si>
     <t xml:space="preserve">2.05783534049988</t>
@@ -3248,13 +3248,13 @@
     <t xml:space="preserve">2.06924057006836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01710224151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96496367454529</t>
+    <t xml:space="preserve">2.0562059879303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01710200309753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96496379375458</t>
   </si>
   <si>
     <t xml:space="preserve">1.95192921161652</t>
@@ -3272,16 +3272,16 @@
     <t xml:space="preserve">1.97636914253235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0643527507782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05131793022156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08064556121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07086968421936</t>
+    <t xml:space="preserve">2.06435251235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05131769180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08064579963684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07086992263794</t>
   </si>
   <si>
     <t xml:space="preserve">2.07738709449768</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">2.0659818649292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0936803817749</t>
+    <t xml:space="preserve">2.09368014335632</t>
   </si>
   <si>
     <t xml:space="preserve">2.1034562587738</t>
@@ -3299,13 +3299,13 @@
     <t xml:space="preserve">2.10834431648254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10508584976196</t>
+    <t xml:space="preserve">2.10508561134338</t>
   </si>
   <si>
     <t xml:space="preserve">2.08879232406616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07575798034668</t>
+    <t xml:space="preserve">2.0757577419281</t>
   </si>
   <si>
     <t xml:space="preserve">2.12137913703918</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">2.09693884849548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0480592250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95518791675568</t>
+    <t xml:space="preserve">2.04805946350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95518779754639</t>
   </si>
   <si>
     <t xml:space="preserve">1.97962784767151</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">1.77107441425323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87046301364899</t>
+    <t xml:space="preserve">1.87046313285828</t>
   </si>
   <si>
     <t xml:space="preserve">1.97473967075348</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">2.10997366905212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14744806289673</t>
+    <t xml:space="preserve">2.14744782447815</t>
   </si>
   <si>
     <t xml:space="preserve">2.13278436660767</t>
@@ -3368,13 +3368,13 @@
     <t xml:space="preserve">2.14256024360657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16374111175537</t>
+    <t xml:space="preserve">2.16374135017395</t>
   </si>
   <si>
     <t xml:space="preserve">2.18166375160217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18818116188049</t>
+    <t xml:space="preserve">2.18818140029907</t>
   </si>
   <si>
     <t xml:space="preserve">2.19795703887939</t>
@@ -3383,16 +3383,16 @@
     <t xml:space="preserve">2.16211199760437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18003487586975</t>
+    <t xml:space="preserve">2.18003463745117</t>
   </si>
   <si>
     <t xml:space="preserve">2.17840528488159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19958639144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20284509658813</t>
+    <t xml:space="preserve">2.19958662986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20284485816956</t>
   </si>
   <si>
     <t xml:space="preserve">2.20447444915771</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">2.19632768630981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19143986701965</t>
+    <t xml:space="preserve">2.19143962860107</t>
   </si>
   <si>
     <t xml:space="preserve">2.16862940788269</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">2.19306898117065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18655157089233</t>
+    <t xml:space="preserve">2.18655180931091</t>
   </si>
   <si>
     <t xml:space="preserve">2.17025852203369</t>
@@ -3422,10 +3422,10 @@
     <t xml:space="preserve">2.20610380172729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13441324234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21099162101746</t>
+    <t xml:space="preserve">2.13441348075867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21099185943604</t>
   </si>
   <si>
     <t xml:space="preserve">2.14093065261841</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">2.17351722717285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17514634132385</t>
+    <t xml:space="preserve">2.17514657974243</t>
   </si>
   <si>
     <t xml:space="preserve">2.24531245231628</t>
@@ -60602,13 +60602,13 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6496296296</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>433797</v>
       </c>
       <c r="C2158" t="n">
-        <v>2.52800011634827</v>
+        <v>2.53200006484985</v>
       </c>
       <c r="D2158" t="n">
         <v>2.5220000743866</v>
@@ -60623,6 +60623,32 @@
         <v>1388</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494675926</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>340034</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>2.52600002288818</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>2.52600002288818</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/US.MI.xlsx
+++ b/data/US.MI.xlsx
@@ -38,52 +38,52 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356404781342</t>
+    <t xml:space="preserve">1.20356416702271</t>
   </si>
   <si>
     <t xml:space="preserve">US.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20143187046051</t>
+    <t xml:space="preserve">1.20143175125122</t>
   </si>
   <si>
     <t xml:space="preserve">1.17478084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15346002578735</t>
+    <t xml:space="preserve">1.15345990657806</t>
   </si>
   <si>
     <t xml:space="preserve">1.1374694108963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14066755771637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15452599525452</t>
+    <t xml:space="preserve">1.14066743850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15452587604523</t>
   </si>
   <si>
     <t xml:space="preserve">1.16092228889465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11295032501221</t>
+    <t xml:space="preserve">1.11295020580292</t>
   </si>
   <si>
     <t xml:space="preserve">1.08949720859528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07030832767487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04578948020935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08523321151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09482753276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0713746547699</t>
+    <t xml:space="preserve">1.07030844688416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04578936100006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08523309230804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09482729434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07137453556061</t>
   </si>
   <si>
     <t xml:space="preserve">1.06817638874054</t>
@@ -92,31 +92,31 @@
     <t xml:space="preserve">1.05378472805023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01274216175079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03832709789276</t>
+    <t xml:space="preserve">1.0127420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03832697868347</t>
   </si>
   <si>
     <t xml:space="preserve">1.01700627803802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984491884708405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95464289188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957840800285339</t>
+    <t xml:space="preserve">0.984491944313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954642653465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957840919494629</t>
   </si>
   <si>
     <t xml:space="preserve">0.921062231063843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868826150894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84057605266571</t>
+    <t xml:space="preserve">0.86882621049881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840575993061066</t>
   </si>
   <si>
     <t xml:space="preserve">0.888547956943512</t>
@@ -125,61 +125,61 @@
     <t xml:space="preserve">0.826717376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917864143848419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972232460975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960506021976471</t>
+    <t xml:space="preserve">0.917864084243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972232520580292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960505902767181</t>
   </si>
   <si>
     <t xml:space="preserve">0.99035519361496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98289293050766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970100522041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99994957447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979161739349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97116631269455</t>
+    <t xml:space="preserve">0.98289281129837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970100343227386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999949634075165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979161620140076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971166431903839</t>
   </si>
   <si>
     <t xml:space="preserve">0.988756060600281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01114296913147</t>
+    <t xml:space="preserve">1.01114308834076</t>
   </si>
   <si>
     <t xml:space="preserve">1.01007699966431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0372611284256</t>
+    <t xml:space="preserve">1.03726100921631</t>
   </si>
   <si>
     <t xml:space="preserve">1.0617800951004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0468555688858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03566205501556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00314784049988</t>
+    <t xml:space="preserve">1.04685544967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03566193580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00314772129059</t>
   </si>
   <si>
     <t xml:space="preserve">1.01913833618164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02127063274384</t>
+    <t xml:space="preserve">1.02127039432526</t>
   </si>
   <si>
     <t xml:space="preserve">1.01060998439789</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">1.07777070999146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08203518390656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07244062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08416700363159</t>
+    <t xml:space="preserve">1.08203494548798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07244050502777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0841668844223</t>
   </si>
   <si>
     <t xml:space="preserve">1.07990300655365</t>
@@ -203,22 +203,22 @@
     <t xml:space="preserve">1.08843123912811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07670485973358</t>
+    <t xml:space="preserve">1.076704621315</t>
   </si>
   <si>
     <t xml:space="preserve">1.06604433059692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08629930019379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04365742206573</t>
+    <t xml:space="preserve">1.0862991809845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04365730285645</t>
   </si>
   <si>
     <t xml:space="preserve">1.049520611763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05005359649658</t>
+    <t xml:space="preserve">1.05005347728729</t>
   </si>
   <si>
     <t xml:space="preserve">1.07457268238068</t>
@@ -227,85 +227,85 @@
     <t xml:space="preserve">1.05804896354675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02926564216614</t>
+    <t xml:space="preserve">1.02926576137543</t>
   </si>
   <si>
     <t xml:space="preserve">1.07883667945862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09269547462463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0937614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09695959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04845440387726</t>
+    <t xml:space="preserve">1.09269535541534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09376156330109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09695971012115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04845464229584</t>
   </si>
   <si>
     <t xml:space="preserve">1.04259133338928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03299677371979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01594030857086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00154852867126</t>
+    <t xml:space="preserve">1.03299689292908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01594018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00154876708984</t>
   </si>
   <si>
     <t xml:space="preserve">0.976496636867523</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970633327960968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980760812759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986090958118439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98493093252182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00581288337708</t>
+    <t xml:space="preserve">0.970633268356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980760753154755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986091077327728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984930872917175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00581276416779</t>
   </si>
   <si>
     <t xml:space="preserve">1.03829574584961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03365528583527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04409635066986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04235625267029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02437448501587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03133535385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993631720542908</t>
+    <t xml:space="preserve">1.03365552425385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04409623146057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04235637187958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02437460422516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03133523464203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993631899356842</t>
   </si>
   <si>
     <t xml:space="preserve">0.993051588535309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999432384967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998272061347961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98203057050705</t>
+    <t xml:space="preserve">0.999432265758514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998272180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982030689716339</t>
   </si>
   <si>
     <t xml:space="preserve">0.933306217193604</t>
@@ -314,154 +314,154 @@
     <t xml:space="preserve">0.901983201503754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871240437030792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861379444599152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83411693572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871820569038391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909524023532867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91474437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912424147129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951287865638733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851518571376801</t>
+    <t xml:space="preserve">0.871240556240082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861379504203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834116995334625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871820390224457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909523904323578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914744436740875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912424087524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951287806034088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851518630981445</t>
   </si>
   <si>
     <t xml:space="preserve">0.80279403924942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825996279716492</t>
+    <t xml:space="preserve">0.825996339321136</t>
   </si>
   <si>
     <t xml:space="preserve">0.792933225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781332194805145</t>
+    <t xml:space="preserve">0.781332015991211</t>
   </si>
   <si>
     <t xml:space="preserve">0.81323504447937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791192829608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756389796733856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733187675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730867445468903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802214026451111</t>
+    <t xml:space="preserve">0.791192948818207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756389856338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733187615871429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730867385864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802214086055756</t>
   </si>
   <si>
     <t xml:space="preserve">0.819615662097931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850938558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.824256122112274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850358366966248</t>
+    <t xml:space="preserve">0.850938498973846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824256062507629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850358426570892</t>
   </si>
   <si>
     <t xml:space="preserve">0.866599977016449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847458243370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849198341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.854418873786926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842237830162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852678656578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857319116592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876460909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870080232620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856739044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811494946479797</t>
+    <t xml:space="preserve">0.847458302974701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849198281764984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854418814182281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842237710952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852678716182709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857319176197052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87646096944809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870080292224884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856739103794098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811494886875153</t>
   </si>
   <si>
     <t xml:space="preserve">0.826576232910156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824836075305939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846878170967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87936133146286</t>
+    <t xml:space="preserve">0.824836134910583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846878111362457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879361212253571</t>
   </si>
   <si>
     <t xml:space="preserve">0.888061881065369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885161697864532</t>
+    <t xml:space="preserve">0.885161876678467</t>
   </si>
   <si>
     <t xml:space="preserve">0.893282413482666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887481868267059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85499894618988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828896462917328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84803831577301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835277080535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82077568769455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.852098524570465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340075016022</t>
+    <t xml:space="preserve">0.887481987476349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.854998886585236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828896522521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848038256168365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837597370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835277140140533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820775747299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85209858417511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340134620667</t>
   </si>
   <si>
     <t xml:space="preserve">0.865439891815186</t>
@@ -470,58 +470,58 @@
     <t xml:space="preserve">0.882841348648071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89734297990799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910684168338776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910104095935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881101310253143</t>
+    <t xml:space="preserve">0.897342920303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910684108734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910103917121887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881101429462433</t>
   </si>
   <si>
     <t xml:space="preserve">0.834697008132935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842817664146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827736377716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839917421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860219538211823</t>
+    <t xml:space="preserve">0.842817604541779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827736437320709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839917540550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860219419002533</t>
   </si>
   <si>
     <t xml:space="preserve">0.874720692634583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881681263446808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907783806324005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93968665599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949547529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96056866645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980870604515076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997112154960632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00929307937622</t>
+    <t xml:space="preserve">0.881681382656097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907783687114716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939686715602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949547648429871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960568606853485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980870485305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997111976146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00929319858551</t>
   </si>
   <si>
     <t xml:space="preserve">1.00871300697327</t>
@@ -530,64 +530,64 @@
     <t xml:space="preserve">1.00175249576569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972169697284698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969849467277527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947227418422699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976230144500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979130387306213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973909795284271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997692167758942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03713572025299</t>
+    <t xml:space="preserve">0.972169816493988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969849705696106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947227299213409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976230084896088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979130208492279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973909974098206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0371356010437</t>
   </si>
   <si>
     <t xml:space="preserve">1.0580176115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06613862514496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05685770511627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02089428901672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03945589065552</t>
+    <t xml:space="preserve">1.06613838672638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05685758590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02089416980743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0394561290741</t>
   </si>
   <si>
     <t xml:space="preserve">1.03249514102936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02147424221039</t>
+    <t xml:space="preserve">1.02147436141968</t>
   </si>
   <si>
     <t xml:space="preserve">1.00117230415344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02611470222473</t>
+    <t xml:space="preserve">1.02611458301544</t>
   </si>
   <si>
     <t xml:space="preserve">1.05337727069855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04583656787872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05743741989136</t>
+    <t xml:space="preserve">1.04583644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05743753910065</t>
   </si>
   <si>
     <t xml:space="preserve">1.09920144081116</t>
@@ -596,16 +596,16 @@
     <t xml:space="preserve">1.14850604534149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16590762138367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16126716136932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17054796218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18214929103851</t>
+    <t xml:space="preserve">1.16590750217438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16126704216003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17054808139801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18214917182922</t>
   </si>
   <si>
     <t xml:space="preserve">1.17170810699463</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">1.17750859260559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18794965744019</t>
+    <t xml:space="preserve">1.18794977664948</t>
   </si>
   <si>
     <t xml:space="preserve">1.17402839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19026982784271</t>
+    <t xml:space="preserve">1.190269947052</t>
   </si>
   <si>
     <t xml:space="preserve">1.19491028785706</t>
@@ -635,16 +635,16 @@
     <t xml:space="preserve">1.20071065425873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22507309913635</t>
+    <t xml:space="preserve">1.22507297992706</t>
   </si>
   <si>
     <t xml:space="preserve">1.23783421516418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23551404476166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2285532951355</t>
+    <t xml:space="preserve">1.23551392555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22855353355408</t>
   </si>
   <si>
     <t xml:space="preserve">1.21231186389923</t>
@@ -653,43 +653,43 @@
     <t xml:space="preserve">1.20419108867645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21695232391357</t>
+    <t xml:space="preserve">1.21695244312286</t>
   </si>
   <si>
     <t xml:space="preserve">1.18098902702332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20651137828827</t>
+    <t xml:space="preserve">1.20651125907898</t>
   </si>
   <si>
     <t xml:space="preserve">1.16938805580139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15952694416046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1537264585495</t>
+    <t xml:space="preserve">1.15952706336975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15372633934021</t>
   </si>
   <si>
     <t xml:space="preserve">1.16822779178619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15720689296722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19258987903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20883166790009</t>
+    <t xml:space="preserve">1.15720677375793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19258999824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2088315486908</t>
   </si>
   <si>
     <t xml:space="preserve">1.1891096830368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1340047121048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11718320846558</t>
+    <t xml:space="preserve">1.13400483131409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11718308925629</t>
   </si>
   <si>
     <t xml:space="preserve">1.13168442249298</t>
@@ -701,37 +701,37 @@
     <t xml:space="preserve">1.15198636054993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10732221603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10442209243774</t>
+    <t xml:space="preserve">1.10732209682465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10442197322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.09804141521454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10210168361664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09050071239471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14154529571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15604662895203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15894687175751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16010701656342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16706788539886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15662682056427</t>
+    <t xml:space="preserve">1.10210156440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09050059318542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14154553413391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15604674816132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1589469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16010713577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16706776618958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15662670135498</t>
   </si>
   <si>
     <t xml:space="preserve">1.13980519771576</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">1.19375026226044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17866885662079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19142973423004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19955086708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20187091827393</t>
+    <t xml:space="preserve">1.1786687374115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19142985343933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1995507478714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20187103748322</t>
   </si>
   <si>
     <t xml:space="preserve">1.18562936782837</t>
@@ -758,76 +758,76 @@
     <t xml:space="preserve">1.21811234951019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19723045825958</t>
+    <t xml:space="preserve">1.19723033905029</t>
   </si>
   <si>
     <t xml:space="preserve">1.20303094387054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19607031345367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17286837100983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1456059217453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23087346553802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22391283512115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23667418956757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25871622562408</t>
+    <t xml:space="preserve">1.19607043266296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17286825180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14560580253601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23087358474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22391307353973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23667395114899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25871610641479</t>
   </si>
   <si>
     <t xml:space="preserve">1.27147734165192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26451671123505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27959811687469</t>
+    <t xml:space="preserve">1.26451659202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27959799766541</t>
   </si>
   <si>
     <t xml:space="preserve">1.29467952251434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27031707763672</t>
+    <t xml:space="preserve">1.27031719684601</t>
   </si>
   <si>
     <t xml:space="preserve">1.25639593601227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26799714565277</t>
+    <t xml:space="preserve">1.26799702644348</t>
   </si>
   <si>
     <t xml:space="preserve">1.24711513519287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25175559520721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27207434177399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28192591667175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29547154903412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28438854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27699995040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23636257648468</t>
+    <t xml:space="preserve">1.25175547599792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27207410335541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28192567825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29547166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.284388422966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27699983119965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23636245727539</t>
   </si>
   <si>
     <t xml:space="preserve">1.23759412765503</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">1.24128842353821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24375116825104</t>
+    <t xml:space="preserve">1.24375128746033</t>
   </si>
   <si>
     <t xml:space="preserve">1.21912252902985</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">1.19572520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22527956962585</t>
+    <t xml:space="preserve">1.22527980804443</t>
   </si>
   <si>
     <t xml:space="preserve">1.21727538108826</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">1.22712683677673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21481251716614</t>
+    <t xml:space="preserve">1.21481239795685</t>
   </si>
   <si>
     <t xml:space="preserve">1.19141507148743</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">1.21789121627808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20249807834625</t>
+    <t xml:space="preserve">1.20249795913696</t>
   </si>
   <si>
     <t xml:space="preserve">1.22404813766479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19634091854095</t>
+    <t xml:space="preserve">1.19634079933167</t>
   </si>
   <si>
     <t xml:space="preserve">1.20372951030731</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">1.22035396099091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22096967697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.176638007164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20126664638519</t>
+    <t xml:space="preserve">1.22096979618073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17663788795471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2012665271759</t>
   </si>
   <si>
     <t xml:space="preserve">1.1994194984436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20434510707855</t>
+    <t xml:space="preserve">1.20434534549713</t>
   </si>
   <si>
     <t xml:space="preserve">1.23143684864044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22343254089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22835826873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21358108520508</t>
+    <t xml:space="preserve">1.22343242168427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2283581495285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21358096599579</t>
   </si>
   <si>
     <t xml:space="preserve">1.21173393726349</t>
@@ -920,31 +920,31 @@
     <t xml:space="preserve">1.18525791168213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20003509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19203078746796</t>
+    <t xml:space="preserve">1.20003521442413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19203090667725</t>
   </si>
   <si>
     <t xml:space="preserve">1.20496082305908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665954589844</t>
+    <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
     <t xml:space="preserve">1.2265111207962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23882567882538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24251973628998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23513114452362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18833649158478</t>
+    <t xml:space="preserve">1.23882555961609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24251985549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18833661079407</t>
   </si>
   <si>
     <t xml:space="preserve">1.19818806648254</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">1.18772089481354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1907993555069</t>
+    <t xml:space="preserve">1.19079959392548</t>
   </si>
   <si>
     <t xml:space="preserve">1.18895220756531</t>
@@ -965,79 +965,79 @@
     <t xml:space="preserve">1.18587362766266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17355918884277</t>
+    <t xml:space="preserve">1.17355930805206</t>
   </si>
   <si>
     <t xml:space="preserve">1.17602217197418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1741749048233</t>
+    <t xml:space="preserve">1.17417502403259</t>
   </si>
   <si>
     <t xml:space="preserve">1.19387793540955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17910063266754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16555500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16001343727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16186046600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15324056148529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18956804275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20865523815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18341088294983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1784850358963</t>
+    <t xml:space="preserve">1.17910075187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1655547618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16001355648041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.161860704422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.153240442276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18956816196442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20865535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18341076374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17848515510559</t>
   </si>
   <si>
     <t xml:space="preserve">1.1975724697113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22220098972321</t>
+    <t xml:space="preserve">1.2222011089325</t>
   </si>
   <si>
     <t xml:space="preserve">1.20742392539978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20619237422943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21542811393738</t>
+    <t xml:space="preserve">1.20619225502014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21542823314667</t>
   </si>
   <si>
     <t xml:space="preserve">1.21050238609314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19880366325378</t>
+    <t xml:space="preserve">1.19880378246307</t>
   </si>
   <si>
     <t xml:space="preserve">1.21419668197632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23020541667938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20988667011261</t>
+    <t xml:space="preserve">1.23020553588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2098867893219</t>
   </si>
   <si>
     <t xml:space="preserve">1.15693485736847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16124498844147</t>
+    <t xml:space="preserve">1.16124486923218</t>
   </si>
   <si>
     <t xml:space="preserve">1.13600051403046</t>
@@ -1046,13 +1046,13 @@
     <t xml:space="preserve">1.14646768569946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16247642040253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16740214824677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16986501216888</t>
+    <t xml:space="preserve">1.16247630119324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16740226745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16986489295959</t>
   </si>
   <si>
     <t xml:space="preserve">1.16309213638306</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">1.16801774501801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17171204090118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16863346099854</t>
+    <t xml:space="preserve">1.17171216011047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16863369941711</t>
   </si>
   <si>
     <t xml:space="preserve">1.18156373500824</t>
@@ -1076,40 +1076,40 @@
     <t xml:space="preserve">1.21296536922455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21111798286438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20927095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2160439491272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25237119197845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26222288608551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24867713451385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25729715824127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26468551158905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2659170627594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28561997413635</t>
+    <t xml:space="preserve">1.21111822128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20927083492279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21604382991791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25237131118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26222264766693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24867689609528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25729703903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26468563079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26591718196869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28562009334564</t>
   </si>
   <si>
     <t xml:space="preserve">1.30162870883942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30532288551331</t>
+    <t xml:space="preserve">1.30532312393188</t>
   </si>
   <si>
     <t xml:space="preserve">1.29177725315094</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">1.28131008148193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26653277873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24990856647491</t>
+    <t xml:space="preserve">1.26653265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24990832805634</t>
   </si>
   <si>
     <t xml:space="preserve">1.25606560707092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22189319133759</t>
+    <t xml:space="preserve">1.22189331054688</t>
   </si>
   <si>
     <t xml:space="preserve">1.23328399658203</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">1.23082113265991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20465326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23944127559662</t>
+    <t xml:space="preserve">1.20465314388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23944115638733</t>
   </si>
   <si>
     <t xml:space="preserve">1.24621403217316</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">1.23820972442627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21265733242035</t>
+    <t xml:space="preserve">1.21265745162964</t>
   </si>
   <si>
     <t xml:space="preserve">1.22066175937653</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.21819889545441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21512043476105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18987607955933</t>
+    <t xml:space="preserve">1.21512031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18987584114075</t>
   </si>
   <si>
     <t xml:space="preserve">1.18433439731598</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">1.21081030368805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21019470691681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20095884799957</t>
+    <t xml:space="preserve">1.21019446849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20095872879028</t>
   </si>
   <si>
     <t xml:space="preserve">1.1911073923111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18310308456421</t>
+    <t xml:space="preserve">1.18310296535492</t>
   </si>
   <si>
     <t xml:space="preserve">1.1846421957016</t>
@@ -1199,97 +1199,97 @@
     <t xml:space="preserve">1.20650017261505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2640700340271</t>
+    <t xml:space="preserve">1.26406979560852</t>
   </si>
   <si>
     <t xml:space="preserve">1.27145862579346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28069424629211</t>
+    <t xml:space="preserve">1.2806943655014</t>
   </si>
   <si>
     <t xml:space="preserve">1.29424011707306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30409157276154</t>
+    <t xml:space="preserve">1.30409169197083</t>
   </si>
   <si>
     <t xml:space="preserve">1.31332743167877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33795619010925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34780752658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34657633304596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34288203716278</t>
+    <t xml:space="preserve">1.33795630931854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34780764579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34657621383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34288191795349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3595062494278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37305223941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38536643981934</t>
+    <t xml:space="preserve">1.37305212020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38536632061005</t>
   </si>
   <si>
     <t xml:space="preserve">1.35827493667603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3761305809021</t>
+    <t xml:space="preserve">1.37613070011139</t>
   </si>
   <si>
     <t xml:space="preserve">1.38167214393616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35519623756409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35458064079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34041917324066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34349739551544</t>
+    <t xml:space="preserve">1.3551961183548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35458052158356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34041905403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34349775314331</t>
   </si>
   <si>
     <t xml:space="preserve">1.31763756275177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29731869697571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30840158462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29622423648834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29556286334991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2780374288559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26282668113708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25356769561768</t>
+    <t xml:space="preserve">1.297318816185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30840182304382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29622411727905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29556274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27803730964661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2628265619278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25356781482697</t>
   </si>
   <si>
     <t xml:space="preserve">1.26018130779266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25059187412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30217611789703</t>
+    <t xml:space="preserve">1.25059175491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30217623710632</t>
   </si>
   <si>
     <t xml:space="preserve">1.24463963508606</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.27473068237305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24893832206726</t>
+    <t xml:space="preserve">1.24893844127655</t>
   </si>
   <si>
     <t xml:space="preserve">1.23901832103729</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">1.21851682662964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25786650180817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23934900760651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25092244148254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24728512763977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23868787288666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2522451877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25654375553131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25555193424225</t>
+    <t xml:space="preserve">1.25786662101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2393491268158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25092256069183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24728500843048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23868775367737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25224506855011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2565438747406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25555169582367</t>
   </si>
   <si>
     <t xml:space="preserve">1.23604238033295</t>
@@ -1343,34 +1343,34 @@
     <t xml:space="preserve">1.21686351299286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23835706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27043187618256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25422918796539</t>
+    <t xml:space="preserve">1.23835682868958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27043199539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2542290687561</t>
   </si>
   <si>
     <t xml:space="preserve">1.25158381462097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2995308637619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2909334897995</t>
+    <t xml:space="preserve">1.29953098297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29093337059021</t>
   </si>
   <si>
     <t xml:space="preserve">1.32862985134125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3273069858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3101122379303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29192554950714</t>
+    <t xml:space="preserve">1.32730710506439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31011235713959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29192543029785</t>
   </si>
   <si>
     <t xml:space="preserve">1.27737605571747</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">1.26844799518585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26613330841064</t>
+    <t xml:space="preserve">1.26613318920135</t>
   </si>
   <si>
     <t xml:space="preserve">1.25951981544495</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">1.26877868175507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27307713031769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.288618683815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24959981441498</t>
+    <t xml:space="preserve">1.27307724952698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28861880302429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24959993362427</t>
   </si>
   <si>
     <t xml:space="preserve">1.24001038074493</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">1.24331700801849</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24100232124329</t>
+    <t xml:space="preserve">1.24100244045258</t>
   </si>
   <si>
     <t xml:space="preserve">1.22678363323212</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">1.26447987556458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28068268299103</t>
+    <t xml:space="preserve">1.28068280220032</t>
   </si>
   <si>
     <t xml:space="preserve">1.25522112846375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25489068031311</t>
+    <t xml:space="preserve">1.25489044189453</t>
   </si>
   <si>
     <t xml:space="preserve">1.27406930923462</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">1.30449092388153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30052304267883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29655480384827</t>
+    <t xml:space="preserve">1.30052292346954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29655492305756</t>
   </si>
   <si>
     <t xml:space="preserve">1.30482161045074</t>
@@ -1463,28 +1463,28 @@
     <t xml:space="preserve">1.28365874290466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28994166851044</t>
+    <t xml:space="preserve">1.28994143009186</t>
   </si>
   <si>
     <t xml:space="preserve">1.32036304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31540286540985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31738710403442</t>
+    <t xml:space="preserve">1.31540298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31738698482513</t>
   </si>
   <si>
     <t xml:space="preserve">1.33854985237122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33259797096252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33061385154724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32400047779083</t>
+    <t xml:space="preserve">1.33259785175323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33061397075653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32400035858154</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574460029602</t>
@@ -1496,43 +1496,43 @@
     <t xml:space="preserve">1.36698734760284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38550496101379</t>
+    <t xml:space="preserve">1.3855048418045</t>
   </si>
   <si>
     <t xml:space="preserve">1.38748896121979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40336108207703</t>
+    <t xml:space="preserve">1.40336120128632</t>
   </si>
   <si>
     <t xml:space="preserve">1.41195845603943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41328132152557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3425178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31705641746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33127522468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35111546516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29688549041748</t>
+    <t xml:space="preserve">1.41328120231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34251797199249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31705629825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33127510547638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3511153459549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29688560962677</t>
   </si>
   <si>
     <t xml:space="preserve">1.30019223690033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31639492511749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26315712928772</t>
+    <t xml:space="preserve">1.31639504432678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26315724849701</t>
   </si>
   <si>
     <t xml:space="preserve">1.26745593547821</t>
@@ -1544,43 +1544,43 @@
     <t xml:space="preserve">1.2714239358902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24860787391663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24761569499969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23141300678253</t>
+    <t xml:space="preserve">1.24860763549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24761593341827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23141288757324</t>
   </si>
   <si>
     <t xml:space="preserve">1.24662375450134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24926924705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233599662781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26977062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27704548835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28398942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30118429660797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3081282377243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30912041664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32532286643982</t>
+    <t xml:space="preserve">1.24926912784576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2823361158371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26977050304413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27704524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28398931026459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30118417739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30812835693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30912029743195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32532298564911</t>
   </si>
   <si>
     <t xml:space="preserve">1.32796835899353</t>
@@ -1589,25 +1589,25 @@
     <t xml:space="preserve">1.34119534492493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36566483974457</t>
+    <t xml:space="preserve">1.36566472053528</t>
   </si>
   <si>
     <t xml:space="preserve">1.37095534801483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3597127199173</t>
+    <t xml:space="preserve">1.35971283912659</t>
   </si>
   <si>
     <t xml:space="preserve">1.33590447902679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33722710609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34979248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33193635940552</t>
+    <t xml:space="preserve">1.33722734451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34979259967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3319365978241</t>
   </si>
   <si>
     <t xml:space="preserve">1.3405339717865</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.32267773151398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36103534698486</t>
+    <t xml:space="preserve">1.36103546619415</t>
   </si>
   <si>
     <t xml:space="preserve">1.37360084056854</t>
@@ -1637,22 +1637,22 @@
     <t xml:space="preserve">1.30548298358917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3233391046524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28961074352264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29060292243958</t>
+    <t xml:space="preserve">1.32333898544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28961098194122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29060280323029</t>
   </si>
   <si>
     <t xml:space="preserve">1.3015148639679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30515217781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30746686458588</t>
+    <t xml:space="preserve">1.30515229701996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30746698379517</t>
   </si>
   <si>
     <t xml:space="preserve">1.28200542926788</t>
@@ -1661,13 +1661,13 @@
     <t xml:space="preserve">1.28498136997223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26811742782593</t>
+    <t xml:space="preserve">1.26811730861664</t>
   </si>
   <si>
     <t xml:space="preserve">1.30713629722595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30845904350281</t>
+    <t xml:space="preserve">1.30845892429352</t>
   </si>
   <si>
     <t xml:space="preserve">1.34185659885406</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">1.37492346763611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36963284015656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38881158828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40402233600616</t>
+    <t xml:space="preserve">1.36963272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38881146907806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40402245521545</t>
   </si>
   <si>
     <t xml:space="preserve">1.41261970996857</t>
@@ -1691,37 +1691,37 @@
     <t xml:space="preserve">1.42716932296753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39807057380676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42650806903839</t>
+    <t xml:space="preserve">1.39807045459747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4265079498291</t>
   </si>
   <si>
     <t xml:space="preserve">1.44502544403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44833207130432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45362281799316</t>
+    <t xml:space="preserve">1.44833219051361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45362269878387</t>
   </si>
   <si>
     <t xml:space="preserve">1.44304144382477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44965481758118</t>
+    <t xml:space="preserve">1.44965469837189</t>
   </si>
   <si>
     <t xml:space="preserve">1.47081768512726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48735117912292</t>
+    <t xml:space="preserve">1.48735105991364</t>
   </si>
   <si>
     <t xml:space="preserve">1.47214043140411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47147881984711</t>
+    <t xml:space="preserve">1.47147905826569</t>
   </si>
   <si>
     <t xml:space="preserve">1.46817231178284</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">1.43642795085907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43576657772064</t>
+    <t xml:space="preserve">1.43576669692993</t>
   </si>
   <si>
     <t xml:space="preserve">1.43907344341278</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">1.40732908248901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36169672012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38219809532166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41129720211029</t>
+    <t xml:space="preserve">1.36169683933258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38219821453094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.411297082901</t>
   </si>
   <si>
     <t xml:space="preserve">1.40865182876587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4351053237915</t>
+    <t xml:space="preserve">1.43510544300079</t>
   </si>
   <si>
     <t xml:space="preserve">1.43444383144379</t>
@@ -1763,82 +1763,82 @@
     <t xml:space="preserve">1.43047606945038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43775081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44105744361877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43179857730865</t>
+    <t xml:space="preserve">1.43775069713593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4410572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43179845809937</t>
   </si>
   <si>
     <t xml:space="preserve">1.4523001909256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45957481861115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46023619174957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47280168533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47610855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46883356571198</t>
+    <t xml:space="preserve">1.45957505702972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46023631095886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47280156612396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4761084318161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46883368492126</t>
   </si>
   <si>
     <t xml:space="preserve">1.45825207233429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48602855205536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49065780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50322306156158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50586867332458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53562891483307</t>
+    <t xml:space="preserve">1.48602843284607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49065768718719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50322329998016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5058685541153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53562879562378</t>
   </si>
   <si>
     <t xml:space="preserve">1.5620824098587</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56075954437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57530927658081</t>
+    <t xml:space="preserve">1.56075966358185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57530903816223</t>
   </si>
   <si>
     <t xml:space="preserve">1.57332515716553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56406652927399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5772932767868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58985877037048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58655166625977</t>
+    <t xml:space="preserve">1.5640664100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57729315757751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58985865116119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58655202388763</t>
   </si>
   <si>
     <t xml:space="preserve">1.60374665260315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60837614536285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59713351726532</t>
+    <t xml:space="preserve">1.60837602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59713327884674</t>
   </si>
   <si>
     <t xml:space="preserve">1.6116828918457</t>
@@ -1847,25 +1847,25 @@
     <t xml:space="preserve">1.61102151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59448802471161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59382665157318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5925041437149</t>
+    <t xml:space="preserve">1.5944881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59382677078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59250402450562</t>
   </si>
   <si>
     <t xml:space="preserve">1.59779465198517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60308527946472</t>
+    <t xml:space="preserve">1.60308539867401</t>
   </si>
   <si>
     <t xml:space="preserve">1.60110151767731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61300528049469</t>
+    <t xml:space="preserve">1.61300539970398</t>
   </si>
   <si>
     <t xml:space="preserve">1.61631214618683</t>
@@ -1877,37 +1877,37 @@
     <t xml:space="preserve">1.60176253318787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61432814598083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60573065280914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61565089225769</t>
+    <t xml:space="preserve">1.61432802677155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60573077201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61565113067627</t>
   </si>
   <si>
     <t xml:space="preserve">1.61498939990997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61829614639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62160277366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59316527843475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56671166419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54554891586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60506939888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63350701332092</t>
+    <t xml:space="preserve">1.61829626560211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62160289287567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59316504001617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56671190261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54554903507233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60506951808929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63350713253021</t>
   </si>
   <si>
     <t xml:space="preserve">1.64474976062775</t>
@@ -1922,16 +1922,16 @@
     <t xml:space="preserve">1.61916327476501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61143279075623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56294226646423</t>
+    <t xml:space="preserve">1.61143290996552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56294238567352</t>
   </si>
   <si>
     <t xml:space="preserve">1.60721623897552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59456646442413</t>
+    <t xml:space="preserve">1.59456658363342</t>
   </si>
   <si>
     <t xml:space="preserve">1.57629489898682</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">1.53342628479004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52077662944794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54748153686523</t>
+    <t xml:space="preserve">1.52077674865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54748141765594</t>
   </si>
   <si>
     <t xml:space="preserve">1.53061521053314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53412914276123</t>
+    <t xml:space="preserve">1.53412902355194</t>
   </si>
   <si>
     <t xml:space="preserve">1.53764271736145</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">1.54537308216095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54607605934143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53272354602814</t>
+    <t xml:space="preserve">1.54607617855072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53272366523743</t>
   </si>
   <si>
     <t xml:space="preserve">1.55732011795044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52920973300934</t>
+    <t xml:space="preserve">1.52920985221863</t>
   </si>
   <si>
     <t xml:space="preserve">1.52358770370483</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">1.59526932239532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58964729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58753907680511</t>
+    <t xml:space="preserve">1.58964741230011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58753895759583</t>
   </si>
   <si>
     <t xml:space="preserve">1.57137560844421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61494672298431</t>
+    <t xml:space="preserve">1.6149468421936</t>
   </si>
   <si>
     <t xml:space="preserve">1.61283838748932</t>
@@ -2018,10 +2018,10 @@
     <t xml:space="preserve">1.6311103105545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63743495941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6599235534668</t>
+    <t xml:space="preserve">1.63743507862091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65992343425751</t>
   </si>
   <si>
     <t xml:space="preserve">1.66273438930511</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">1.6620317697525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67327606678009</t>
+    <t xml:space="preserve">1.6732759475708</t>
   </si>
   <si>
     <t xml:space="preserve">1.68100619316101</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.67819511890411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6500848531723</t>
+    <t xml:space="preserve">1.65008473396301</t>
   </si>
   <si>
     <t xml:space="preserve">1.69927799701691</t>
@@ -2051,16 +2051,16 @@
     <t xml:space="preserve">1.69225060939789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64727389812469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65500402450562</t>
+    <t xml:space="preserve">1.64727377891541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6550041437149</t>
   </si>
   <si>
     <t xml:space="preserve">1.6943587064743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66062605381012</t>
+    <t xml:space="preserve">1.66062617301941</t>
   </si>
   <si>
     <t xml:space="preserve">1.62127149105072</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">1.60089147090912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60510778427124</t>
+    <t xml:space="preserve">1.60510790348053</t>
   </si>
   <si>
     <t xml:space="preserve">1.61354124546051</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">1.55169796943665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58472800254822</t>
+    <t xml:space="preserve">1.58472788333893</t>
   </si>
   <si>
     <t xml:space="preserve">1.59386372566223</t>
@@ -2105,37 +2105,34 @@
     <t xml:space="preserve">1.63251566886902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62619066238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6268937587738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321840763092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64305710792542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65851771831512</t>
+    <t xml:space="preserve">1.62619078159332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63321828842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6430572271347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65851759910583</t>
   </si>
   <si>
     <t xml:space="preserve">1.67960071563721</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7020890712738</t>
+    <t xml:space="preserve">1.70208895206451</t>
   </si>
   <si>
     <t xml:space="preserve">1.69857549667358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69716989994049</t>
+    <t xml:space="preserve">1.69717001914978</t>
   </si>
   <si>
     <t xml:space="preserve">1.6845201253891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69084489345551</t>
+    <t xml:space="preserve">1.69084501266479</t>
   </si>
   <si>
     <t xml:space="preserve">1.7133332490921</t>
@@ -2150,7 +2147,7 @@
     <t xml:space="preserve">1.6838173866272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6964670419693</t>
+    <t xml:space="preserve">1.69646692276001</t>
   </si>
   <si>
     <t xml:space="preserve">1.7056028842926</t>
@@ -2165,7 +2162,7 @@
     <t xml:space="preserve">1.66765367984772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66624808311462</t>
+    <t xml:space="preserve">1.66624820232391</t>
   </si>
   <si>
     <t xml:space="preserve">1.65570664405823</t>
@@ -2186,7 +2183,7 @@
     <t xml:space="preserve">1.7231719493866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73793005943298</t>
+    <t xml:space="preserve">1.73792994022369</t>
   </si>
   <si>
     <t xml:space="preserve">1.76885151863098</t>
@@ -2207,7 +2204,7 @@
     <t xml:space="preserve">1.77447378635406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78220415115356</t>
+    <t xml:space="preserve">1.78220403194427</t>
   </si>
   <si>
     <t xml:space="preserve">1.77236533164978</t>
@@ -2216,10 +2213,10 @@
     <t xml:space="preserve">1.75760722160339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78782618045807</t>
+    <t xml:space="preserve">1.78431212902069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78782606124878</t>
   </si>
   <si>
     <t xml:space="preserve">1.79204261302948</t>
@@ -2231,7 +2228,7 @@
     <t xml:space="preserve">1.83280289173126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82858622074127</t>
+    <t xml:space="preserve">1.82858633995056</t>
   </si>
   <si>
     <t xml:space="preserve">1.83842492103577</t>
@@ -2240,16 +2237,16 @@
     <t xml:space="preserve">1.87075185775757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85599398612976</t>
+    <t xml:space="preserve">1.85599410533905</t>
   </si>
   <si>
     <t xml:space="preserve">1.84756088256836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86091315746307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82788372039795</t>
+    <t xml:space="preserve">1.86091327667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82788360118866</t>
   </si>
   <si>
     <t xml:space="preserve">1.82155859470367</t>
@@ -2270,7 +2267,7 @@
     <t xml:space="preserve">1.86442708969116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85739958286285</t>
+    <t xml:space="preserve">1.85739946365356</t>
   </si>
   <si>
     <t xml:space="preserve">1.81593656539917</t>
@@ -2279,7 +2276,7 @@
     <t xml:space="preserve">1.79133987426758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81804490089417</t>
+    <t xml:space="preserve">1.81804478168488</t>
   </si>
   <si>
     <t xml:space="preserve">1.81101715564728</t>
@@ -2294,10 +2291,10 @@
     <t xml:space="preserve">1.79415094852448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80680084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82436978816986</t>
+    <t xml:space="preserve">1.80680072307587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82436966896057</t>
   </si>
   <si>
     <t xml:space="preserve">1.87918519973755</t>
@@ -2309,7 +2306,7 @@
     <t xml:space="preserve">1.90307915210724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94102823734283</t>
+    <t xml:space="preserve">1.94102835655212</t>
   </si>
   <si>
     <t xml:space="preserve">1.87637388706207</t>
@@ -2336,10 +2333,10 @@
     <t xml:space="preserve">1.80047571659088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78642058372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77587926387787</t>
+    <t xml:space="preserve">1.78642070293427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77587914466858</t>
   </si>
   <si>
     <t xml:space="preserve">1.75057971477509</t>
@@ -2354,460 +2351,463 @@
     <t xml:space="preserve">1.7569043636322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75831031799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73230791091919</t>
+    <t xml:space="preserve">1.75831019878387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7323077917099</t>
   </si>
   <si>
     <t xml:space="preserve">1.74144375324249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71895551681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7372270822525</t>
+    <t xml:space="preserve">1.7189553976059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73722720146179</t>
   </si>
   <si>
     <t xml:space="preserve">1.72598302364349</t>
   </si>
   <si>
+    <t xml:space="preserve">1.70068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68592536449432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7126305103302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.731605052948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71825265884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74847137928009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82507240772247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85950779914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6936559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6346241235733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57980847358704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55591464042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52499318122864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50953245162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45050036907196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41325390338898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30010938644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28043210506439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27164745330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19469511508942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25970053672791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26637673377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32540881633759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37530481815338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43855333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44277000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41676783561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48423302173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48844945430756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57559216022491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53975117206573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51164066791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57418644428253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54888713359833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55310356616974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61635220050812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60229682922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61213564872742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54045391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51234340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51937115192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53483164310455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57699739933014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54326510429382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51796567440033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59761190414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47028791904449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46498274803162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45664608478546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47862458229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51272928714752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53091835975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54759180545807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56881237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51879215240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55365467071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60973799228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64460051059723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66733694076538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72342002391815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71129393577576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65975797176361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005327224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60670638084412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61125361919403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58548581600189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63853740692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61883246898651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62337970733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62186396121979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59154880046844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62792706489563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57487547397614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60064351558685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59306454658508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6142852306366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61276948451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59912753105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156889915466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65672659873962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63399004936218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63550591468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62489545345306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65217924118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64914774894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65521061420441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63247430324554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64611613750458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61580097675323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70977807044983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69765210151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67946290969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71432554721832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83407044410706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8568069934845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83558619022369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8280074596405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80678677558899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80981826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164941310883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84013342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85377550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85832262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83710193634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83861792087555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82194459438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81891310214996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78859746456146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76434540748596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79769241809845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82042872905731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82346022129059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82649171352386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81739723682404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80527114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75979828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76282978057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71735692024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73099863529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69007337093353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69310486316681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68704187870026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68552601337433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67491567134857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70371496677399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71584129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6840101480484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278970241547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58396983146667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54456031322479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55820214748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54607594013214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52940237522125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53394985198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49226641654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48620343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51121342182159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55062329769135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57032811641693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58851742744446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5612336397171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63702178001404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62944304943085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64308476448059</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.70068347454071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68592536449432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71263062953949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.731605052948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71825265884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74214661121368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74847137928009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82507228851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84685814380646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85950779914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6936559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63462400436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57980847358704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55591464042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52499318122864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50953233242035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45050036907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41325402259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30010938644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28043210506439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27164745330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19469511508942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25970053672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26637673377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32540881633759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37530481815338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43855345249176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44277000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41676795482635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48423314094543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48844945430756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57559216022491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53975117206573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51164066791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57418656349182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54888713359833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55310368537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61635220050812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60229682922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61213564872742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54045391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51234340667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51937103271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53483164310455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57699739933014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54326510429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51796567440033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59761190414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47028791904449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46498274803162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45664608478546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47862458229065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51272928714752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53091835975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54759180545807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56881237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51879215240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55365467071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60973799228668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64460051059723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66733694076538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72342002391815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71129393577576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65975797176361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005327224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60670638084412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61125361919403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58548581600189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63853740692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61883246898651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62337970733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62186396121979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59154880046844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62792706489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57487547397614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60064351558685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59306454658508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6142852306366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61276948451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59912753105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156889915466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65672659873962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63399004936218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63550591468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62489545345306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65217924118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64914774894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65521061420441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63247430324554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64611613750458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61580097675323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70977807044983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69765210151672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67946290969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71432554721832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83407044410706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8568069934845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83558619022369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8280074596405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80678677558899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80981826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164941310883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84013342857361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85377550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85832262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83710193634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83861792087555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82194459438324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81891310214996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78859746456146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76434540748596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79769241809845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82042872905731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82346022129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82649171352386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81739723682404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80527114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75979828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76282978057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71735692024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73099863529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69007337093353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69310486316681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68704187870026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68552601337433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67491567134857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70371496677399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71584129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6840101480484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278970241547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58396983146667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54456031322479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55820214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54607594013214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52940237522125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53394985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49226641654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48620343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51121342182159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55062329769135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57032811641693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58851742744446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5612336397171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63702178001404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62944304943085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64308476448059</t>
   </si>
   <si>
     <t xml:space="preserve">1.7219043970108</t>
@@ -28819,7 +28819,7 @@
         <v>2.31500005722046</v>
       </c>
       <c r="G935" t="s">
-        <v>698</v>
+        <v>633</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28845,7 +28845,7 @@
         <v>2.32399988174438</v>
       </c>
       <c r="G936" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28871,7 +28871,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G937" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28897,7 +28897,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G938" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -28923,7 +28923,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G939" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28949,7 +28949,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G940" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29001,7 +29001,7 @@
         <v>2.41700005531311</v>
       </c>
       <c r="G942" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29027,7 +29027,7 @@
         <v>2.41499996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29053,7 +29053,7 @@
         <v>2.3970000743866</v>
       </c>
       <c r="G944" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29079,7 +29079,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G945" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29105,7 +29105,7 @@
         <v>2.43799996376038</v>
       </c>
       <c r="G946" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29131,7 +29131,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G947" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29157,7 +29157,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="G948" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29183,7 +29183,7 @@
         <v>2.40700006484985</v>
       </c>
       <c r="G949" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29209,7 +29209,7 @@
         <v>2.39599990844727</v>
       </c>
       <c r="G950" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29235,7 +29235,7 @@
         <v>2.41400003433228</v>
       </c>
       <c r="G951" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29261,7 +29261,7 @@
         <v>2.42700004577637</v>
       </c>
       <c r="G952" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29287,7 +29287,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G953" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29313,7 +29313,7 @@
         <v>2.4210000038147</v>
       </c>
       <c r="G954" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29339,7 +29339,7 @@
         <v>2.37299990653992</v>
       </c>
       <c r="G955" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -29365,7 +29365,7 @@
         <v>2.37299990653992</v>
       </c>
       <c r="G956" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29417,7 +29417,7 @@
         <v>2.37100005149841</v>
       </c>
       <c r="G958" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29443,7 +29443,7 @@
         <v>2.35599994659424</v>
       </c>
       <c r="G959" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29469,7 +29469,7 @@
         <v>2.37599992752075</v>
       </c>
       <c r="G960" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29495,7 +29495,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G961" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29521,7 +29521,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G962" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29547,7 +29547,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G963" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29573,7 +29573,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G964" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29599,7 +29599,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G965" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29625,7 +29625,7 @@
         <v>2.47300004959106</v>
       </c>
       <c r="G966" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29651,7 +29651,7 @@
         <v>2.51699995994568</v>
       </c>
       <c r="G967" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29677,7 +29677,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G968" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29703,7 +29703,7 @@
         <v>2.51500010490417</v>
       </c>
       <c r="G969" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29729,7 +29729,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G970" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29755,7 +29755,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G971" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29781,7 +29781,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G972" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29807,7 +29807,7 @@
         <v>2.52500009536743</v>
       </c>
       <c r="G973" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29833,7 +29833,7 @@
         <v>2.53600001335144</v>
       </c>
       <c r="G974" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29859,7 +29859,7 @@
         <v>2.5220000743866</v>
       </c>
       <c r="G975" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29885,7 +29885,7 @@
         <v>2.50099992752075</v>
       </c>
       <c r="G976" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29911,7 +29911,7 @@
         <v>2.53900003433228</v>
       </c>
       <c r="G977" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29937,7 +29937,7 @@
         <v>2.54399991035461</v>
       </c>
       <c r="G978" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29963,7 +29963,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G979" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29989,7 +29989,7 @@
         <v>2.56500005722046</v>
       </c>
       <c r="G980" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30015,7 +30015,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G981" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30041,7 +30041,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G982" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30067,7 +30067,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G983" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30093,7 +30093,7 @@
         <v>2.66199994087219</v>
       </c>
       <c r="G984" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30119,7 +30119,7 @@
         <v>2.64100003242493</v>
       </c>
       <c r="G985" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30145,7 +30145,7 @@
         <v>2.62899994850159</v>
       </c>
       <c r="G986" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30171,7 +30171,7 @@
         <v>2.64800000190735</v>
       </c>
       <c r="G987" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30197,7 +30197,7 @@
         <v>2.6010000705719</v>
       </c>
       <c r="G988" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30223,7 +30223,7 @@
         <v>2.59200000762939</v>
       </c>
       <c r="G989" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30249,7 +30249,7 @@
         <v>2.6010000705719</v>
       </c>
       <c r="G990" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30275,7 +30275,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G991" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30301,7 +30301,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G992" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30327,7 +30327,7 @@
         <v>2.61500000953674</v>
       </c>
       <c r="G993" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30353,7 +30353,7 @@
         <v>2.63800001144409</v>
       </c>
       <c r="G994" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30379,7 +30379,7 @@
         <v>2.6470000743866</v>
       </c>
       <c r="G995" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30405,7 +30405,7 @@
         <v>2.65300011634827</v>
       </c>
       <c r="G996" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30431,7 +30431,7 @@
         <v>2.64299988746643</v>
       </c>
       <c r="G997" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30457,7 +30457,7 @@
         <v>2.58400011062622</v>
       </c>
       <c r="G998" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30483,7 +30483,7 @@
         <v>2.54900002479553</v>
       </c>
       <c r="G999" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30509,7 +30509,7 @@
         <v>2.58699989318848</v>
       </c>
       <c r="G1000" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30535,7 +30535,7 @@
         <v>2.57699990272522</v>
       </c>
       <c r="G1001" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30561,7 +30561,7 @@
         <v>2.60199999809265</v>
       </c>
       <c r="G1002" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30587,7 +30587,7 @@
         <v>2.55699992179871</v>
       </c>
       <c r="G1003" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30613,7 +30613,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1004" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30639,7 +30639,7 @@
         <v>2.55299997329712</v>
       </c>
       <c r="G1005" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30665,7 +30665,7 @@
         <v>2.57100009918213</v>
       </c>
       <c r="G1006" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30691,7 +30691,7 @@
         <v>2.59599995613098</v>
       </c>
       <c r="G1007" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30717,7 +30717,7 @@
         <v>2.6470000743866</v>
       </c>
       <c r="G1008" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30743,7 +30743,7 @@
         <v>2.67400002479553</v>
       </c>
       <c r="G1009" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30769,7 +30769,7 @@
         <v>2.66599988937378</v>
       </c>
       <c r="G1010" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30795,7 +30795,7 @@
         <v>2.70799994468689</v>
       </c>
       <c r="G1011" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30821,7 +30821,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G1012" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30847,7 +30847,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1013" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30873,7 +30873,7 @@
         <v>2.61700010299683</v>
       </c>
       <c r="G1014" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30899,7 +30899,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G1015" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -30925,7 +30925,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1016" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30951,7 +30951,7 @@
         <v>2.55100011825562</v>
       </c>
       <c r="G1017" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30977,7 +30977,7 @@
         <v>2.55299997329712</v>
       </c>
       <c r="G1018" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31003,7 +31003,7 @@
         <v>2.59200000762939</v>
       </c>
       <c r="G1019" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31029,7 +31029,7 @@
         <v>2.56900000572205</v>
       </c>
       <c r="G1020" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31055,7 +31055,7 @@
         <v>2.58299994468689</v>
       </c>
       <c r="G1021" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31081,7 +31081,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G1022" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31107,7 +31107,7 @@
         <v>2.54200005531311</v>
       </c>
       <c r="G1023" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31133,7 +31133,7 @@
         <v>2.52699995040894</v>
       </c>
       <c r="G1024" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31159,7 +31159,7 @@
         <v>2.4909999370575</v>
       </c>
       <c r="G1025" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31185,7 +31185,7 @@
         <v>2.48900008201599</v>
       </c>
       <c r="G1026" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31211,7 +31211,7 @@
         <v>2.49499988555908</v>
       </c>
       <c r="G1027" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31237,7 +31237,7 @@
         <v>2.5</v>
       </c>
       <c r="G1028" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31263,7 +31263,7 @@
         <v>2.51600003242493</v>
       </c>
       <c r="G1029" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31289,7 +31289,7 @@
         <v>2.50200009346008</v>
       </c>
       <c r="G1030" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31315,7 +31315,7 @@
         <v>2.46499991416931</v>
       </c>
       <c r="G1031" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31341,7 +31341,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G1032" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31367,7 +31367,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1033" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31393,7 +31393,7 @@
         <v>2.47199988365173</v>
       </c>
       <c r="G1034" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31419,7 +31419,7 @@
         <v>2.49499988555908</v>
       </c>
       <c r="G1035" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31445,7 +31445,7 @@
         <v>2.45600008964539</v>
       </c>
       <c r="G1036" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31471,7 +31471,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1037" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31497,7 +31497,7 @@
         <v>2.3989999294281</v>
       </c>
       <c r="G1038" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31523,7 +31523,7 @@
         <v>2.4210000038147</v>
       </c>
       <c r="G1039" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31549,7 +31549,7 @@
         <v>2.43700003623962</v>
       </c>
       <c r="G1040" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31575,7 +31575,7 @@
         <v>2.46399998664856</v>
       </c>
       <c r="G1041" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31601,7 +31601,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1042" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31627,7 +31627,7 @@
         <v>2.4449999332428</v>
       </c>
       <c r="G1043" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31653,7 +31653,7 @@
         <v>2.47900009155273</v>
       </c>
       <c r="G1044" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31679,7 +31679,7 @@
         <v>2.4909999370575</v>
       </c>
       <c r="G1045" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31705,7 +31705,7 @@
         <v>2.48799991607666</v>
       </c>
       <c r="G1046" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31731,7 +31731,7 @@
         <v>2.59699988365173</v>
       </c>
       <c r="G1047" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31757,7 +31757,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G1048" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31783,7 +31783,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G1049" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31809,7 +31809,7 @@
         <v>2.64599990844727</v>
       </c>
       <c r="G1050" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31835,7 +31835,7 @@
         <v>2.61700010299683</v>
       </c>
       <c r="G1051" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31861,7 +31861,7 @@
         <v>2.57100009918213</v>
       </c>
       <c r="G1052" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31887,7 +31887,7 @@
         <v>2.44400000572205</v>
       </c>
       <c r="G1053" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31913,7 +31913,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1054" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31939,7 +31939,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1055" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31965,7 +31965,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1056" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31991,7 +31991,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1057" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32017,7 +32017,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1058" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32043,7 +32043,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1059" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32069,7 +32069,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1060" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32095,7 +32095,7 @@
         <v>2.06399989128113</v>
       </c>
       <c r="G1061" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32121,7 +32121,7 @@
         <v>2.01099991798401</v>
       </c>
       <c r="G1062" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32147,7 +32147,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G1063" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32173,7 +32173,7 @@
         <v>1.82200002670288</v>
       </c>
       <c r="G1064" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32199,7 +32199,7 @@
         <v>1.80949997901917</v>
       </c>
       <c r="G1065" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32225,7 +32225,7 @@
         <v>1.70000004768372</v>
       </c>
       <c r="G1066" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32251,7 +32251,7 @@
         <v>1.79250001907349</v>
       </c>
       <c r="G1067" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32277,7 +32277,7 @@
         <v>1.80200004577637</v>
       </c>
       <c r="G1068" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32303,7 +32303,7 @@
         <v>1.8860000371933</v>
       </c>
       <c r="G1069" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32329,7 +32329,7 @@
         <v>1.95700001716614</v>
       </c>
       <c r="G1070" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32355,7 +32355,7 @@
         <v>2.04699993133545</v>
       </c>
       <c r="G1071" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32381,7 +32381,7 @@
         <v>2.05299997329712</v>
       </c>
       <c r="G1072" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32407,7 +32407,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G1073" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32433,7 +32433,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G1074" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32459,7 +32459,7 @@
         <v>2.11800003051758</v>
       </c>
       <c r="G1075" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32485,7 +32485,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1076" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32511,7 +32511,7 @@
         <v>2.19099998474121</v>
       </c>
       <c r="G1077" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32537,7 +32537,7 @@
         <v>2.15100002288818</v>
       </c>
       <c r="G1078" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32563,7 +32563,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1079" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32589,7 +32589,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1080" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32615,7 +32615,7 @@
         <v>2.2039999961853</v>
       </c>
       <c r="G1081" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32641,7 +32641,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1082" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32667,7 +32667,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1083" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32693,7 +32693,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1084" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32719,7 +32719,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1085" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32745,7 +32745,7 @@
         <v>2.33800005912781</v>
       </c>
       <c r="G1086" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32771,7 +32771,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G1087" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32797,7 +32797,7 @@
         <v>2.19199991226196</v>
       </c>
       <c r="G1088" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32823,7 +32823,7 @@
         <v>2.15199995040894</v>
       </c>
       <c r="G1089" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32849,7 +32849,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G1090" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32875,7 +32875,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1091" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32901,7 +32901,7 @@
         <v>2.21399998664856</v>
       </c>
       <c r="G1092" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33031,7 +33031,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1097" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33057,7 +33057,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G1098" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33083,7 +33083,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1099" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33135,7 +33135,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1101" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33161,7 +33161,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1102" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33187,7 +33187,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G1103" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33291,7 +33291,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1107" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33317,7 +33317,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1108" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33369,7 +33369,7 @@
         <v>2.10800004005432</v>
       </c>
       <c r="G1110" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33395,7 +33395,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G1111" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33421,7 +33421,7 @@
         <v>1.93299996852875</v>
       </c>
       <c r="G1112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33447,7 +33447,7 @@
         <v>1.92200005054474</v>
       </c>
       <c r="G1113" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33473,7 +33473,7 @@
         <v>1.95099997520447</v>
       </c>
       <c r="G1114" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33499,7 +33499,7 @@
         <v>1.99600005149841</v>
       </c>
       <c r="G1115" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33525,7 +33525,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1116" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33551,7 +33551,7 @@
         <v>2.04200005531311</v>
       </c>
       <c r="G1117" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33577,7 +33577,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1118" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33603,7 +33603,7 @@
         <v>2.00399994850159</v>
       </c>
       <c r="G1119" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33629,7 +33629,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1120" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33655,7 +33655,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1121" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33681,7 +33681,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1122" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33707,7 +33707,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1123" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33733,7 +33733,7 @@
         <v>2.2739999294281</v>
       </c>
       <c r="G1124" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33759,7 +33759,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G1125" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33785,7 +33785,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1126" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33811,7 +33811,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G1127" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33837,7 +33837,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1128" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33863,7 +33863,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1129" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33889,7 +33889,7 @@
         <v>2.09200000762939</v>
       </c>
       <c r="G1130" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33915,7 +33915,7 @@
         <v>2.16199994087219</v>
       </c>
       <c r="G1131" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33941,7 +33941,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G1132" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33967,7 +33967,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1133" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33993,7 +33993,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1134" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34019,7 +34019,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1135" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34045,7 +34045,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1136" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34071,7 +34071,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G1137" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34097,7 +34097,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G1138" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34123,7 +34123,7 @@
         <v>2.10199999809265</v>
       </c>
       <c r="G1139" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34149,7 +34149,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1140" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34175,7 +34175,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1141" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34201,7 +34201,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1142" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34227,7 +34227,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1143" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34253,7 +34253,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1144" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34279,7 +34279,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1145" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34305,7 +34305,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1146" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34331,7 +34331,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G1147" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34357,7 +34357,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G1148" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34383,7 +34383,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1149" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34409,7 +34409,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1150" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34435,7 +34435,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G1151" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34461,7 +34461,7 @@
         <v>2.14400005340576</v>
       </c>
       <c r="G1152" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34487,7 +34487,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1153" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34513,7 +34513,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1154" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34539,7 +34539,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1155" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34565,7 +34565,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1156" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34591,7 +34591,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1157" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34617,7 +34617,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1158" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34643,7 +34643,7 @@
         <v>2.14800000190735</v>
       </c>
       <c r="G1159" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34669,7 +34669,7 @@
         <v>2.15400004386902</v>
       </c>
       <c r="G1160" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34695,7 +34695,7 @@
         <v>2.16599988937378</v>
       </c>
       <c r="G1161" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34721,7 +34721,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1162" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34747,7 +34747,7 @@
         <v>2.13199996948242</v>
       </c>
       <c r="G1163" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34773,7 +34773,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1164" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34799,7 +34799,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1165" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34825,7 +34825,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1166" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34851,7 +34851,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1167" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34877,7 +34877,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1168" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34903,7 +34903,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1169" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34929,7 +34929,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34955,7 +34955,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1171" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34981,7 +34981,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1172" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35007,7 +35007,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1173" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35033,7 +35033,7 @@
         <v>2.41199994087219</v>
       </c>
       <c r="G1174" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35059,7 +35059,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1175" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35085,7 +35085,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1176" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35111,7 +35111,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1177" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35137,7 +35137,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1178" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35163,7 +35163,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1179" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35189,7 +35189,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1180" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35215,7 +35215,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1181" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35241,7 +35241,7 @@
         <v>2.45199990272522</v>
       </c>
       <c r="G1182" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35267,7 +35267,7 @@
         <v>2.42400002479553</v>
       </c>
       <c r="G1183" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35293,7 +35293,7 @@
         <v>2.42600011825562</v>
       </c>
       <c r="G1184" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35319,7 +35319,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1185" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35345,7 +35345,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1186" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35371,7 +35371,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1187" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35397,7 +35397,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1188" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35423,7 +35423,7 @@
         <v>2.32800006866455</v>
       </c>
       <c r="G1189" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35449,7 +35449,7 @@
         <v>2.37199997901917</v>
       </c>
       <c r="G1190" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35475,7 +35475,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1191" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35501,7 +35501,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1192" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35527,7 +35527,7 @@
         <v>2.40599989891052</v>
       </c>
       <c r="G1193" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35553,7 +35553,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1194" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35579,7 +35579,7 @@
         <v>2.40199995040894</v>
       </c>
       <c r="G1195" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35605,7 +35605,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1196" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35631,7 +35631,7 @@
         <v>2.39800000190735</v>
       </c>
       <c r="G1197" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35657,7 +35657,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1198" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35683,7 +35683,7 @@
         <v>2.38199996948242</v>
       </c>
       <c r="G1199" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35709,7 +35709,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G1200" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35735,7 +35735,7 @@
         <v>2.32599997520447</v>
       </c>
       <c r="G1201" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35761,7 +35761,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1202" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35787,7 +35787,7 @@
         <v>2.28399991989136</v>
       </c>
       <c r="G1203" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35813,7 +35813,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1204" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35839,7 +35839,7 @@
         <v>2.25799989700317</v>
       </c>
       <c r="G1205" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35865,7 +35865,7 @@
         <v>2.23399996757507</v>
       </c>
       <c r="G1206" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35891,7 +35891,7 @@
         <v>2.2260000705719</v>
       </c>
       <c r="G1207" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35917,7 +35917,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1208" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35943,7 +35943,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1209" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35969,7 +35969,7 @@
         <v>2.24799990653992</v>
       </c>
       <c r="G1210" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35995,7 +35995,7 @@
         <v>2.26399993896484</v>
       </c>
       <c r="G1211" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36021,7 +36021,7 @@
         <v>2.22199988365173</v>
       </c>
       <c r="G1212" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36047,7 +36047,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1213" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36073,7 +36073,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36099,7 +36099,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1215" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36125,7 +36125,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1216" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36151,7 +36151,7 @@
         <v>2.15400004386902</v>
       </c>
       <c r="G1217" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36177,7 +36177,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1218" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36203,7 +36203,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1219" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36229,7 +36229,7 @@
         <v>2.07800006866455</v>
       </c>
       <c r="G1220" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36255,7 +36255,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G1221" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36281,7 +36281,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G1222" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36307,7 +36307,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1223" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36333,7 +36333,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1224" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36359,7 +36359,7 @@
         <v>2.0239999294281</v>
       </c>
       <c r="G1225" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36385,7 +36385,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G1226" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36411,7 +36411,7 @@
         <v>1.96899998188019</v>
       </c>
       <c r="G1227" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36437,7 +36437,7 @@
         <v>1.96099996566772</v>
       </c>
       <c r="G1228" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36463,7 +36463,7 @@
         <v>1.99399995803833</v>
       </c>
       <c r="G1229" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36489,7 +36489,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G1230" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36515,7 +36515,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G1231" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36541,7 +36541,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G1232" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36567,7 +36567,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1233" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36593,7 +36593,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1234" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36619,7 +36619,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36645,7 +36645,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36671,7 +36671,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1237" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36697,7 +36697,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G1238" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36723,7 +36723,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G1239" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36749,7 +36749,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1240" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36775,7 +36775,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1241" t="s">
-        <v>786</v>
+        <v>931</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36827,7 +36827,7 @@
         <v>2.24399995803833</v>
       </c>
       <c r="G1243" t="s">
-        <v>786</v>
+        <v>931</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -37061,7 +37061,7 @@
         <v>2.25600004196167</v>
       </c>
       <c r="G1252" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37113,7 +37113,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1254" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37139,7 +37139,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1255" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37165,7 +37165,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G1256" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37243,7 +37243,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1259" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37269,7 +37269,7 @@
         <v>2.17600011825562</v>
       </c>
       <c r="G1260" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37295,7 +37295,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G1261" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37373,7 +37373,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1264" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37399,7 +37399,7 @@
         <v>2.15599989891052</v>
       </c>
       <c r="G1265" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37425,7 +37425,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G1266" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37529,7 +37529,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1270" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37607,7 +37607,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1273" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37685,7 +37685,7 @@
         <v>2.26200008392334</v>
       </c>
       <c r="G1276" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37711,7 +37711,7 @@
         <v>2.22399997711182</v>
       </c>
       <c r="G1277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37763,7 +37763,7 @@
         <v>2.21600008010864</v>
       </c>
       <c r="G1279" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37789,7 +37789,7 @@
         <v>2.19400000572205</v>
       </c>
       <c r="G1280" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37815,7 +37815,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1281" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37841,7 +37841,7 @@
         <v>2.16400003433228</v>
       </c>
       <c r="G1282" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37867,7 +37867,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G1283" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37893,7 +37893,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1284" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37919,7 +37919,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G1285" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37945,7 +37945,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1286" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37971,7 +37971,7 @@
         <v>2.14199995994568</v>
       </c>
       <c r="G1287" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37997,7 +37997,7 @@
         <v>2.12400007247925</v>
       </c>
       <c r="G1288" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38023,7 +38023,7 @@
         <v>2.12800002098083</v>
       </c>
       <c r="G1289" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38049,7 +38049,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1290" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38101,7 +38101,7 @@
         <v>2.12599992752075</v>
       </c>
       <c r="G1292" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38127,7 +38127,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1293" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38153,7 +38153,7 @@
         <v>2.26600003242493</v>
       </c>
       <c r="G1294" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38257,7 +38257,7 @@
         <v>2.3840000629425</v>
       </c>
       <c r="G1298" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38283,7 +38283,7 @@
         <v>2.38800001144409</v>
       </c>
       <c r="G1299" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38387,7 +38387,7 @@
         <v>2.42799997329712</v>
       </c>
       <c r="G1303" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38413,7 +38413,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1304" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38465,7 +38465,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G1306" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38491,7 +38491,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1307" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38517,7 +38517,7 @@
         <v>2.44600009918213</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38569,7 +38569,7 @@
         <v>2.40400004386902</v>
       </c>
       <c r="G1310" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -60677,7 +60677,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6497800926</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>2564120</v>
@@ -60698,6 +60698,32 @@
         <v>1381</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493865741</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>611933</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>2.53200006484985</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>
